--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8436AFC-F93D-7D4D-9730-06CC7AC72DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1C365-18F3-904E-BFCF-1B4A2C9F5F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="110">
   <si>
     <t>No.</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>Login Id / UserName</t>
   </si>
   <si>
     <t>FirstName</t>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>ShippingAddress</t>
-  </si>
-  <si>
-    <t>ShippingCity</t>
   </si>
   <si>
     <t>PaymentType</t>
@@ -333,16 +327,7 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Orders</t>
-  </si>
-  <si>
-    <t>OrderDetails</t>
-  </si>
-  <si>
     <t>Hiển thị tất cả các nhà cung cấp có tên là: (SONY, SAMSUNG, TOSHIBA, APPLE)</t>
-  </si>
-  <si>
-    <t>COLLECTION: Categories</t>
   </si>
   <si>
     <t>COLLECTION: Suppliers</t>
@@ -367,6 +352,18 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>COLLECTION: xxx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Orders -&gt; OrderDetails</t>
   </si>
 </sst>
 </file>
@@ -746,10 +743,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -760,12 +763,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1085,10 +1082,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z885"/>
+  <dimension ref="A1:Z884"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A36" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1134,13 +1131,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
-        <v>102</v>
+      <c r="A2" s="92" t="s">
+        <v>106</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1217,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -1255,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
@@ -1293,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6" s="8">
         <v>500</v>
@@ -1352,8 +1351,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
-        <v>103</v>
+      <c r="A8" s="95" t="s">
+        <v>98</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
@@ -1435,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -1473,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="19">
         <v>100</v>
@@ -1509,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="19">
         <v>50</v>
@@ -1547,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D13" s="19">
         <v>50</v>
@@ -1585,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D14" s="19">
         <v>500</v>
@@ -1642,8 +1641,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94" t="s">
-        <v>104</v>
+      <c r="A16" s="96" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
@@ -1725,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D18" s="27">
         <v>50</v>
@@ -1736,9 +1735,7 @@
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="I18" s="25"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1762,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D19" s="31">
         <v>50</v>
@@ -1798,10 +1795,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D20" s="31">
         <v>50</v>
@@ -1837,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D21" s="31">
         <v>50</v>
@@ -1875,7 +1872,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D22" s="31">
         <v>500</v>
@@ -1911,7 +1908,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D23" s="31">
         <v>50</v>
@@ -1946,10 +1943,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="32" t="s">
@@ -2006,8 +2003,8 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92" t="s">
-        <v>105</v>
+      <c r="A26" s="94" t="s">
+        <v>100</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90"/>
@@ -2089,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="37">
         <v>50</v>
@@ -2100,9 +2097,7 @@
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
-      <c r="I28" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="I28" s="35"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2126,10 +2121,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D29" s="41">
         <v>50</v>
@@ -2162,10 +2157,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D30" s="41">
         <v>50</v>
@@ -2201,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D31" s="41">
         <v>50</v>
@@ -2239,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D32" s="41">
         <v>500</v>
@@ -2275,7 +2270,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D33" s="41">
         <v>50</v>
@@ -2310,10 +2305,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
@@ -2370,8 +2365,8 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="91" t="s">
-        <v>106</v>
+      <c r="A36" s="93" t="s">
+        <v>101</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -2453,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="48"/>
@@ -2491,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D39" s="51">
         <v>50</v>
@@ -2524,10 +2519,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
@@ -2536,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="1"/>
@@ -2562,10 +2557,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="54"/>
       <c r="E41" s="55"/>
@@ -2574,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="1"/>
@@ -2600,10 +2595,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="54"/>
       <c r="E42" s="55"/>
@@ -2636,19 +2631,19 @@
         <v>6</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D43" s="54"/>
       <c r="E43" s="55"/>
       <c r="F43" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" s="49"/>
       <c r="H43" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="1"/>
@@ -2674,19 +2669,19 @@
         <v>7</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D44" s="54"/>
       <c r="E44" s="55"/>
       <c r="F44" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="1"/>
@@ -2715,10 +2710,10 @@
         <v>14</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="53"/>
@@ -2772,8 +2767,8 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="95" t="s">
-        <v>107</v>
+      <c r="A47" s="89" t="s">
+        <v>102</v>
       </c>
       <c r="B47" s="90"/>
       <c r="C47" s="90"/>
@@ -2855,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D49" s="60"/>
       <c r="E49" s="61"/>
@@ -2890,19 +2885,19 @@
         <v>2</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="64"/>
       <c r="E50" s="65"/>
       <c r="F50" s="66"/>
       <c r="G50" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I50" s="62"/>
       <c r="J50" s="1"/>
@@ -2928,10 +2923,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="67"/>
       <c r="E51" s="68" t="s">
@@ -2940,7 +2935,7 @@
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
       <c r="H51" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51" s="62"/>
       <c r="J51" s="1"/>
@@ -2966,10 +2961,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D52" s="67">
         <v>50</v>
@@ -2977,10 +2972,10 @@
       <c r="E52" s="68"/>
       <c r="F52" s="66"/>
       <c r="G52" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52" s="62"/>
       <c r="J52" s="1"/>
@@ -3009,10 +3004,10 @@
         <v>14</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" s="68" t="s">
         <v>15</v>
@@ -3044,10 +3039,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D54" s="67">
         <v>500</v>
@@ -3080,18 +3075,22 @@
         <v>7</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D55" s="67">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E55" s="68"/>
       <c r="F55" s="66"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
+      <c r="G55" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="I55" s="62"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3116,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D56" s="67">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E56" s="68"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="62" t="s">
-        <v>46</v>
+      <c r="F56" s="66" t="s">
+        <v>30</v>
       </c>
+      <c r="G56" s="62"/>
       <c r="H56" s="62" t="s">
         <v>47</v>
       </c>
@@ -3159,14 +3158,14 @@
         <v>48</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D57" s="67">
         <v>50</v>
       </c>
       <c r="E57" s="68"/>
       <c r="F57" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="62" t="s">
@@ -3191,28 +3190,16 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62">
-        <v>10</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="67">
-        <v>50</v>
-      </c>
-      <c r="E58" s="68"/>
-      <c r="F58" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="62"/>
+    <row r="58" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3232,15 +3219,17 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="A59" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="69"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3260,17 +3249,33 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="96" t="s">
-        <v>108</v>
+      <c r="A60" s="70" t="s">
+        <v>0</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="69"/>
+      <c r="B60" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="70" t="s">
+        <v>8</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3289,34 +3294,26 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="70" t="s">
+    <row r="61" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="71">
         <v>1</v>
       </c>
-      <c r="C61" s="70" t="s">
-        <v>2</v>
+      <c r="B61" s="71" t="s">
+        <v>9</v>
       </c>
-      <c r="D61" s="70" t="s">
-        <v>3</v>
+      <c r="C61" s="72" t="s">
+        <v>104</v>
       </c>
-      <c r="E61" s="70" t="s">
-        <v>4</v>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="75" t="s">
+        <v>10</v>
       </c>
-      <c r="F61" s="70" t="s">
-        <v>5</v>
+      <c r="G61" s="75"/>
+      <c r="H61" s="58" t="s">
+        <v>11</v>
       </c>
-      <c r="G61" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="70" t="s">
-        <v>8</v>
-      </c>
+      <c r="I61" s="75"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3336,25 +3333,25 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="71">
-        <v>1</v>
+      <c r="A62" s="76">
+        <v>2</v>
       </c>
-      <c r="B62" s="71" t="s">
-        <v>9</v>
+      <c r="B62" s="76" t="s">
+        <v>50</v>
       </c>
-      <c r="C62" s="72" t="s">
-        <v>109</v>
+      <c r="C62" s="77" t="s">
+        <v>104</v>
       </c>
-      <c r="D62" s="73"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="75" t="s">
-        <v>10</v>
+      <c r="D62" s="78"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="76" t="s">
+        <v>30</v>
       </c>
-      <c r="G62" s="75"/>
-      <c r="H62" s="58" t="s">
-        <v>11</v>
+      <c r="G62" s="76"/>
+      <c r="H62" s="62" t="s">
+        <v>51</v>
       </c>
-      <c r="I62" s="75"/>
+      <c r="I62" s="76"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3375,18 +3372,18 @@
     </row>
     <row r="63" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="76" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="79"/>
       <c r="F63" s="76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" s="76"/>
       <c r="H63" s="62" t="s">
@@ -3413,23 +3410,19 @@
     </row>
     <row r="64" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C64" s="77" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="D64" s="78"/>
       <c r="E64" s="79"/>
-      <c r="F64" s="76" t="s">
-        <v>31</v>
-      </c>
+      <c r="F64" s="76"/>
       <c r="G64" s="76"/>
-      <c r="H64" s="62" t="s">
-        <v>55</v>
-      </c>
+      <c r="H64" s="62"/>
       <c r="I64" s="76"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3451,13 +3444,13 @@
     </row>
     <row r="65" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C65" s="77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="78"/>
       <c r="E65" s="79"/>
@@ -3483,16 +3476,22 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+    <row r="66" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="76">
+        <v>6</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="78"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="76"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3735,33 +3734,33 @@
       <c r="Y74" s="80"/>
       <c r="Z74" s="80"/>
     </row>
-    <row r="75" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="80"/>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80"/>
-      <c r="Q75" s="80"/>
-      <c r="R75" s="80"/>
-      <c r="S75" s="80"/>
-      <c r="T75" s="80"/>
-      <c r="U75" s="80"/>
-      <c r="V75" s="80"/>
-      <c r="W75" s="80"/>
-      <c r="X75" s="80"/>
-      <c r="Y75" s="80"/>
-      <c r="Z75" s="80"/>
+    <row r="75" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
@@ -26415,38 +26414,10 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A885" s="1"/>
-      <c r="B885" s="1"/>
-      <c r="C885" s="1"/>
-      <c r="D885" s="1"/>
-      <c r="E885" s="1"/>
-      <c r="F885" s="1"/>
-      <c r="G885" s="1"/>
-      <c r="H885" s="1"/>
-      <c r="I885" s="1"/>
-      <c r="J885" s="1"/>
-      <c r="K885" s="1"/>
-      <c r="L885" s="1"/>
-      <c r="M885" s="1"/>
-      <c r="N885" s="1"/>
-      <c r="O885" s="1"/>
-      <c r="P885" s="1"/>
-      <c r="Q885" s="1"/>
-      <c r="R885" s="1"/>
-      <c r="S885" s="1"/>
-      <c r="T885" s="1"/>
-      <c r="U885" s="1"/>
-      <c r="V885" s="1"/>
-      <c r="W885" s="1"/>
-      <c r="X885" s="1"/>
-      <c r="Y885" s="1"/>
-      <c r="Z885" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A26:E26"/>
@@ -26463,9 +26434,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26475,10 +26448,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="83"/>
       <c r="D1" s="83"/>
@@ -26510,7 +26483,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -26542,7 +26515,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
@@ -26574,7 +26547,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -26606,7 +26579,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -26638,7 +26611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
@@ -26670,7 +26643,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
@@ -26698,75 +26671,75 @@
       <c r="Z7" s="80"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="84">
-        <v>7</v>
+      <c r="A8" s="81" t="s">
+        <v>56</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>100</v>
+      <c r="B8" s="82" t="s">
+        <v>57</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="86">
+        <v>1</v>
+      </c>
+      <c r="B9" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -26795,10 +26768,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -26827,10 +26800,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -26859,10 +26832,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -26891,10 +26864,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
@@ -26923,10 +26896,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>65</v>
+      <c r="B15" s="88" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
@@ -26955,10 +26928,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
@@ -26987,10 +26960,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="86">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="B17" s="88" t="s">
-        <v>67</v>
+      <c r="B17" s="87" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
@@ -27019,10 +26992,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="86">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="B18" s="87" t="s">
-        <v>68</v>
+      <c r="B18" s="88" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
@@ -27051,10 +27024,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
@@ -27083,10 +27056,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="86">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
@@ -27115,10 +27088,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
@@ -27147,10 +27120,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="86">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="B22" s="88" t="s">
-        <v>72</v>
+      <c r="B22" s="87" t="s">
+        <v>71</v>
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
@@ -27179,10 +27152,10 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="86">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
@@ -27211,10 +27184,10 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
@@ -27243,10 +27216,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="86">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
@@ -27275,10 +27248,10 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="86">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -27307,10 +27280,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="86">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
@@ -27339,10 +27312,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="86">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="80"/>
@@ -27371,10 +27344,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
@@ -27403,10 +27376,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="86">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
@@ -27435,10 +27408,10 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
@@ -27467,10 +27440,10 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="86">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -27499,10 +27472,10 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="86">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="80"/>
@@ -27531,10 +27504,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="86">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
@@ -27563,10 +27536,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="86">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
@@ -27595,10 +27568,10 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="86">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="80"/>
@@ -27627,10 +27600,10 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="86">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="80"/>
@@ -27659,10 +27632,10 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="86">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="80"/>
@@ -27691,10 +27664,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="86">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="80"/>
@@ -27723,10 +27696,10 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="86">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="80"/>
@@ -27755,10 +27728,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="86">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
@@ -27787,10 +27760,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="86">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
@@ -27818,12 +27791,8 @@
       <c r="Z42" s="80"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="86">
-        <v>34</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>92</v>
-      </c>
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
@@ -54841,35 +54810,8 @@
       <c r="Y1007" s="80"/>
       <c r="Z1007" s="80"/>
     </row>
-    <row r="1008" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1008" s="80"/>
-      <c r="B1008" s="80"/>
-      <c r="C1008" s="80"/>
-      <c r="D1008" s="80"/>
-      <c r="E1008" s="80"/>
-      <c r="F1008" s="80"/>
-      <c r="G1008" s="80"/>
-      <c r="H1008" s="80"/>
-      <c r="I1008" s="80"/>
-      <c r="J1008" s="80"/>
-      <c r="K1008" s="80"/>
-      <c r="L1008" s="80"/>
-      <c r="M1008" s="80"/>
-      <c r="N1008" s="80"/>
-      <c r="O1008" s="80"/>
-      <c r="P1008" s="80"/>
-      <c r="Q1008" s="80"/>
-      <c r="R1008" s="80"/>
-      <c r="S1008" s="80"/>
-      <c r="T1008" s="80"/>
-      <c r="U1008" s="80"/>
-      <c r="V1008" s="80"/>
-      <c r="W1008" s="80"/>
-      <c r="X1008" s="80"/>
-      <c r="Y1008" s="80"/>
-      <c r="Z1008" s="80"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1C365-18F3-904E-BFCF-1B4A2C9F5F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4198045-7BBD-BD42-8E5C-CC1F0238C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
   <si>
     <t>No.</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Orders -&gt; OrderDetails</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:Z884"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:H44"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26436,8 +26439,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26901,7 +26904,9 @@
       <c r="B15" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="80"/>
+      <c r="C15" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
@@ -26933,7 +26938,9 @@
       <c r="B16" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D16" s="80"/>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
@@ -26965,7 +26972,9 @@
       <c r="B17" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="80"/>
+      <c r="C17" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" s="80"/>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
@@ -26997,7 +27006,9 @@
       <c r="B18" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="80"/>
+      <c r="C18" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -27029,7 +27040,9 @@
       <c r="B19" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
@@ -27061,7 +27074,9 @@
       <c r="B20" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="80"/>
+      <c r="C20" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
@@ -27093,7 +27108,9 @@
       <c r="B21" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="80"/>
+      <c r="C21" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF6AB2-B985-7440-B4D5-76E2DD323E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E8380-4FD4-C547-979C-47B4101DAD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,42 +588,50 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1129,32 +1137,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1263,6 +1245,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1583,8 +1591,8 @@
   </sheetPr>
   <dimension ref="A2:Z900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" activeCellId="1" sqref="B96 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1821,109 +1829,109 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112">
+    <row r="8" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102">
         <v>4</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112" t="s">
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-    </row>
-    <row r="9" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116">
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+    </row>
+    <row r="9" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="106">
         <v>5</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-    </row>
-    <row r="10" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116">
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+    </row>
+    <row r="10" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="106">
         <v>6</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -2246,17 +2254,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2610,17 +2618,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="106"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="158"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2974,17 +2982,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3235,223 +3243,223 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="123">
+    <row r="47" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="113">
         <v>6</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="124" t="s">
+      <c r="C47" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="125"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="127" t="s">
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="123"/>
-      <c r="H47" s="127" t="s">
+      <c r="G47" s="113"/>
+      <c r="H47" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="123"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
-    </row>
-    <row r="48" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="123">
+      <c r="I47" s="113"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
+      <c r="U47" s="104"/>
+      <c r="V47" s="104"/>
+      <c r="W47" s="104"/>
+      <c r="X47" s="104"/>
+      <c r="Y47" s="104"/>
+      <c r="Z47" s="104"/>
+    </row>
+    <row r="48" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="113">
         <v>7</v>
       </c>
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="124" t="s">
+      <c r="C48" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="125"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="127" t="s">
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="123"/>
-      <c r="H48" s="127" t="s">
+      <c r="G48" s="113"/>
+      <c r="H48" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="I48" s="123"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="114"/>
-      <c r="S48" s="114"/>
-      <c r="T48" s="114"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="114"/>
-      <c r="Y48" s="114"/>
-      <c r="Z48" s="114"/>
-    </row>
-    <row r="49" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="128">
+      <c r="I48" s="113"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="104"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="104"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="U48" s="104"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="104"/>
+      <c r="X48" s="104"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="104"/>
+    </row>
+    <row r="49" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="118">
         <v>8</v>
       </c>
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="129" t="s">
+      <c r="C49" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="130" t="s">
+      <c r="D49" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="129"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="114"/>
-      <c r="S49" s="114"/>
-      <c r="T49" s="114"/>
-      <c r="U49" s="114"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="114"/>
-      <c r="Y49" s="114"/>
-      <c r="Z49" s="114"/>
-    </row>
-    <row r="50" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="118">
+      <c r="E49" s="119"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="104"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="104"/>
+    </row>
+    <row r="50" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="108">
         <v>9</v>
       </c>
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="119" t="s">
+      <c r="C50" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="120"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="118" t="s">
+      <c r="D50" s="110"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="114"/>
-      <c r="R50" s="114"/>
-      <c r="S50" s="114"/>
-      <c r="T50" s="114"/>
-      <c r="U50" s="114"/>
-      <c r="V50" s="114"/>
-      <c r="W50" s="114"/>
-      <c r="X50" s="114"/>
-      <c r="Y50" s="114"/>
-      <c r="Z50" s="114"/>
-    </row>
-    <row r="51" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="118">
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="104"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="104"/>
+      <c r="U50" s="104"/>
+      <c r="V50" s="104"/>
+      <c r="W50" s="104"/>
+      <c r="X50" s="104"/>
+      <c r="Y50" s="104"/>
+      <c r="Z50" s="104"/>
+    </row>
+    <row r="51" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="108">
         <v>10</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="122" t="s">
+      <c r="C51" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="120"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="114"/>
-      <c r="R51" s="114"/>
-      <c r="S51" s="114"/>
-      <c r="T51" s="114"/>
-      <c r="U51" s="114"/>
-      <c r="V51" s="114"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="114"/>
-      <c r="Y51" s="114"/>
-      <c r="Z51" s="114"/>
-    </row>
-    <row r="52" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="118">
+      <c r="D51" s="110"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="104"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="104"/>
+      <c r="P51" s="104"/>
+      <c r="Q51" s="104"/>
+      <c r="R51" s="104"/>
+      <c r="S51" s="104"/>
+      <c r="T51" s="104"/>
+      <c r="U51" s="104"/>
+      <c r="V51" s="104"/>
+      <c r="W51" s="104"/>
+      <c r="X51" s="104"/>
+      <c r="Y51" s="104"/>
+      <c r="Z51" s="104"/>
+    </row>
+    <row r="52" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="108">
         <v>11</v>
       </c>
-      <c r="B52" s="118" t="s">
+      <c r="B52" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="120"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="118" t="s">
+      <c r="D52" s="110"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="J52" s="114"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
-      <c r="Q52" s="114"/>
-      <c r="R52" s="114"/>
-      <c r="S52" s="114"/>
-      <c r="T52" s="114"/>
-      <c r="U52" s="114"/>
-      <c r="V52" s="114"/>
-      <c r="W52" s="114"/>
-      <c r="X52" s="114"/>
-      <c r="Y52" s="114"/>
-      <c r="Z52" s="114"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="104"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="104"/>
+      <c r="S52" s="104"/>
+      <c r="T52" s="104"/>
+      <c r="U52" s="104"/>
+      <c r="V52" s="104"/>
+      <c r="W52" s="104"/>
+      <c r="X52" s="104"/>
+      <c r="Y52" s="104"/>
+      <c r="Z52" s="104"/>
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
@@ -3482,13 +3490,13 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="162"/>
+      <c r="E54" s="162"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -3825,187 +3833,187 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="132">
+    <row r="63" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="122">
         <v>8</v>
       </c>
-      <c r="B63" s="132" t="s">
+      <c r="B63" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="133" t="s">
+      <c r="C63" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="134">
+      <c r="D63" s="124">
         <v>50</v>
       </c>
-      <c r="E63" s="135"/>
-      <c r="F63" s="136" t="s">
+      <c r="E63" s="125"/>
+      <c r="F63" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132" t="s">
+      <c r="G63" s="122"/>
+      <c r="H63" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="I63" s="132"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="114"/>
-      <c r="R63" s="114"/>
-      <c r="S63" s="114"/>
-      <c r="T63" s="114"/>
-      <c r="U63" s="114"/>
-      <c r="V63" s="114"/>
-      <c r="W63" s="114"/>
-      <c r="X63" s="114"/>
-      <c r="Y63" s="114"/>
-      <c r="Z63" s="114"/>
-    </row>
-    <row r="64" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="132">
+      <c r="I63" s="122"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
+      <c r="Y63" s="104"/>
+      <c r="Z63" s="104"/>
+    </row>
+    <row r="64" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="122">
         <v>9</v>
       </c>
-      <c r="B64" s="132" t="s">
+      <c r="B64" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="133" t="s">
+      <c r="C64" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="134">
+      <c r="D64" s="124">
         <v>50</v>
       </c>
-      <c r="E64" s="135"/>
-      <c r="F64" s="136" t="s">
+      <c r="E64" s="125"/>
+      <c r="F64" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132" t="s">
+      <c r="G64" s="122"/>
+      <c r="H64" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="I64" s="132"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114"/>
-      <c r="L64" s="114"/>
-      <c r="M64" s="114"/>
-      <c r="N64" s="114"/>
-      <c r="O64" s="114"/>
-      <c r="P64" s="114"/>
-      <c r="Q64" s="114"/>
-      <c r="R64" s="114"/>
-      <c r="S64" s="114"/>
-      <c r="T64" s="114"/>
-      <c r="U64" s="114"/>
-      <c r="V64" s="114"/>
-      <c r="W64" s="114"/>
-      <c r="X64" s="114"/>
-      <c r="Y64" s="114"/>
-      <c r="Z64" s="114"/>
-    </row>
-    <row r="65" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="132">
+      <c r="I64" s="122"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
+      <c r="Y64" s="104"/>
+      <c r="Z64" s="104"/>
+    </row>
+    <row r="65" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="122">
         <v>10</v>
       </c>
-      <c r="B65" s="132" t="s">
+      <c r="B65" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="133" t="s">
+      <c r="C65" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="134"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="136"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="114"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="114"/>
-      <c r="N65" s="114"/>
-      <c r="O65" s="114"/>
-      <c r="P65" s="114"/>
-      <c r="Q65" s="114"/>
-      <c r="R65" s="114"/>
-      <c r="S65" s="114"/>
-      <c r="T65" s="114"/>
-      <c r="U65" s="114"/>
-      <c r="V65" s="114"/>
-      <c r="W65" s="114"/>
-      <c r="X65" s="114"/>
-      <c r="Y65" s="114"/>
-      <c r="Z65" s="114"/>
-    </row>
-    <row r="66" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="132">
+      <c r="D65" s="124"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="104"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="104"/>
+      <c r="U65" s="104"/>
+      <c r="V65" s="104"/>
+      <c r="W65" s="104"/>
+      <c r="X65" s="104"/>
+      <c r="Y65" s="104"/>
+      <c r="Z65" s="104"/>
+    </row>
+    <row r="66" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="122">
         <v>12</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="133" t="s">
+      <c r="C66" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="134"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="136"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="114"/>
-      <c r="L66" s="114"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="114"/>
-      <c r="O66" s="114"/>
-      <c r="P66" s="114"/>
-      <c r="Q66" s="114"/>
-      <c r="R66" s="114"/>
-      <c r="S66" s="114"/>
-      <c r="T66" s="114"/>
-      <c r="U66" s="114"/>
-      <c r="V66" s="114"/>
-      <c r="W66" s="114"/>
-      <c r="X66" s="114"/>
-      <c r="Y66" s="114"/>
-      <c r="Z66" s="114"/>
-    </row>
-    <row r="67" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="132">
+      <c r="D66" s="124"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="104"/>
+      <c r="U66" s="104"/>
+      <c r="V66" s="104"/>
+      <c r="W66" s="104"/>
+      <c r="X66" s="104"/>
+      <c r="Y66" s="104"/>
+      <c r="Z66" s="104"/>
+    </row>
+    <row r="67" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="122">
         <v>13</v>
       </c>
-      <c r="B67" s="132" t="s">
+      <c r="B67" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="133" t="s">
+      <c r="C67" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="134"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="136"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="114"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="114"/>
-      <c r="N67" s="114"/>
-      <c r="O67" s="114"/>
-      <c r="P67" s="114"/>
-      <c r="Q67" s="114"/>
-      <c r="R67" s="114"/>
-      <c r="S67" s="114"/>
-      <c r="T67" s="114"/>
-      <c r="U67" s="114"/>
-      <c r="V67" s="114"/>
-      <c r="W67" s="114"/>
-      <c r="X67" s="114"/>
-      <c r="Y67" s="114"/>
-      <c r="Z67" s="114"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="104"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
     </row>
     <row r="68" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -4036,13 +4044,13 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="110"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
+      <c r="B69" s="162"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="162"/>
       <c r="F69" s="63"/>
       <c r="G69" s="63"/>
       <c r="H69" s="50"/>
@@ -4111,221 +4119,221 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="137">
+    <row r="71" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="127">
         <v>1</v>
       </c>
-      <c r="B71" s="137" t="s">
+      <c r="B71" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="138" t="s">
+      <c r="C71" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="139"/>
-      <c r="E71" s="140"/>
-      <c r="F71" s="141" t="s">
+      <c r="D71" s="129"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="141"/>
-      <c r="H71" s="142" t="s">
+      <c r="G71" s="131"/>
+      <c r="H71" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="141"/>
-      <c r="J71" s="114"/>
-      <c r="K71" s="114"/>
-      <c r="L71" s="114"/>
-      <c r="M71" s="114"/>
-      <c r="N71" s="114"/>
-      <c r="O71" s="114"/>
-      <c r="P71" s="114"/>
-      <c r="Q71" s="114"/>
-      <c r="R71" s="114"/>
-      <c r="S71" s="114"/>
-      <c r="T71" s="114"/>
-      <c r="U71" s="114"/>
-      <c r="V71" s="114"/>
-      <c r="W71" s="114"/>
-      <c r="X71" s="114"/>
-      <c r="Y71" s="114"/>
-      <c r="Z71" s="114"/>
-    </row>
-    <row r="72" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="143">
+      <c r="I71" s="131"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="104"/>
+      <c r="O71" s="104"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
+      <c r="R71" s="104"/>
+      <c r="S71" s="104"/>
+      <c r="T71" s="104"/>
+      <c r="U71" s="104"/>
+      <c r="V71" s="104"/>
+      <c r="W71" s="104"/>
+      <c r="X71" s="104"/>
+      <c r="Y71" s="104"/>
+      <c r="Z71" s="104"/>
+    </row>
+    <row r="72" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="133">
         <v>2</v>
       </c>
-      <c r="B72" s="143" t="s">
+      <c r="B72" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="144" t="s">
+      <c r="C72" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D72" s="145"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="143" t="s">
+      <c r="D72" s="135"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="G72" s="143"/>
-      <c r="H72" s="132" t="s">
+      <c r="G72" s="133"/>
+      <c r="H72" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="I72" s="143"/>
-      <c r="J72" s="114"/>
-      <c r="K72" s="114"/>
-      <c r="L72" s="114"/>
-      <c r="M72" s="114"/>
-      <c r="N72" s="114"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="114"/>
-      <c r="Q72" s="114"/>
-      <c r="R72" s="114"/>
-      <c r="S72" s="114"/>
-      <c r="T72" s="114"/>
-      <c r="U72" s="114"/>
-      <c r="V72" s="114"/>
-      <c r="W72" s="114"/>
-      <c r="X72" s="114"/>
-      <c r="Y72" s="114"/>
-      <c r="Z72" s="114"/>
-    </row>
-    <row r="73" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="143">
+      <c r="I72" s="133"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="104"/>
+      <c r="M72" s="104"/>
+      <c r="N72" s="104"/>
+      <c r="O72" s="104"/>
+      <c r="P72" s="104"/>
+      <c r="Q72" s="104"/>
+      <c r="R72" s="104"/>
+      <c r="S72" s="104"/>
+      <c r="T72" s="104"/>
+      <c r="U72" s="104"/>
+      <c r="V72" s="104"/>
+      <c r="W72" s="104"/>
+      <c r="X72" s="104"/>
+      <c r="Y72" s="104"/>
+      <c r="Z72" s="104"/>
+    </row>
+    <row r="73" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="133">
         <v>3</v>
       </c>
-      <c r="B73" s="143" t="s">
+      <c r="B73" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="144" t="s">
+      <c r="C73" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="145"/>
-      <c r="E73" s="146"/>
-      <c r="F73" s="143" t="s">
+      <c r="D73" s="135"/>
+      <c r="E73" s="136"/>
+      <c r="F73" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="143"/>
-      <c r="H73" s="132" t="s">
+      <c r="G73" s="133"/>
+      <c r="H73" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="I73" s="143"/>
-      <c r="J73" s="114"/>
-      <c r="K73" s="114"/>
-      <c r="L73" s="114"/>
-      <c r="M73" s="114"/>
-      <c r="N73" s="114"/>
-      <c r="O73" s="114"/>
-      <c r="P73" s="114"/>
-      <c r="Q73" s="114"/>
-      <c r="R73" s="114"/>
-      <c r="S73" s="114"/>
-      <c r="T73" s="114"/>
-      <c r="U73" s="114"/>
-      <c r="V73" s="114"/>
-      <c r="W73" s="114"/>
-      <c r="X73" s="114"/>
-      <c r="Y73" s="114"/>
-      <c r="Z73" s="114"/>
-    </row>
-    <row r="74" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="143">
+      <c r="I73" s="133"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="104"/>
+      <c r="L73" s="104"/>
+      <c r="M73" s="104"/>
+      <c r="N73" s="104"/>
+      <c r="O73" s="104"/>
+      <c r="P73" s="104"/>
+      <c r="Q73" s="104"/>
+      <c r="R73" s="104"/>
+      <c r="S73" s="104"/>
+      <c r="T73" s="104"/>
+      <c r="U73" s="104"/>
+      <c r="V73" s="104"/>
+      <c r="W73" s="104"/>
+      <c r="X73" s="104"/>
+      <c r="Y73" s="104"/>
+      <c r="Z73" s="104"/>
+    </row>
+    <row r="74" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="133">
         <v>4</v>
       </c>
-      <c r="B74" s="143" t="s">
+      <c r="B74" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="144" t="s">
+      <c r="C74" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="145"/>
-      <c r="E74" s="146"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="143"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="114"/>
-      <c r="M74" s="114"/>
-      <c r="N74" s="114"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="114"/>
-      <c r="Q74" s="114"/>
-      <c r="R74" s="114"/>
-      <c r="S74" s="114"/>
-      <c r="T74" s="114"/>
-      <c r="U74" s="114"/>
-      <c r="V74" s="114"/>
-      <c r="W74" s="114"/>
-      <c r="X74" s="114"/>
-      <c r="Y74" s="114"/>
-      <c r="Z74" s="114"/>
-    </row>
-    <row r="75" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="143">
+      <c r="D74" s="135"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="133"/>
+      <c r="G74" s="133"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="133"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="104"/>
+      <c r="M74" s="104"/>
+      <c r="N74" s="104"/>
+      <c r="O74" s="104"/>
+      <c r="P74" s="104"/>
+      <c r="Q74" s="104"/>
+      <c r="R74" s="104"/>
+      <c r="S74" s="104"/>
+      <c r="T74" s="104"/>
+      <c r="U74" s="104"/>
+      <c r="V74" s="104"/>
+      <c r="W74" s="104"/>
+      <c r="X74" s="104"/>
+      <c r="Y74" s="104"/>
+      <c r="Z74" s="104"/>
+    </row>
+    <row r="75" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="133">
         <v>5</v>
       </c>
-      <c r="B75" s="143" t="s">
+      <c r="B75" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="144" t="s">
+      <c r="C75" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="145"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="143"/>
-      <c r="H75" s="132"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
-      <c r="L75" s="114"/>
-      <c r="M75" s="114"/>
-      <c r="N75" s="114"/>
-      <c r="O75" s="114"/>
-      <c r="P75" s="114"/>
-      <c r="Q75" s="114"/>
-      <c r="R75" s="114"/>
-      <c r="S75" s="114"/>
-      <c r="T75" s="114"/>
-      <c r="U75" s="114"/>
-      <c r="V75" s="114"/>
-      <c r="W75" s="114"/>
-      <c r="X75" s="114"/>
-      <c r="Y75" s="114"/>
-      <c r="Z75" s="114"/>
-    </row>
-    <row r="76" spans="1:26" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="143">
+      <c r="D75" s="135"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="133"/>
+      <c r="G75" s="133"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="133"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="104"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="104"/>
+      <c r="O75" s="104"/>
+      <c r="P75" s="104"/>
+      <c r="Q75" s="104"/>
+      <c r="R75" s="104"/>
+      <c r="S75" s="104"/>
+      <c r="T75" s="104"/>
+      <c r="U75" s="104"/>
+      <c r="V75" s="104"/>
+      <c r="W75" s="104"/>
+      <c r="X75" s="104"/>
+      <c r="Y75" s="104"/>
+      <c r="Z75" s="104"/>
+    </row>
+    <row r="76" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="133">
         <v>6</v>
       </c>
-      <c r="B76" s="143" t="s">
+      <c r="B76" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="144" t="s">
+      <c r="C76" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="145"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="143"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="143"/>
-      <c r="J76" s="114"/>
-      <c r="K76" s="114"/>
-      <c r="L76" s="114"/>
-      <c r="M76" s="114"/>
-      <c r="N76" s="114"/>
-      <c r="O76" s="114"/>
-      <c r="P76" s="114"/>
-      <c r="Q76" s="114"/>
-      <c r="R76" s="114"/>
-      <c r="S76" s="114"/>
-      <c r="T76" s="114"/>
-      <c r="U76" s="114"/>
-      <c r="V76" s="114"/>
-      <c r="W76" s="114"/>
-      <c r="X76" s="114"/>
-      <c r="Y76" s="114"/>
-      <c r="Z76" s="114"/>
+      <c r="D76" s="135"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="133"/>
+      <c r="G76" s="133"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="133"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="104"/>
+      <c r="M76" s="104"/>
+      <c r="N76" s="104"/>
+      <c r="O76" s="104"/>
+      <c r="P76" s="104"/>
+      <c r="Q76" s="104"/>
+      <c r="R76" s="104"/>
+      <c r="S76" s="104"/>
+      <c r="T76" s="104"/>
+      <c r="U76" s="104"/>
+      <c r="V76" s="104"/>
+      <c r="W76" s="104"/>
+      <c r="X76" s="104"/>
+      <c r="Y76" s="104"/>
+      <c r="Z76" s="104"/>
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="65"/>
@@ -4356,13 +4364,13 @@
       <c r="Z77" s="65"/>
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="155"/>
+      <c r="D78" s="155"/>
+      <c r="E78" s="155"/>
       <c r="F78" s="82"/>
       <c r="G78" s="82"/>
       <c r="H78" s="81"/>
@@ -4469,213 +4477,213 @@
       <c r="Y80" s="65"/>
       <c r="Z80" s="65"/>
     </row>
-    <row r="81" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="147">
+    <row r="81" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="137">
         <v>2</v>
       </c>
-      <c r="B81" s="147" t="s">
+      <c r="B81" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="148" t="s">
+      <c r="C81" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="149"/>
-      <c r="E81" s="150"/>
-      <c r="F81" s="147"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="151"/>
-      <c r="I81" s="147"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="152"/>
-      <c r="L81" s="152"/>
-      <c r="M81" s="152"/>
-      <c r="N81" s="152"/>
-      <c r="O81" s="152"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="152"/>
-      <c r="R81" s="152"/>
-      <c r="S81" s="152"/>
-      <c r="T81" s="152"/>
-      <c r="U81" s="152"/>
-      <c r="V81" s="152"/>
-      <c r="W81" s="152"/>
-      <c r="X81" s="152"/>
-      <c r="Y81" s="152"/>
-      <c r="Z81" s="152"/>
-    </row>
-    <row r="82" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="147">
+      <c r="D81" s="139"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="137"/>
+      <c r="H81" s="141"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="142"/>
+      <c r="K81" s="142"/>
+      <c r="L81" s="142"/>
+      <c r="M81" s="142"/>
+      <c r="N81" s="142"/>
+      <c r="O81" s="142"/>
+      <c r="P81" s="142"/>
+      <c r="Q81" s="142"/>
+      <c r="R81" s="142"/>
+      <c r="S81" s="142"/>
+      <c r="T81" s="142"/>
+      <c r="U81" s="142"/>
+      <c r="V81" s="142"/>
+      <c r="W81" s="142"/>
+      <c r="X81" s="142"/>
+      <c r="Y81" s="142"/>
+      <c r="Z81" s="142"/>
+    </row>
+    <row r="82" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="137">
         <v>3</v>
       </c>
-      <c r="B82" s="147" t="s">
+      <c r="B82" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="148" t="s">
+      <c r="C82" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="149"/>
-      <c r="E82" s="150" t="s">
+      <c r="D82" s="139"/>
+      <c r="E82" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="F82" s="147"/>
-      <c r="G82" s="147"/>
-      <c r="H82" s="151"/>
-      <c r="I82" s="147"/>
-      <c r="J82" s="152"/>
-      <c r="K82" s="152"/>
-      <c r="L82" s="152"/>
-      <c r="M82" s="152"/>
-      <c r="N82" s="152"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="152"/>
-      <c r="Q82" s="152"/>
-      <c r="R82" s="152"/>
-      <c r="S82" s="152"/>
-      <c r="T82" s="152"/>
-      <c r="U82" s="152"/>
-      <c r="V82" s="152"/>
-      <c r="W82" s="152"/>
-      <c r="X82" s="152"/>
-      <c r="Y82" s="152"/>
-      <c r="Z82" s="152"/>
-    </row>
-    <row r="83" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="147">
+      <c r="F82" s="137"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="141"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="142"/>
+      <c r="L82" s="142"/>
+      <c r="M82" s="142"/>
+      <c r="N82" s="142"/>
+      <c r="O82" s="142"/>
+      <c r="P82" s="142"/>
+      <c r="Q82" s="142"/>
+      <c r="R82" s="142"/>
+      <c r="S82" s="142"/>
+      <c r="T82" s="142"/>
+      <c r="U82" s="142"/>
+      <c r="V82" s="142"/>
+      <c r="W82" s="142"/>
+      <c r="X82" s="142"/>
+      <c r="Y82" s="142"/>
+      <c r="Z82" s="142"/>
+    </row>
+    <row r="83" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="137">
         <v>4</v>
       </c>
-      <c r="B83" s="147" t="s">
+      <c r="B83" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="148" t="s">
+      <c r="C83" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="149"/>
-      <c r="E83" s="150"/>
-      <c r="F83" s="147"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="151"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="152"/>
-      <c r="K83" s="152"/>
-      <c r="L83" s="152"/>
-      <c r="M83" s="152"/>
-      <c r="N83" s="152"/>
-      <c r="O83" s="152"/>
-      <c r="P83" s="152"/>
-      <c r="Q83" s="152"/>
-      <c r="R83" s="152"/>
-      <c r="S83" s="152"/>
-      <c r="T83" s="152"/>
-      <c r="U83" s="152"/>
-      <c r="V83" s="152"/>
-      <c r="W83" s="152"/>
-      <c r="X83" s="152"/>
-      <c r="Y83" s="152"/>
-      <c r="Z83" s="152"/>
-    </row>
-    <row r="84" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="147">
+      <c r="D83" s="139"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="137"/>
+      <c r="H83" s="141"/>
+      <c r="I83" s="137"/>
+      <c r="J83" s="142"/>
+      <c r="K83" s="142"/>
+      <c r="L83" s="142"/>
+      <c r="M83" s="142"/>
+      <c r="N83" s="142"/>
+      <c r="O83" s="142"/>
+      <c r="P83" s="142"/>
+      <c r="Q83" s="142"/>
+      <c r="R83" s="142"/>
+      <c r="S83" s="142"/>
+      <c r="T83" s="142"/>
+      <c r="U83" s="142"/>
+      <c r="V83" s="142"/>
+      <c r="W83" s="142"/>
+      <c r="X83" s="142"/>
+      <c r="Y83" s="142"/>
+      <c r="Z83" s="142"/>
+    </row>
+    <row r="84" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="137">
         <v>5</v>
       </c>
-      <c r="B84" s="147" t="s">
+      <c r="B84" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="148" t="s">
+      <c r="C84" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="149"/>
-      <c r="E84" s="150"/>
-      <c r="F84" s="147"/>
-      <c r="G84" s="147"/>
-      <c r="H84" s="151"/>
-      <c r="I84" s="147"/>
-      <c r="J84" s="152"/>
-      <c r="K84" s="152"/>
-      <c r="L84" s="152"/>
-      <c r="M84" s="152"/>
-      <c r="N84" s="152"/>
-      <c r="O84" s="152"/>
-      <c r="P84" s="152"/>
-      <c r="Q84" s="152"/>
-      <c r="R84" s="152"/>
-      <c r="S84" s="152"/>
-      <c r="T84" s="152"/>
-      <c r="U84" s="152"/>
-      <c r="V84" s="152"/>
-      <c r="W84" s="152"/>
-      <c r="X84" s="152"/>
-      <c r="Y84" s="152"/>
-      <c r="Z84" s="152"/>
-    </row>
-    <row r="85" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="147">
+      <c r="D84" s="139"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="141"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="142"/>
+      <c r="K84" s="142"/>
+      <c r="L84" s="142"/>
+      <c r="M84" s="142"/>
+      <c r="N84" s="142"/>
+      <c r="O84" s="142"/>
+      <c r="P84" s="142"/>
+      <c r="Q84" s="142"/>
+      <c r="R84" s="142"/>
+      <c r="S84" s="142"/>
+      <c r="T84" s="142"/>
+      <c r="U84" s="142"/>
+      <c r="V84" s="142"/>
+      <c r="W84" s="142"/>
+      <c r="X84" s="142"/>
+      <c r="Y84" s="142"/>
+      <c r="Z84" s="142"/>
+    </row>
+    <row r="85" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="137">
         <v>6</v>
       </c>
-      <c r="B85" s="147" t="s">
+      <c r="B85" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="148" t="s">
+      <c r="C85" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="149"/>
-      <c r="E85" s="150"/>
-      <c r="F85" s="147"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="151"/>
-      <c r="I85" s="147" t="s">
+      <c r="D85" s="139"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="141"/>
+      <c r="I85" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="J85" s="152"/>
-      <c r="K85" s="152"/>
-      <c r="L85" s="152"/>
-      <c r="M85" s="152"/>
-      <c r="N85" s="152"/>
-      <c r="O85" s="152"/>
-      <c r="P85" s="152"/>
-      <c r="Q85" s="152"/>
-      <c r="R85" s="152"/>
-      <c r="S85" s="152"/>
-      <c r="T85" s="152"/>
-      <c r="U85" s="152"/>
-      <c r="V85" s="152"/>
-      <c r="W85" s="152"/>
-      <c r="X85" s="152"/>
-      <c r="Y85" s="152"/>
-      <c r="Z85" s="152"/>
-    </row>
-    <row r="86" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="147">
+      <c r="J85" s="142"/>
+      <c r="K85" s="142"/>
+      <c r="L85" s="142"/>
+      <c r="M85" s="142"/>
+      <c r="N85" s="142"/>
+      <c r="O85" s="142"/>
+      <c r="P85" s="142"/>
+      <c r="Q85" s="142"/>
+      <c r="R85" s="142"/>
+      <c r="S85" s="142"/>
+      <c r="T85" s="142"/>
+      <c r="U85" s="142"/>
+      <c r="V85" s="142"/>
+      <c r="W85" s="142"/>
+      <c r="X85" s="142"/>
+      <c r="Y85" s="142"/>
+      <c r="Z85" s="142"/>
+    </row>
+    <row r="86" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="137">
         <v>7</v>
       </c>
-      <c r="B86" s="147" t="s">
+      <c r="B86" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="148" t="s">
+      <c r="C86" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="149"/>
-      <c r="E86" s="150"/>
-      <c r="F86" s="147"/>
-      <c r="G86" s="147"/>
-      <c r="H86" s="151"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="152"/>
-      <c r="K86" s="152"/>
-      <c r="L86" s="152"/>
-      <c r="M86" s="152"/>
-      <c r="N86" s="152"/>
-      <c r="O86" s="152"/>
-      <c r="P86" s="152"/>
-      <c r="Q86" s="152"/>
-      <c r="R86" s="152"/>
-      <c r="S86" s="152"/>
-      <c r="T86" s="152"/>
-      <c r="U86" s="152"/>
-      <c r="V86" s="152"/>
-      <c r="W86" s="152"/>
-      <c r="X86" s="152"/>
-      <c r="Y86" s="152"/>
-      <c r="Z86" s="152"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="141"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="142"/>
+      <c r="K86" s="142"/>
+      <c r="L86" s="142"/>
+      <c r="M86" s="142"/>
+      <c r="N86" s="142"/>
+      <c r="O86" s="142"/>
+      <c r="P86" s="142"/>
+      <c r="Q86" s="142"/>
+      <c r="R86" s="142"/>
+      <c r="S86" s="142"/>
+      <c r="T86" s="142"/>
+      <c r="U86" s="142"/>
+      <c r="V86" s="142"/>
+      <c r="W86" s="142"/>
+      <c r="X86" s="142"/>
+      <c r="Y86" s="142"/>
+      <c r="Z86" s="142"/>
     </row>
     <row r="87" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -4706,13 +4714,13 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103"/>
+      <c r="B88" s="155"/>
+      <c r="C88" s="155"/>
+      <c r="D88" s="155"/>
+      <c r="E88" s="155"/>
       <c r="F88" s="82"/>
       <c r="G88" s="82"/>
       <c r="H88" s="81"/>
@@ -4781,415 +4789,415 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="153">
+    <row r="90" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="143">
         <v>1</v>
       </c>
-      <c r="B90" s="153" t="s">
+      <c r="B90" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="154" t="s">
+      <c r="C90" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="155"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="157" t="s">
+      <c r="D90" s="145"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="G90" s="157"/>
-      <c r="H90" s="158" t="s">
+      <c r="G90" s="147"/>
+      <c r="H90" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="I90" s="157"/>
-      <c r="J90" s="114"/>
-      <c r="K90" s="114"/>
-      <c r="L90" s="114"/>
-      <c r="M90" s="114"/>
-      <c r="N90" s="114"/>
-      <c r="O90" s="114"/>
-      <c r="P90" s="114"/>
-      <c r="Q90" s="114"/>
-      <c r="R90" s="114"/>
-      <c r="S90" s="114"/>
-      <c r="T90" s="114"/>
-      <c r="U90" s="114"/>
-      <c r="V90" s="114"/>
-      <c r="W90" s="114"/>
-      <c r="X90" s="114"/>
-      <c r="Y90" s="114"/>
-      <c r="Z90" s="114"/>
-    </row>
-    <row r="91" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="147">
+      <c r="I90" s="147"/>
+      <c r="J90" s="104"/>
+      <c r="K90" s="104"/>
+      <c r="L90" s="104"/>
+      <c r="M90" s="104"/>
+      <c r="N90" s="104"/>
+      <c r="O90" s="104"/>
+      <c r="P90" s="104"/>
+      <c r="Q90" s="104"/>
+      <c r="R90" s="104"/>
+      <c r="S90" s="104"/>
+      <c r="T90" s="104"/>
+      <c r="U90" s="104"/>
+      <c r="V90" s="104"/>
+      <c r="W90" s="104"/>
+      <c r="X90" s="104"/>
+      <c r="Y90" s="104"/>
+      <c r="Z90" s="104"/>
+    </row>
+    <row r="91" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="137">
         <v>2</v>
       </c>
-      <c r="B91" s="147" t="s">
+      <c r="B91" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="148" t="s">
+      <c r="C91" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="149"/>
-      <c r="E91" s="150"/>
-      <c r="F91" s="147"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="151"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="114"/>
-      <c r="K91" s="114"/>
-      <c r="L91" s="114"/>
-      <c r="M91" s="114"/>
-      <c r="N91" s="114"/>
-      <c r="O91" s="114"/>
-      <c r="P91" s="114"/>
-      <c r="Q91" s="114"/>
-      <c r="R91" s="114"/>
-      <c r="S91" s="114"/>
-      <c r="T91" s="114"/>
-      <c r="U91" s="114"/>
-      <c r="V91" s="114"/>
-      <c r="W91" s="114"/>
-      <c r="X91" s="114"/>
-      <c r="Y91" s="114"/>
-      <c r="Z91" s="114"/>
-    </row>
-    <row r="92" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="147">
+      <c r="D91" s="139"/>
+      <c r="E91" s="140"/>
+      <c r="F91" s="137"/>
+      <c r="G91" s="137"/>
+      <c r="H91" s="141"/>
+      <c r="I91" s="137"/>
+      <c r="J91" s="104"/>
+      <c r="K91" s="104"/>
+      <c r="L91" s="104"/>
+      <c r="M91" s="104"/>
+      <c r="N91" s="104"/>
+      <c r="O91" s="104"/>
+      <c r="P91" s="104"/>
+      <c r="Q91" s="104"/>
+      <c r="R91" s="104"/>
+      <c r="S91" s="104"/>
+      <c r="T91" s="104"/>
+      <c r="U91" s="104"/>
+      <c r="V91" s="104"/>
+      <c r="W91" s="104"/>
+      <c r="X91" s="104"/>
+      <c r="Y91" s="104"/>
+      <c r="Z91" s="104"/>
+    </row>
+    <row r="92" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="137">
         <v>3</v>
       </c>
-      <c r="B92" s="147" t="s">
+      <c r="B92" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="148" t="s">
+      <c r="C92" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="149"/>
-      <c r="E92" s="150" t="s">
+      <c r="D92" s="139"/>
+      <c r="E92" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="147"/>
-      <c r="G92" s="147"/>
-      <c r="H92" s="151"/>
-      <c r="I92" s="147"/>
-      <c r="J92" s="114"/>
-      <c r="K92" s="114"/>
-      <c r="L92" s="114"/>
-      <c r="M92" s="114"/>
-      <c r="N92" s="114"/>
-      <c r="O92" s="114"/>
-      <c r="P92" s="114"/>
-      <c r="Q92" s="114"/>
-      <c r="R92" s="114"/>
-      <c r="S92" s="114"/>
-      <c r="T92" s="114"/>
-      <c r="U92" s="114"/>
-      <c r="V92" s="114"/>
-      <c r="W92" s="114"/>
-      <c r="X92" s="114"/>
-      <c r="Y92" s="114"/>
-      <c r="Z92" s="114"/>
-    </row>
-    <row r="93" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="147">
+      <c r="F92" s="137"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="141"/>
+      <c r="I92" s="137"/>
+      <c r="J92" s="104"/>
+      <c r="K92" s="104"/>
+      <c r="L92" s="104"/>
+      <c r="M92" s="104"/>
+      <c r="N92" s="104"/>
+      <c r="O92" s="104"/>
+      <c r="P92" s="104"/>
+      <c r="Q92" s="104"/>
+      <c r="R92" s="104"/>
+      <c r="S92" s="104"/>
+      <c r="T92" s="104"/>
+      <c r="U92" s="104"/>
+      <c r="V92" s="104"/>
+      <c r="W92" s="104"/>
+      <c r="X92" s="104"/>
+      <c r="Y92" s="104"/>
+      <c r="Z92" s="104"/>
+    </row>
+    <row r="93" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="137">
         <v>4</v>
       </c>
-      <c r="B93" s="147" t="s">
+      <c r="B93" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="148" t="s">
+      <c r="C93" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="149"/>
-      <c r="E93" s="150"/>
-      <c r="F93" s="147"/>
-      <c r="G93" s="147"/>
-      <c r="H93" s="151"/>
-      <c r="I93" s="147"/>
-      <c r="J93" s="114"/>
-      <c r="K93" s="114"/>
-      <c r="L93" s="114"/>
-      <c r="M93" s="114"/>
-      <c r="N93" s="114"/>
-      <c r="O93" s="114"/>
-      <c r="P93" s="114"/>
-      <c r="Q93" s="114"/>
-      <c r="R93" s="114"/>
-      <c r="S93" s="114"/>
-      <c r="T93" s="114"/>
-      <c r="U93" s="114"/>
-      <c r="V93" s="114"/>
-      <c r="W93" s="114"/>
-      <c r="X93" s="114"/>
-      <c r="Y93" s="114"/>
-      <c r="Z93" s="114"/>
-    </row>
-    <row r="94" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="147">
+      <c r="D93" s="139"/>
+      <c r="E93" s="140"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="141"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="104"/>
+      <c r="K93" s="104"/>
+      <c r="L93" s="104"/>
+      <c r="M93" s="104"/>
+      <c r="N93" s="104"/>
+      <c r="O93" s="104"/>
+      <c r="P93" s="104"/>
+      <c r="Q93" s="104"/>
+      <c r="R93" s="104"/>
+      <c r="S93" s="104"/>
+      <c r="T93" s="104"/>
+      <c r="U93" s="104"/>
+      <c r="V93" s="104"/>
+      <c r="W93" s="104"/>
+      <c r="X93" s="104"/>
+      <c r="Y93" s="104"/>
+      <c r="Z93" s="104"/>
+    </row>
+    <row r="94" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="137">
         <v>5</v>
       </c>
-      <c r="B94" s="147" t="s">
+      <c r="B94" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="148" t="s">
+      <c r="C94" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D94" s="149"/>
-      <c r="E94" s="150"/>
-      <c r="F94" s="147"/>
-      <c r="G94" s="147"/>
-      <c r="H94" s="151"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="114"/>
-      <c r="K94" s="114"/>
-      <c r="L94" s="114"/>
-      <c r="M94" s="114"/>
-      <c r="N94" s="114"/>
-      <c r="O94" s="114"/>
-      <c r="P94" s="114"/>
-      <c r="Q94" s="114"/>
-      <c r="R94" s="114"/>
-      <c r="S94" s="114"/>
-      <c r="T94" s="114"/>
-      <c r="U94" s="114"/>
-      <c r="V94" s="114"/>
-      <c r="W94" s="114"/>
-      <c r="X94" s="114"/>
-      <c r="Y94" s="114"/>
-      <c r="Z94" s="114"/>
-    </row>
-    <row r="95" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="147">
+      <c r="D94" s="139"/>
+      <c r="E94" s="140"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="141"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="104"/>
+      <c r="K94" s="104"/>
+      <c r="L94" s="104"/>
+      <c r="M94" s="104"/>
+      <c r="N94" s="104"/>
+      <c r="O94" s="104"/>
+      <c r="P94" s="104"/>
+      <c r="Q94" s="104"/>
+      <c r="R94" s="104"/>
+      <c r="S94" s="104"/>
+      <c r="T94" s="104"/>
+      <c r="U94" s="104"/>
+      <c r="V94" s="104"/>
+      <c r="W94" s="104"/>
+      <c r="X94" s="104"/>
+      <c r="Y94" s="104"/>
+      <c r="Z94" s="104"/>
+    </row>
+    <row r="95" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="137">
         <v>6</v>
       </c>
-      <c r="B95" s="147" t="s">
+      <c r="B95" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="148" t="s">
+      <c r="C95" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="D95" s="149"/>
-      <c r="E95" s="150"/>
-      <c r="F95" s="147"/>
-      <c r="G95" s="147"/>
-      <c r="H95" s="151"/>
-      <c r="I95" s="147" t="s">
+      <c r="D95" s="139"/>
+      <c r="E95" s="140"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="141"/>
+      <c r="I95" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="J95" s="114"/>
-      <c r="K95" s="114"/>
-      <c r="L95" s="114"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="114"/>
-      <c r="O95" s="114"/>
-      <c r="P95" s="114"/>
-      <c r="Q95" s="114"/>
-      <c r="R95" s="114"/>
-      <c r="S95" s="114"/>
-      <c r="T95" s="114"/>
-      <c r="U95" s="114"/>
-      <c r="V95" s="114"/>
-      <c r="W95" s="114"/>
-      <c r="X95" s="114"/>
-      <c r="Y95" s="114"/>
-      <c r="Z95" s="114"/>
-    </row>
-    <row r="96" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="147">
+      <c r="J95" s="104"/>
+      <c r="K95" s="104"/>
+      <c r="L95" s="104"/>
+      <c r="M95" s="104"/>
+      <c r="N95" s="104"/>
+      <c r="O95" s="104"/>
+      <c r="P95" s="104"/>
+      <c r="Q95" s="104"/>
+      <c r="R95" s="104"/>
+      <c r="S95" s="104"/>
+      <c r="T95" s="104"/>
+      <c r="U95" s="104"/>
+      <c r="V95" s="104"/>
+      <c r="W95" s="104"/>
+      <c r="X95" s="104"/>
+      <c r="Y95" s="104"/>
+      <c r="Z95" s="104"/>
+    </row>
+    <row r="96" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="137">
         <v>7</v>
       </c>
-      <c r="B96" s="147" t="s">
+      <c r="B96" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="148" t="s">
+      <c r="C96" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="149"/>
-      <c r="E96" s="150"/>
-      <c r="F96" s="147"/>
-      <c r="G96" s="147"/>
-      <c r="H96" s="151"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="152"/>
-      <c r="K96" s="152"/>
-      <c r="L96" s="152"/>
-      <c r="M96" s="152"/>
-      <c r="N96" s="152"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="152"/>
-      <c r="Q96" s="152"/>
-      <c r="R96" s="152"/>
-      <c r="S96" s="152"/>
-      <c r="T96" s="152"/>
-      <c r="U96" s="152"/>
-      <c r="V96" s="152"/>
-      <c r="W96" s="152"/>
-      <c r="X96" s="152"/>
-      <c r="Y96" s="152"/>
-      <c r="Z96" s="152"/>
-    </row>
-    <row r="97" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="159">
+      <c r="D96" s="139"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="141"/>
+      <c r="I96" s="137"/>
+      <c r="J96" s="142"/>
+      <c r="K96" s="142"/>
+      <c r="L96" s="142"/>
+      <c r="M96" s="142"/>
+      <c r="N96" s="142"/>
+      <c r="O96" s="142"/>
+      <c r="P96" s="142"/>
+      <c r="Q96" s="142"/>
+      <c r="R96" s="142"/>
+      <c r="S96" s="142"/>
+      <c r="T96" s="142"/>
+      <c r="U96" s="142"/>
+      <c r="V96" s="142"/>
+      <c r="W96" s="142"/>
+      <c r="X96" s="142"/>
+      <c r="Y96" s="142"/>
+      <c r="Z96" s="142"/>
+    </row>
+    <row r="97" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="149">
         <v>8</v>
       </c>
-      <c r="B97" s="159" t="s">
+      <c r="B97" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="160" t="s">
+      <c r="C97" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="161"/>
-      <c r="E97" s="162"/>
-      <c r="F97" s="159"/>
-      <c r="G97" s="159" t="s">
+      <c r="D97" s="151"/>
+      <c r="E97" s="152"/>
+      <c r="F97" s="149"/>
+      <c r="G97" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="H97" s="163"/>
-      <c r="I97" s="159"/>
-      <c r="J97" s="152"/>
-      <c r="K97" s="152"/>
-      <c r="L97" s="152"/>
-      <c r="M97" s="152"/>
-      <c r="N97" s="152"/>
-      <c r="O97" s="152"/>
-      <c r="P97" s="152"/>
-      <c r="Q97" s="152"/>
-      <c r="R97" s="152"/>
-      <c r="S97" s="152"/>
-      <c r="T97" s="152"/>
-      <c r="U97" s="152"/>
-      <c r="V97" s="152"/>
-      <c r="W97" s="152"/>
-      <c r="X97" s="152"/>
-      <c r="Y97" s="152"/>
-      <c r="Z97" s="152"/>
-    </row>
-    <row r="98" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="159"/>
-      <c r="B98" s="159" t="s">
+      <c r="H97" s="153"/>
+      <c r="I97" s="149"/>
+      <c r="J97" s="142"/>
+      <c r="K97" s="142"/>
+      <c r="L97" s="142"/>
+      <c r="M97" s="142"/>
+      <c r="N97" s="142"/>
+      <c r="O97" s="142"/>
+      <c r="P97" s="142"/>
+      <c r="Q97" s="142"/>
+      <c r="R97" s="142"/>
+      <c r="S97" s="142"/>
+      <c r="T97" s="142"/>
+      <c r="U97" s="142"/>
+      <c r="V97" s="142"/>
+      <c r="W97" s="142"/>
+      <c r="X97" s="142"/>
+      <c r="Y97" s="142"/>
+      <c r="Z97" s="142"/>
+    </row>
+    <row r="98" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="149"/>
+      <c r="B98" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="160" t="s">
+      <c r="C98" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="D98" s="161"/>
-      <c r="E98" s="162"/>
-      <c r="F98" s="159"/>
-      <c r="G98" s="159"/>
-      <c r="H98" s="163"/>
-      <c r="I98" s="159"/>
-      <c r="J98" s="152"/>
-      <c r="K98" s="152"/>
-      <c r="L98" s="152"/>
-      <c r="M98" s="152"/>
-      <c r="N98" s="152"/>
-      <c r="O98" s="152"/>
-      <c r="P98" s="152"/>
-      <c r="Q98" s="152"/>
-      <c r="R98" s="152"/>
-      <c r="S98" s="152"/>
-      <c r="T98" s="152"/>
-      <c r="U98" s="152"/>
-      <c r="V98" s="152"/>
-      <c r="W98" s="152"/>
-      <c r="X98" s="152"/>
-      <c r="Y98" s="152"/>
-      <c r="Z98" s="152"/>
-    </row>
-    <row r="99" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="159"/>
-      <c r="B99" s="159" t="s">
+      <c r="D98" s="151"/>
+      <c r="E98" s="152"/>
+      <c r="F98" s="149"/>
+      <c r="G98" s="149"/>
+      <c r="H98" s="153"/>
+      <c r="I98" s="149"/>
+      <c r="J98" s="142"/>
+      <c r="K98" s="142"/>
+      <c r="L98" s="142"/>
+      <c r="M98" s="142"/>
+      <c r="N98" s="142"/>
+      <c r="O98" s="142"/>
+      <c r="P98" s="142"/>
+      <c r="Q98" s="142"/>
+      <c r="R98" s="142"/>
+      <c r="S98" s="142"/>
+      <c r="T98" s="142"/>
+      <c r="U98" s="142"/>
+      <c r="V98" s="142"/>
+      <c r="W98" s="142"/>
+      <c r="X98" s="142"/>
+      <c r="Y98" s="142"/>
+      <c r="Z98" s="142"/>
+    </row>
+    <row r="99" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="149"/>
+      <c r="B99" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="160" t="s">
+      <c r="C99" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="D99" s="161"/>
-      <c r="E99" s="162"/>
-      <c r="F99" s="159"/>
-      <c r="G99" s="159"/>
-      <c r="H99" s="163"/>
-      <c r="I99" s="159"/>
-      <c r="J99" s="152"/>
-      <c r="K99" s="152"/>
-      <c r="L99" s="152"/>
-      <c r="M99" s="152"/>
-      <c r="N99" s="152"/>
-      <c r="O99" s="152"/>
-      <c r="P99" s="152"/>
-      <c r="Q99" s="152"/>
-      <c r="R99" s="152"/>
-      <c r="S99" s="152"/>
-      <c r="T99" s="152"/>
-      <c r="U99" s="152"/>
-      <c r="V99" s="152"/>
-      <c r="W99" s="152"/>
-      <c r="X99" s="152"/>
-      <c r="Y99" s="152"/>
-      <c r="Z99" s="152"/>
-    </row>
-    <row r="100" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="159"/>
-      <c r="B100" s="159" t="s">
+      <c r="D99" s="151"/>
+      <c r="E99" s="152"/>
+      <c r="F99" s="149"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="153"/>
+      <c r="I99" s="149"/>
+      <c r="J99" s="142"/>
+      <c r="K99" s="142"/>
+      <c r="L99" s="142"/>
+      <c r="M99" s="142"/>
+      <c r="N99" s="142"/>
+      <c r="O99" s="142"/>
+      <c r="P99" s="142"/>
+      <c r="Q99" s="142"/>
+      <c r="R99" s="142"/>
+      <c r="S99" s="142"/>
+      <c r="T99" s="142"/>
+      <c r="U99" s="142"/>
+      <c r="V99" s="142"/>
+      <c r="W99" s="142"/>
+      <c r="X99" s="142"/>
+      <c r="Y99" s="142"/>
+      <c r="Z99" s="142"/>
+    </row>
+    <row r="100" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="149"/>
+      <c r="B100" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="160" t="s">
+      <c r="C100" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="161"/>
-      <c r="E100" s="162"/>
-      <c r="F100" s="159"/>
-      <c r="G100" s="159"/>
-      <c r="H100" s="163"/>
-      <c r="I100" s="159"/>
-      <c r="J100" s="152"/>
-      <c r="K100" s="152"/>
-      <c r="L100" s="152"/>
-      <c r="M100" s="152"/>
-      <c r="N100" s="152"/>
-      <c r="O100" s="152"/>
-      <c r="P100" s="152"/>
-      <c r="Q100" s="152"/>
-      <c r="R100" s="152"/>
-      <c r="S100" s="152"/>
-      <c r="T100" s="152"/>
-      <c r="U100" s="152"/>
-      <c r="V100" s="152"/>
-      <c r="W100" s="152"/>
-      <c r="X100" s="152"/>
-      <c r="Y100" s="152"/>
-      <c r="Z100" s="152"/>
-    </row>
-    <row r="101" spans="1:26" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="159"/>
-      <c r="B101" s="159" t="s">
+      <c r="D100" s="151"/>
+      <c r="E100" s="152"/>
+      <c r="F100" s="149"/>
+      <c r="G100" s="149"/>
+      <c r="H100" s="153"/>
+      <c r="I100" s="149"/>
+      <c r="J100" s="142"/>
+      <c r="K100" s="142"/>
+      <c r="L100" s="142"/>
+      <c r="M100" s="142"/>
+      <c r="N100" s="142"/>
+      <c r="O100" s="142"/>
+      <c r="P100" s="142"/>
+      <c r="Q100" s="142"/>
+      <c r="R100" s="142"/>
+      <c r="S100" s="142"/>
+      <c r="T100" s="142"/>
+      <c r="U100" s="142"/>
+      <c r="V100" s="142"/>
+      <c r="W100" s="142"/>
+      <c r="X100" s="142"/>
+      <c r="Y100" s="142"/>
+      <c r="Z100" s="142"/>
+    </row>
+    <row r="101" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="149"/>
+      <c r="B101" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="160" t="s">
+      <c r="C101" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="161"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="159"/>
-      <c r="G101" s="159"/>
-      <c r="H101" s="163"/>
-      <c r="I101" s="159"/>
-      <c r="J101" s="152"/>
-      <c r="K101" s="152"/>
-      <c r="L101" s="152"/>
-      <c r="M101" s="152"/>
-      <c r="N101" s="152"/>
-      <c r="O101" s="152"/>
-      <c r="P101" s="152"/>
-      <c r="Q101" s="152"/>
-      <c r="R101" s="152"/>
-      <c r="S101" s="152"/>
-      <c r="T101" s="152"/>
-      <c r="U101" s="152"/>
-      <c r="V101" s="152"/>
-      <c r="W101" s="152"/>
-      <c r="X101" s="152"/>
-      <c r="Y101" s="152"/>
-      <c r="Z101" s="152"/>
+      <c r="D101" s="151"/>
+      <c r="E101" s="152"/>
+      <c r="F101" s="149"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="153"/>
+      <c r="I101" s="149"/>
+      <c r="J101" s="142"/>
+      <c r="K101" s="142"/>
+      <c r="L101" s="142"/>
+      <c r="M101" s="142"/>
+      <c r="N101" s="142"/>
+      <c r="O101" s="142"/>
+      <c r="P101" s="142"/>
+      <c r="Q101" s="142"/>
+      <c r="R101" s="142"/>
+      <c r="S101" s="142"/>
+      <c r="T101" s="142"/>
+      <c r="U101" s="142"/>
+      <c r="V101" s="142"/>
+      <c r="W101" s="142"/>
+      <c r="X101" s="142"/>
+      <c r="Y101" s="142"/>
+      <c r="Z101" s="142"/>
     </row>
     <row r="102" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -5220,13 +5228,13 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="102" t="s">
+      <c r="A103" s="154" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="103"/>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
+      <c r="B103" s="155"/>
+      <c r="C103" s="155"/>
+      <c r="D103" s="155"/>
+      <c r="E103" s="155"/>
       <c r="F103" s="82"/>
       <c r="G103" s="82"/>
       <c r="H103" s="81"/>
@@ -5295,215 +5303,215 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="153">
+    <row r="105" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="143">
         <v>1</v>
       </c>
-      <c r="B105" s="153" t="s">
+      <c r="B105" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="154" t="s">
+      <c r="C105" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="155"/>
-      <c r="E105" s="156"/>
-      <c r="F105" s="157" t="s">
+      <c r="D105" s="145"/>
+      <c r="E105" s="146"/>
+      <c r="F105" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="157"/>
-      <c r="H105" s="158" t="s">
+      <c r="G105" s="147"/>
+      <c r="H105" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="157"/>
-      <c r="J105" s="114"/>
-      <c r="K105" s="114"/>
-      <c r="L105" s="114"/>
-      <c r="M105" s="114"/>
-      <c r="N105" s="114"/>
-      <c r="O105" s="114"/>
-      <c r="P105" s="114"/>
-      <c r="Q105" s="114"/>
-      <c r="R105" s="114"/>
-      <c r="S105" s="114"/>
-      <c r="T105" s="114"/>
-      <c r="U105" s="114"/>
-      <c r="V105" s="114"/>
-      <c r="W105" s="114"/>
-      <c r="X105" s="114"/>
-      <c r="Y105" s="114"/>
-      <c r="Z105" s="114"/>
-    </row>
-    <row r="106" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="147">
+      <c r="I105" s="147"/>
+      <c r="J105" s="104"/>
+      <c r="K105" s="104"/>
+      <c r="L105" s="104"/>
+      <c r="M105" s="104"/>
+      <c r="N105" s="104"/>
+      <c r="O105" s="104"/>
+      <c r="P105" s="104"/>
+      <c r="Q105" s="104"/>
+      <c r="R105" s="104"/>
+      <c r="S105" s="104"/>
+      <c r="T105" s="104"/>
+      <c r="U105" s="104"/>
+      <c r="V105" s="104"/>
+      <c r="W105" s="104"/>
+      <c r="X105" s="104"/>
+      <c r="Y105" s="104"/>
+      <c r="Z105" s="104"/>
+    </row>
+    <row r="106" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="137">
         <v>2</v>
       </c>
-      <c r="B106" s="147" t="s">
+      <c r="B106" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="148" t="s">
+      <c r="C106" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="149"/>
-      <c r="E106" s="150"/>
-      <c r="F106" s="147" t="s">
+      <c r="D106" s="139"/>
+      <c r="E106" s="140"/>
+      <c r="F106" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="147"/>
-      <c r="H106" s="151"/>
-      <c r="I106" s="147"/>
-      <c r="J106" s="114"/>
-      <c r="K106" s="114"/>
-      <c r="L106" s="114"/>
-      <c r="M106" s="114"/>
-      <c r="N106" s="114"/>
-      <c r="O106" s="114"/>
-      <c r="P106" s="114"/>
-      <c r="Q106" s="114"/>
-      <c r="R106" s="114"/>
-      <c r="S106" s="114"/>
-      <c r="T106" s="114"/>
-      <c r="U106" s="114"/>
-      <c r="V106" s="114"/>
-      <c r="W106" s="114"/>
-      <c r="X106" s="114"/>
-      <c r="Y106" s="114"/>
-      <c r="Z106" s="114"/>
-    </row>
-    <row r="107" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="147">
+      <c r="G106" s="137"/>
+      <c r="H106" s="141"/>
+      <c r="I106" s="137"/>
+      <c r="J106" s="104"/>
+      <c r="K106" s="104"/>
+      <c r="L106" s="104"/>
+      <c r="M106" s="104"/>
+      <c r="N106" s="104"/>
+      <c r="O106" s="104"/>
+      <c r="P106" s="104"/>
+      <c r="Q106" s="104"/>
+      <c r="R106" s="104"/>
+      <c r="S106" s="104"/>
+      <c r="T106" s="104"/>
+      <c r="U106" s="104"/>
+      <c r="V106" s="104"/>
+      <c r="W106" s="104"/>
+      <c r="X106" s="104"/>
+      <c r="Y106" s="104"/>
+      <c r="Z106" s="104"/>
+    </row>
+    <row r="107" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="137">
         <v>3</v>
       </c>
-      <c r="B107" s="147" t="s">
+      <c r="B107" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="C107" s="148" t="s">
+      <c r="C107" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="149"/>
-      <c r="E107" s="150"/>
-      <c r="F107" s="147"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="151"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="114"/>
-      <c r="K107" s="114"/>
-      <c r="L107" s="114"/>
-      <c r="M107" s="114"/>
-      <c r="N107" s="114"/>
-      <c r="O107" s="114"/>
-      <c r="P107" s="114"/>
-      <c r="Q107" s="114"/>
-      <c r="R107" s="114"/>
-      <c r="S107" s="114"/>
-      <c r="T107" s="114"/>
-      <c r="U107" s="114"/>
-      <c r="V107" s="114"/>
-      <c r="W107" s="114"/>
-      <c r="X107" s="114"/>
-      <c r="Y107" s="114"/>
-      <c r="Z107" s="114"/>
-    </row>
-    <row r="108" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="147">
+      <c r="D107" s="139"/>
+      <c r="E107" s="140"/>
+      <c r="F107" s="137"/>
+      <c r="G107" s="137"/>
+      <c r="H107" s="141"/>
+      <c r="I107" s="137"/>
+      <c r="J107" s="104"/>
+      <c r="K107" s="104"/>
+      <c r="L107" s="104"/>
+      <c r="M107" s="104"/>
+      <c r="N107" s="104"/>
+      <c r="O107" s="104"/>
+      <c r="P107" s="104"/>
+      <c r="Q107" s="104"/>
+      <c r="R107" s="104"/>
+      <c r="S107" s="104"/>
+      <c r="T107" s="104"/>
+      <c r="U107" s="104"/>
+      <c r="V107" s="104"/>
+      <c r="W107" s="104"/>
+      <c r="X107" s="104"/>
+      <c r="Y107" s="104"/>
+      <c r="Z107" s="104"/>
+    </row>
+    <row r="108" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="137">
         <v>4</v>
       </c>
-      <c r="B108" s="147" t="s">
+      <c r="B108" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="C108" s="148" t="s">
+      <c r="C108" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="D108" s="149"/>
-      <c r="E108" s="150"/>
-      <c r="F108" s="147"/>
-      <c r="G108" s="147"/>
-      <c r="H108" s="151"/>
-      <c r="I108" s="147"/>
-      <c r="J108" s="114"/>
-      <c r="K108" s="114"/>
-      <c r="L108" s="114"/>
-      <c r="M108" s="114"/>
-      <c r="N108" s="114"/>
-      <c r="O108" s="114"/>
-      <c r="P108" s="114"/>
-      <c r="Q108" s="114"/>
-      <c r="R108" s="114"/>
-      <c r="S108" s="114"/>
-      <c r="T108" s="114"/>
-      <c r="U108" s="114"/>
-      <c r="V108" s="114"/>
-      <c r="W108" s="114"/>
-      <c r="X108" s="114"/>
-      <c r="Y108" s="114"/>
-      <c r="Z108" s="114"/>
-    </row>
-    <row r="109" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="147">
+      <c r="D108" s="139"/>
+      <c r="E108" s="140"/>
+      <c r="F108" s="137"/>
+      <c r="G108" s="137"/>
+      <c r="H108" s="141"/>
+      <c r="I108" s="137"/>
+      <c r="J108" s="104"/>
+      <c r="K108" s="104"/>
+      <c r="L108" s="104"/>
+      <c r="M108" s="104"/>
+      <c r="N108" s="104"/>
+      <c r="O108" s="104"/>
+      <c r="P108" s="104"/>
+      <c r="Q108" s="104"/>
+      <c r="R108" s="104"/>
+      <c r="S108" s="104"/>
+      <c r="T108" s="104"/>
+      <c r="U108" s="104"/>
+      <c r="V108" s="104"/>
+      <c r="W108" s="104"/>
+      <c r="X108" s="104"/>
+      <c r="Y108" s="104"/>
+      <c r="Z108" s="104"/>
+    </row>
+    <row r="109" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="137">
         <v>5</v>
       </c>
-      <c r="B109" s="147" t="s">
+      <c r="B109" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C109" s="148" t="s">
+      <c r="C109" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="D109" s="149"/>
-      <c r="E109" s="150"/>
-      <c r="F109" s="147"/>
-      <c r="G109" s="147"/>
-      <c r="H109" s="151"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="114"/>
-      <c r="K109" s="114"/>
-      <c r="L109" s="114"/>
-      <c r="M109" s="114"/>
-      <c r="N109" s="114"/>
-      <c r="O109" s="114"/>
-      <c r="P109" s="114"/>
-      <c r="Q109" s="114"/>
-      <c r="R109" s="114"/>
-      <c r="S109" s="114"/>
-      <c r="T109" s="114"/>
-      <c r="U109" s="114"/>
-      <c r="V109" s="114"/>
-      <c r="W109" s="114"/>
-      <c r="X109" s="114"/>
-      <c r="Y109" s="114"/>
-      <c r="Z109" s="114"/>
-    </row>
-    <row r="110" spans="1:26" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="147">
+      <c r="D109" s="139"/>
+      <c r="E109" s="140"/>
+      <c r="F109" s="137"/>
+      <c r="G109" s="137"/>
+      <c r="H109" s="141"/>
+      <c r="I109" s="137"/>
+      <c r="J109" s="104"/>
+      <c r="K109" s="104"/>
+      <c r="L109" s="104"/>
+      <c r="M109" s="104"/>
+      <c r="N109" s="104"/>
+      <c r="O109" s="104"/>
+      <c r="P109" s="104"/>
+      <c r="Q109" s="104"/>
+      <c r="R109" s="104"/>
+      <c r="S109" s="104"/>
+      <c r="T109" s="104"/>
+      <c r="U109" s="104"/>
+      <c r="V109" s="104"/>
+      <c r="W109" s="104"/>
+      <c r="X109" s="104"/>
+      <c r="Y109" s="104"/>
+      <c r="Z109" s="104"/>
+    </row>
+    <row r="110" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="137">
         <v>6</v>
       </c>
-      <c r="B110" s="147" t="s">
+      <c r="B110" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="148" t="s">
+      <c r="C110" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="D110" s="149"/>
-      <c r="E110" s="150"/>
-      <c r="F110" s="147"/>
-      <c r="G110" s="147"/>
-      <c r="H110" s="151"/>
-      <c r="I110" s="147"/>
-      <c r="J110" s="114"/>
-      <c r="K110" s="114"/>
-      <c r="L110" s="114"/>
-      <c r="M110" s="114"/>
-      <c r="N110" s="114"/>
-      <c r="O110" s="114"/>
-      <c r="P110" s="114"/>
-      <c r="Q110" s="114"/>
-      <c r="R110" s="114"/>
-      <c r="S110" s="114"/>
-      <c r="T110" s="114"/>
-      <c r="U110" s="114"/>
-      <c r="V110" s="114"/>
-      <c r="W110" s="114"/>
-      <c r="X110" s="114"/>
-      <c r="Y110" s="114"/>
-      <c r="Z110" s="114"/>
+      <c r="D110" s="139"/>
+      <c r="E110" s="140"/>
+      <c r="F110" s="137"/>
+      <c r="G110" s="137"/>
+      <c r="H110" s="141"/>
+      <c r="I110" s="137"/>
+      <c r="J110" s="104"/>
+      <c r="K110" s="104"/>
+      <c r="L110" s="104"/>
+      <c r="M110" s="104"/>
+      <c r="N110" s="104"/>
+      <c r="O110" s="104"/>
+      <c r="P110" s="104"/>
+      <c r="Q110" s="104"/>
+      <c r="R110" s="104"/>
+      <c r="S110" s="104"/>
+      <c r="T110" s="104"/>
+      <c r="U110" s="104"/>
+      <c r="V110" s="104"/>
+      <c r="W110" s="104"/>
+      <c r="X110" s="104"/>
+      <c r="Y110" s="104"/>
+      <c r="Z110" s="104"/>
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="91"/>
@@ -27662,13 +27670,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="81"/>
@@ -28009,7 +28017,7 @@
   <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E8380-4FD4-C547-979C-47B4101DAD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93FBB0-4809-C74A-B21A-E21F8ADBB69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,16 +1137,8 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1270,6 +1262,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1591,8 +1591,8 @@
   </sheetPr>
   <dimension ref="A2:Z900"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="B96 B2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1829,109 +1829,109 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102">
+    <row r="8" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="160">
         <v>4</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102" t="s">
+      <c r="D8" s="160"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-    </row>
-    <row r="9" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="106">
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+    </row>
+    <row r="9" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="162">
         <v>5</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-    </row>
-    <row r="10" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106">
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+    </row>
+    <row r="10" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="162">
         <v>6</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -2254,17 +2254,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2618,17 +2618,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156" t="s">
+      <c r="A30" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="158"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="154"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2982,17 +2982,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="160" t="s">
+      <c r="A40" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="160"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3243,223 +3243,223 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113">
+    <row r="47" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="109">
         <v>6</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="117" t="s">
+      <c r="D47" s="111"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="113"/>
-      <c r="H47" s="117" t="s">
+      <c r="G47" s="109"/>
+      <c r="H47" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="113"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="104"/>
-      <c r="P47" s="104"/>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
-      <c r="T47" s="104"/>
-      <c r="U47" s="104"/>
-      <c r="V47" s="104"/>
-      <c r="W47" s="104"/>
-      <c r="X47" s="104"/>
-      <c r="Y47" s="104"/>
-      <c r="Z47" s="104"/>
-    </row>
-    <row r="48" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="113">
+      <c r="I47" s="109"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="102"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="102"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="102"/>
+      <c r="U47" s="102"/>
+      <c r="V47" s="102"/>
+      <c r="W47" s="102"/>
+      <c r="X47" s="102"/>
+      <c r="Y47" s="102"/>
+      <c r="Z47" s="102"/>
+    </row>
+    <row r="48" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="109">
         <v>7</v>
       </c>
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="117" t="s">
+      <c r="D48" s="111"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="113"/>
-      <c r="H48" s="117" t="s">
+      <c r="G48" s="109"/>
+      <c r="H48" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="I48" s="113"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="104"/>
-      <c r="U48" s="104"/>
-      <c r="V48" s="104"/>
-      <c r="W48" s="104"/>
-      <c r="X48" s="104"/>
-      <c r="Y48" s="104"/>
-      <c r="Z48" s="104"/>
-    </row>
-    <row r="49" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="118">
+      <c r="I48" s="109"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="102"/>
+      <c r="W48" s="102"/>
+      <c r="X48" s="102"/>
+      <c r="Y48" s="102"/>
+      <c r="Z48" s="102"/>
+    </row>
+    <row r="49" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="114">
         <v>8</v>
       </c>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="120" t="s">
+      <c r="D49" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="119"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="104"/>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="104"/>
-      <c r="S49" s="104"/>
-      <c r="T49" s="104"/>
-      <c r="U49" s="104"/>
-      <c r="V49" s="104"/>
-      <c r="W49" s="104"/>
-      <c r="X49" s="104"/>
-      <c r="Y49" s="104"/>
-      <c r="Z49" s="104"/>
-    </row>
-    <row r="50" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="108">
+      <c r="E49" s="115"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="102"/>
+      <c r="S49" s="102"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="102"/>
+      <c r="V49" s="102"/>
+      <c r="W49" s="102"/>
+      <c r="X49" s="102"/>
+      <c r="Y49" s="102"/>
+      <c r="Z49" s="102"/>
+    </row>
+    <row r="50" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="104">
         <v>9</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="108" t="s">
+      <c r="D50" s="106"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="104"/>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="104"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="104"/>
-      <c r="U50" s="104"/>
-      <c r="V50" s="104"/>
-      <c r="W50" s="104"/>
-      <c r="X50" s="104"/>
-      <c r="Y50" s="104"/>
-      <c r="Z50" s="104"/>
-    </row>
-    <row r="51" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="108">
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="102"/>
+      <c r="S50" s="102"/>
+      <c r="T50" s="102"/>
+      <c r="U50" s="102"/>
+      <c r="V50" s="102"/>
+      <c r="W50" s="102"/>
+      <c r="X50" s="102"/>
+      <c r="Y50" s="102"/>
+      <c r="Z50" s="102"/>
+    </row>
+    <row r="51" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="104">
         <v>10</v>
       </c>
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="112" t="s">
+      <c r="C51" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="110"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="104"/>
-      <c r="L51" s="104"/>
-      <c r="M51" s="104"/>
-      <c r="N51" s="104"/>
-      <c r="O51" s="104"/>
-      <c r="P51" s="104"/>
-      <c r="Q51" s="104"/>
-      <c r="R51" s="104"/>
-      <c r="S51" s="104"/>
-      <c r="T51" s="104"/>
-      <c r="U51" s="104"/>
-      <c r="V51" s="104"/>
-      <c r="W51" s="104"/>
-      <c r="X51" s="104"/>
-      <c r="Y51" s="104"/>
-      <c r="Z51" s="104"/>
-    </row>
-    <row r="52" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="108">
+      <c r="D51" s="106"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="102"/>
+      <c r="S51" s="102"/>
+      <c r="T51" s="102"/>
+      <c r="U51" s="102"/>
+      <c r="V51" s="102"/>
+      <c r="W51" s="102"/>
+      <c r="X51" s="102"/>
+      <c r="Y51" s="102"/>
+      <c r="Z51" s="102"/>
+    </row>
+    <row r="52" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="104">
         <v>11</v>
       </c>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="109" t="s">
+      <c r="C52" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="110"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="108" t="s">
+      <c r="D52" s="106"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="J52" s="104"/>
-      <c r="K52" s="104"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="104"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="104"/>
-      <c r="P52" s="104"/>
-      <c r="Q52" s="104"/>
-      <c r="R52" s="104"/>
-      <c r="S52" s="104"/>
-      <c r="T52" s="104"/>
-      <c r="U52" s="104"/>
-      <c r="V52" s="104"/>
-      <c r="W52" s="104"/>
-      <c r="X52" s="104"/>
-      <c r="Y52" s="104"/>
-      <c r="Z52" s="104"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="102"/>
+      <c r="S52" s="102"/>
+      <c r="T52" s="102"/>
+      <c r="U52" s="102"/>
+      <c r="V52" s="102"/>
+      <c r="W52" s="102"/>
+      <c r="X52" s="102"/>
+      <c r="Y52" s="102"/>
+      <c r="Z52" s="102"/>
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
@@ -3490,13 +3490,13 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="161" t="s">
+      <c r="A54" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="162"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -3833,187 +3833,187 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="122">
+    <row r="63" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="118">
         <v>8</v>
       </c>
-      <c r="B63" s="122" t="s">
+      <c r="B63" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="123" t="s">
+      <c r="C63" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="124">
+      <c r="D63" s="120">
         <v>50</v>
       </c>
-      <c r="E63" s="125"/>
-      <c r="F63" s="126" t="s">
+      <c r="E63" s="121"/>
+      <c r="F63" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122" t="s">
+      <c r="G63" s="118"/>
+      <c r="H63" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I63" s="122"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="104"/>
-      <c r="S63" s="104"/>
-      <c r="T63" s="104"/>
-      <c r="U63" s="104"/>
-      <c r="V63" s="104"/>
-      <c r="W63" s="104"/>
-      <c r="X63" s="104"/>
-      <c r="Y63" s="104"/>
-      <c r="Z63" s="104"/>
-    </row>
-    <row r="64" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="122">
+      <c r="I63" s="118"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
+      <c r="U63" s="102"/>
+      <c r="V63" s="102"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="102"/>
+    </row>
+    <row r="64" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="118">
         <v>9</v>
       </c>
-      <c r="B64" s="122" t="s">
+      <c r="B64" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="123" t="s">
+      <c r="C64" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="124">
+      <c r="D64" s="120">
         <v>50</v>
       </c>
-      <c r="E64" s="125"/>
-      <c r="F64" s="126" t="s">
+      <c r="E64" s="121"/>
+      <c r="F64" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122" t="s">
+      <c r="G64" s="118"/>
+      <c r="H64" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="I64" s="122"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="104"/>
-      <c r="O64" s="104"/>
-      <c r="P64" s="104"/>
-      <c r="Q64" s="104"/>
-      <c r="R64" s="104"/>
-      <c r="S64" s="104"/>
-      <c r="T64" s="104"/>
-      <c r="U64" s="104"/>
-      <c r="V64" s="104"/>
-      <c r="W64" s="104"/>
-      <c r="X64" s="104"/>
-      <c r="Y64" s="104"/>
-      <c r="Z64" s="104"/>
-    </row>
-    <row r="65" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="122">
+      <c r="I64" s="118"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="102"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="102"/>
+      <c r="T64" s="102"/>
+      <c r="U64" s="102"/>
+      <c r="V64" s="102"/>
+      <c r="W64" s="102"/>
+      <c r="X64" s="102"/>
+      <c r="Y64" s="102"/>
+      <c r="Z64" s="102"/>
+    </row>
+    <row r="65" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="118">
         <v>10</v>
       </c>
-      <c r="B65" s="122" t="s">
+      <c r="B65" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="123" t="s">
+      <c r="C65" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="124"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="104"/>
-      <c r="K65" s="104"/>
-      <c r="L65" s="104"/>
-      <c r="M65" s="104"/>
-      <c r="N65" s="104"/>
-      <c r="O65" s="104"/>
-      <c r="P65" s="104"/>
-      <c r="Q65" s="104"/>
-      <c r="R65" s="104"/>
-      <c r="S65" s="104"/>
-      <c r="T65" s="104"/>
-      <c r="U65" s="104"/>
-      <c r="V65" s="104"/>
-      <c r="W65" s="104"/>
-      <c r="X65" s="104"/>
-      <c r="Y65" s="104"/>
-      <c r="Z65" s="104"/>
-    </row>
-    <row r="66" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="122">
+      <c r="D65" s="120"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="118"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="102"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="102"/>
+      <c r="T65" s="102"/>
+      <c r="U65" s="102"/>
+      <c r="V65" s="102"/>
+      <c r="W65" s="102"/>
+      <c r="X65" s="102"/>
+      <c r="Y65" s="102"/>
+      <c r="Z65" s="102"/>
+    </row>
+    <row r="66" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="118">
         <v>12</v>
       </c>
-      <c r="B66" s="122" t="s">
+      <c r="B66" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="123" t="s">
+      <c r="C66" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="124"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="104"/>
-      <c r="K66" s="104"/>
-      <c r="L66" s="104"/>
-      <c r="M66" s="104"/>
-      <c r="N66" s="104"/>
-      <c r="O66" s="104"/>
-      <c r="P66" s="104"/>
-      <c r="Q66" s="104"/>
-      <c r="R66" s="104"/>
-      <c r="S66" s="104"/>
-      <c r="T66" s="104"/>
-      <c r="U66" s="104"/>
-      <c r="V66" s="104"/>
-      <c r="W66" s="104"/>
-      <c r="X66" s="104"/>
-      <c r="Y66" s="104"/>
-      <c r="Z66" s="104"/>
-    </row>
-    <row r="67" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="122">
+      <c r="D66" s="120"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="102"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="102"/>
+      <c r="S66" s="102"/>
+      <c r="T66" s="102"/>
+      <c r="U66" s="102"/>
+      <c r="V66" s="102"/>
+      <c r="W66" s="102"/>
+      <c r="X66" s="102"/>
+      <c r="Y66" s="102"/>
+      <c r="Z66" s="102"/>
+    </row>
+    <row r="67" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="118">
         <v>13</v>
       </c>
-      <c r="B67" s="122" t="s">
+      <c r="B67" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="123" t="s">
+      <c r="C67" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="124"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="122"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="104"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="104"/>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="104"/>
-      <c r="S67" s="104"/>
-      <c r="T67" s="104"/>
-      <c r="U67" s="104"/>
-      <c r="V67" s="104"/>
-      <c r="W67" s="104"/>
-      <c r="X67" s="104"/>
-      <c r="Y67" s="104"/>
-      <c r="Z67" s="104"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="102"/>
+      <c r="V67" s="102"/>
+      <c r="W67" s="102"/>
+      <c r="X67" s="102"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="102"/>
     </row>
     <row r="68" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -4044,13 +4044,13 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="163" t="s">
+      <c r="A69" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="162"/>
-      <c r="C69" s="162"/>
-      <c r="D69" s="162"/>
-      <c r="E69" s="162"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
       <c r="F69" s="63"/>
       <c r="G69" s="63"/>
       <c r="H69" s="50"/>
@@ -4119,221 +4119,221 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="127">
+    <row r="71" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="123">
         <v>1</v>
       </c>
-      <c r="B71" s="127" t="s">
+      <c r="B71" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="128" t="s">
+      <c r="C71" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="129"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="131" t="s">
+      <c r="D71" s="125"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="131"/>
-      <c r="H71" s="132" t="s">
+      <c r="G71" s="127"/>
+      <c r="H71" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="131"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="104"/>
-      <c r="L71" s="104"/>
-      <c r="M71" s="104"/>
-      <c r="N71" s="104"/>
-      <c r="O71" s="104"/>
-      <c r="P71" s="104"/>
-      <c r="Q71" s="104"/>
-      <c r="R71" s="104"/>
-      <c r="S71" s="104"/>
-      <c r="T71" s="104"/>
-      <c r="U71" s="104"/>
-      <c r="V71" s="104"/>
-      <c r="W71" s="104"/>
-      <c r="X71" s="104"/>
-      <c r="Y71" s="104"/>
-      <c r="Z71" s="104"/>
-    </row>
-    <row r="72" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="133">
+      <c r="I71" s="127"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="102"/>
+      <c r="M71" s="102"/>
+      <c r="N71" s="102"/>
+      <c r="O71" s="102"/>
+      <c r="P71" s="102"/>
+      <c r="Q71" s="102"/>
+      <c r="R71" s="102"/>
+      <c r="S71" s="102"/>
+      <c r="T71" s="102"/>
+      <c r="U71" s="102"/>
+      <c r="V71" s="102"/>
+      <c r="W71" s="102"/>
+      <c r="X71" s="102"/>
+      <c r="Y71" s="102"/>
+      <c r="Z71" s="102"/>
+    </row>
+    <row r="72" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="129">
         <v>2</v>
       </c>
-      <c r="B72" s="133" t="s">
+      <c r="B72" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="134" t="s">
+      <c r="C72" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="D72" s="135"/>
-      <c r="E72" s="136"/>
-      <c r="F72" s="133" t="s">
+      <c r="D72" s="131"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="G72" s="133"/>
-      <c r="H72" s="122" t="s">
+      <c r="G72" s="129"/>
+      <c r="H72" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="I72" s="133"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="104"/>
-      <c r="M72" s="104"/>
-      <c r="N72" s="104"/>
-      <c r="O72" s="104"/>
-      <c r="P72" s="104"/>
-      <c r="Q72" s="104"/>
-      <c r="R72" s="104"/>
-      <c r="S72" s="104"/>
-      <c r="T72" s="104"/>
-      <c r="U72" s="104"/>
-      <c r="V72" s="104"/>
-      <c r="W72" s="104"/>
-      <c r="X72" s="104"/>
-      <c r="Y72" s="104"/>
-      <c r="Z72" s="104"/>
-    </row>
-    <row r="73" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="133">
+      <c r="I72" s="129"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102"/>
+      <c r="M72" s="102"/>
+      <c r="N72" s="102"/>
+      <c r="O72" s="102"/>
+      <c r="P72" s="102"/>
+      <c r="Q72" s="102"/>
+      <c r="R72" s="102"/>
+      <c r="S72" s="102"/>
+      <c r="T72" s="102"/>
+      <c r="U72" s="102"/>
+      <c r="V72" s="102"/>
+      <c r="W72" s="102"/>
+      <c r="X72" s="102"/>
+      <c r="Y72" s="102"/>
+      <c r="Z72" s="102"/>
+    </row>
+    <row r="73" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="129">
         <v>3</v>
       </c>
-      <c r="B73" s="133" t="s">
+      <c r="B73" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="134" t="s">
+      <c r="C73" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="135"/>
-      <c r="E73" s="136"/>
-      <c r="F73" s="133" t="s">
+      <c r="D73" s="131"/>
+      <c r="E73" s="132"/>
+      <c r="F73" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="133"/>
-      <c r="H73" s="122" t="s">
+      <c r="G73" s="129"/>
+      <c r="H73" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="I73" s="133"/>
-      <c r="J73" s="104"/>
-      <c r="K73" s="104"/>
-      <c r="L73" s="104"/>
-      <c r="M73" s="104"/>
-      <c r="N73" s="104"/>
-      <c r="O73" s="104"/>
-      <c r="P73" s="104"/>
-      <c r="Q73" s="104"/>
-      <c r="R73" s="104"/>
-      <c r="S73" s="104"/>
-      <c r="T73" s="104"/>
-      <c r="U73" s="104"/>
-      <c r="V73" s="104"/>
-      <c r="W73" s="104"/>
-      <c r="X73" s="104"/>
-      <c r="Y73" s="104"/>
-      <c r="Z73" s="104"/>
-    </row>
-    <row r="74" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="133">
+      <c r="I73" s="129"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="102"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="102"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="102"/>
+      <c r="U73" s="102"/>
+      <c r="V73" s="102"/>
+      <c r="W73" s="102"/>
+      <c r="X73" s="102"/>
+      <c r="Y73" s="102"/>
+      <c r="Z73" s="102"/>
+    </row>
+    <row r="74" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="129">
         <v>4</v>
       </c>
-      <c r="B74" s="133" t="s">
+      <c r="B74" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="134" t="s">
+      <c r="C74" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="135"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="133"/>
-      <c r="G74" s="133"/>
-      <c r="H74" s="122"/>
-      <c r="I74" s="133"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="104"/>
-      <c r="N74" s="104"/>
-      <c r="O74" s="104"/>
-      <c r="P74" s="104"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="104"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="104"/>
-      <c r="U74" s="104"/>
-      <c r="V74" s="104"/>
-      <c r="W74" s="104"/>
-      <c r="X74" s="104"/>
-      <c r="Y74" s="104"/>
-      <c r="Z74" s="104"/>
-    </row>
-    <row r="75" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="133">
+      <c r="D74" s="131"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="129"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="102"/>
+      <c r="L74" s="102"/>
+      <c r="M74" s="102"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102"/>
+      <c r="R74" s="102"/>
+      <c r="S74" s="102"/>
+      <c r="T74" s="102"/>
+      <c r="U74" s="102"/>
+      <c r="V74" s="102"/>
+      <c r="W74" s="102"/>
+      <c r="X74" s="102"/>
+      <c r="Y74" s="102"/>
+      <c r="Z74" s="102"/>
+    </row>
+    <row r="75" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="129">
         <v>5</v>
       </c>
-      <c r="B75" s="133" t="s">
+      <c r="B75" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="134" t="s">
+      <c r="C75" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="135"/>
-      <c r="E75" s="136"/>
-      <c r="F75" s="133"/>
-      <c r="G75" s="133"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="133"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="104"/>
-      <c r="O75" s="104"/>
-      <c r="P75" s="104"/>
-      <c r="Q75" s="104"/>
-      <c r="R75" s="104"/>
-      <c r="S75" s="104"/>
-      <c r="T75" s="104"/>
-      <c r="U75" s="104"/>
-      <c r="V75" s="104"/>
-      <c r="W75" s="104"/>
-      <c r="X75" s="104"/>
-      <c r="Y75" s="104"/>
-      <c r="Z75" s="104"/>
-    </row>
-    <row r="76" spans="1:26" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="133">
+      <c r="D75" s="131"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="102"/>
+      <c r="L75" s="102"/>
+      <c r="M75" s="102"/>
+      <c r="N75" s="102"/>
+      <c r="O75" s="102"/>
+      <c r="P75" s="102"/>
+      <c r="Q75" s="102"/>
+      <c r="R75" s="102"/>
+      <c r="S75" s="102"/>
+      <c r="T75" s="102"/>
+      <c r="U75" s="102"/>
+      <c r="V75" s="102"/>
+      <c r="W75" s="102"/>
+      <c r="X75" s="102"/>
+      <c r="Y75" s="102"/>
+      <c r="Z75" s="102"/>
+    </row>
+    <row r="76" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="129">
         <v>6</v>
       </c>
-      <c r="B76" s="133" t="s">
+      <c r="B76" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="134" t="s">
+      <c r="C76" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="135"/>
-      <c r="E76" s="136"/>
-      <c r="F76" s="133"/>
-      <c r="G76" s="133"/>
-      <c r="H76" s="122"/>
-      <c r="I76" s="133"/>
-      <c r="J76" s="104"/>
-      <c r="K76" s="104"/>
-      <c r="L76" s="104"/>
-      <c r="M76" s="104"/>
-      <c r="N76" s="104"/>
-      <c r="O76" s="104"/>
-      <c r="P76" s="104"/>
-      <c r="Q76" s="104"/>
-      <c r="R76" s="104"/>
-      <c r="S76" s="104"/>
-      <c r="T76" s="104"/>
-      <c r="U76" s="104"/>
-      <c r="V76" s="104"/>
-      <c r="W76" s="104"/>
-      <c r="X76" s="104"/>
-      <c r="Y76" s="104"/>
-      <c r="Z76" s="104"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="129"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="102"/>
+      <c r="L76" s="102"/>
+      <c r="M76" s="102"/>
+      <c r="N76" s="102"/>
+      <c r="O76" s="102"/>
+      <c r="P76" s="102"/>
+      <c r="Q76" s="102"/>
+      <c r="R76" s="102"/>
+      <c r="S76" s="102"/>
+      <c r="T76" s="102"/>
+      <c r="U76" s="102"/>
+      <c r="V76" s="102"/>
+      <c r="W76" s="102"/>
+      <c r="X76" s="102"/>
+      <c r="Y76" s="102"/>
+      <c r="Z76" s="102"/>
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="65"/>
@@ -4364,13 +4364,13 @@
       <c r="Z77" s="65"/>
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="154" t="s">
+      <c r="A78" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="155"/>
-      <c r="C78" s="155"/>
-      <c r="D78" s="155"/>
-      <c r="E78" s="155"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="151"/>
+      <c r="D78" s="151"/>
+      <c r="E78" s="151"/>
       <c r="F78" s="82"/>
       <c r="G78" s="82"/>
       <c r="H78" s="81"/>
@@ -4477,213 +4477,213 @@
       <c r="Y80" s="65"/>
       <c r="Z80" s="65"/>
     </row>
-    <row r="81" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="137">
+    <row r="81" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="133">
         <v>2</v>
       </c>
-      <c r="B81" s="137" t="s">
+      <c r="B81" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="138" t="s">
+      <c r="C81" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="139"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="141"/>
-      <c r="I81" s="137"/>
-      <c r="J81" s="142"/>
-      <c r="K81" s="142"/>
-      <c r="L81" s="142"/>
-      <c r="M81" s="142"/>
-      <c r="N81" s="142"/>
-      <c r="O81" s="142"/>
-      <c r="P81" s="142"/>
-      <c r="Q81" s="142"/>
-      <c r="R81" s="142"/>
-      <c r="S81" s="142"/>
-      <c r="T81" s="142"/>
-      <c r="U81" s="142"/>
-      <c r="V81" s="142"/>
-      <c r="W81" s="142"/>
-      <c r="X81" s="142"/>
-      <c r="Y81" s="142"/>
-      <c r="Z81" s="142"/>
-    </row>
-    <row r="82" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="137">
+      <c r="D81" s="135"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="133"/>
+      <c r="G81" s="133"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="133"/>
+      <c r="J81" s="138"/>
+      <c r="K81" s="138"/>
+      <c r="L81" s="138"/>
+      <c r="M81" s="138"/>
+      <c r="N81" s="138"/>
+      <c r="O81" s="138"/>
+      <c r="P81" s="138"/>
+      <c r="Q81" s="138"/>
+      <c r="R81" s="138"/>
+      <c r="S81" s="138"/>
+      <c r="T81" s="138"/>
+      <c r="U81" s="138"/>
+      <c r="V81" s="138"/>
+      <c r="W81" s="138"/>
+      <c r="X81" s="138"/>
+      <c r="Y81" s="138"/>
+      <c r="Z81" s="138"/>
+    </row>
+    <row r="82" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="133">
         <v>3</v>
       </c>
-      <c r="B82" s="137" t="s">
+      <c r="B82" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="138" t="s">
+      <c r="C82" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="139"/>
-      <c r="E82" s="140" t="s">
+      <c r="D82" s="135"/>
+      <c r="E82" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="F82" s="137"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="141"/>
-      <c r="I82" s="137"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="142"/>
-      <c r="L82" s="142"/>
-      <c r="M82" s="142"/>
-      <c r="N82" s="142"/>
-      <c r="O82" s="142"/>
-      <c r="P82" s="142"/>
-      <c r="Q82" s="142"/>
-      <c r="R82" s="142"/>
-      <c r="S82" s="142"/>
-      <c r="T82" s="142"/>
-      <c r="U82" s="142"/>
-      <c r="V82" s="142"/>
-      <c r="W82" s="142"/>
-      <c r="X82" s="142"/>
-      <c r="Y82" s="142"/>
-      <c r="Z82" s="142"/>
-    </row>
-    <row r="83" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="137">
+      <c r="F82" s="133"/>
+      <c r="G82" s="133"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="133"/>
+      <c r="J82" s="138"/>
+      <c r="K82" s="138"/>
+      <c r="L82" s="138"/>
+      <c r="M82" s="138"/>
+      <c r="N82" s="138"/>
+      <c r="O82" s="138"/>
+      <c r="P82" s="138"/>
+      <c r="Q82" s="138"/>
+      <c r="R82" s="138"/>
+      <c r="S82" s="138"/>
+      <c r="T82" s="138"/>
+      <c r="U82" s="138"/>
+      <c r="V82" s="138"/>
+      <c r="W82" s="138"/>
+      <c r="X82" s="138"/>
+      <c r="Y82" s="138"/>
+      <c r="Z82" s="138"/>
+    </row>
+    <row r="83" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="133">
         <v>4</v>
       </c>
-      <c r="B83" s="137" t="s">
+      <c r="B83" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="138" t="s">
+      <c r="C83" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="139"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="141"/>
-      <c r="I83" s="137"/>
-      <c r="J83" s="142"/>
-      <c r="K83" s="142"/>
-      <c r="L83" s="142"/>
-      <c r="M83" s="142"/>
-      <c r="N83" s="142"/>
-      <c r="O83" s="142"/>
-      <c r="P83" s="142"/>
-      <c r="Q83" s="142"/>
-      <c r="R83" s="142"/>
-      <c r="S83" s="142"/>
-      <c r="T83" s="142"/>
-      <c r="U83" s="142"/>
-      <c r="V83" s="142"/>
-      <c r="W83" s="142"/>
-      <c r="X83" s="142"/>
-      <c r="Y83" s="142"/>
-      <c r="Z83" s="142"/>
-    </row>
-    <row r="84" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="137">
+      <c r="D83" s="135"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="133"/>
+      <c r="G83" s="133"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="133"/>
+      <c r="J83" s="138"/>
+      <c r="K83" s="138"/>
+      <c r="L83" s="138"/>
+      <c r="M83" s="138"/>
+      <c r="N83" s="138"/>
+      <c r="O83" s="138"/>
+      <c r="P83" s="138"/>
+      <c r="Q83" s="138"/>
+      <c r="R83" s="138"/>
+      <c r="S83" s="138"/>
+      <c r="T83" s="138"/>
+      <c r="U83" s="138"/>
+      <c r="V83" s="138"/>
+      <c r="W83" s="138"/>
+      <c r="X83" s="138"/>
+      <c r="Y83" s="138"/>
+      <c r="Z83" s="138"/>
+    </row>
+    <row r="84" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="133">
         <v>5</v>
       </c>
-      <c r="B84" s="137" t="s">
+      <c r="B84" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="138" t="s">
+      <c r="C84" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="139"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="141"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="142"/>
-      <c r="K84" s="142"/>
-      <c r="L84" s="142"/>
-      <c r="M84" s="142"/>
-      <c r="N84" s="142"/>
-      <c r="O84" s="142"/>
-      <c r="P84" s="142"/>
-      <c r="Q84" s="142"/>
-      <c r="R84" s="142"/>
-      <c r="S84" s="142"/>
-      <c r="T84" s="142"/>
-      <c r="U84" s="142"/>
-      <c r="V84" s="142"/>
-      <c r="W84" s="142"/>
-      <c r="X84" s="142"/>
-      <c r="Y84" s="142"/>
-      <c r="Z84" s="142"/>
-    </row>
-    <row r="85" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="137">
+      <c r="D84" s="135"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="133"/>
+      <c r="G84" s="133"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="133"/>
+      <c r="J84" s="138"/>
+      <c r="K84" s="138"/>
+      <c r="L84" s="138"/>
+      <c r="M84" s="138"/>
+      <c r="N84" s="138"/>
+      <c r="O84" s="138"/>
+      <c r="P84" s="138"/>
+      <c r="Q84" s="138"/>
+      <c r="R84" s="138"/>
+      <c r="S84" s="138"/>
+      <c r="T84" s="138"/>
+      <c r="U84" s="138"/>
+      <c r="V84" s="138"/>
+      <c r="W84" s="138"/>
+      <c r="X84" s="138"/>
+      <c r="Y84" s="138"/>
+      <c r="Z84" s="138"/>
+    </row>
+    <row r="85" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="133">
         <v>6</v>
       </c>
-      <c r="B85" s="137" t="s">
+      <c r="B85" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="138" t="s">
+      <c r="C85" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="139"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="137" t="s">
+      <c r="D85" s="135"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="133"/>
+      <c r="G85" s="133"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="J85" s="142"/>
-      <c r="K85" s="142"/>
-      <c r="L85" s="142"/>
-      <c r="M85" s="142"/>
-      <c r="N85" s="142"/>
-      <c r="O85" s="142"/>
-      <c r="P85" s="142"/>
-      <c r="Q85" s="142"/>
-      <c r="R85" s="142"/>
-      <c r="S85" s="142"/>
-      <c r="T85" s="142"/>
-      <c r="U85" s="142"/>
-      <c r="V85" s="142"/>
-      <c r="W85" s="142"/>
-      <c r="X85" s="142"/>
-      <c r="Y85" s="142"/>
-      <c r="Z85" s="142"/>
-    </row>
-    <row r="86" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="137">
+      <c r="J85" s="138"/>
+      <c r="K85" s="138"/>
+      <c r="L85" s="138"/>
+      <c r="M85" s="138"/>
+      <c r="N85" s="138"/>
+      <c r="O85" s="138"/>
+      <c r="P85" s="138"/>
+      <c r="Q85" s="138"/>
+      <c r="R85" s="138"/>
+      <c r="S85" s="138"/>
+      <c r="T85" s="138"/>
+      <c r="U85" s="138"/>
+      <c r="V85" s="138"/>
+      <c r="W85" s="138"/>
+      <c r="X85" s="138"/>
+      <c r="Y85" s="138"/>
+      <c r="Z85" s="138"/>
+    </row>
+    <row r="86" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="133">
         <v>7</v>
       </c>
-      <c r="B86" s="137" t="s">
+      <c r="B86" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="138" t="s">
+      <c r="C86" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="139"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="141"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="142"/>
-      <c r="K86" s="142"/>
-      <c r="L86" s="142"/>
-      <c r="M86" s="142"/>
-      <c r="N86" s="142"/>
-      <c r="O86" s="142"/>
-      <c r="P86" s="142"/>
-      <c r="Q86" s="142"/>
-      <c r="R86" s="142"/>
-      <c r="S86" s="142"/>
-      <c r="T86" s="142"/>
-      <c r="U86" s="142"/>
-      <c r="V86" s="142"/>
-      <c r="W86" s="142"/>
-      <c r="X86" s="142"/>
-      <c r="Y86" s="142"/>
-      <c r="Z86" s="142"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="133"/>
+      <c r="G86" s="133"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="133"/>
+      <c r="J86" s="138"/>
+      <c r="K86" s="138"/>
+      <c r="L86" s="138"/>
+      <c r="M86" s="138"/>
+      <c r="N86" s="138"/>
+      <c r="O86" s="138"/>
+      <c r="P86" s="138"/>
+      <c r="Q86" s="138"/>
+      <c r="R86" s="138"/>
+      <c r="S86" s="138"/>
+      <c r="T86" s="138"/>
+      <c r="U86" s="138"/>
+      <c r="V86" s="138"/>
+      <c r="W86" s="138"/>
+      <c r="X86" s="138"/>
+      <c r="Y86" s="138"/>
+      <c r="Z86" s="138"/>
     </row>
     <row r="87" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -4714,13 +4714,13 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="154" t="s">
+      <c r="A88" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="155"/>
-      <c r="C88" s="155"/>
-      <c r="D88" s="155"/>
-      <c r="E88" s="155"/>
+      <c r="B88" s="151"/>
+      <c r="C88" s="151"/>
+      <c r="D88" s="151"/>
+      <c r="E88" s="151"/>
       <c r="F88" s="82"/>
       <c r="G88" s="82"/>
       <c r="H88" s="81"/>
@@ -4789,415 +4789,415 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="143">
+    <row r="90" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="139">
         <v>1</v>
       </c>
-      <c r="B90" s="143" t="s">
+      <c r="B90" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="144" t="s">
+      <c r="C90" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="145"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="147" t="s">
+      <c r="D90" s="141"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G90" s="147"/>
-      <c r="H90" s="148" t="s">
+      <c r="G90" s="143"/>
+      <c r="H90" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="I90" s="147"/>
-      <c r="J90" s="104"/>
-      <c r="K90" s="104"/>
-      <c r="L90" s="104"/>
-      <c r="M90" s="104"/>
-      <c r="N90" s="104"/>
-      <c r="O90" s="104"/>
-      <c r="P90" s="104"/>
-      <c r="Q90" s="104"/>
-      <c r="R90" s="104"/>
-      <c r="S90" s="104"/>
-      <c r="T90" s="104"/>
-      <c r="U90" s="104"/>
-      <c r="V90" s="104"/>
-      <c r="W90" s="104"/>
-      <c r="X90" s="104"/>
-      <c r="Y90" s="104"/>
-      <c r="Z90" s="104"/>
-    </row>
-    <row r="91" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="137">
+      <c r="I90" s="143"/>
+      <c r="J90" s="102"/>
+      <c r="K90" s="102"/>
+      <c r="L90" s="102"/>
+      <c r="M90" s="102"/>
+      <c r="N90" s="102"/>
+      <c r="O90" s="102"/>
+      <c r="P90" s="102"/>
+      <c r="Q90" s="102"/>
+      <c r="R90" s="102"/>
+      <c r="S90" s="102"/>
+      <c r="T90" s="102"/>
+      <c r="U90" s="102"/>
+      <c r="V90" s="102"/>
+      <c r="W90" s="102"/>
+      <c r="X90" s="102"/>
+      <c r="Y90" s="102"/>
+      <c r="Z90" s="102"/>
+    </row>
+    <row r="91" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="133">
         <v>2</v>
       </c>
-      <c r="B91" s="137" t="s">
+      <c r="B91" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="138" t="s">
+      <c r="C91" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="139"/>
-      <c r="E91" s="140"/>
-      <c r="F91" s="137"/>
-      <c r="G91" s="137"/>
-      <c r="H91" s="141"/>
-      <c r="I91" s="137"/>
-      <c r="J91" s="104"/>
-      <c r="K91" s="104"/>
-      <c r="L91" s="104"/>
-      <c r="M91" s="104"/>
-      <c r="N91" s="104"/>
-      <c r="O91" s="104"/>
-      <c r="P91" s="104"/>
-      <c r="Q91" s="104"/>
-      <c r="R91" s="104"/>
-      <c r="S91" s="104"/>
-      <c r="T91" s="104"/>
-      <c r="U91" s="104"/>
-      <c r="V91" s="104"/>
-      <c r="W91" s="104"/>
-      <c r="X91" s="104"/>
-      <c r="Y91" s="104"/>
-      <c r="Z91" s="104"/>
-    </row>
-    <row r="92" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="137">
+      <c r="D91" s="135"/>
+      <c r="E91" s="136"/>
+      <c r="F91" s="133"/>
+      <c r="G91" s="133"/>
+      <c r="H91" s="137"/>
+      <c r="I91" s="133"/>
+      <c r="J91" s="102"/>
+      <c r="K91" s="102"/>
+      <c r="L91" s="102"/>
+      <c r="M91" s="102"/>
+      <c r="N91" s="102"/>
+      <c r="O91" s="102"/>
+      <c r="P91" s="102"/>
+      <c r="Q91" s="102"/>
+      <c r="R91" s="102"/>
+      <c r="S91" s="102"/>
+      <c r="T91" s="102"/>
+      <c r="U91" s="102"/>
+      <c r="V91" s="102"/>
+      <c r="W91" s="102"/>
+      <c r="X91" s="102"/>
+      <c r="Y91" s="102"/>
+      <c r="Z91" s="102"/>
+    </row>
+    <row r="92" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="133">
         <v>3</v>
       </c>
-      <c r="B92" s="137" t="s">
+      <c r="B92" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="138" t="s">
+      <c r="C92" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="139"/>
-      <c r="E92" s="140" t="s">
+      <c r="D92" s="135"/>
+      <c r="E92" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="137"/>
-      <c r="G92" s="137"/>
-      <c r="H92" s="141"/>
-      <c r="I92" s="137"/>
-      <c r="J92" s="104"/>
-      <c r="K92" s="104"/>
-      <c r="L92" s="104"/>
-      <c r="M92" s="104"/>
-      <c r="N92" s="104"/>
-      <c r="O92" s="104"/>
-      <c r="P92" s="104"/>
-      <c r="Q92" s="104"/>
-      <c r="R92" s="104"/>
-      <c r="S92" s="104"/>
-      <c r="T92" s="104"/>
-      <c r="U92" s="104"/>
-      <c r="V92" s="104"/>
-      <c r="W92" s="104"/>
-      <c r="X92" s="104"/>
-      <c r="Y92" s="104"/>
-      <c r="Z92" s="104"/>
-    </row>
-    <row r="93" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="137">
+      <c r="F92" s="133"/>
+      <c r="G92" s="133"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="133"/>
+      <c r="J92" s="102"/>
+      <c r="K92" s="102"/>
+      <c r="L92" s="102"/>
+      <c r="M92" s="102"/>
+      <c r="N92" s="102"/>
+      <c r="O92" s="102"/>
+      <c r="P92" s="102"/>
+      <c r="Q92" s="102"/>
+      <c r="R92" s="102"/>
+      <c r="S92" s="102"/>
+      <c r="T92" s="102"/>
+      <c r="U92" s="102"/>
+      <c r="V92" s="102"/>
+      <c r="W92" s="102"/>
+      <c r="X92" s="102"/>
+      <c r="Y92" s="102"/>
+      <c r="Z92" s="102"/>
+    </row>
+    <row r="93" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="133">
         <v>4</v>
       </c>
-      <c r="B93" s="137" t="s">
+      <c r="B93" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="138" t="s">
+      <c r="C93" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="139"/>
-      <c r="E93" s="140"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="141"/>
-      <c r="I93" s="137"/>
-      <c r="J93" s="104"/>
-      <c r="K93" s="104"/>
-      <c r="L93" s="104"/>
-      <c r="M93" s="104"/>
-      <c r="N93" s="104"/>
-      <c r="O93" s="104"/>
-      <c r="P93" s="104"/>
-      <c r="Q93" s="104"/>
-      <c r="R93" s="104"/>
-      <c r="S93" s="104"/>
-      <c r="T93" s="104"/>
-      <c r="U93" s="104"/>
-      <c r="V93" s="104"/>
-      <c r="W93" s="104"/>
-      <c r="X93" s="104"/>
-      <c r="Y93" s="104"/>
-      <c r="Z93" s="104"/>
-    </row>
-    <row r="94" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="137">
+      <c r="D93" s="135"/>
+      <c r="E93" s="136"/>
+      <c r="F93" s="133"/>
+      <c r="G93" s="133"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="133"/>
+      <c r="J93" s="102"/>
+      <c r="K93" s="102"/>
+      <c r="L93" s="102"/>
+      <c r="M93" s="102"/>
+      <c r="N93" s="102"/>
+      <c r="O93" s="102"/>
+      <c r="P93" s="102"/>
+      <c r="Q93" s="102"/>
+      <c r="R93" s="102"/>
+      <c r="S93" s="102"/>
+      <c r="T93" s="102"/>
+      <c r="U93" s="102"/>
+      <c r="V93" s="102"/>
+      <c r="W93" s="102"/>
+      <c r="X93" s="102"/>
+      <c r="Y93" s="102"/>
+      <c r="Z93" s="102"/>
+    </row>
+    <row r="94" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="133">
         <v>5</v>
       </c>
-      <c r="B94" s="137" t="s">
+      <c r="B94" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="138" t="s">
+      <c r="C94" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D94" s="139"/>
-      <c r="E94" s="140"/>
-      <c r="F94" s="137"/>
-      <c r="G94" s="137"/>
-      <c r="H94" s="141"/>
-      <c r="I94" s="137"/>
-      <c r="J94" s="104"/>
-      <c r="K94" s="104"/>
-      <c r="L94" s="104"/>
-      <c r="M94" s="104"/>
-      <c r="N94" s="104"/>
-      <c r="O94" s="104"/>
-      <c r="P94" s="104"/>
-      <c r="Q94" s="104"/>
-      <c r="R94" s="104"/>
-      <c r="S94" s="104"/>
-      <c r="T94" s="104"/>
-      <c r="U94" s="104"/>
-      <c r="V94" s="104"/>
-      <c r="W94" s="104"/>
-      <c r="X94" s="104"/>
-      <c r="Y94" s="104"/>
-      <c r="Z94" s="104"/>
-    </row>
-    <row r="95" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="137">
+      <c r="D94" s="135"/>
+      <c r="E94" s="136"/>
+      <c r="F94" s="133"/>
+      <c r="G94" s="133"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="133"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
+      <c r="M94" s="102"/>
+      <c r="N94" s="102"/>
+      <c r="O94" s="102"/>
+      <c r="P94" s="102"/>
+      <c r="Q94" s="102"/>
+      <c r="R94" s="102"/>
+      <c r="S94" s="102"/>
+      <c r="T94" s="102"/>
+      <c r="U94" s="102"/>
+      <c r="V94" s="102"/>
+      <c r="W94" s="102"/>
+      <c r="X94" s="102"/>
+      <c r="Y94" s="102"/>
+      <c r="Z94" s="102"/>
+    </row>
+    <row r="95" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="133">
         <v>6</v>
       </c>
-      <c r="B95" s="137" t="s">
+      <c r="B95" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="138" t="s">
+      <c r="C95" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="D95" s="139"/>
-      <c r="E95" s="140"/>
-      <c r="F95" s="137"/>
-      <c r="G95" s="137"/>
-      <c r="H95" s="141"/>
-      <c r="I95" s="137" t="s">
+      <c r="D95" s="135"/>
+      <c r="E95" s="136"/>
+      <c r="F95" s="133"/>
+      <c r="G95" s="133"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="J95" s="104"/>
-      <c r="K95" s="104"/>
-      <c r="L95" s="104"/>
-      <c r="M95" s="104"/>
-      <c r="N95" s="104"/>
-      <c r="O95" s="104"/>
-      <c r="P95" s="104"/>
-      <c r="Q95" s="104"/>
-      <c r="R95" s="104"/>
-      <c r="S95" s="104"/>
-      <c r="T95" s="104"/>
-      <c r="U95" s="104"/>
-      <c r="V95" s="104"/>
-      <c r="W95" s="104"/>
-      <c r="X95" s="104"/>
-      <c r="Y95" s="104"/>
-      <c r="Z95" s="104"/>
-    </row>
-    <row r="96" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="137">
+      <c r="J95" s="102"/>
+      <c r="K95" s="102"/>
+      <c r="L95" s="102"/>
+      <c r="M95" s="102"/>
+      <c r="N95" s="102"/>
+      <c r="O95" s="102"/>
+      <c r="P95" s="102"/>
+      <c r="Q95" s="102"/>
+      <c r="R95" s="102"/>
+      <c r="S95" s="102"/>
+      <c r="T95" s="102"/>
+      <c r="U95" s="102"/>
+      <c r="V95" s="102"/>
+      <c r="W95" s="102"/>
+      <c r="X95" s="102"/>
+      <c r="Y95" s="102"/>
+      <c r="Z95" s="102"/>
+    </row>
+    <row r="96" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="133">
         <v>7</v>
       </c>
-      <c r="B96" s="137" t="s">
+      <c r="B96" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="138" t="s">
+      <c r="C96" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="139"/>
-      <c r="E96" s="140"/>
-      <c r="F96" s="137"/>
-      <c r="G96" s="137"/>
-      <c r="H96" s="141"/>
-      <c r="I96" s="137"/>
-      <c r="J96" s="142"/>
-      <c r="K96" s="142"/>
-      <c r="L96" s="142"/>
-      <c r="M96" s="142"/>
-      <c r="N96" s="142"/>
-      <c r="O96" s="142"/>
-      <c r="P96" s="142"/>
-      <c r="Q96" s="142"/>
-      <c r="R96" s="142"/>
-      <c r="S96" s="142"/>
-      <c r="T96" s="142"/>
-      <c r="U96" s="142"/>
-      <c r="V96" s="142"/>
-      <c r="W96" s="142"/>
-      <c r="X96" s="142"/>
-      <c r="Y96" s="142"/>
-      <c r="Z96" s="142"/>
-    </row>
-    <row r="97" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="149">
+      <c r="D96" s="135"/>
+      <c r="E96" s="136"/>
+      <c r="F96" s="133"/>
+      <c r="G96" s="133"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="133"/>
+      <c r="J96" s="138"/>
+      <c r="K96" s="138"/>
+      <c r="L96" s="138"/>
+      <c r="M96" s="138"/>
+      <c r="N96" s="138"/>
+      <c r="O96" s="138"/>
+      <c r="P96" s="138"/>
+      <c r="Q96" s="138"/>
+      <c r="R96" s="138"/>
+      <c r="S96" s="138"/>
+      <c r="T96" s="138"/>
+      <c r="U96" s="138"/>
+      <c r="V96" s="138"/>
+      <c r="W96" s="138"/>
+      <c r="X96" s="138"/>
+      <c r="Y96" s="138"/>
+      <c r="Z96" s="138"/>
+    </row>
+    <row r="97" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="145">
         <v>8</v>
       </c>
-      <c r="B97" s="149" t="s">
+      <c r="B97" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="150" t="s">
+      <c r="C97" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="151"/>
-      <c r="E97" s="152"/>
-      <c r="F97" s="149"/>
-      <c r="G97" s="149" t="s">
+      <c r="D97" s="147"/>
+      <c r="E97" s="148"/>
+      <c r="F97" s="145"/>
+      <c r="G97" s="145" t="s">
         <v>174</v>
       </c>
-      <c r="H97" s="153"/>
-      <c r="I97" s="149"/>
-      <c r="J97" s="142"/>
-      <c r="K97" s="142"/>
-      <c r="L97" s="142"/>
-      <c r="M97" s="142"/>
-      <c r="N97" s="142"/>
-      <c r="O97" s="142"/>
-      <c r="P97" s="142"/>
-      <c r="Q97" s="142"/>
-      <c r="R97" s="142"/>
-      <c r="S97" s="142"/>
-      <c r="T97" s="142"/>
-      <c r="U97" s="142"/>
-      <c r="V97" s="142"/>
-      <c r="W97" s="142"/>
-      <c r="X97" s="142"/>
-      <c r="Y97" s="142"/>
-      <c r="Z97" s="142"/>
-    </row>
-    <row r="98" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="149"/>
-      <c r="B98" s="149" t="s">
+      <c r="H97" s="149"/>
+      <c r="I97" s="145"/>
+      <c r="J97" s="138"/>
+      <c r="K97" s="138"/>
+      <c r="L97" s="138"/>
+      <c r="M97" s="138"/>
+      <c r="N97" s="138"/>
+      <c r="O97" s="138"/>
+      <c r="P97" s="138"/>
+      <c r="Q97" s="138"/>
+      <c r="R97" s="138"/>
+      <c r="S97" s="138"/>
+      <c r="T97" s="138"/>
+      <c r="U97" s="138"/>
+      <c r="V97" s="138"/>
+      <c r="W97" s="138"/>
+      <c r="X97" s="138"/>
+      <c r="Y97" s="138"/>
+      <c r="Z97" s="138"/>
+    </row>
+    <row r="98" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="145"/>
+      <c r="B98" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="150" t="s">
+      <c r="C98" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="D98" s="151"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="149"/>
-      <c r="G98" s="149"/>
-      <c r="H98" s="153"/>
-      <c r="I98" s="149"/>
-      <c r="J98" s="142"/>
-      <c r="K98" s="142"/>
-      <c r="L98" s="142"/>
-      <c r="M98" s="142"/>
-      <c r="N98" s="142"/>
-      <c r="O98" s="142"/>
-      <c r="P98" s="142"/>
-      <c r="Q98" s="142"/>
-      <c r="R98" s="142"/>
-      <c r="S98" s="142"/>
-      <c r="T98" s="142"/>
-      <c r="U98" s="142"/>
-      <c r="V98" s="142"/>
-      <c r="W98" s="142"/>
-      <c r="X98" s="142"/>
-      <c r="Y98" s="142"/>
-      <c r="Z98" s="142"/>
-    </row>
-    <row r="99" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="149"/>
-      <c r="B99" s="149" t="s">
+      <c r="D98" s="147"/>
+      <c r="E98" s="148"/>
+      <c r="F98" s="145"/>
+      <c r="G98" s="145"/>
+      <c r="H98" s="149"/>
+      <c r="I98" s="145"/>
+      <c r="J98" s="138"/>
+      <c r="K98" s="138"/>
+      <c r="L98" s="138"/>
+      <c r="M98" s="138"/>
+      <c r="N98" s="138"/>
+      <c r="O98" s="138"/>
+      <c r="P98" s="138"/>
+      <c r="Q98" s="138"/>
+      <c r="R98" s="138"/>
+      <c r="S98" s="138"/>
+      <c r="T98" s="138"/>
+      <c r="U98" s="138"/>
+      <c r="V98" s="138"/>
+      <c r="W98" s="138"/>
+      <c r="X98" s="138"/>
+      <c r="Y98" s="138"/>
+      <c r="Z98" s="138"/>
+    </row>
+    <row r="99" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="145"/>
+      <c r="B99" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="150" t="s">
+      <c r="C99" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="D99" s="151"/>
-      <c r="E99" s="152"/>
-      <c r="F99" s="149"/>
-      <c r="G99" s="149"/>
-      <c r="H99" s="153"/>
-      <c r="I99" s="149"/>
-      <c r="J99" s="142"/>
-      <c r="K99" s="142"/>
-      <c r="L99" s="142"/>
-      <c r="M99" s="142"/>
-      <c r="N99" s="142"/>
-      <c r="O99" s="142"/>
-      <c r="P99" s="142"/>
-      <c r="Q99" s="142"/>
-      <c r="R99" s="142"/>
-      <c r="S99" s="142"/>
-      <c r="T99" s="142"/>
-      <c r="U99" s="142"/>
-      <c r="V99" s="142"/>
-      <c r="W99" s="142"/>
-      <c r="X99" s="142"/>
-      <c r="Y99" s="142"/>
-      <c r="Z99" s="142"/>
-    </row>
-    <row r="100" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="149"/>
-      <c r="B100" s="149" t="s">
+      <c r="D99" s="147"/>
+      <c r="E99" s="148"/>
+      <c r="F99" s="145"/>
+      <c r="G99" s="145"/>
+      <c r="H99" s="149"/>
+      <c r="I99" s="145"/>
+      <c r="J99" s="138"/>
+      <c r="K99" s="138"/>
+      <c r="L99" s="138"/>
+      <c r="M99" s="138"/>
+      <c r="N99" s="138"/>
+      <c r="O99" s="138"/>
+      <c r="P99" s="138"/>
+      <c r="Q99" s="138"/>
+      <c r="R99" s="138"/>
+      <c r="S99" s="138"/>
+      <c r="T99" s="138"/>
+      <c r="U99" s="138"/>
+      <c r="V99" s="138"/>
+      <c r="W99" s="138"/>
+      <c r="X99" s="138"/>
+      <c r="Y99" s="138"/>
+      <c r="Z99" s="138"/>
+    </row>
+    <row r="100" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="145"/>
+      <c r="B100" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="150" t="s">
+      <c r="C100" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="151"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="149"/>
-      <c r="G100" s="149"/>
-      <c r="H100" s="153"/>
-      <c r="I100" s="149"/>
-      <c r="J100" s="142"/>
-      <c r="K100" s="142"/>
-      <c r="L100" s="142"/>
-      <c r="M100" s="142"/>
-      <c r="N100" s="142"/>
-      <c r="O100" s="142"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="142"/>
-      <c r="R100" s="142"/>
-      <c r="S100" s="142"/>
-      <c r="T100" s="142"/>
-      <c r="U100" s="142"/>
-      <c r="V100" s="142"/>
-      <c r="W100" s="142"/>
-      <c r="X100" s="142"/>
-      <c r="Y100" s="142"/>
-      <c r="Z100" s="142"/>
-    </row>
-    <row r="101" spans="1:26" s="105" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="149"/>
-      <c r="B101" s="149" t="s">
+      <c r="D100" s="147"/>
+      <c r="E100" s="148"/>
+      <c r="F100" s="145"/>
+      <c r="G100" s="145"/>
+      <c r="H100" s="149"/>
+      <c r="I100" s="145"/>
+      <c r="J100" s="138"/>
+      <c r="K100" s="138"/>
+      <c r="L100" s="138"/>
+      <c r="M100" s="138"/>
+      <c r="N100" s="138"/>
+      <c r="O100" s="138"/>
+      <c r="P100" s="138"/>
+      <c r="Q100" s="138"/>
+      <c r="R100" s="138"/>
+      <c r="S100" s="138"/>
+      <c r="T100" s="138"/>
+      <c r="U100" s="138"/>
+      <c r="V100" s="138"/>
+      <c r="W100" s="138"/>
+      <c r="X100" s="138"/>
+      <c r="Y100" s="138"/>
+      <c r="Z100" s="138"/>
+    </row>
+    <row r="101" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="145"/>
+      <c r="B101" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="150" t="s">
+      <c r="C101" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="151"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="149"/>
-      <c r="G101" s="149"/>
-      <c r="H101" s="153"/>
-      <c r="I101" s="149"/>
-      <c r="J101" s="142"/>
-      <c r="K101" s="142"/>
-      <c r="L101" s="142"/>
-      <c r="M101" s="142"/>
-      <c r="N101" s="142"/>
-      <c r="O101" s="142"/>
-      <c r="P101" s="142"/>
-      <c r="Q101" s="142"/>
-      <c r="R101" s="142"/>
-      <c r="S101" s="142"/>
-      <c r="T101" s="142"/>
-      <c r="U101" s="142"/>
-      <c r="V101" s="142"/>
-      <c r="W101" s="142"/>
-      <c r="X101" s="142"/>
-      <c r="Y101" s="142"/>
-      <c r="Z101" s="142"/>
+      <c r="D101" s="147"/>
+      <c r="E101" s="148"/>
+      <c r="F101" s="145"/>
+      <c r="G101" s="145"/>
+      <c r="H101" s="149"/>
+      <c r="I101" s="145"/>
+      <c r="J101" s="138"/>
+      <c r="K101" s="138"/>
+      <c r="L101" s="138"/>
+      <c r="M101" s="138"/>
+      <c r="N101" s="138"/>
+      <c r="O101" s="138"/>
+      <c r="P101" s="138"/>
+      <c r="Q101" s="138"/>
+      <c r="R101" s="138"/>
+      <c r="S101" s="138"/>
+      <c r="T101" s="138"/>
+      <c r="U101" s="138"/>
+      <c r="V101" s="138"/>
+      <c r="W101" s="138"/>
+      <c r="X101" s="138"/>
+      <c r="Y101" s="138"/>
+      <c r="Z101" s="138"/>
     </row>
     <row r="102" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -5228,13 +5228,13 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="154" t="s">
+      <c r="A103" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="155"/>
-      <c r="C103" s="155"/>
-      <c r="D103" s="155"/>
-      <c r="E103" s="155"/>
+      <c r="B103" s="151"/>
+      <c r="C103" s="151"/>
+      <c r="D103" s="151"/>
+      <c r="E103" s="151"/>
       <c r="F103" s="82"/>
       <c r="G103" s="82"/>
       <c r="H103" s="81"/>
@@ -5303,215 +5303,215 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="143">
+    <row r="105" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="139">
         <v>1</v>
       </c>
-      <c r="B105" s="143" t="s">
+      <c r="B105" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="144" t="s">
+      <c r="C105" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="145"/>
-      <c r="E105" s="146"/>
-      <c r="F105" s="147" t="s">
+      <c r="D105" s="141"/>
+      <c r="E105" s="142"/>
+      <c r="F105" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="147"/>
-      <c r="H105" s="148" t="s">
+      <c r="G105" s="143"/>
+      <c r="H105" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="147"/>
-      <c r="J105" s="104"/>
-      <c r="K105" s="104"/>
-      <c r="L105" s="104"/>
-      <c r="M105" s="104"/>
-      <c r="N105" s="104"/>
-      <c r="O105" s="104"/>
-      <c r="P105" s="104"/>
-      <c r="Q105" s="104"/>
-      <c r="R105" s="104"/>
-      <c r="S105" s="104"/>
-      <c r="T105" s="104"/>
-      <c r="U105" s="104"/>
-      <c r="V105" s="104"/>
-      <c r="W105" s="104"/>
-      <c r="X105" s="104"/>
-      <c r="Y105" s="104"/>
-      <c r="Z105" s="104"/>
-    </row>
-    <row r="106" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="137">
+      <c r="I105" s="143"/>
+      <c r="J105" s="102"/>
+      <c r="K105" s="102"/>
+      <c r="L105" s="102"/>
+      <c r="M105" s="102"/>
+      <c r="N105" s="102"/>
+      <c r="O105" s="102"/>
+      <c r="P105" s="102"/>
+      <c r="Q105" s="102"/>
+      <c r="R105" s="102"/>
+      <c r="S105" s="102"/>
+      <c r="T105" s="102"/>
+      <c r="U105" s="102"/>
+      <c r="V105" s="102"/>
+      <c r="W105" s="102"/>
+      <c r="X105" s="102"/>
+      <c r="Y105" s="102"/>
+      <c r="Z105" s="102"/>
+    </row>
+    <row r="106" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="133">
         <v>2</v>
       </c>
-      <c r="B106" s="137" t="s">
+      <c r="B106" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="138" t="s">
+      <c r="C106" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="139"/>
-      <c r="E106" s="140"/>
-      <c r="F106" s="137" t="s">
+      <c r="D106" s="135"/>
+      <c r="E106" s="136"/>
+      <c r="F106" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="137"/>
-      <c r="H106" s="141"/>
-      <c r="I106" s="137"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="104"/>
-      <c r="L106" s="104"/>
-      <c r="M106" s="104"/>
-      <c r="N106" s="104"/>
-      <c r="O106" s="104"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
-      <c r="R106" s="104"/>
-      <c r="S106" s="104"/>
-      <c r="T106" s="104"/>
-      <c r="U106" s="104"/>
-      <c r="V106" s="104"/>
-      <c r="W106" s="104"/>
-      <c r="X106" s="104"/>
-      <c r="Y106" s="104"/>
-      <c r="Z106" s="104"/>
-    </row>
-    <row r="107" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="137">
+      <c r="G106" s="133"/>
+      <c r="H106" s="137"/>
+      <c r="I106" s="133"/>
+      <c r="J106" s="102"/>
+      <c r="K106" s="102"/>
+      <c r="L106" s="102"/>
+      <c r="M106" s="102"/>
+      <c r="N106" s="102"/>
+      <c r="O106" s="102"/>
+      <c r="P106" s="102"/>
+      <c r="Q106" s="102"/>
+      <c r="R106" s="102"/>
+      <c r="S106" s="102"/>
+      <c r="T106" s="102"/>
+      <c r="U106" s="102"/>
+      <c r="V106" s="102"/>
+      <c r="W106" s="102"/>
+      <c r="X106" s="102"/>
+      <c r="Y106" s="102"/>
+      <c r="Z106" s="102"/>
+    </row>
+    <row r="107" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="133">
         <v>3</v>
       </c>
-      <c r="B107" s="137" t="s">
+      <c r="B107" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C107" s="138" t="s">
+      <c r="C107" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="139"/>
-      <c r="E107" s="140"/>
-      <c r="F107" s="137"/>
-      <c r="G107" s="137"/>
-      <c r="H107" s="141"/>
-      <c r="I107" s="137"/>
-      <c r="J107" s="104"/>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="104"/>
-      <c r="O107" s="104"/>
-      <c r="P107" s="104"/>
-      <c r="Q107" s="104"/>
-      <c r="R107" s="104"/>
-      <c r="S107" s="104"/>
-      <c r="T107" s="104"/>
-      <c r="U107" s="104"/>
-      <c r="V107" s="104"/>
-      <c r="W107" s="104"/>
-      <c r="X107" s="104"/>
-      <c r="Y107" s="104"/>
-      <c r="Z107" s="104"/>
-    </row>
-    <row r="108" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="137">
+      <c r="D107" s="135"/>
+      <c r="E107" s="136"/>
+      <c r="F107" s="133"/>
+      <c r="G107" s="133"/>
+      <c r="H107" s="137"/>
+      <c r="I107" s="133"/>
+      <c r="J107" s="102"/>
+      <c r="K107" s="102"/>
+      <c r="L107" s="102"/>
+      <c r="M107" s="102"/>
+      <c r="N107" s="102"/>
+      <c r="O107" s="102"/>
+      <c r="P107" s="102"/>
+      <c r="Q107" s="102"/>
+      <c r="R107" s="102"/>
+      <c r="S107" s="102"/>
+      <c r="T107" s="102"/>
+      <c r="U107" s="102"/>
+      <c r="V107" s="102"/>
+      <c r="W107" s="102"/>
+      <c r="X107" s="102"/>
+      <c r="Y107" s="102"/>
+      <c r="Z107" s="102"/>
+    </row>
+    <row r="108" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="133">
         <v>4</v>
       </c>
-      <c r="B108" s="137" t="s">
+      <c r="B108" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="C108" s="138" t="s">
+      <c r="C108" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="D108" s="139"/>
-      <c r="E108" s="140"/>
-      <c r="F108" s="137"/>
-      <c r="G108" s="137"/>
-      <c r="H108" s="141"/>
-      <c r="I108" s="137"/>
-      <c r="J108" s="104"/>
-      <c r="K108" s="104"/>
-      <c r="L108" s="104"/>
-      <c r="M108" s="104"/>
-      <c r="N108" s="104"/>
-      <c r="O108" s="104"/>
-      <c r="P108" s="104"/>
-      <c r="Q108" s="104"/>
-      <c r="R108" s="104"/>
-      <c r="S108" s="104"/>
-      <c r="T108" s="104"/>
-      <c r="U108" s="104"/>
-      <c r="V108" s="104"/>
-      <c r="W108" s="104"/>
-      <c r="X108" s="104"/>
-      <c r="Y108" s="104"/>
-      <c r="Z108" s="104"/>
-    </row>
-    <row r="109" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="137">
+      <c r="D108" s="135"/>
+      <c r="E108" s="136"/>
+      <c r="F108" s="133"/>
+      <c r="G108" s="133"/>
+      <c r="H108" s="137"/>
+      <c r="I108" s="133"/>
+      <c r="J108" s="102"/>
+      <c r="K108" s="102"/>
+      <c r="L108" s="102"/>
+      <c r="M108" s="102"/>
+      <c r="N108" s="102"/>
+      <c r="O108" s="102"/>
+      <c r="P108" s="102"/>
+      <c r="Q108" s="102"/>
+      <c r="R108" s="102"/>
+      <c r="S108" s="102"/>
+      <c r="T108" s="102"/>
+      <c r="U108" s="102"/>
+      <c r="V108" s="102"/>
+      <c r="W108" s="102"/>
+      <c r="X108" s="102"/>
+      <c r="Y108" s="102"/>
+      <c r="Z108" s="102"/>
+    </row>
+    <row r="109" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="133">
         <v>5</v>
       </c>
-      <c r="B109" s="137" t="s">
+      <c r="B109" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="C109" s="138" t="s">
+      <c r="C109" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="D109" s="139"/>
-      <c r="E109" s="140"/>
-      <c r="F109" s="137"/>
-      <c r="G109" s="137"/>
-      <c r="H109" s="141"/>
-      <c r="I109" s="137"/>
-      <c r="J109" s="104"/>
-      <c r="K109" s="104"/>
-      <c r="L109" s="104"/>
-      <c r="M109" s="104"/>
-      <c r="N109" s="104"/>
-      <c r="O109" s="104"/>
-      <c r="P109" s="104"/>
-      <c r="Q109" s="104"/>
-      <c r="R109" s="104"/>
-      <c r="S109" s="104"/>
-      <c r="T109" s="104"/>
-      <c r="U109" s="104"/>
-      <c r="V109" s="104"/>
-      <c r="W109" s="104"/>
-      <c r="X109" s="104"/>
-      <c r="Y109" s="104"/>
-      <c r="Z109" s="104"/>
-    </row>
-    <row r="110" spans="1:26" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="137">
+      <c r="D109" s="135"/>
+      <c r="E109" s="136"/>
+      <c r="F109" s="133"/>
+      <c r="G109" s="133"/>
+      <c r="H109" s="137"/>
+      <c r="I109" s="133"/>
+      <c r="J109" s="102"/>
+      <c r="K109" s="102"/>
+      <c r="L109" s="102"/>
+      <c r="M109" s="102"/>
+      <c r="N109" s="102"/>
+      <c r="O109" s="102"/>
+      <c r="P109" s="102"/>
+      <c r="Q109" s="102"/>
+      <c r="R109" s="102"/>
+      <c r="S109" s="102"/>
+      <c r="T109" s="102"/>
+      <c r="U109" s="102"/>
+      <c r="V109" s="102"/>
+      <c r="W109" s="102"/>
+      <c r="X109" s="102"/>
+      <c r="Y109" s="102"/>
+      <c r="Z109" s="102"/>
+    </row>
+    <row r="110" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="133">
         <v>6</v>
       </c>
-      <c r="B110" s="137" t="s">
+      <c r="B110" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="138" t="s">
+      <c r="C110" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="D110" s="139"/>
-      <c r="E110" s="140"/>
-      <c r="F110" s="137"/>
-      <c r="G110" s="137"/>
-      <c r="H110" s="141"/>
-      <c r="I110" s="137"/>
-      <c r="J110" s="104"/>
-      <c r="K110" s="104"/>
-      <c r="L110" s="104"/>
-      <c r="M110" s="104"/>
-      <c r="N110" s="104"/>
-      <c r="O110" s="104"/>
-      <c r="P110" s="104"/>
-      <c r="Q110" s="104"/>
-      <c r="R110" s="104"/>
-      <c r="S110" s="104"/>
-      <c r="T110" s="104"/>
-      <c r="U110" s="104"/>
-      <c r="V110" s="104"/>
-      <c r="W110" s="104"/>
-      <c r="X110" s="104"/>
-      <c r="Y110" s="104"/>
-      <c r="Z110" s="104"/>
+      <c r="D110" s="135"/>
+      <c r="E110" s="136"/>
+      <c r="F110" s="133"/>
+      <c r="G110" s="133"/>
+      <c r="H110" s="137"/>
+      <c r="I110" s="133"/>
+      <c r="J110" s="102"/>
+      <c r="K110" s="102"/>
+      <c r="L110" s="102"/>
+      <c r="M110" s="102"/>
+      <c r="N110" s="102"/>
+      <c r="O110" s="102"/>
+      <c r="P110" s="102"/>
+      <c r="Q110" s="102"/>
+      <c r="R110" s="102"/>
+      <c r="S110" s="102"/>
+      <c r="T110" s="102"/>
+      <c r="U110" s="102"/>
+      <c r="V110" s="102"/>
+      <c r="W110" s="102"/>
+      <c r="X110" s="102"/>
+      <c r="Y110" s="102"/>
+      <c r="Z110" s="102"/>
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="91"/>
@@ -27670,13 +27670,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="81"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93FBB0-4809-C74A-B21A-E21F8ADBB69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF5524-F66B-DC48-82F4-393CBF5A17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -673,6 +673,13 @@
     <font>
       <i/>
       <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -896,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1226,17 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1263,12 +1259,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1592,7 +1588,7 @@
   <dimension ref="A2:Z900"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1830,21 +1826,21 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160">
+      <c r="A8" s="155">
         <v>4</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="160"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160" t="s">
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155" t="s">
         <v>131</v>
       </c>
       <c r="J8" s="102"/>
@@ -1866,21 +1862,21 @@
       <c r="Z8" s="102"/>
     </row>
     <row r="9" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162">
+      <c r="A9" s="157">
         <v>5</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="102"/>
       <c r="K9" s="102"/>
       <c r="L9" s="102"/>
@@ -1900,21 +1896,21 @@
       <c r="Z9" s="102"/>
     </row>
     <row r="10" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162">
+      <c r="A10" s="157">
         <v>6</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="102"/>
       <c r="K10" s="102"/>
       <c r="L10" s="102"/>
@@ -2254,17 +2250,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2618,17 +2614,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="154"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2982,17 +2978,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3490,13 +3486,13 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="157" t="s">
+      <c r="A54" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="158"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -4044,13 +4040,13 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="159" t="s">
+      <c r="A69" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="158"/>
-      <c r="C69" s="158"/>
-      <c r="D69" s="158"/>
-      <c r="E69" s="158"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="153"/>
       <c r="F69" s="63"/>
       <c r="G69" s="63"/>
       <c r="H69" s="50"/>
@@ -4364,13 +4360,13 @@
       <c r="Z77" s="65"/>
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="150" t="s">
+      <c r="A78" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="151"/>
-      <c r="C78" s="151"/>
-      <c r="D78" s="151"/>
-      <c r="E78" s="151"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="146"/>
       <c r="F78" s="82"/>
       <c r="G78" s="82"/>
       <c r="H78" s="81"/>
@@ -4714,13 +4710,13 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="150" t="s">
+      <c r="A88" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="151"/>
-      <c r="C88" s="151"/>
-      <c r="D88" s="151"/>
-      <c r="E88" s="151"/>
+      <c r="B88" s="146"/>
+      <c r="C88" s="146"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="146"/>
       <c r="F88" s="82"/>
       <c r="G88" s="82"/>
       <c r="H88" s="81"/>
@@ -5036,23 +5032,23 @@
       <c r="Z96" s="138"/>
     </row>
     <row r="97" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="145">
+      <c r="A97" s="133">
         <v>8</v>
       </c>
-      <c r="B97" s="145" t="s">
+      <c r="B97" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="146" t="s">
+      <c r="C97" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="147"/>
-      <c r="E97" s="148"/>
-      <c r="F97" s="145"/>
-      <c r="G97" s="145" t="s">
+      <c r="D97" s="135"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="133"/>
+      <c r="G97" s="133" t="s">
         <v>174</v>
       </c>
-      <c r="H97" s="149"/>
-      <c r="I97" s="145"/>
+      <c r="H97" s="137"/>
+      <c r="I97" s="133"/>
       <c r="J97" s="138"/>
       <c r="K97" s="138"/>
       <c r="L97" s="138"/>
@@ -5072,19 +5068,19 @@
       <c r="Z97" s="138"/>
     </row>
     <row r="98" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="145"/>
-      <c r="B98" s="145" t="s">
+      <c r="A98" s="133"/>
+      <c r="B98" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="146" t="s">
+      <c r="C98" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D98" s="147"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="145"/>
-      <c r="G98" s="145"/>
-      <c r="H98" s="149"/>
-      <c r="I98" s="145"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="136"/>
+      <c r="F98" s="133"/>
+      <c r="G98" s="133"/>
+      <c r="H98" s="137"/>
+      <c r="I98" s="133"/>
       <c r="J98" s="138"/>
       <c r="K98" s="138"/>
       <c r="L98" s="138"/>
@@ -5104,19 +5100,19 @@
       <c r="Z98" s="138"/>
     </row>
     <row r="99" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="145"/>
-      <c r="B99" s="145" t="s">
+      <c r="A99" s="133"/>
+      <c r="B99" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="146" t="s">
+      <c r="C99" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="D99" s="147"/>
-      <c r="E99" s="148"/>
-      <c r="F99" s="145"/>
-      <c r="G99" s="145"/>
-      <c r="H99" s="149"/>
-      <c r="I99" s="145"/>
+      <c r="D99" s="135"/>
+      <c r="E99" s="136"/>
+      <c r="F99" s="133"/>
+      <c r="G99" s="133"/>
+      <c r="H99" s="137"/>
+      <c r="I99" s="133"/>
       <c r="J99" s="138"/>
       <c r="K99" s="138"/>
       <c r="L99" s="138"/>
@@ -5136,19 +5132,19 @@
       <c r="Z99" s="138"/>
     </row>
     <row r="100" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="145"/>
-      <c r="B100" s="145" t="s">
+      <c r="A100" s="133"/>
+      <c r="B100" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="146" t="s">
+      <c r="C100" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="147"/>
-      <c r="E100" s="148"/>
-      <c r="F100" s="145"/>
-      <c r="G100" s="145"/>
-      <c r="H100" s="149"/>
-      <c r="I100" s="145"/>
+      <c r="D100" s="135"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="133"/>
+      <c r="G100" s="133"/>
+      <c r="H100" s="137"/>
+      <c r="I100" s="133"/>
       <c r="J100" s="138"/>
       <c r="K100" s="138"/>
       <c r="L100" s="138"/>
@@ -5168,19 +5164,19 @@
       <c r="Z100" s="138"/>
     </row>
     <row r="101" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="145"/>
-      <c r="B101" s="145" t="s">
+      <c r="A101" s="133"/>
+      <c r="B101" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="146" t="s">
+      <c r="C101" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="147"/>
-      <c r="E101" s="148"/>
-      <c r="F101" s="145"/>
-      <c r="G101" s="145"/>
-      <c r="H101" s="149"/>
-      <c r="I101" s="145"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="136"/>
+      <c r="F101" s="133"/>
+      <c r="G101" s="133"/>
+      <c r="H101" s="137"/>
+      <c r="I101" s="133"/>
       <c r="J101" s="138"/>
       <c r="K101" s="138"/>
       <c r="L101" s="138"/>
@@ -5228,13 +5224,13 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="150" t="s">
+      <c r="A103" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="151"/>
-      <c r="C103" s="151"/>
-      <c r="D103" s="151"/>
-      <c r="E103" s="151"/>
+      <c r="B103" s="146"/>
+      <c r="C103" s="146"/>
+      <c r="D103" s="146"/>
+      <c r="E103" s="146"/>
       <c r="F103" s="82"/>
       <c r="G103" s="82"/>
       <c r="H103" s="81"/>
@@ -27670,13 +27666,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="81"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF5524-F66B-DC48-82F4-393CBF5A17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D3407-37A1-C74F-BA87-D5F96B768A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="177">
   <si>
     <t>No.</t>
   </si>
@@ -179,12 +179,6 @@
   </si>
   <si>
     <t>Reference Employees (Id)</t>
-  </si>
-  <si>
-    <t>OrderId</t>
-  </si>
-  <si>
-    <t>Reference Orders (Id)</t>
   </si>
   <si>
     <t>ProductId</t>
@@ -578,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -682,6 +676,12 @@
       <color rgb="FF0070C0"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -903,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,6 +1233,14 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1259,14 +1267,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1286,7 +1287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1574,7 +1575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1585,10 +1586,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Z900"/>
+  <dimension ref="A2:Z899"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1609,7 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1637,7 +1638,7 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -1719,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1757,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7">
         <v>50</v>
@@ -1795,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7">
         <v>500</v>
@@ -1826,22 +1827,22 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="155">
+      <c r="A8" s="145">
         <v>4</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="145"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="156" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155" t="s">
-        <v>131</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="102"/>
@@ -1862,21 +1863,21 @@
       <c r="Z8" s="102"/>
     </row>
     <row r="9" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="157">
+      <c r="A9" s="147">
         <v>5</v>
       </c>
-      <c r="B9" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="158" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
+      <c r="B9" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
       <c r="J9" s="102"/>
       <c r="K9" s="102"/>
       <c r="L9" s="102"/>
@@ -1896,21 +1897,21 @@
       <c r="Z9" s="102"/>
     </row>
     <row r="10" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157">
+      <c r="A10" s="147">
         <v>6</v>
       </c>
-      <c r="B10" s="157" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="158" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
+      <c r="B10" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="102"/>
       <c r="K10" s="102"/>
       <c r="L10" s="102"/>
@@ -1959,7 +1960,7 @@
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="97"/>
@@ -2041,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -2079,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="17">
         <v>100</v>
@@ -2115,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="17">
         <v>50</v>
@@ -2153,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="17">
         <v>50</v>
@@ -2193,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="17">
         <v>500</v>
@@ -2250,17 +2251,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
+      <c r="A20" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2333,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="24">
         <v>50</v>
@@ -2371,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="28">
         <v>50</v>
@@ -2407,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="28">
         <v>50</v>
@@ -2443,7 +2444,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="28">
         <v>50</v>
@@ -2481,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="28">
         <v>500</v>
@@ -2519,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D27" s="28">
         <v>50</v>
@@ -2614,17 +2615,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="149"/>
+      <c r="A30" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="153"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2697,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="32">
         <v>50</v>
@@ -2735,7 +2736,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="36">
         <v>50</v>
@@ -2771,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="36">
         <v>50</v>
@@ -2807,7 +2808,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="36">
         <v>50</v>
@@ -2845,7 +2846,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="36">
         <v>500</v>
@@ -2883,7 +2884,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="36">
         <v>50</v>
@@ -2978,17 +2979,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="151" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="151"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
+      <c r="A40" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3061,7 +3062,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
@@ -3099,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="45">
         <v>50</v>
@@ -3182,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
@@ -3247,7 +3248,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" s="111"/>
       <c r="E47" s="112"/>
@@ -3285,7 +3286,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="111"/>
       <c r="E48" s="112"/>
@@ -3323,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="116" t="s">
         <v>33</v>
@@ -3356,10 +3357,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="106"/>
       <c r="E50" s="105"/>
@@ -3367,7 +3368,7 @@
       <c r="G50" s="104"/>
       <c r="H50" s="107"/>
       <c r="I50" s="104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J50" s="102"/>
       <c r="K50" s="102"/>
@@ -3392,10 +3393,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" s="106"/>
       <c r="E51" s="105"/>
@@ -3426,10 +3427,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" s="106"/>
       <c r="E52" s="105"/>
@@ -3437,7 +3438,7 @@
       <c r="G52" s="104"/>
       <c r="H52" s="107"/>
       <c r="I52" s="104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J52" s="102"/>
       <c r="K52" s="102"/>
@@ -3486,13 +3487,13 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="153"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="153"/>
+      <c r="A54" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="157"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -3569,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D56" s="54"/>
       <c r="E56" s="55"/>
@@ -3683,7 +3684,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" s="61">
         <v>50</v>
@@ -3723,7 +3724,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D60" s="61" t="s">
         <v>33</v>
@@ -3761,7 +3762,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D61" s="61">
         <v>500</v>
@@ -3797,7 +3798,7 @@
         <v>42</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D62" s="61">
         <v>20</v>
@@ -3808,7 +3809,7 @@
         <v>43</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I62" s="56"/>
       <c r="J62" s="1"/>
@@ -3829,95 +3830,95 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="118">
+    <row r="63" spans="1:26" s="159" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="56">
         <v>8</v>
       </c>
-      <c r="B63" s="118" t="s">
+      <c r="B63" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="120">
+      <c r="C63" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="61">
         <v>50</v>
       </c>
-      <c r="E63" s="121"/>
-      <c r="F63" s="122" t="s">
+      <c r="E63" s="62"/>
+      <c r="F63" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="118"/>
-      <c r="H63" s="118" t="s">
+      <c r="G63" s="56"/>
+      <c r="H63" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I63" s="118"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="102"/>
-      <c r="N63" s="102"/>
-      <c r="O63" s="102"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="102"/>
-      <c r="S63" s="102"/>
-      <c r="T63" s="102"/>
-      <c r="U63" s="102"/>
-      <c r="V63" s="102"/>
-      <c r="W63" s="102"/>
-      <c r="X63" s="102"/>
-      <c r="Y63" s="102"/>
-      <c r="Z63" s="102"/>
-    </row>
-    <row r="64" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="118">
+      <c r="I63" s="56"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="1:26" s="159" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="56">
         <v>9</v>
       </c>
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="120">
+      <c r="C64" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="61">
         <v>50</v>
       </c>
-      <c r="E64" s="121"/>
-      <c r="F64" s="122" t="s">
+      <c r="E64" s="62"/>
+      <c r="F64" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="118"/>
-      <c r="H64" s="118" t="s">
+      <c r="G64" s="56"/>
+      <c r="H64" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I64" s="118"/>
-      <c r="J64" s="102"/>
-      <c r="K64" s="102"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="102"/>
-      <c r="N64" s="102"/>
-      <c r="O64" s="102"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="102"/>
-      <c r="S64" s="102"/>
-      <c r="T64" s="102"/>
-      <c r="U64" s="102"/>
-      <c r="V64" s="102"/>
-      <c r="W64" s="102"/>
-      <c r="X64" s="102"/>
-      <c r="Y64" s="102"/>
-      <c r="Z64" s="102"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="118">
         <v>10</v>
       </c>
       <c r="B65" s="118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" s="119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" s="120"/>
       <c r="E65" s="121"/>
@@ -3948,10 +3949,10 @@
         <v>12</v>
       </c>
       <c r="B66" s="118" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" s="120"/>
       <c r="E66" s="121"/>
@@ -3982,10 +3983,10 @@
         <v>13</v>
       </c>
       <c r="B67" s="118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" s="119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" s="120"/>
       <c r="E67" s="121"/>
@@ -4040,13 +4041,13 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="154" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="153"/>
-      <c r="C69" s="153"/>
-      <c r="D69" s="153"/>
-      <c r="E69" s="153"/>
+      <c r="A69" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="157"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="157"/>
+      <c r="E69" s="157"/>
       <c r="F69" s="63"/>
       <c r="G69" s="63"/>
       <c r="H69" s="50"/>
@@ -4123,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D71" s="125"/>
       <c r="E71" s="126"/>
@@ -4155,13 +4156,13 @@
     </row>
     <row r="72" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" s="129" t="s">
         <v>48</v>
       </c>
       <c r="C72" s="130" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D72" s="131"/>
       <c r="E72" s="132"/>
@@ -4193,23 +4194,19 @@
     </row>
     <row r="73" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" s="129" t="s">
         <v>50</v>
       </c>
       <c r="C73" s="130" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="D73" s="131"/>
       <c r="E73" s="132"/>
-      <c r="F73" s="129" t="s">
-        <v>29</v>
-      </c>
+      <c r="F73" s="129"/>
       <c r="G73" s="129"/>
-      <c r="H73" s="118" t="s">
-        <v>51</v>
-      </c>
+      <c r="H73" s="118"/>
       <c r="I73" s="129"/>
       <c r="J73" s="102"/>
       <c r="K73" s="102"/>
@@ -4231,10 +4228,10 @@
     </row>
     <row r="74" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" s="129" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C74" s="130" t="s">
         <v>26</v>
@@ -4265,13 +4262,13 @@
     </row>
     <row r="75" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B75" s="129" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C75" s="130" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D75" s="131"/>
       <c r="E75" s="132"/>
@@ -4297,50 +4294,46 @@
       <c r="Y75" s="102"/>
       <c r="Z75" s="102"/>
     </row>
-    <row r="76" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="129">
-        <v>6</v>
-      </c>
-      <c r="B76" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="131"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="129"/>
-      <c r="G76" s="129"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="129"/>
-      <c r="J76" s="102"/>
-      <c r="K76" s="102"/>
-      <c r="L76" s="102"/>
-      <c r="M76" s="102"/>
-      <c r="N76" s="102"/>
-      <c r="O76" s="102"/>
-      <c r="P76" s="102"/>
-      <c r="Q76" s="102"/>
-      <c r="R76" s="102"/>
-      <c r="S76" s="102"/>
-      <c r="T76" s="102"/>
-      <c r="U76" s="102"/>
-      <c r="V76" s="102"/>
-      <c r="W76" s="102"/>
-      <c r="X76" s="102"/>
-      <c r="Y76" s="102"/>
-      <c r="Z76" s="102"/>
+    <row r="76" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65"/>
+      <c r="R76" s="65"/>
+      <c r="S76" s="65"/>
+      <c r="T76" s="65"/>
+      <c r="U76" s="65"/>
+      <c r="V76" s="65"/>
+      <c r="W76" s="65"/>
+      <c r="X76" s="65"/>
+      <c r="Y76" s="65"/>
+      <c r="Z76" s="65"/>
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
+      <c r="A77" s="149" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="150"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="150"/>
+      <c r="E77" s="150"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="82"/>
       <c r="J77" s="65"/>
       <c r="K77" s="65"/>
       <c r="L77" s="65"/>
@@ -4360,17 +4353,33 @@
       <c r="Z77" s="65"/>
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="145" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="146"/>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="82"/>
+      <c r="A78" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="83" t="s">
+        <v>8</v>
+      </c>
       <c r="J78" s="65"/>
       <c r="K78" s="65"/>
       <c r="L78" s="65"/>
@@ -4390,33 +4399,25 @@
       <c r="Z78" s="65"/>
     </row>
     <row r="79" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="83" t="s">
+      <c r="A79" s="85">
         <v>1</v>
       </c>
-      <c r="C79" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="83" t="s">
-        <v>8</v>
-      </c>
+      <c r="B79" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="87"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="89"/>
+      <c r="H79" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="89"/>
       <c r="J79" s="65"/>
       <c r="K79" s="65"/>
       <c r="L79" s="65"/>
@@ -4435,56 +4436,54 @@
       <c r="Y79" s="65"/>
       <c r="Z79" s="65"/>
     </row>
-    <row r="80" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="85">
-        <v>1</v>
-      </c>
-      <c r="B80" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="87"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="89"/>
-      <c r="H80" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="89"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="65"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="65"/>
-      <c r="R80" s="65"/>
-      <c r="S80" s="65"/>
-      <c r="T80" s="65"/>
-      <c r="U80" s="65"/>
-      <c r="V80" s="65"/>
-      <c r="W80" s="65"/>
-      <c r="X80" s="65"/>
-      <c r="Y80" s="65"/>
-      <c r="Z80" s="65"/>
+    <row r="80" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="133">
+        <v>2</v>
+      </c>
+      <c r="B80" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="135"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="133"/>
+      <c r="G80" s="133"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="133"/>
+      <c r="J80" s="138"/>
+      <c r="K80" s="138"/>
+      <c r="L80" s="138"/>
+      <c r="M80" s="138"/>
+      <c r="N80" s="138"/>
+      <c r="O80" s="138"/>
+      <c r="P80" s="138"/>
+      <c r="Q80" s="138"/>
+      <c r="R80" s="138"/>
+      <c r="S80" s="138"/>
+      <c r="T80" s="138"/>
+      <c r="U80" s="138"/>
+      <c r="V80" s="138"/>
+      <c r="W80" s="138"/>
+      <c r="X80" s="138"/>
+      <c r="Y80" s="138"/>
+      <c r="Z80" s="138"/>
     </row>
     <row r="81" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D81" s="135"/>
-      <c r="E81" s="136"/>
+      <c r="E81" s="136" t="s">
+        <v>119</v>
+      </c>
       <c r="F81" s="133"/>
       <c r="G81" s="133"/>
       <c r="H81" s="137"/>
@@ -4509,18 +4508,16 @@
     </row>
     <row r="82" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C82" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" s="135"/>
-      <c r="E82" s="136" t="s">
-        <v>121</v>
-      </c>
+      <c r="E82" s="136"/>
       <c r="F82" s="133"/>
       <c r="G82" s="133"/>
       <c r="H82" s="137"/>
@@ -4545,13 +4542,13 @@
     </row>
     <row r="83" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D83" s="135"/>
       <c r="E83" s="136"/>
@@ -4579,20 +4576,22 @@
     </row>
     <row r="84" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="134" t="s">
         <v>123</v>
-      </c>
-      <c r="C84" s="134" t="s">
-        <v>103</v>
       </c>
       <c r="D84" s="135"/>
       <c r="E84" s="136"/>
       <c r="F84" s="133"/>
       <c r="G84" s="133"/>
       <c r="H84" s="137"/>
-      <c r="I84" s="133"/>
+      <c r="I84" s="133" t="s">
+        <v>124</v>
+      </c>
       <c r="J84" s="138"/>
       <c r="K84" s="138"/>
       <c r="L84" s="138"/>
@@ -4613,22 +4612,20 @@
     </row>
     <row r="85" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" s="133" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C85" s="134" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D85" s="135"/>
       <c r="E85" s="136"/>
       <c r="F85" s="133"/>
       <c r="G85" s="133"/>
       <c r="H85" s="137"/>
-      <c r="I85" s="133" t="s">
-        <v>126</v>
-      </c>
+      <c r="I85" s="133"/>
       <c r="J85" s="138"/>
       <c r="K85" s="138"/>
       <c r="L85" s="138"/>
@@ -4647,50 +4644,46 @@
       <c r="Y85" s="138"/>
       <c r="Z85" s="138"/>
     </row>
-    <row r="86" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="133">
-        <v>7</v>
-      </c>
-      <c r="B86" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="134" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="135"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="133"/>
-      <c r="G86" s="133"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="133"/>
-      <c r="J86" s="138"/>
-      <c r="K86" s="138"/>
-      <c r="L86" s="138"/>
-      <c r="M86" s="138"/>
-      <c r="N86" s="138"/>
-      <c r="O86" s="138"/>
-      <c r="P86" s="138"/>
-      <c r="Q86" s="138"/>
-      <c r="R86" s="138"/>
-      <c r="S86" s="138"/>
-      <c r="T86" s="138"/>
-      <c r="U86" s="138"/>
-      <c r="V86" s="138"/>
-      <c r="W86" s="138"/>
-      <c r="X86" s="138"/>
-      <c r="Y86" s="138"/>
-      <c r="Z86" s="138"/>
+    <row r="86" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="A87" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="150"/>
+      <c r="C87" s="150"/>
+      <c r="D87" s="150"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="82"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -4710,17 +4703,33 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" s="146"/>
-      <c r="C88" s="146"/>
-      <c r="D88" s="146"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="82"/>
+      <c r="A88" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="83" t="s">
+        <v>8</v>
+      </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -4739,72 +4748,60 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="83" t="s">
+    <row r="89" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="139">
         <v>1</v>
       </c>
-      <c r="C89" s="83" t="s">
+      <c r="B89" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="141"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="143"/>
+      <c r="H89" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="143"/>
+      <c r="J89" s="102"/>
+      <c r="K89" s="102"/>
+      <c r="L89" s="102"/>
+      <c r="M89" s="102"/>
+      <c r="N89" s="102"/>
+      <c r="O89" s="102"/>
+      <c r="P89" s="102"/>
+      <c r="Q89" s="102"/>
+      <c r="R89" s="102"/>
+      <c r="S89" s="102"/>
+      <c r="T89" s="102"/>
+      <c r="U89" s="102"/>
+      <c r="V89" s="102"/>
+      <c r="W89" s="102"/>
+      <c r="X89" s="102"/>
+      <c r="Y89" s="102"/>
+      <c r="Z89" s="102"/>
+    </row>
+    <row r="90" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="133">
         <v>2</v>
       </c>
-      <c r="D89" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-    </row>
-    <row r="90" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="139">
-        <v>1</v>
-      </c>
-      <c r="B90" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="141"/>
-      <c r="E90" s="142"/>
-      <c r="F90" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="143"/>
-      <c r="H90" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="143"/>
+      <c r="B90" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="135"/>
+      <c r="E90" s="136"/>
+      <c r="F90" s="133"/>
+      <c r="G90" s="133"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="133"/>
       <c r="J90" s="102"/>
       <c r="K90" s="102"/>
       <c r="L90" s="102"/>
@@ -4825,16 +4822,18 @@
     </row>
     <row r="91" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D91" s="135"/>
-      <c r="E91" s="136"/>
+      <c r="E91" s="136" t="s">
+        <v>119</v>
+      </c>
       <c r="F91" s="133"/>
       <c r="G91" s="133"/>
       <c r="H91" s="137"/>
@@ -4859,18 +4858,16 @@
     </row>
     <row r="92" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D92" s="135"/>
-      <c r="E92" s="136" t="s">
-        <v>121</v>
-      </c>
+      <c r="E92" s="136"/>
       <c r="F92" s="133"/>
       <c r="G92" s="133"/>
       <c r="H92" s="137"/>
@@ -4895,13 +4892,13 @@
     </row>
     <row r="93" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C93" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D93" s="135"/>
       <c r="E93" s="136"/>
@@ -4929,20 +4926,22 @@
     </row>
     <row r="94" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B94" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="134" t="s">
         <v>123</v>
-      </c>
-      <c r="C94" s="134" t="s">
-        <v>103</v>
       </c>
       <c r="D94" s="135"/>
       <c r="E94" s="136"/>
       <c r="F94" s="133"/>
       <c r="G94" s="133"/>
       <c r="H94" s="137"/>
-      <c r="I94" s="133"/>
+      <c r="I94" s="133" t="s">
+        <v>124</v>
+      </c>
       <c r="J94" s="102"/>
       <c r="K94" s="102"/>
       <c r="L94" s="102"/>
@@ -4961,56 +4960,56 @@
       <c r="Y94" s="102"/>
       <c r="Z94" s="102"/>
     </row>
-    <row r="95" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" s="133" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C95" s="134" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D95" s="135"/>
       <c r="E95" s="136"/>
       <c r="F95" s="133"/>
       <c r="G95" s="133"/>
       <c r="H95" s="137"/>
-      <c r="I95" s="133" t="s">
-        <v>126</v>
-      </c>
-      <c r="J95" s="102"/>
-      <c r="K95" s="102"/>
-      <c r="L95" s="102"/>
-      <c r="M95" s="102"/>
-      <c r="N95" s="102"/>
-      <c r="O95" s="102"/>
-      <c r="P95" s="102"/>
-      <c r="Q95" s="102"/>
-      <c r="R95" s="102"/>
-      <c r="S95" s="102"/>
-      <c r="T95" s="102"/>
-      <c r="U95" s="102"/>
-      <c r="V95" s="102"/>
-      <c r="W95" s="102"/>
-      <c r="X95" s="102"/>
-      <c r="Y95" s="102"/>
-      <c r="Z95" s="102"/>
+      <c r="I95" s="133"/>
+      <c r="J95" s="138"/>
+      <c r="K95" s="138"/>
+      <c r="L95" s="138"/>
+      <c r="M95" s="138"/>
+      <c r="N95" s="138"/>
+      <c r="O95" s="138"/>
+      <c r="P95" s="138"/>
+      <c r="Q95" s="138"/>
+      <c r="R95" s="138"/>
+      <c r="S95" s="138"/>
+      <c r="T95" s="138"/>
+      <c r="U95" s="138"/>
+      <c r="V95" s="138"/>
+      <c r="W95" s="138"/>
+      <c r="X95" s="138"/>
+      <c r="Y95" s="138"/>
+      <c r="Z95" s="138"/>
     </row>
     <row r="96" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" s="133" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="C96" s="134" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D96" s="135"/>
       <c r="E96" s="136"/>
       <c r="F96" s="133"/>
-      <c r="G96" s="133"/>
+      <c r="G96" s="133" t="s">
+        <v>172</v>
+      </c>
       <c r="H96" s="137"/>
       <c r="I96" s="133"/>
       <c r="J96" s="138"/>
@@ -5032,21 +5031,17 @@
       <c r="Z96" s="138"/>
     </row>
     <row r="97" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="133">
-        <v>8</v>
-      </c>
+      <c r="A97" s="133"/>
       <c r="B97" s="133" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="C97" s="134" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D97" s="135"/>
       <c r="E97" s="136"/>
       <c r="F97" s="133"/>
-      <c r="G97" s="133" t="s">
-        <v>174</v>
-      </c>
+      <c r="G97" s="133"/>
       <c r="H97" s="137"/>
       <c r="I97" s="133"/>
       <c r="J97" s="138"/>
@@ -5070,10 +5065,10 @@
     <row r="98" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="133"/>
       <c r="B98" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98" s="134" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D98" s="135"/>
       <c r="E98" s="136"/>
@@ -5102,10 +5097,10 @@
     <row r="99" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="133"/>
       <c r="B99" s="133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" s="134" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D99" s="135"/>
       <c r="E99" s="136"/>
@@ -5134,10 +5129,10 @@
     <row r="100" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="133"/>
       <c r="B100" s="133" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="134" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D100" s="135"/>
       <c r="E100" s="136"/>
@@ -5163,48 +5158,46 @@
       <c r="Y100" s="138"/>
       <c r="Z100" s="138"/>
     </row>
-    <row r="101" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="133"/>
-      <c r="B101" s="133" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="134" t="s">
-        <v>128</v>
-      </c>
-      <c r="D101" s="135"/>
-      <c r="E101" s="136"/>
-      <c r="F101" s="133"/>
-      <c r="G101" s="133"/>
-      <c r="H101" s="137"/>
-      <c r="I101" s="133"/>
-      <c r="J101" s="138"/>
-      <c r="K101" s="138"/>
-      <c r="L101" s="138"/>
-      <c r="M101" s="138"/>
-      <c r="N101" s="138"/>
-      <c r="O101" s="138"/>
-      <c r="P101" s="138"/>
-      <c r="Q101" s="138"/>
-      <c r="R101" s="138"/>
-      <c r="S101" s="138"/>
-      <c r="T101" s="138"/>
-      <c r="U101" s="138"/>
-      <c r="V101" s="138"/>
-      <c r="W101" s="138"/>
-      <c r="X101" s="138"/>
-      <c r="Y101" s="138"/>
-      <c r="Z101" s="138"/>
+    <row r="101" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="A102" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="150"/>
+      <c r="C102" s="150"/>
+      <c r="D102" s="150"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="82"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -5224,17 +5217,33 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="146"/>
-      <c r="C103" s="146"/>
-      <c r="D103" s="146"/>
-      <c r="E103" s="146"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="82"/>
+      <c r="A103" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="83" t="s">
+        <v>8</v>
+      </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -5253,72 +5262,62 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="83" t="s">
+    <row r="104" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="139">
         <v>1</v>
       </c>
-      <c r="C104" s="83" t="s">
+      <c r="B104" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="141"/>
+      <c r="E104" s="142"/>
+      <c r="F104" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="143"/>
+      <c r="H104" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="143"/>
+      <c r="J104" s="102"/>
+      <c r="K104" s="102"/>
+      <c r="L104" s="102"/>
+      <c r="M104" s="102"/>
+      <c r="N104" s="102"/>
+      <c r="O104" s="102"/>
+      <c r="P104" s="102"/>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="102"/>
+      <c r="S104" s="102"/>
+      <c r="T104" s="102"/>
+      <c r="U104" s="102"/>
+      <c r="V104" s="102"/>
+      <c r="W104" s="102"/>
+      <c r="X104" s="102"/>
+      <c r="Y104" s="102"/>
+      <c r="Z104" s="102"/>
+    </row>
+    <row r="105" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="133">
         <v>2</v>
       </c>
-      <c r="D104" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H104" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-      <c r="Y104" s="1"/>
-      <c r="Z104" s="1"/>
-    </row>
-    <row r="105" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="139">
-        <v>1</v>
-      </c>
-      <c r="B105" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="D105" s="141"/>
-      <c r="E105" s="142"/>
-      <c r="F105" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="143"/>
-      <c r="H105" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" s="143"/>
+      <c r="B105" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" s="135"/>
+      <c r="E105" s="136"/>
+      <c r="F105" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="133"/>
+      <c r="H105" s="137"/>
+      <c r="I105" s="133"/>
       <c r="J105" s="102"/>
       <c r="K105" s="102"/>
       <c r="L105" s="102"/>
@@ -5339,19 +5338,17 @@
     </row>
     <row r="106" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106" s="133" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="C106" s="134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D106" s="135"/>
       <c r="E106" s="136"/>
-      <c r="F106" s="133" t="s">
-        <v>13</v>
-      </c>
+      <c r="F106" s="133"/>
       <c r="G106" s="133"/>
       <c r="H106" s="137"/>
       <c r="I106" s="133"/>
@@ -5375,13 +5372,13 @@
     </row>
     <row r="107" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B107" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="134" t="s">
         <v>142</v>
-      </c>
-      <c r="C107" s="134" t="s">
-        <v>103</v>
       </c>
       <c r="D107" s="135"/>
       <c r="E107" s="136"/>
@@ -5409,13 +5406,13 @@
     </row>
     <row r="108" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" s="133" t="s">
         <v>143</v>
       </c>
       <c r="C108" s="134" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D108" s="135"/>
       <c r="E108" s="136"/>
@@ -5443,13 +5440,13 @@
     </row>
     <row r="109" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B109" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="134" t="s">
         <v>145</v>
-      </c>
-      <c r="C109" s="134" t="s">
-        <v>128</v>
       </c>
       <c r="D109" s="135"/>
       <c r="E109" s="136"/>
@@ -5475,50 +5472,44 @@
       <c r="Y109" s="102"/>
       <c r="Z109" s="102"/>
     </row>
-    <row r="110" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="133">
-        <v>6</v>
-      </c>
-      <c r="B110" s="133" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="D110" s="135"/>
-      <c r="E110" s="136"/>
-      <c r="F110" s="133"/>
-      <c r="G110" s="133"/>
-      <c r="H110" s="137"/>
-      <c r="I110" s="133"/>
-      <c r="J110" s="102"/>
-      <c r="K110" s="102"/>
-      <c r="L110" s="102"/>
-      <c r="M110" s="102"/>
-      <c r="N110" s="102"/>
-      <c r="O110" s="102"/>
-      <c r="P110" s="102"/>
-      <c r="Q110" s="102"/>
-      <c r="R110" s="102"/>
-      <c r="S110" s="102"/>
-      <c r="T110" s="102"/>
-      <c r="U110" s="102"/>
-      <c r="V110" s="102"/>
-      <c r="W110" s="102"/>
-      <c r="X110" s="102"/>
-      <c r="Y110" s="102"/>
-      <c r="Z110" s="102"/>
+    <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="91"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="94"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="95"/>
+      <c r="I110" s="91"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="91"/>
-      <c r="B111" s="91"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="93"/>
-      <c r="E111" s="94"/>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="95"/>
-      <c r="I111" s="91"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -27601,42 +27592,14 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A900" s="1"/>
-      <c r="B900" s="1"/>
-      <c r="C900" s="1"/>
-      <c r="D900" s="1"/>
-      <c r="E900" s="1"/>
-      <c r="F900" s="1"/>
-      <c r="G900" s="1"/>
-      <c r="H900" s="1"/>
-      <c r="I900" s="1"/>
-      <c r="J900" s="1"/>
-      <c r="K900" s="1"/>
-      <c r="L900" s="1"/>
-      <c r="M900" s="1"/>
-      <c r="N900" s="1"/>
-      <c r="O900" s="1"/>
-      <c r="P900" s="1"/>
-      <c r="Q900" s="1"/>
-      <c r="R900" s="1"/>
-      <c r="S900" s="1"/>
-      <c r="T900" s="1"/>
-      <c r="U900" s="1"/>
-      <c r="V900" s="1"/>
-      <c r="W900" s="1"/>
-      <c r="X900" s="1"/>
-      <c r="Y900" s="1"/>
-      <c r="Z900" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A87:E87"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A77:E77"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A69:E69"/>
   </mergeCells>
@@ -27666,13 +27629,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
+      <c r="A3" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="81"/>
@@ -27715,7 +27678,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="88"/>
@@ -27736,7 +27699,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="93"/>
       <c r="E6" s="94"/>
@@ -27752,10 +27715,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>151</v>
       </c>
       <c r="D7" s="93"/>
       <c r="E7" s="94"/>
@@ -27764,7 +27727,7 @@
       <c r="H7" s="95"/>
       <c r="I7" s="91"/>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -27772,10 +27735,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="94"/>
@@ -27789,10 +27752,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="93"/>
       <c r="E9" s="94"/>
@@ -27800,10 +27763,10 @@
       <c r="G9" s="91"/>
       <c r="H9" s="95"/>
       <c r="I9" s="91" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M9" s="99"/>
     </row>
@@ -27817,10 +27780,10 @@
       <c r="G10" s="91"/>
       <c r="H10" s="95"/>
       <c r="I10" s="91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L10" s="98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M10" s="99"/>
     </row>
@@ -27847,36 +27810,36 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M14" s="99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>162</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>163</v>
       </c>
-      <c r="I15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" t="s">
-        <v>165</v>
-      </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M15">
         <v>15</v>
@@ -27884,117 +27847,117 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J16" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I18" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J18" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J20" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -28024,14 +27987,14 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -28061,7 +28024,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -28093,7 +28056,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
@@ -28125,7 +28088,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -28157,7 +28120,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
@@ -28189,7 +28152,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -28221,7 +28184,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -28250,10 +28213,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -28285,13 +28248,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
@@ -28321,13 +28284,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
@@ -28357,13 +28320,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
@@ -28393,13 +28356,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
@@ -28429,13 +28392,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
@@ -28465,13 +28428,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -28501,13 +28464,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
@@ -28537,13 +28500,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
@@ -28570,10 +28533,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
@@ -28605,13 +28568,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
@@ -28641,13 +28604,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
@@ -28677,13 +28640,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
@@ -28713,13 +28676,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
@@ -28749,13 +28712,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
@@ -28785,13 +28748,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
@@ -28821,13 +28784,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="65"/>
       <c r="F24" s="65"/>
@@ -28857,13 +28820,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="65"/>
       <c r="F25" s="65"/>
@@ -28893,13 +28856,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
@@ -28929,13 +28892,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -28965,13 +28928,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="65"/>
@@ -29001,13 +28964,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -29037,7 +29000,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="65"/>
@@ -29069,7 +29032,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="65"/>
@@ -29101,7 +29064,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
@@ -29133,7 +29096,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
@@ -29165,13 +29128,13 @@
         <v>25</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="65"/>
       <c r="F34" s="65"/>
@@ -29201,7 +29164,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
@@ -29233,7 +29196,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
@@ -29265,7 +29228,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="65"/>
@@ -29297,7 +29260,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="65"/>
@@ -29329,7 +29292,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="65"/>
@@ -29361,7 +29324,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
@@ -29393,7 +29356,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="65"/>
@@ -29425,7 +29388,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="65"/>
@@ -29457,7 +29420,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D3407-37A1-C74F-BA87-D5F96B768A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94624E6F-2526-394A-934C-BB17EC6C4C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="PHẦN III API" sheetId="4" r:id="rId3"/>
+    <sheet name="PHẦN III API" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -298,9 +298,6 @@
     <t>Hiển thị trung bình cộng giá trị các đơn hàng trong khoảng từ ngày, đến ngày</t>
   </si>
   <si>
-    <t>RESTful (Create, Update, Delete, Get, GetById) =&gt; POST, PUT, DELETE, GET, GET(id)</t>
-  </si>
-  <si>
     <t>Categories</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t>IsDeleted</t>
+  </si>
+  <si>
+    <t>RESTful (Create, Update, Delete, Get, GetById) =&gt; POST, PATCH, DELETE, GET, GET(id)</t>
   </si>
 </sst>
 </file>
@@ -1241,6 +1241,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1267,7 +1268,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1588,7 +1588,7 @@
   </sheetPr>
   <dimension ref="A2:Z899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
@@ -1609,7 +1609,7 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1758,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7">
         <v>50</v>
@@ -1796,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7">
         <v>500</v>
@@ -1831,10 +1831,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="146" t="s">
         <v>127</v>
-      </c>
-      <c r="C8" s="146" t="s">
-        <v>128</v>
       </c>
       <c r="D8" s="145"/>
       <c r="E8" s="146"/>
@@ -1842,7 +1842,7 @@
       <c r="G8" s="145"/>
       <c r="H8" s="145"/>
       <c r="I8" s="145" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="102"/>
@@ -1867,10 +1867,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="147"/>
       <c r="E9" s="148"/>
@@ -1901,10 +1901,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="148" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>123</v>
       </c>
       <c r="D10" s="147"/>
       <c r="E10" s="148"/>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="97"/>
@@ -2042,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -2080,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="17">
         <v>100</v>
@@ -2116,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="17">
         <v>50</v>
@@ -2154,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="17">
         <v>50</v>
@@ -2194,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="17">
         <v>500</v>
@@ -2251,17 +2251,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
+      <c r="A20" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2334,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="24">
         <v>50</v>
@@ -2372,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="28">
         <v>50</v>
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="28">
         <v>50</v>
@@ -2444,7 +2444,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="28">
         <v>50</v>
@@ -2482,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="28">
         <v>500</v>
@@ -2520,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="28">
         <v>50</v>
@@ -2615,17 +2615,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="151" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="153"/>
+      <c r="A30" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="154"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2698,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="32">
         <v>50</v>
@@ -2736,7 +2736,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="36">
         <v>50</v>
@@ -2772,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="36">
         <v>50</v>
@@ -2808,7 +2808,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="36">
         <v>50</v>
@@ -2846,7 +2846,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="36">
         <v>500</v>
@@ -2884,7 +2884,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="36">
         <v>50</v>
@@ -2979,17 +2979,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
+      <c r="A40" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3062,7 +3062,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
@@ -3100,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="45">
         <v>50</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
@@ -3248,7 +3248,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="111"/>
       <c r="E47" s="112"/>
@@ -3286,7 +3286,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="111"/>
       <c r="E48" s="112"/>
@@ -3324,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="116" t="s">
         <v>33</v>
@@ -3357,10 +3357,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="105" t="s">
         <v>127</v>
-      </c>
-      <c r="C50" s="105" t="s">
-        <v>128</v>
       </c>
       <c r="D50" s="106"/>
       <c r="E50" s="105"/>
@@ -3368,7 +3368,7 @@
       <c r="G50" s="104"/>
       <c r="H50" s="107"/>
       <c r="I50" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J50" s="102"/>
       <c r="K50" s="102"/>
@@ -3393,10 +3393,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="106"/>
       <c r="E51" s="105"/>
@@ -3427,10 +3427,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="105" t="s">
         <v>135</v>
-      </c>
-      <c r="C52" s="105" t="s">
-        <v>136</v>
       </c>
       <c r="D52" s="106"/>
       <c r="E52" s="105"/>
@@ -3438,7 +3438,7 @@
       <c r="G52" s="104"/>
       <c r="H52" s="107"/>
       <c r="I52" s="104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J52" s="102"/>
       <c r="K52" s="102"/>
@@ -3487,13 +3487,13 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="157"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
+      <c r="A54" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="158"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -3570,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" s="54"/>
       <c r="E56" s="55"/>
@@ -3684,7 +3684,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="61">
         <v>50</v>
@@ -3724,7 +3724,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="61" t="s">
         <v>33</v>
@@ -3762,7 +3762,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="61">
         <v>500</v>
@@ -3798,7 +3798,7 @@
         <v>42</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" s="61">
         <v>20</v>
@@ -3809,7 +3809,7 @@
         <v>43</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I62" s="56"/>
       <c r="J62" s="1"/>
@@ -3830,7 +3830,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" s="159" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" s="149" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="56">
         <v>8</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>44</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="61">
         <v>50</v>
@@ -3870,7 +3870,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" s="159" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" s="149" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="56">
         <v>9</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>46</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" s="61">
         <v>50</v>
@@ -3915,10 +3915,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="119" t="s">
         <v>130</v>
-      </c>
-      <c r="C65" s="119" t="s">
-        <v>131</v>
       </c>
       <c r="D65" s="120"/>
       <c r="E65" s="121"/>
@@ -3949,10 +3949,10 @@
         <v>12</v>
       </c>
       <c r="B66" s="118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66" s="120"/>
       <c r="E66" s="121"/>
@@ -3983,10 +3983,10 @@
         <v>13</v>
       </c>
       <c r="B67" s="118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C67" s="119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="120"/>
       <c r="E67" s="121"/>
@@ -4041,13 +4041,13 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="158" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="157"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="157"/>
+      <c r="A69" s="159" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
       <c r="F69" s="63"/>
       <c r="G69" s="63"/>
       <c r="H69" s="50"/>
@@ -4124,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" s="125"/>
       <c r="E71" s="126"/>
@@ -4162,7 +4162,7 @@
         <v>48</v>
       </c>
       <c r="C72" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D72" s="131"/>
       <c r="E72" s="132"/>
@@ -4268,7 +4268,7 @@
         <v>25</v>
       </c>
       <c r="C75" s="130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D75" s="131"/>
       <c r="E75" s="132"/>
@@ -4323,13 +4323,13 @@
       <c r="Z76" s="65"/>
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="149" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="150"/>
-      <c r="C77" s="150"/>
-      <c r="D77" s="150"/>
-      <c r="E77" s="150"/>
+      <c r="A77" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="151"/>
+      <c r="C77" s="151"/>
+      <c r="D77" s="151"/>
+      <c r="E77" s="151"/>
       <c r="F77" s="82"/>
       <c r="G77" s="82"/>
       <c r="H77" s="81"/>
@@ -4406,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="C79" s="86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="88"/>
@@ -4441,10 +4441,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D80" s="135"/>
       <c r="E80" s="136"/>
@@ -4475,14 +4475,14 @@
         <v>3</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="135"/>
       <c r="E81" s="136" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F81" s="133"/>
       <c r="G81" s="133"/>
@@ -4511,10 +4511,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="135"/>
       <c r="E82" s="136"/>
@@ -4545,10 +4545,10 @@
         <v>5</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D83" s="135"/>
       <c r="E83" s="136"/>
@@ -4579,10 +4579,10 @@
         <v>6</v>
       </c>
       <c r="B84" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="134" t="s">
         <v>122</v>
-      </c>
-      <c r="C84" s="134" t="s">
-        <v>123</v>
       </c>
       <c r="D84" s="135"/>
       <c r="E84" s="136"/>
@@ -4590,7 +4590,7 @@
       <c r="G84" s="133"/>
       <c r="H84" s="137"/>
       <c r="I84" s="133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J84" s="138"/>
       <c r="K84" s="138"/>
@@ -4615,10 +4615,10 @@
         <v>7</v>
       </c>
       <c r="B85" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="134" t="s">
         <v>125</v>
-      </c>
-      <c r="C85" s="134" t="s">
-        <v>126</v>
       </c>
       <c r="D85" s="135"/>
       <c r="E85" s="136"/>
@@ -4673,13 +4673,13 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="149" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" s="150"/>
-      <c r="C87" s="150"/>
-      <c r="D87" s="150"/>
-      <c r="E87" s="150"/>
+      <c r="A87" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="151"/>
+      <c r="C87" s="151"/>
+      <c r="D87" s="151"/>
+      <c r="E87" s="151"/>
       <c r="F87" s="82"/>
       <c r="G87" s="82"/>
       <c r="H87" s="81"/>
@@ -4756,7 +4756,7 @@
         <v>9</v>
       </c>
       <c r="C89" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" s="141"/>
       <c r="E89" s="142"/>
@@ -4791,10 +4791,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="135"/>
       <c r="E90" s="136"/>
@@ -4825,14 +4825,14 @@
         <v>3</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" s="135"/>
       <c r="E91" s="136" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F91" s="133"/>
       <c r="G91" s="133"/>
@@ -4861,10 +4861,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="135"/>
       <c r="E92" s="136"/>
@@ -4895,10 +4895,10 @@
         <v>5</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" s="135"/>
       <c r="E93" s="136"/>
@@ -4929,10 +4929,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="134" t="s">
         <v>122</v>
-      </c>
-      <c r="C94" s="134" t="s">
-        <v>123</v>
       </c>
       <c r="D94" s="135"/>
       <c r="E94" s="136"/>
@@ -4940,7 +4940,7 @@
       <c r="G94" s="133"/>
       <c r="H94" s="137"/>
       <c r="I94" s="133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J94" s="102"/>
       <c r="K94" s="102"/>
@@ -4965,10 +4965,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="134" t="s">
         <v>125</v>
-      </c>
-      <c r="C95" s="134" t="s">
-        <v>126</v>
       </c>
       <c r="D95" s="135"/>
       <c r="E95" s="136"/>
@@ -5002,13 +5002,13 @@
         <v>34</v>
       </c>
       <c r="C96" s="134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D96" s="135"/>
       <c r="E96" s="136"/>
       <c r="F96" s="133"/>
       <c r="G96" s="133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H96" s="137"/>
       <c r="I96" s="133"/>
@@ -5033,10 +5033,10 @@
     <row r="97" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="133"/>
       <c r="B97" s="133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" s="135"/>
       <c r="E97" s="136"/>
@@ -5065,10 +5065,10 @@
     <row r="98" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="133"/>
       <c r="B98" s="133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D98" s="135"/>
       <c r="E98" s="136"/>
@@ -5097,10 +5097,10 @@
     <row r="99" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="133"/>
       <c r="B99" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C99" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D99" s="135"/>
       <c r="E99" s="136"/>
@@ -5129,10 +5129,10 @@
     <row r="100" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="133"/>
       <c r="B100" s="133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D100" s="135"/>
       <c r="E100" s="136"/>
@@ -5187,13 +5187,13 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="149" t="s">
-        <v>139</v>
-      </c>
-      <c r="B102" s="150"/>
-      <c r="C102" s="150"/>
-      <c r="D102" s="150"/>
-      <c r="E102" s="150"/>
+      <c r="A102" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="151"/>
+      <c r="C102" s="151"/>
+      <c r="D102" s="151"/>
+      <c r="E102" s="151"/>
       <c r="F102" s="82"/>
       <c r="G102" s="82"/>
       <c r="H102" s="81"/>
@@ -5270,7 +5270,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" s="141"/>
       <c r="E104" s="142"/>
@@ -5308,7 +5308,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="135"/>
       <c r="E105" s="136"/>
@@ -5341,10 +5341,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D106" s="135"/>
       <c r="E106" s="136"/>
@@ -5375,10 +5375,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="134" t="s">
         <v>141</v>
-      </c>
-      <c r="C107" s="134" t="s">
-        <v>142</v>
       </c>
       <c r="D107" s="135"/>
       <c r="E107" s="136"/>
@@ -5409,10 +5409,10 @@
         <v>5</v>
       </c>
       <c r="B108" s="133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C108" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D108" s="135"/>
       <c r="E108" s="136"/>
@@ -5443,10 +5443,10 @@
         <v>6</v>
       </c>
       <c r="B109" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="134" t="s">
         <v>144</v>
-      </c>
-      <c r="C109" s="134" t="s">
-        <v>145</v>
       </c>
       <c r="D109" s="135"/>
       <c r="E109" s="136"/>
@@ -27612,371 +27612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712FD042-3309-7E48-8072-BAFA17154E79}">
-  <dimension ref="A3:M20"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-    </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="85">
-        <v>1</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="91">
-        <v>2</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="91"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="91">
-        <v>3</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="91"/>
-      <c r="L7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="91">
-        <v>4</v>
-      </c>
-      <c r="B8" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="91"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="91">
-        <v>5</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" s="99"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="L10" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="M10" s="99"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="91"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L13" s="98"/>
-      <c r="M13" s="99"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L14" s="98" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" t="s">
-        <v>168</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D16" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="98" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" s="98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" t="s">
-        <v>156</v>
-      </c>
-      <c r="I19" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="J20" s="98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27990,11 +27633,11 @@
         <v>51</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -28024,7 +27667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -28056,7 +27699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
@@ -28088,7 +27731,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -28120,7 +27763,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
@@ -28152,7 +27795,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -28184,7 +27827,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -28251,10 +27894,10 @@
         <v>54</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
@@ -28287,10 +27930,10 @@
         <v>55</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
@@ -28323,10 +27966,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
@@ -28359,10 +28002,10 @@
         <v>57</v>
       </c>
       <c r="C12" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>105</v>
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
@@ -28395,10 +28038,10 @@
         <v>58</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>105</v>
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
@@ -28431,10 +28074,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>104</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>105</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -28467,10 +28110,10 @@
         <v>60</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
@@ -28503,10 +28146,10 @@
         <v>61</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
@@ -28533,10 +28176,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="74" t="s">
         <v>170</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>171</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
@@ -28571,10 +28214,10 @@
         <v>62</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
@@ -28607,10 +28250,10 @@
         <v>63</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
@@ -28643,10 +28286,10 @@
         <v>64</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
@@ -28679,10 +28322,10 @@
         <v>65</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
@@ -28715,10 +28358,10 @@
         <v>66</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
@@ -28751,10 +28394,10 @@
         <v>67</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
@@ -28784,13 +28427,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="65"/>
       <c r="F24" s="65"/>
@@ -28823,10 +28466,10 @@
         <v>68</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="65"/>
       <c r="F25" s="65"/>
@@ -28859,10 +28502,10 @@
         <v>69</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
@@ -28895,10 +28538,10 @@
         <v>70</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -28931,10 +28574,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="65"/>
@@ -28967,10 +28610,10 @@
         <v>72</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -29131,10 +28774,10 @@
         <v>77</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="65"/>
       <c r="F34" s="65"/>
@@ -56471,4 +56114,361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712FD042-3309-7E48-8072-BAFA17154E79}">
+  <dimension ref="A3:M20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="85">
+        <v>1</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="89"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="91">
+        <v>2</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="91"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="91">
+        <v>3</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="91"/>
+      <c r="L7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="91">
+        <v>4</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="91">
+        <v>5</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="99"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="99"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="91"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" s="98"/>
+      <c r="M13" s="99"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94624E6F-2526-394A-934C-BB17EC6C4C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539ABE37-61C8-2246-8FC8-B01C8858D09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -1588,8 +1586,8 @@
   </sheetPr>
   <dimension ref="A2:Z899"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A2" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27618,7 +27616,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/nodejs-tutorials/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539ABE37-61C8-2246-8FC8-B01C8858D09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011BED2-AC95-6B49-A27A-82A8982D12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
-    <sheet name="PHẦN III API" sheetId="4" r:id="rId2"/>
+    <sheet name="PHẦN II API" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="179">
   <si>
     <t>No.</t>
   </si>
@@ -565,6 +565,12 @@
   <si>
     <t>RESTful (Create, Update, Delete, Get, GetById) =&gt; POST, PATCH, DELETE, GET, GET(id)</t>
   </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các mặt hàng có giảm giá &lt;= 10%, và chi tiết danh mục, nhà cung cấp</t>
+  </si>
 </sst>
 </file>
 
@@ -901,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1266,6 +1272,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1586,7 +1595,7 @@
   </sheetPr>
   <dimension ref="A2:Z899"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -27614,10 +27623,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27921,18 +27930,14 @@
       <c r="Z9" s="65"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="78">
-        <v>2</v>
+      <c r="A10" s="160" t="s">
+        <v>177</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>106</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
@@ -27958,10 +27963,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>103</v>
@@ -27993,17 +27998,17 @@
       <c r="Z11" s="65"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="76">
-        <v>4</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>57</v>
+      <c r="A12" s="78">
+        <v>3</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
@@ -28030,10 +28035,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>103</v>
@@ -28066,10 +28071,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>103</v>
@@ -28101,17 +28106,17 @@
       <c r="Z14" s="65"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="73">
-        <v>7</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>60</v>
+      <c r="A15" s="76">
+        <v>6</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
@@ -28138,10 +28143,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>103</v>
@@ -28173,14 +28178,18 @@
       <c r="Z16" s="65"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
-        <v>169</v>
+      <c r="A17" s="73">
+        <v>8</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
+        <v>61</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>105</v>
+      </c>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
       <c r="G17" s="65"/>
@@ -28205,18 +28214,14 @@
       <c r="Z17" s="65"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="73">
-        <v>9</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>105</v>
-      </c>
+      <c r="A18" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="G18" s="65"/>
@@ -28242,10 +28247,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="73">
-        <v>10</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>103</v>
@@ -28278,10 +28283,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>103</v>
@@ -28314,10 +28319,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>103</v>
@@ -28350,10 +28355,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="65" t="s">
         <v>103</v>
@@ -28385,17 +28390,17 @@
       <c r="Z22" s="65"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="71">
-        <v>14</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>67</v>
+      <c r="A23" s="73">
+        <v>13</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>66</v>
       </c>
       <c r="C23" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
@@ -28422,16 +28427,16 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C24" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="65"/>
       <c r="F24" s="65"/>
@@ -28458,18 +28463,20 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C25" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="65"/>
+        <v>108</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>128</v>
+      </c>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
       <c r="H25" s="65"/>
@@ -28494,16 +28501,16 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
@@ -28530,16 +28537,16 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="71">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -28566,16 +28573,16 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="71">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="65"/>
@@ -28602,16 +28609,16 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -28638,13 +28645,17 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>105</v>
+      </c>
       <c r="E30" s="65"/>
       <c r="F30" s="65"/>
       <c r="G30" s="65"/>
@@ -28670,10 +28681,10 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="71">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="65"/>
@@ -28702,10 +28713,10 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="71">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
@@ -28734,10 +28745,10 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
@@ -28766,17 +28777,13 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="65" t="s">
-        <v>106</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="65"/>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
@@ -28802,13 +28809,17 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
+        <v>77</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>106</v>
+      </c>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
       <c r="G35" s="65"/>
@@ -28834,10 +28845,10 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="71">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
@@ -28866,10 +28877,10 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="65"/>
@@ -28898,10 +28909,10 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="65"/>
@@ -28930,10 +28941,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="65"/>
@@ -28962,10 +28973,10 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
@@ -28994,10 +29005,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="71">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="65"/>
@@ -29026,10 +29037,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="71">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="65"/>
@@ -29058,10 +29069,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="71">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -29089,8 +29100,12 @@
       <c r="Z43" s="65"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="71">
+        <v>34</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>86</v>
+      </c>
       <c r="C44" s="65"/>
       <c r="D44" s="65"/>
       <c r="E44" s="65"/>
@@ -56108,6 +56123,34 @@
       <c r="Y1008" s="65"/>
       <c r="Z1008" s="65"/>
     </row>
+    <row r="1009" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1009" s="65"/>
+      <c r="B1009" s="65"/>
+      <c r="C1009" s="65"/>
+      <c r="D1009" s="65"/>
+      <c r="E1009" s="65"/>
+      <c r="F1009" s="65"/>
+      <c r="G1009" s="65"/>
+      <c r="H1009" s="65"/>
+      <c r="I1009" s="65"/>
+      <c r="J1009" s="65"/>
+      <c r="K1009" s="65"/>
+      <c r="L1009" s="65"/>
+      <c r="M1009" s="65"/>
+      <c r="N1009" s="65"/>
+      <c r="O1009" s="65"/>
+      <c r="P1009" s="65"/>
+      <c r="Q1009" s="65"/>
+      <c r="R1009" s="65"/>
+      <c r="S1009" s="65"/>
+      <c r="T1009" s="65"/>
+      <c r="U1009" s="65"/>
+      <c r="V1009" s="65"/>
+      <c r="W1009" s="65"/>
+      <c r="X1009" s="65"/>
+      <c r="Y1009" s="65"/>
+      <c r="Z1009" s="65"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011BED2-AC95-6B49-A27A-82A8982D12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C70E8A-C54C-FF4D-9A52-9575524BC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17600" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="182">
   <si>
     <t>No.</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>Hiển thị tất cả đơn hàng với tổng số tiền mà đã được giao hàng thành công trong khoảng từ ngày, đến ngày</t>
-  </si>
-  <si>
-    <t>Hiển thị tất cả đơn hàng có tổng số tiền bán hàng nhiều nhất trong khoảng từ ngày, đến ngày</t>
   </si>
   <si>
     <t>Hiển thị tất cả đơn hàng có tổng số tiền bán hàng ít nhất trong khoảng từ ngày, đến ngày</t>
@@ -570,6 +567,18 @@
   </si>
   <si>
     <t>Hiển thị tất cả các mặt hàng có giảm giá &lt;= 10%, và chi tiết danh mục, nhà cung cấp</t>
+  </si>
+  <si>
+    <t>limit, sort, group, sum</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>group, sum</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả đơn hàng có tổng số tiền bán hàng sắp xếp từ cao đến thấp trong khoảng từ ngày, đến ngày</t>
   </si>
 </sst>
 </file>
@@ -1246,6 +1255,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1271,9 +1283,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1616,7 +1625,7 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1645,7 +1654,7 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -1727,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1765,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
         <v>50</v>
@@ -1803,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="7">
         <v>500</v>
@@ -1838,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="146" t="s">
         <v>126</v>
-      </c>
-      <c r="C8" s="146" t="s">
-        <v>127</v>
       </c>
       <c r="D8" s="145"/>
       <c r="E8" s="146"/>
@@ -1849,7 +1858,7 @@
       <c r="G8" s="145"/>
       <c r="H8" s="145"/>
       <c r="I8" s="145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="102"/>
@@ -1874,10 +1883,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="147" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="147"/>
       <c r="E9" s="148"/>
@@ -1908,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="148" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>122</v>
       </c>
       <c r="D10" s="147"/>
       <c r="E10" s="148"/>
@@ -1967,7 +1976,7 @@
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="97"/>
@@ -2049,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -2087,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="17">
         <v>100</v>
@@ -2123,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="17">
         <v>50</v>
@@ -2161,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="17">
         <v>50</v>
@@ -2201,7 +2210,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="17">
         <v>500</v>
@@ -2258,17 +2267,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
+      <c r="A20" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2341,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="24">
         <v>50</v>
@@ -2379,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="28">
         <v>50</v>
@@ -2415,7 +2424,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="28">
         <v>50</v>
@@ -2451,7 +2460,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="28">
         <v>50</v>
@@ -2489,7 +2498,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="28">
         <v>500</v>
@@ -2527,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="28">
         <v>50</v>
@@ -2622,17 +2631,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="154"/>
+      <c r="A30" s="153" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="155"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2705,7 +2714,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="32">
         <v>50</v>
@@ -2743,7 +2752,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="36">
         <v>50</v>
@@ -2779,7 +2788,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="36">
         <v>50</v>
@@ -2815,7 +2824,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="36">
         <v>50</v>
@@ -2853,7 +2862,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="36">
         <v>500</v>
@@ -2891,7 +2900,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="36">
         <v>50</v>
@@ -2986,17 +2995,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="156" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
+      <c r="A40" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3069,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
@@ -3107,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="45">
         <v>50</v>
@@ -3190,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
@@ -3255,7 +3264,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="111"/>
       <c r="E47" s="112"/>
@@ -3293,7 +3302,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="111"/>
       <c r="E48" s="112"/>
@@ -3331,7 +3340,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" s="116" t="s">
         <v>33</v>
@@ -3364,10 +3373,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="105" t="s">
         <v>126</v>
-      </c>
-      <c r="C50" s="105" t="s">
-        <v>127</v>
       </c>
       <c r="D50" s="106"/>
       <c r="E50" s="105"/>
@@ -3375,7 +3384,7 @@
       <c r="G50" s="104"/>
       <c r="H50" s="107"/>
       <c r="I50" s="104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J50" s="102"/>
       <c r="K50" s="102"/>
@@ -3400,10 +3409,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" s="106"/>
       <c r="E51" s="105"/>
@@ -3434,10 +3443,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="105" t="s">
         <v>134</v>
-      </c>
-      <c r="C52" s="105" t="s">
-        <v>135</v>
       </c>
       <c r="D52" s="106"/>
       <c r="E52" s="105"/>
@@ -3445,7 +3454,7 @@
       <c r="G52" s="104"/>
       <c r="H52" s="107"/>
       <c r="I52" s="104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J52" s="102"/>
       <c r="K52" s="102"/>
@@ -3494,13 +3503,13 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="157" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="158"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
+      <c r="A54" s="158" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="159"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -3577,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="54"/>
       <c r="E56" s="55"/>
@@ -3691,7 +3700,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="61">
         <v>50</v>
@@ -3731,7 +3740,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="61" t="s">
         <v>33</v>
@@ -3769,7 +3778,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" s="61">
         <v>500</v>
@@ -3805,7 +3814,7 @@
         <v>42</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="61">
         <v>20</v>
@@ -3816,7 +3825,7 @@
         <v>43</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I62" s="56"/>
       <c r="J62" s="1"/>
@@ -3845,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" s="61">
         <v>50</v>
@@ -3885,7 +3894,7 @@
         <v>46</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="61">
         <v>50</v>
@@ -3922,10 +3931,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="119" t="s">
         <v>129</v>
-      </c>
-      <c r="C65" s="119" t="s">
-        <v>130</v>
       </c>
       <c r="D65" s="120"/>
       <c r="E65" s="121"/>
@@ -3956,10 +3965,10 @@
         <v>12</v>
       </c>
       <c r="B66" s="118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" s="120"/>
       <c r="E66" s="121"/>
@@ -3990,10 +3999,10 @@
         <v>13</v>
       </c>
       <c r="B67" s="118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="120"/>
       <c r="E67" s="121"/>
@@ -4048,13 +4057,13 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="159" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="158"/>
-      <c r="C69" s="158"/>
-      <c r="D69" s="158"/>
-      <c r="E69" s="158"/>
+      <c r="A69" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="159"/>
+      <c r="C69" s="159"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="159"/>
       <c r="F69" s="63"/>
       <c r="G69" s="63"/>
       <c r="H69" s="50"/>
@@ -4131,7 +4140,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" s="125"/>
       <c r="E71" s="126"/>
@@ -4169,7 +4178,7 @@
         <v>48</v>
       </c>
       <c r="C72" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" s="131"/>
       <c r="E72" s="132"/>
@@ -4275,7 +4284,7 @@
         <v>25</v>
       </c>
       <c r="C75" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" s="131"/>
       <c r="E75" s="132"/>
@@ -4330,13 +4339,13 @@
       <c r="Z76" s="65"/>
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="150" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="151"/>
-      <c r="C77" s="151"/>
-      <c r="D77" s="151"/>
-      <c r="E77" s="151"/>
+      <c r="A77" s="151" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="152"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="152"/>
+      <c r="E77" s="152"/>
       <c r="F77" s="82"/>
       <c r="G77" s="82"/>
       <c r="H77" s="81"/>
@@ -4413,7 +4422,7 @@
         <v>9</v>
       </c>
       <c r="C79" s="86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="88"/>
@@ -4448,10 +4457,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="135"/>
       <c r="E80" s="136"/>
@@ -4482,14 +4491,14 @@
         <v>3</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D81" s="135"/>
       <c r="E81" s="136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F81" s="133"/>
       <c r="G81" s="133"/>
@@ -4518,10 +4527,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D82" s="135"/>
       <c r="E82" s="136"/>
@@ -4552,10 +4561,10 @@
         <v>5</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D83" s="135"/>
       <c r="E83" s="136"/>
@@ -4586,10 +4595,10 @@
         <v>6</v>
       </c>
       <c r="B84" s="133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="134" t="s">
         <v>121</v>
-      </c>
-      <c r="C84" s="134" t="s">
-        <v>122</v>
       </c>
       <c r="D84" s="135"/>
       <c r="E84" s="136"/>
@@ -4597,7 +4606,7 @@
       <c r="G84" s="133"/>
       <c r="H84" s="137"/>
       <c r="I84" s="133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J84" s="138"/>
       <c r="K84" s="138"/>
@@ -4622,10 +4631,10 @@
         <v>7</v>
       </c>
       <c r="B85" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="134" t="s">
         <v>124</v>
-      </c>
-      <c r="C85" s="134" t="s">
-        <v>125</v>
       </c>
       <c r="D85" s="135"/>
       <c r="E85" s="136"/>
@@ -4680,13 +4689,13 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="151"/>
-      <c r="C87" s="151"/>
-      <c r="D87" s="151"/>
-      <c r="E87" s="151"/>
+      <c r="A87" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="152"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="152"/>
       <c r="F87" s="82"/>
       <c r="G87" s="82"/>
       <c r="H87" s="81"/>
@@ -4763,7 +4772,7 @@
         <v>9</v>
       </c>
       <c r="C89" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D89" s="141"/>
       <c r="E89" s="142"/>
@@ -4798,10 +4807,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C90" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" s="135"/>
       <c r="E90" s="136"/>
@@ -4832,14 +4841,14 @@
         <v>3</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="135"/>
       <c r="E91" s="136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F91" s="133"/>
       <c r="G91" s="133"/>
@@ -4868,10 +4877,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D92" s="135"/>
       <c r="E92" s="136"/>
@@ -4902,10 +4911,10 @@
         <v>5</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" s="135"/>
       <c r="E93" s="136"/>
@@ -4936,10 +4945,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="134" t="s">
         <v>121</v>
-      </c>
-      <c r="C94" s="134" t="s">
-        <v>122</v>
       </c>
       <c r="D94" s="135"/>
       <c r="E94" s="136"/>
@@ -4947,7 +4956,7 @@
       <c r="G94" s="133"/>
       <c r="H94" s="137"/>
       <c r="I94" s="133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J94" s="102"/>
       <c r="K94" s="102"/>
@@ -4972,10 +4981,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="134" t="s">
         <v>124</v>
-      </c>
-      <c r="C95" s="134" t="s">
-        <v>125</v>
       </c>
       <c r="D95" s="135"/>
       <c r="E95" s="136"/>
@@ -5009,13 +5018,13 @@
         <v>34</v>
       </c>
       <c r="C96" s="134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D96" s="135"/>
       <c r="E96" s="136"/>
       <c r="F96" s="133"/>
       <c r="G96" s="133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H96" s="137"/>
       <c r="I96" s="133"/>
@@ -5040,10 +5049,10 @@
     <row r="97" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="133"/>
       <c r="B97" s="133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97" s="134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D97" s="135"/>
       <c r="E97" s="136"/>
@@ -5072,10 +5081,10 @@
     <row r="98" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="133"/>
       <c r="B98" s="133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" s="134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" s="135"/>
       <c r="E98" s="136"/>
@@ -5104,10 +5113,10 @@
     <row r="99" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="133"/>
       <c r="B99" s="133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C99" s="134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D99" s="135"/>
       <c r="E99" s="136"/>
@@ -5136,10 +5145,10 @@
     <row r="100" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="133"/>
       <c r="B100" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100" s="134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D100" s="135"/>
       <c r="E100" s="136"/>
@@ -5194,13 +5203,13 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="B102" s="151"/>
-      <c r="C102" s="151"/>
-      <c r="D102" s="151"/>
-      <c r="E102" s="151"/>
+      <c r="A102" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="152"/>
+      <c r="C102" s="152"/>
+      <c r="D102" s="152"/>
+      <c r="E102" s="152"/>
       <c r="F102" s="82"/>
       <c r="G102" s="82"/>
       <c r="H102" s="81"/>
@@ -5277,7 +5286,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D104" s="141"/>
       <c r="E104" s="142"/>
@@ -5315,7 +5324,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D105" s="135"/>
       <c r="E105" s="136"/>
@@ -5348,10 +5357,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C106" s="134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D106" s="135"/>
       <c r="E106" s="136"/>
@@ -5382,10 +5391,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="134" t="s">
         <v>140</v>
-      </c>
-      <c r="C107" s="134" t="s">
-        <v>141</v>
       </c>
       <c r="D107" s="135"/>
       <c r="E107" s="136"/>
@@ -5416,10 +5425,10 @@
         <v>5</v>
       </c>
       <c r="B108" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" s="134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D108" s="135"/>
       <c r="E108" s="136"/>
@@ -5450,10 +5459,10 @@
         <v>6</v>
       </c>
       <c r="B109" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="134" t="s">
         <v>143</v>
-      </c>
-      <c r="C109" s="134" t="s">
-        <v>144</v>
       </c>
       <c r="D109" s="135"/>
       <c r="E109" s="136"/>
@@ -27625,14 +27634,17 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="97.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -27640,11 +27652,11 @@
         <v>51</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -27674,7 +27686,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -27706,7 +27718,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
@@ -27738,7 +27750,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -27770,7 +27782,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
@@ -27802,7 +27814,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -27834,7 +27846,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -27901,10 +27913,10 @@
         <v>54</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
@@ -27930,11 +27942,11 @@
       <c r="Z9" s="65"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="79" t="s">
         <v>177</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>178</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -27969,10 +27981,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
@@ -28005,10 +28017,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
@@ -28041,10 +28053,10 @@
         <v>57</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>103</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>104</v>
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
@@ -28077,10 +28089,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>103</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>104</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -28113,10 +28125,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>103</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>104</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
@@ -28149,10 +28161,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
@@ -28185,10 +28197,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
@@ -28215,10 +28227,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="74" t="s">
         <v>169</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>170</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -28253,10 +28265,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
@@ -28289,10 +28301,10 @@
         <v>63</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
@@ -28325,10 +28337,10 @@
         <v>64</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
@@ -28361,10 +28373,10 @@
         <v>65</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
@@ -28397,10 +28409,10 @@
         <v>66</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
@@ -28433,10 +28445,10 @@
         <v>67</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="65"/>
       <c r="F24" s="65"/>
@@ -28466,16 +28478,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
@@ -28507,10 +28519,10 @@
         <v>68</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
@@ -28543,10 +28555,10 @@
         <v>69</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -28579,10 +28591,10 @@
         <v>70</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="65"/>
@@ -28615,10 +28627,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -28651,10 +28663,10 @@
         <v>72</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="65"/>
       <c r="F30" s="65"/>
@@ -28815,10 +28827,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
@@ -28884,7 +28896,9 @@
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
+      <c r="E37" s="65" t="s">
+        <v>178</v>
+      </c>
       <c r="F37" s="65"/>
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
@@ -28948,7 +28962,9 @@
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
+      <c r="E39" s="65" t="s">
+        <v>179</v>
+      </c>
       <c r="F39" s="65"/>
       <c r="G39" s="65"/>
       <c r="H39" s="65"/>
@@ -28980,7 +28996,9 @@
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
+      <c r="E40" s="65" t="s">
+        <v>180</v>
+      </c>
       <c r="F40" s="65"/>
       <c r="G40" s="65"/>
       <c r="H40" s="65"/>
@@ -29040,7 +29058,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="65"/>
@@ -29072,7 +29090,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -29104,7 +29122,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="65"/>
@@ -56175,13 +56193,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="A3" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="81"/>
@@ -56224,7 +56242,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="88"/>
@@ -56245,7 +56263,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="93"/>
       <c r="E6" s="94"/>
@@ -56261,10 +56279,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="93"/>
       <c r="E7" s="94"/>
@@ -56273,7 +56291,7 @@
       <c r="H7" s="95"/>
       <c r="I7" s="91"/>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -56281,10 +56299,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>148</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="94"/>
@@ -56298,10 +56316,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="93"/>
       <c r="E9" s="94"/>
@@ -56309,10 +56327,10 @@
       <c r="G9" s="91"/>
       <c r="H9" s="95"/>
       <c r="I9" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M9" s="99"/>
     </row>
@@ -56326,10 +56344,10 @@
       <c r="G10" s="91"/>
       <c r="H10" s="95"/>
       <c r="I10" s="91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L10" s="98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M10" s="99"/>
     </row>
@@ -56356,36 +56374,36 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" s="99" t="s">
         <v>165</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
         <v>156</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>157</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>158</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>159</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>160</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>161</v>
       </c>
-      <c r="J15" t="s">
-        <v>162</v>
-      </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M15">
         <v>15</v>
@@ -56393,117 +56411,117 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J16" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I18" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J18" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/nodejs-tutorials/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C70E8A-C54C-FF4D-9A52-9575524BC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D108CD66-3B77-D645-95BD-9F909E0FF6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="51200" windowHeight="26020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="182">
   <si>
     <t>No.</t>
   </si>
@@ -311,9 +311,6 @@
     <t>Hiển thị tất cả các nhà cung cấp có tên là: (SONY, SAMSUNG, TOSHIBA, APPLE)</t>
   </si>
   <si>
-    <t>COLLECTION: Suppliers</t>
-  </si>
-  <si>
     <t>COLLECTION: Customers</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Lock</t>
-  </si>
-  <si>
     <t>AccountType</t>
   </si>
   <si>
@@ -580,12 +574,18 @@
   <si>
     <t>Hiển thị tất cả đơn hàng có tổng số tiền bán hàng sắp xếp từ cao đến thấp trong khoảng từ ngày, đến ngày</t>
   </si>
+  <si>
+    <t>TOP-MONTH | DEAL</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -695,6 +695,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -916,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,7 +1157,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,6 +1290,52 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1303,7 +1355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1591,7 +1643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1602,10 +1654,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Z899"/>
+  <dimension ref="A2:Z910"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,13 +1671,14 @@
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="37.1640625" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="26" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="11" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="101" t="s">
-        <v>136</v>
+      <c r="B2" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1654,7 +1707,7 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -1736,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1774,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
         <v>50</v>
@@ -1812,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="7">
         <v>500</v>
@@ -1842,270 +1895,264 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145">
+    <row r="8" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="144">
         <v>4</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="102"/>
-    </row>
-    <row r="9" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="147">
+      <c r="J8" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+    </row>
+    <row r="9" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="146">
         <v>5</v>
       </c>
-      <c r="B9" s="147" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-    </row>
-    <row r="10" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="147">
+      <c r="B9" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+    </row>
+    <row r="10" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="160">
         <v>6</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="160" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="148" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-    </row>
-    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+    </row>
+    <row r="11" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="160">
         <v>7</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="B11" s="160" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+    </row>
+    <row r="12" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="160">
         <v>8</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="B12" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+    </row>
+    <row r="13" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="160">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="B13" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+    </row>
+    <row r="14" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="160">
+        <v>10</v>
+      </c>
+      <c r="B14" s="160" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11" t="s">
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="160">
         <v>11</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="17">
-        <v>100</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="B15" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2125,25 +2172,21 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>3</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="17">
-        <v>50</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="15"/>
+      <c r="A16" s="160">
+        <v>12</v>
+      </c>
+      <c r="B16" s="160" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="161" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2163,27 +2206,15 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>4</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="17">
-        <v>50</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="15"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2202,24 +2233,34 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+    <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="17">
-        <v>500</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2238,16 +2279,26 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2266,18 +2317,24 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="17">
+        <v>100</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2297,33 +2354,25 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="A21" s="15">
         <v>3</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="B21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="17">
+        <v>50</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="15"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2342,26 +2391,28 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>4</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="17">
         <v>50</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="E22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2381,23 +2432,23 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
-        <v>2</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="28">
-        <v>50</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="A23" s="15">
+        <v>5</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="17">
+        <v>500</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2417,23 +2468,15 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
-        <v>3</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="28">
-        <v>50</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2453,25 +2496,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
-        <v>4</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="28">
-        <v>50</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="A25" s="155" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2491,25 +2526,33 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+      <c r="A26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="28">
-        <v>500</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="26"/>
+      <c r="G26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2529,25 +2572,25 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
-        <v>6</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="28">
+      <c r="A27" s="22">
+        <v>1</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="24">
         <v>50</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2568,18 +2611,18 @@
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29" t="s">
-        <v>15</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D28" s="28">
+        <v>50</v>
+      </c>
+      <c r="E28" s="29"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
@@ -2603,15 +2646,23 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="26">
+        <v>3</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="28">
+        <v>50</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2631,17 +2682,25 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="153" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="155"/>
+      <c r="A30" s="26">
+        <v>4</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="28">
+        <v>50</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2661,33 +2720,25 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="96" t="s">
+      <c r="A31" s="26">
         <v>5</v>
       </c>
-      <c r="G31" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="96" t="s">
-        <v>8</v>
-      </c>
+      <c r="B31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="28">
+        <v>500</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="26"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2707,25 +2758,25 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
-        <v>1</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="168">
+        <v>6</v>
+      </c>
+      <c r="B32" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="169">
         <v>50</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="168"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2745,23 +2796,23 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
-        <v>2</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="36">
-        <v>50</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
+      <c r="A33" s="26">
+        <v>7</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2781,23 +2832,21 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
-        <v>3</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="36">
-        <v>50</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
+      <c r="A34" s="175">
+        <v>8</v>
+      </c>
+      <c r="B34" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="176" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="177"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="175"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2817,25 +2866,21 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
-        <v>4</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="36">
-        <v>50</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+      <c r="A35" s="132">
+        <v>9</v>
+      </c>
+      <c r="B35" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="132"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2855,25 +2900,21 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
-        <v>5</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="36">
-        <v>500</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="34"/>
+      <c r="A36" s="132">
+        <v>10</v>
+      </c>
+      <c r="B36" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="134"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="132"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2893,25 +2934,15 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
-        <v>6</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="36">
-        <v>50</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="34"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2931,23 +2962,17 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
-        <v>7</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
+      <c r="A38" s="152" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="154"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2967,15 +2992,33 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="96" t="s">
+        <v>8</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2995,17 +3038,25 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
+      <c r="A40" s="30">
+        <v>1</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="32">
+        <v>50</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3025,33 +3076,23 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="38" t="s">
+      <c r="A41" s="34">
         <v>2</v>
       </c>
-      <c r="D41" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="B41" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="36">
+        <v>50</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3071,25 +3112,23 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39">
-        <v>1</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="40" t="s">
+      <c r="A42" s="34">
+        <v>3</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="39"/>
+      <c r="D42" s="36">
+        <v>50</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3109,23 +3148,25 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43">
-        <v>2</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="45">
+      <c r="A43" s="34">
+        <v>4</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="36">
         <v>50</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
+      <c r="E43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3144,100 +3185,100 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="43">
-        <v>3</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43">
-        <v>0</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43">
-        <v>4</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43">
-        <v>0</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
+    <row r="44" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="34">
+        <v>5</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="36">
+        <v>500</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="34"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="101"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="101"/>
+    </row>
+    <row r="45" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="171">
+        <v>6</v>
+      </c>
+      <c r="B45" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="173">
+        <v>50</v>
+      </c>
+      <c r="E45" s="174"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="171"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="101"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="43">
-        <v>5</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43">
-        <v>0</v>
-      </c>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
+      <c r="A46" s="34">
+        <v>7</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3256,234 +3297,232 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="109">
+    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="175">
+        <v>8</v>
+      </c>
+      <c r="B47" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="176" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="177"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="132">
+        <v>9</v>
+      </c>
+      <c r="B48" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="134"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="132">
+        <v>10</v>
+      </c>
+      <c r="B49" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="134"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="163"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="163"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="109"/>
-      <c r="H47" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="109"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="102"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="102"/>
-      <c r="S47" s="102"/>
-      <c r="T47" s="102"/>
-      <c r="U47" s="102"/>
-      <c r="V47" s="102"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="102"/>
-      <c r="Y47" s="102"/>
-      <c r="Z47" s="102"/>
-    </row>
-    <row r="48" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="109">
+      <c r="H52" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="109"/>
-      <c r="H48" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="109"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="102"/>
-      <c r="S48" s="102"/>
-      <c r="T48" s="102"/>
-      <c r="U48" s="102"/>
-      <c r="V48" s="102"/>
-      <c r="W48" s="102"/>
-      <c r="X48" s="102"/>
-      <c r="Y48" s="102"/>
-      <c r="Z48" s="102"/>
-    </row>
-    <row r="49" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114">
+      <c r="I52" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="114" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="115" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="116" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="102"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="102"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="102"/>
-      <c r="S49" s="102"/>
-      <c r="T49" s="102"/>
-      <c r="U49" s="102"/>
-      <c r="V49" s="102"/>
-      <c r="W49" s="102"/>
-      <c r="X49" s="102"/>
-      <c r="Y49" s="102"/>
-      <c r="Z49" s="102"/>
-    </row>
-    <row r="50" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="104">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39">
+        <v>1</v>
+      </c>
+      <c r="B53" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="102"/>
-      <c r="O50" s="102"/>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="102"/>
-      <c r="R50" s="102"/>
-      <c r="S50" s="102"/>
-      <c r="T50" s="102"/>
-      <c r="U50" s="102"/>
-      <c r="V50" s="102"/>
-      <c r="W50" s="102"/>
-      <c r="X50" s="102"/>
-      <c r="Y50" s="102"/>
-      <c r="Z50" s="102"/>
-    </row>
-    <row r="51" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="104">
+      <c r="C53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="102"/>
-      <c r="N51" s="102"/>
-      <c r="O51" s="102"/>
-      <c r="P51" s="102"/>
-      <c r="Q51" s="102"/>
-      <c r="R51" s="102"/>
-      <c r="S51" s="102"/>
-      <c r="T51" s="102"/>
-      <c r="U51" s="102"/>
-      <c r="V51" s="102"/>
-      <c r="W51" s="102"/>
-      <c r="X51" s="102"/>
-      <c r="Y51" s="102"/>
-      <c r="Z51" s="102"/>
-    </row>
-    <row r="52" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="104">
+      <c r="G53" s="39"/>
+      <c r="H53" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="102"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="102"/>
-      <c r="S52" s="102"/>
-      <c r="T52" s="102"/>
-      <c r="U52" s="102"/>
-      <c r="V52" s="102"/>
-      <c r="W52" s="102"/>
-      <c r="X52" s="102"/>
-      <c r="Y52" s="102"/>
-      <c r="Z52" s="102"/>
-    </row>
-    <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3503,17 +3542,23 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="158" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="159"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
+      <c r="A54" s="43">
+        <v>2</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="45">
+        <v>50</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3532,262 +3577,248 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
+    <row r="55" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="43">
+        <v>3</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43">
         <v>0</v>
       </c>
-      <c r="B55" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="51" t="s">
+      <c r="H55" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="43"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="101"/>
+      <c r="U55" s="101"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="101"/>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="101"/>
+      <c r="Z55" s="101"/>
+    </row>
+    <row r="56" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43">
         <v>4</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="B56" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43">
+        <v>0</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I56" s="43"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
+      <c r="U56" s="101"/>
+      <c r="V56" s="101"/>
+      <c r="W56" s="101"/>
+      <c r="X56" s="101"/>
+      <c r="Y56" s="101"/>
+      <c r="Z56" s="101"/>
+    </row>
+    <row r="57" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="43">
         <v>5</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="B57" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43">
+        <v>0</v>
+      </c>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="101"/>
+    </row>
+    <row r="58" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="108">
         <v>6</v>
       </c>
-      <c r="H55" s="51" t="s">
+      <c r="B58" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="110"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="108"/>
+      <c r="H58" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="108"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101"/>
+      <c r="U58" s="101"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
+      <c r="X58" s="101"/>
+      <c r="Y58" s="101"/>
+      <c r="Z58" s="101"/>
+    </row>
+    <row r="59" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="108">
         <v>7</v>
       </c>
-      <c r="I55" s="51" t="s">
+      <c r="B59" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="110"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="108"/>
+      <c r="H59" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="108"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="101"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="101"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="101"/>
+      <c r="U59" s="101"/>
+      <c r="V59" s="101"/>
+      <c r="W59" s="101"/>
+      <c r="X59" s="101"/>
+      <c r="Y59" s="101"/>
+      <c r="Z59" s="101"/>
+    </row>
+    <row r="60" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="113">
         <v>8</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52">
-        <v>1</v>
-      </c>
-      <c r="B56" s="52" t="s">
+      <c r="B60" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="114"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="101"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+      <c r="Q60" s="101"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="101"/>
+      <c r="W60" s="101"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="101"/>
+    </row>
+    <row r="61" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="103">
         <v>9</v>
       </c>
-      <c r="C56" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56">
-        <v>2</v>
-      </c>
-      <c r="B57" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="56"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56">
-        <v>3</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58" s="56"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56">
-        <v>4</v>
-      </c>
-      <c r="B59" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="61">
-        <v>50</v>
-      </c>
-      <c r="E59" s="62"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H59" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" s="56"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56">
-        <v>5</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="60"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56">
-        <v>6</v>
-      </c>
-      <c r="B61" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="61">
-        <v>500</v>
-      </c>
-      <c r="E61" s="62"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
+      <c r="B61" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="105"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="103" t="s">
+        <v>126</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3806,28 +3837,22 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56">
-        <v>7</v>
-      </c>
-      <c r="B62" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="61">
-        <v>20</v>
-      </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="I62" s="56"/>
+    <row r="62" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="103">
+        <v>10</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="105"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="103"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3846,28 +3871,24 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" s="149" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="56">
-        <v>8</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="61">
-        <v>50</v>
-      </c>
-      <c r="E63" s="62"/>
-      <c r="F63" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I63" s="56"/>
+    <row r="63" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="103">
+        <v>11</v>
+      </c>
+      <c r="B63" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="105"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="103" t="s">
+        <v>134</v>
+      </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3886,28 +3907,16 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" s="149" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56">
-        <v>9</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="61">
-        <v>50</v>
-      </c>
-      <c r="E64" s="62"/>
-      <c r="F64" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" s="56"/>
+    <row r="64" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3926,118 +3935,140 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="118">
+    <row r="65" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="158"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+    </row>
+    <row r="66" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52">
+        <v>1</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="54"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="120"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="102"/>
-      <c r="K65" s="102"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="102"/>
-      <c r="N65" s="102"/>
-      <c r="O65" s="102"/>
-      <c r="P65" s="102"/>
-      <c r="Q65" s="102"/>
-      <c r="R65" s="102"/>
-      <c r="S65" s="102"/>
-      <c r="T65" s="102"/>
-      <c r="U65" s="102"/>
-      <c r="V65" s="102"/>
-      <c r="W65" s="102"/>
-      <c r="X65" s="102"/>
-      <c r="Y65" s="102"/>
-      <c r="Z65" s="102"/>
-    </row>
-    <row r="66" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="118">
-        <v>12</v>
-      </c>
-      <c r="B66" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="120"/>
-      <c r="E66" s="121"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="102"/>
-      <c r="K66" s="102"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="102"/>
-      <c r="N66" s="102"/>
-      <c r="O66" s="102"/>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="102"/>
-      <c r="R66" s="102"/>
-      <c r="S66" s="102"/>
-      <c r="T66" s="102"/>
-      <c r="U66" s="102"/>
-      <c r="V66" s="102"/>
-      <c r="W66" s="102"/>
-      <c r="X66" s="102"/>
-      <c r="Y66" s="102"/>
-      <c r="Z66" s="102"/>
-    </row>
-    <row r="67" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="118">
-        <v>13</v>
-      </c>
-      <c r="B67" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="102"/>
-      <c r="S67" s="102"/>
-      <c r="T67" s="102"/>
-      <c r="U67" s="102"/>
-      <c r="V67" s="102"/>
-      <c r="W67" s="102"/>
-      <c r="X67" s="102"/>
-      <c r="Y67" s="102"/>
-      <c r="Z67" s="102"/>
-    </row>
-    <row r="68" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="52"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="56">
+        <v>2</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="56"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -4056,18 +4087,26 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="160" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="159"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="63"/>
+    <row r="69" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="56">
+        <v>3</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="61"/>
+      <c r="E69" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" s="56"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -4086,34 +4125,28 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="64" t="s">
+    <row r="70" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="56">
         <v>4</v>
       </c>
-      <c r="F70" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="64" t="s">
-        <v>8</v>
-      </c>
+      <c r="B70" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="61">
+        <v>50</v>
+      </c>
+      <c r="E70" s="62"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="56"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -4132,1372 +4165,1398 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="123">
+    <row r="71" spans="1:26" s="148" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="56">
+        <v>5</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="60"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" spans="1:26" s="148" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="56">
+        <v>6</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="61">
+        <v>500</v>
+      </c>
+      <c r="E72" s="62"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="56">
+        <v>7</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="61">
+        <v>20</v>
+      </c>
+      <c r="E73" s="62"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H73" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I73" s="56"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="101"/>
+      <c r="L73" s="101"/>
+      <c r="M73" s="101"/>
+      <c r="N73" s="101"/>
+      <c r="O73" s="101"/>
+      <c r="P73" s="101"/>
+      <c r="Q73" s="101"/>
+      <c r="R73" s="101"/>
+      <c r="S73" s="101"/>
+      <c r="T73" s="101"/>
+      <c r="U73" s="101"/>
+      <c r="V73" s="101"/>
+      <c r="W73" s="101"/>
+      <c r="X73" s="101"/>
+      <c r="Y73" s="101"/>
+      <c r="Z73" s="101"/>
+    </row>
+    <row r="74" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="56">
+        <v>8</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="61">
+        <v>50</v>
+      </c>
+      <c r="E74" s="62"/>
+      <c r="F74" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="56"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+      <c r="M74" s="101"/>
+      <c r="N74" s="101"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="101"/>
+      <c r="Q74" s="101"/>
+      <c r="R74" s="101"/>
+      <c r="S74" s="101"/>
+      <c r="T74" s="101"/>
+      <c r="U74" s="101"/>
+      <c r="V74" s="101"/>
+      <c r="W74" s="101"/>
+      <c r="X74" s="101"/>
+      <c r="Y74" s="101"/>
+      <c r="Z74" s="101"/>
+    </row>
+    <row r="75" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="56">
+        <v>9</v>
+      </c>
+      <c r="B75" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="61">
+        <v>50</v>
+      </c>
+      <c r="E75" s="62"/>
+      <c r="F75" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="56"/>
+      <c r="J75" s="101"/>
+      <c r="K75" s="101"/>
+      <c r="L75" s="101"/>
+      <c r="M75" s="101"/>
+      <c r="N75" s="101"/>
+      <c r="O75" s="101"/>
+      <c r="P75" s="101"/>
+      <c r="Q75" s="101"/>
+      <c r="R75" s="101"/>
+      <c r="S75" s="101"/>
+      <c r="T75" s="101"/>
+      <c r="U75" s="101"/>
+      <c r="V75" s="101"/>
+      <c r="W75" s="101"/>
+      <c r="X75" s="101"/>
+      <c r="Y75" s="101"/>
+      <c r="Z75" s="101"/>
+    </row>
+    <row r="76" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="117">
+        <v>10</v>
+      </c>
+      <c r="B76" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="119"/>
+      <c r="E76" s="120"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="117"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="117">
+        <v>12</v>
+      </c>
+      <c r="B77" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="119"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+    </row>
+    <row r="78" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="117">
+        <v>13</v>
+      </c>
+      <c r="B78" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="119"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="117"/>
+      <c r="I78" s="117"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+    </row>
+    <row r="79" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
+      <c r="P79" s="101"/>
+      <c r="Q79" s="101"/>
+      <c r="R79" s="101"/>
+      <c r="S79" s="101"/>
+      <c r="T79" s="101"/>
+      <c r="U79" s="101"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="101"/>
+      <c r="X79" s="101"/>
+      <c r="Y79" s="101"/>
+      <c r="Z79" s="101"/>
+    </row>
+    <row r="80" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="159" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="158"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="158"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
+      <c r="P80" s="101"/>
+      <c r="Q80" s="101"/>
+      <c r="R80" s="101"/>
+      <c r="S80" s="101"/>
+      <c r="T80" s="101"/>
+      <c r="U80" s="101"/>
+      <c r="V80" s="101"/>
+      <c r="W80" s="101"/>
+      <c r="X80" s="101"/>
+      <c r="Y80" s="101"/>
+      <c r="Z80" s="101"/>
+    </row>
+    <row r="81" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="123" t="s">
+      <c r="C81" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="101"/>
+      <c r="K81" s="101"/>
+      <c r="L81" s="101"/>
+      <c r="M81" s="101"/>
+      <c r="N81" s="101"/>
+      <c r="O81" s="101"/>
+      <c r="P81" s="101"/>
+      <c r="Q81" s="101"/>
+      <c r="R81" s="101"/>
+      <c r="S81" s="101"/>
+      <c r="T81" s="101"/>
+      <c r="U81" s="101"/>
+      <c r="V81" s="101"/>
+      <c r="W81" s="101"/>
+      <c r="X81" s="101"/>
+      <c r="Y81" s="101"/>
+      <c r="Z81" s="101"/>
+    </row>
+    <row r="82" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="122">
+        <v>1</v>
+      </c>
+      <c r="B82" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="124" t="s">
+      <c r="C82" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="124"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="126"/>
+      <c r="H82" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="126"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
+      <c r="O82" s="101"/>
+      <c r="P82" s="101"/>
+      <c r="Q82" s="101"/>
+      <c r="R82" s="101"/>
+      <c r="S82" s="101"/>
+      <c r="T82" s="101"/>
+      <c r="U82" s="101"/>
+      <c r="V82" s="101"/>
+      <c r="W82" s="101"/>
+      <c r="X82" s="101"/>
+      <c r="Y82" s="101"/>
+      <c r="Z82" s="101"/>
+    </row>
+    <row r="83" spans="1:26" s="102" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="128">
+        <v>3</v>
+      </c>
+      <c r="B83" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="130"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="128"/>
+      <c r="H83" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="I83" s="128"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="101"/>
+      <c r="P83" s="101"/>
+      <c r="Q83" s="101"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="101"/>
+      <c r="T83" s="101"/>
+      <c r="U83" s="101"/>
+      <c r="V83" s="101"/>
+      <c r="W83" s="101"/>
+      <c r="X83" s="101"/>
+      <c r="Y83" s="101"/>
+      <c r="Z83" s="101"/>
+    </row>
+    <row r="84" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="128">
+        <v>4</v>
+      </c>
+      <c r="B84" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="130"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="128"/>
+      <c r="G84" s="128"/>
+      <c r="H84" s="117"/>
+      <c r="I84" s="128"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="65"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="65"/>
+      <c r="S84" s="65"/>
+      <c r="T84" s="65"/>
+      <c r="U84" s="65"/>
+      <c r="V84" s="65"/>
+      <c r="W84" s="65"/>
+      <c r="X84" s="65"/>
+      <c r="Y84" s="65"/>
+      <c r="Z84" s="65"/>
+    </row>
+    <row r="85" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="128">
+        <v>5</v>
+      </c>
+      <c r="B85" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="130"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
+      <c r="H85" s="117"/>
+      <c r="I85" s="128"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="65"/>
+      <c r="S85" s="65"/>
+      <c r="T85" s="65"/>
+      <c r="U85" s="65"/>
+      <c r="V85" s="65"/>
+      <c r="W85" s="65"/>
+      <c r="X85" s="65"/>
+      <c r="Y85" s="65"/>
+      <c r="Z85" s="65"/>
+    </row>
+    <row r="86" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="128">
+        <v>6</v>
+      </c>
+      <c r="B86" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="130"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="128"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="65"/>
+      <c r="R86" s="65"/>
+      <c r="S86" s="65"/>
+      <c r="T86" s="65"/>
+      <c r="U86" s="65"/>
+      <c r="V86" s="65"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="65"/>
+      <c r="Y86" s="65"/>
+      <c r="Z86" s="65"/>
+    </row>
+    <row r="87" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="65"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="65"/>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="65"/>
+      <c r="R87" s="65"/>
+      <c r="S87" s="65"/>
+      <c r="T87" s="65"/>
+      <c r="U87" s="65"/>
+      <c r="V87" s="65"/>
+      <c r="W87" s="65"/>
+      <c r="X87" s="65"/>
+      <c r="Y87" s="65"/>
+      <c r="Z87" s="65"/>
+    </row>
+    <row r="88" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="151"/>
+      <c r="C88" s="151"/>
+      <c r="D88" s="151"/>
+      <c r="E88" s="151"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="137"/>
+      <c r="K88" s="137"/>
+      <c r="L88" s="137"/>
+      <c r="M88" s="137"/>
+      <c r="N88" s="137"/>
+      <c r="O88" s="137"/>
+      <c r="P88" s="137"/>
+      <c r="Q88" s="137"/>
+      <c r="R88" s="137"/>
+      <c r="S88" s="137"/>
+      <c r="T88" s="137"/>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137"/>
+      <c r="W88" s="137"/>
+      <c r="X88" s="137"/>
+      <c r="Y88" s="137"/>
+      <c r="Z88" s="137"/>
+    </row>
+    <row r="89" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="137"/>
+      <c r="K89" s="137"/>
+      <c r="L89" s="137"/>
+      <c r="M89" s="137"/>
+      <c r="N89" s="137"/>
+      <c r="O89" s="137"/>
+      <c r="P89" s="137"/>
+      <c r="Q89" s="137"/>
+      <c r="R89" s="137"/>
+      <c r="S89" s="137"/>
+      <c r="T89" s="137"/>
+      <c r="U89" s="137"/>
+      <c r="V89" s="137"/>
+      <c r="W89" s="137"/>
+      <c r="X89" s="137"/>
+      <c r="Y89" s="137"/>
+      <c r="Z89" s="137"/>
+    </row>
+    <row r="90" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="85">
+        <v>1</v>
+      </c>
+      <c r="B90" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="87"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="89"/>
+      <c r="H90" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="89"/>
+      <c r="J90" s="137"/>
+      <c r="K90" s="137"/>
+      <c r="L90" s="137"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="137"/>
+      <c r="O90" s="137"/>
+      <c r="P90" s="137"/>
+      <c r="Q90" s="137"/>
+      <c r="R90" s="137"/>
+      <c r="S90" s="137"/>
+      <c r="T90" s="137"/>
+      <c r="U90" s="137"/>
+      <c r="V90" s="137"/>
+      <c r="W90" s="137"/>
+      <c r="X90" s="137"/>
+      <c r="Y90" s="137"/>
+      <c r="Z90" s="137"/>
+    </row>
+    <row r="91" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="132">
+        <v>2</v>
+      </c>
+      <c r="B91" s="132" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="125"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="127" t="s">
+      <c r="D91" s="134"/>
+      <c r="E91" s="135"/>
+      <c r="F91" s="132"/>
+      <c r="G91" s="132"/>
+      <c r="H91" s="136"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="137"/>
+      <c r="K91" s="137"/>
+      <c r="L91" s="137"/>
+      <c r="M91" s="137"/>
+      <c r="N91" s="137"/>
+      <c r="O91" s="137"/>
+      <c r="P91" s="137"/>
+      <c r="Q91" s="137"/>
+      <c r="R91" s="137"/>
+      <c r="S91" s="137"/>
+      <c r="T91" s="137"/>
+      <c r="U91" s="137"/>
+      <c r="V91" s="137"/>
+      <c r="W91" s="137"/>
+      <c r="X91" s="137"/>
+      <c r="Y91" s="137"/>
+      <c r="Z91" s="137"/>
+    </row>
+    <row r="92" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="132">
+        <v>3</v>
+      </c>
+      <c r="B92" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="134"/>
+      <c r="E92" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="132"/>
+      <c r="G92" s="132"/>
+      <c r="H92" s="136"/>
+      <c r="I92" s="132"/>
+      <c r="J92" s="137"/>
+      <c r="K92" s="137"/>
+      <c r="L92" s="137"/>
+      <c r="M92" s="137"/>
+      <c r="N92" s="137"/>
+      <c r="O92" s="137"/>
+      <c r="P92" s="137"/>
+      <c r="Q92" s="137"/>
+      <c r="R92" s="137"/>
+      <c r="S92" s="137"/>
+      <c r="T92" s="137"/>
+      <c r="U92" s="137"/>
+      <c r="V92" s="137"/>
+      <c r="W92" s="137"/>
+      <c r="X92" s="137"/>
+      <c r="Y92" s="137"/>
+      <c r="Z92" s="137"/>
+    </row>
+    <row r="93" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="132">
+        <v>4</v>
+      </c>
+      <c r="B93" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="134"/>
+      <c r="E93" s="135"/>
+      <c r="F93" s="132"/>
+      <c r="G93" s="132"/>
+      <c r="H93" s="136"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
+      <c r="L93" s="137"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="137"/>
+      <c r="O93" s="137"/>
+      <c r="P93" s="137"/>
+      <c r="Q93" s="137"/>
+      <c r="R93" s="137"/>
+      <c r="S93" s="137"/>
+      <c r="T93" s="137"/>
+      <c r="U93" s="137"/>
+      <c r="V93" s="137"/>
+      <c r="W93" s="137"/>
+      <c r="X93" s="137"/>
+      <c r="Y93" s="137"/>
+      <c r="Z93" s="137"/>
+    </row>
+    <row r="94" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="132">
+        <v>5</v>
+      </c>
+      <c r="B94" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="134"/>
+      <c r="E94" s="135"/>
+      <c r="F94" s="132"/>
+      <c r="G94" s="132"/>
+      <c r="H94" s="136"/>
+      <c r="I94" s="132"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+    </row>
+    <row r="95" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="132">
+        <v>6</v>
+      </c>
+      <c r="B95" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="133" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="134"/>
+      <c r="E95" s="135"/>
+      <c r="F95" s="132"/>
+      <c r="G95" s="132"/>
+      <c r="H95" s="136"/>
+      <c r="I95" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+    </row>
+    <row r="96" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="132">
+        <v>7</v>
+      </c>
+      <c r="B96" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="134"/>
+      <c r="E96" s="135"/>
+      <c r="F96" s="132"/>
+      <c r="G96" s="132"/>
+      <c r="H96" s="136"/>
+      <c r="I96" s="132"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+    </row>
+    <row r="97" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="101"/>
+      <c r="K97" s="101"/>
+      <c r="L97" s="101"/>
+      <c r="M97" s="101"/>
+      <c r="N97" s="101"/>
+      <c r="O97" s="101"/>
+      <c r="P97" s="101"/>
+      <c r="Q97" s="101"/>
+      <c r="R97" s="101"/>
+      <c r="S97" s="101"/>
+      <c r="T97" s="101"/>
+      <c r="U97" s="101"/>
+      <c r="V97" s="101"/>
+      <c r="W97" s="101"/>
+      <c r="X97" s="101"/>
+      <c r="Y97" s="101"/>
+      <c r="Z97" s="101"/>
+    </row>
+    <row r="98" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="150" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="151"/>
+      <c r="C98" s="151"/>
+      <c r="D98" s="151"/>
+      <c r="E98" s="151"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="101"/>
+      <c r="P98" s="101"/>
+      <c r="Q98" s="101"/>
+      <c r="R98" s="101"/>
+      <c r="S98" s="101"/>
+      <c r="T98" s="101"/>
+      <c r="U98" s="101"/>
+      <c r="V98" s="101"/>
+      <c r="W98" s="101"/>
+      <c r="X98" s="101"/>
+      <c r="Y98" s="101"/>
+      <c r="Z98" s="101"/>
+    </row>
+    <row r="99" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="101"/>
+      <c r="K99" s="101"/>
+      <c r="L99" s="101"/>
+      <c r="M99" s="101"/>
+      <c r="N99" s="101"/>
+      <c r="O99" s="101"/>
+      <c r="P99" s="101"/>
+      <c r="Q99" s="101"/>
+      <c r="R99" s="101"/>
+      <c r="S99" s="101"/>
+      <c r="T99" s="101"/>
+      <c r="U99" s="101"/>
+      <c r="V99" s="101"/>
+      <c r="W99" s="101"/>
+      <c r="X99" s="101"/>
+      <c r="Y99" s="101"/>
+      <c r="Z99" s="101"/>
+    </row>
+    <row r="100" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="138">
+        <v>1</v>
+      </c>
+      <c r="B100" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="140"/>
+      <c r="E100" s="141"/>
+      <c r="F100" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="127"/>
-      <c r="H71" s="128" t="s">
+      <c r="G100" s="142"/>
+      <c r="H100" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="127"/>
-      <c r="J71" s="102"/>
-      <c r="K71" s="102"/>
-      <c r="L71" s="102"/>
-      <c r="M71" s="102"/>
-      <c r="N71" s="102"/>
-      <c r="O71" s="102"/>
-      <c r="P71" s="102"/>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="102"/>
-      <c r="S71" s="102"/>
-      <c r="T71" s="102"/>
-      <c r="U71" s="102"/>
-      <c r="V71" s="102"/>
-      <c r="W71" s="102"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="102"/>
-    </row>
-    <row r="72" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="129">
+      <c r="I100" s="142"/>
+      <c r="J100" s="101"/>
+      <c r="K100" s="101"/>
+      <c r="L100" s="101"/>
+      <c r="M100" s="101"/>
+      <c r="N100" s="101"/>
+      <c r="O100" s="101"/>
+      <c r="P100" s="101"/>
+      <c r="Q100" s="101"/>
+      <c r="R100" s="101"/>
+      <c r="S100" s="101"/>
+      <c r="T100" s="101"/>
+      <c r="U100" s="101"/>
+      <c r="V100" s="101"/>
+      <c r="W100" s="101"/>
+      <c r="X100" s="101"/>
+      <c r="Y100" s="101"/>
+      <c r="Z100" s="101"/>
+    </row>
+    <row r="101" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="132">
+        <v>2</v>
+      </c>
+      <c r="B101" s="132" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="134"/>
+      <c r="E101" s="135"/>
+      <c r="F101" s="132"/>
+      <c r="G101" s="132"/>
+      <c r="H101" s="136"/>
+      <c r="I101" s="132"/>
+      <c r="J101" s="101"/>
+      <c r="K101" s="101"/>
+      <c r="L101" s="101"/>
+      <c r="M101" s="101"/>
+      <c r="N101" s="101"/>
+      <c r="O101" s="101"/>
+      <c r="P101" s="101"/>
+      <c r="Q101" s="101"/>
+      <c r="R101" s="101"/>
+      <c r="S101" s="101"/>
+      <c r="T101" s="101"/>
+      <c r="U101" s="101"/>
+      <c r="V101" s="101"/>
+      <c r="W101" s="101"/>
+      <c r="X101" s="101"/>
+      <c r="Y101" s="101"/>
+      <c r="Z101" s="101"/>
+    </row>
+    <row r="102" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="132">
         <v>3</v>
       </c>
-      <c r="B72" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="130" t="s">
+      <c r="B102" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="131"/>
-      <c r="E72" s="132"/>
-      <c r="F72" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="129"/>
-      <c r="H72" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="I72" s="129"/>
-      <c r="J72" s="102"/>
-      <c r="K72" s="102"/>
-      <c r="L72" s="102"/>
-      <c r="M72" s="102"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="102"/>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="102"/>
-      <c r="R72" s="102"/>
-      <c r="S72" s="102"/>
-      <c r="T72" s="102"/>
-      <c r="U72" s="102"/>
-      <c r="V72" s="102"/>
-      <c r="W72" s="102"/>
-      <c r="X72" s="102"/>
-      <c r="Y72" s="102"/>
-      <c r="Z72" s="102"/>
-    </row>
-    <row r="73" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="129">
+      <c r="D102" s="134"/>
+      <c r="E102" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="132"/>
+      <c r="G102" s="132"/>
+      <c r="H102" s="136"/>
+      <c r="I102" s="132"/>
+      <c r="J102" s="101"/>
+      <c r="K102" s="101"/>
+      <c r="L102" s="101"/>
+      <c r="M102" s="101"/>
+      <c r="N102" s="101"/>
+      <c r="O102" s="101"/>
+      <c r="P102" s="101"/>
+      <c r="Q102" s="101"/>
+      <c r="R102" s="101"/>
+      <c r="S102" s="101"/>
+      <c r="T102" s="101"/>
+      <c r="U102" s="101"/>
+      <c r="V102" s="101"/>
+      <c r="W102" s="101"/>
+      <c r="X102" s="101"/>
+      <c r="Y102" s="101"/>
+      <c r="Z102" s="101"/>
+    </row>
+    <row r="103" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="132">
         <v>4</v>
       </c>
-      <c r="B73" s="129" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="131"/>
-      <c r="E73" s="132"/>
-      <c r="F73" s="129"/>
-      <c r="G73" s="129"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="129"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="102"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="102"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="102"/>
-      <c r="U73" s="102"/>
-      <c r="V73" s="102"/>
-      <c r="W73" s="102"/>
-      <c r="X73" s="102"/>
-      <c r="Y73" s="102"/>
-      <c r="Z73" s="102"/>
-    </row>
-    <row r="74" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="129">
+      <c r="B103" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" s="134"/>
+      <c r="E103" s="135"/>
+      <c r="F103" s="132"/>
+      <c r="G103" s="132"/>
+      <c r="H103" s="136"/>
+      <c r="I103" s="132"/>
+      <c r="J103" s="137"/>
+      <c r="K103" s="137"/>
+      <c r="L103" s="137"/>
+      <c r="M103" s="137"/>
+      <c r="N103" s="137"/>
+      <c r="O103" s="137"/>
+      <c r="P103" s="137"/>
+      <c r="Q103" s="137"/>
+      <c r="R103" s="137"/>
+      <c r="S103" s="137"/>
+      <c r="T103" s="137"/>
+      <c r="U103" s="137"/>
+      <c r="V103" s="137"/>
+      <c r="W103" s="137"/>
+      <c r="X103" s="137"/>
+      <c r="Y103" s="137"/>
+      <c r="Z103" s="137"/>
+    </row>
+    <row r="104" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="132">
         <v>5</v>
       </c>
-      <c r="B74" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="131"/>
-      <c r="E74" s="132"/>
-      <c r="F74" s="129"/>
-      <c r="G74" s="129"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="129"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="102"/>
-      <c r="S74" s="102"/>
-      <c r="T74" s="102"/>
-      <c r="U74" s="102"/>
-      <c r="V74" s="102"/>
-      <c r="W74" s="102"/>
-      <c r="X74" s="102"/>
-      <c r="Y74" s="102"/>
-      <c r="Z74" s="102"/>
-    </row>
-    <row r="75" spans="1:26" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="129">
+      <c r="B104" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="134"/>
+      <c r="E104" s="135"/>
+      <c r="F104" s="132"/>
+      <c r="G104" s="132"/>
+      <c r="H104" s="136"/>
+      <c r="I104" s="132"/>
+      <c r="J104" s="137"/>
+      <c r="K104" s="137"/>
+      <c r="L104" s="137"/>
+      <c r="M104" s="137"/>
+      <c r="N104" s="137"/>
+      <c r="O104" s="137"/>
+      <c r="P104" s="137"/>
+      <c r="Q104" s="137"/>
+      <c r="R104" s="137"/>
+      <c r="S104" s="137"/>
+      <c r="T104" s="137"/>
+      <c r="U104" s="137"/>
+      <c r="V104" s="137"/>
+      <c r="W104" s="137"/>
+      <c r="X104" s="137"/>
+      <c r="Y104" s="137"/>
+      <c r="Z104" s="137"/>
+    </row>
+    <row r="105" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="132">
         <v>6</v>
       </c>
-      <c r="B75" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="131"/>
-      <c r="E75" s="132"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="129"/>
-      <c r="J75" s="102"/>
-      <c r="K75" s="102"/>
-      <c r="L75" s="102"/>
-      <c r="M75" s="102"/>
-      <c r="N75" s="102"/>
-      <c r="O75" s="102"/>
-      <c r="P75" s="102"/>
-      <c r="Q75" s="102"/>
-      <c r="R75" s="102"/>
-      <c r="S75" s="102"/>
-      <c r="T75" s="102"/>
-      <c r="U75" s="102"/>
-      <c r="V75" s="102"/>
-      <c r="W75" s="102"/>
-      <c r="X75" s="102"/>
-      <c r="Y75" s="102"/>
-      <c r="Z75" s="102"/>
-    </row>
-    <row r="76" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="65"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="65"/>
-      <c r="Q76" s="65"/>
-      <c r="R76" s="65"/>
-      <c r="S76" s="65"/>
-      <c r="T76" s="65"/>
-      <c r="U76" s="65"/>
-      <c r="V76" s="65"/>
-      <c r="W76" s="65"/>
-      <c r="X76" s="65"/>
-      <c r="Y76" s="65"/>
-      <c r="Z76" s="65"/>
-    </row>
-    <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="151" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="152"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82"/>
-      <c r="H77" s="81"/>
-      <c r="I77" s="82"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="65"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="65"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="65"/>
-      <c r="X77" s="65"/>
-      <c r="Y77" s="65"/>
-      <c r="Z77" s="65"/>
-    </row>
-    <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="84" t="s">
+      <c r="B105" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="133" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" s="134"/>
+      <c r="E105" s="135"/>
+      <c r="F105" s="132"/>
+      <c r="G105" s="132"/>
+      <c r="H105" s="136"/>
+      <c r="I105" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="J105" s="137"/>
+      <c r="K105" s="137"/>
+      <c r="L105" s="137"/>
+      <c r="M105" s="137"/>
+      <c r="N105" s="137"/>
+      <c r="O105" s="137"/>
+      <c r="P105" s="137"/>
+      <c r="Q105" s="137"/>
+      <c r="R105" s="137"/>
+      <c r="S105" s="137"/>
+      <c r="T105" s="137"/>
+      <c r="U105" s="137"/>
+      <c r="V105" s="137"/>
+      <c r="W105" s="137"/>
+      <c r="X105" s="137"/>
+      <c r="Y105" s="137"/>
+      <c r="Z105" s="137"/>
+    </row>
+    <row r="106" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="132">
         <v>7</v>
       </c>
-      <c r="I78" s="83" t="s">
+      <c r="B106" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="134"/>
+      <c r="E106" s="135"/>
+      <c r="F106" s="132"/>
+      <c r="G106" s="132"/>
+      <c r="H106" s="136"/>
+      <c r="I106" s="132"/>
+      <c r="J106" s="137"/>
+      <c r="K106" s="137"/>
+      <c r="L106" s="137"/>
+      <c r="M106" s="137"/>
+      <c r="N106" s="137"/>
+      <c r="O106" s="137"/>
+      <c r="P106" s="137"/>
+      <c r="Q106" s="137"/>
+      <c r="R106" s="137"/>
+      <c r="S106" s="137"/>
+      <c r="T106" s="137"/>
+      <c r="U106" s="137"/>
+      <c r="V106" s="137"/>
+      <c r="W106" s="137"/>
+      <c r="X106" s="137"/>
+      <c r="Y106" s="137"/>
+      <c r="Z106" s="137"/>
+    </row>
+    <row r="107" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="132">
         <v>8</v>
       </c>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="65"/>
-      <c r="O78" s="65"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="65"/>
-      <c r="S78" s="65"/>
-      <c r="T78" s="65"/>
-      <c r="U78" s="65"/>
-      <c r="V78" s="65"/>
-      <c r="W78" s="65"/>
-      <c r="X78" s="65"/>
-      <c r="Y78" s="65"/>
-      <c r="Z78" s="65"/>
-    </row>
-    <row r="79" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="85">
-        <v>1</v>
-      </c>
-      <c r="B79" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="87"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="89"/>
-      <c r="H79" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="89"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="65"/>
-      <c r="T79" s="65"/>
-      <c r="U79" s="65"/>
-      <c r="V79" s="65"/>
-      <c r="W79" s="65"/>
-      <c r="X79" s="65"/>
-      <c r="Y79" s="65"/>
-      <c r="Z79" s="65"/>
-    </row>
-    <row r="80" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="133">
-        <v>2</v>
-      </c>
-      <c r="B80" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="135"/>
-      <c r="E80" s="136"/>
-      <c r="F80" s="133"/>
-      <c r="G80" s="133"/>
-      <c r="H80" s="137"/>
-      <c r="I80" s="133"/>
-      <c r="J80" s="138"/>
-      <c r="K80" s="138"/>
-      <c r="L80" s="138"/>
-      <c r="M80" s="138"/>
-      <c r="N80" s="138"/>
-      <c r="O80" s="138"/>
-      <c r="P80" s="138"/>
-      <c r="Q80" s="138"/>
-      <c r="R80" s="138"/>
-      <c r="S80" s="138"/>
-      <c r="T80" s="138"/>
-      <c r="U80" s="138"/>
-      <c r="V80" s="138"/>
-      <c r="W80" s="138"/>
-      <c r="X80" s="138"/>
-      <c r="Y80" s="138"/>
-      <c r="Z80" s="138"/>
-    </row>
-    <row r="81" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="133">
-        <v>3</v>
-      </c>
-      <c r="B81" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="135"/>
-      <c r="E81" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" s="133"/>
-      <c r="G81" s="133"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="133"/>
-      <c r="J81" s="138"/>
-      <c r="K81" s="138"/>
-      <c r="L81" s="138"/>
-      <c r="M81" s="138"/>
-      <c r="N81" s="138"/>
-      <c r="O81" s="138"/>
-      <c r="P81" s="138"/>
-      <c r="Q81" s="138"/>
-      <c r="R81" s="138"/>
-      <c r="S81" s="138"/>
-      <c r="T81" s="138"/>
-      <c r="U81" s="138"/>
-      <c r="V81" s="138"/>
-      <c r="W81" s="138"/>
-      <c r="X81" s="138"/>
-      <c r="Y81" s="138"/>
-      <c r="Z81" s="138"/>
-    </row>
-    <row r="82" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="133">
-        <v>4</v>
-      </c>
-      <c r="B82" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" s="135"/>
-      <c r="E82" s="136"/>
-      <c r="F82" s="133"/>
-      <c r="G82" s="133"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="133"/>
-      <c r="J82" s="138"/>
-      <c r="K82" s="138"/>
-      <c r="L82" s="138"/>
-      <c r="M82" s="138"/>
-      <c r="N82" s="138"/>
-      <c r="O82" s="138"/>
-      <c r="P82" s="138"/>
-      <c r="Q82" s="138"/>
-      <c r="R82" s="138"/>
-      <c r="S82" s="138"/>
-      <c r="T82" s="138"/>
-      <c r="U82" s="138"/>
-      <c r="V82" s="138"/>
-      <c r="W82" s="138"/>
-      <c r="X82" s="138"/>
-      <c r="Y82" s="138"/>
-      <c r="Z82" s="138"/>
-    </row>
-    <row r="83" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="133">
-        <v>5</v>
-      </c>
-      <c r="B83" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="135"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="133"/>
-      <c r="G83" s="133"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="133"/>
-      <c r="J83" s="138"/>
-      <c r="K83" s="138"/>
-      <c r="L83" s="138"/>
-      <c r="M83" s="138"/>
-      <c r="N83" s="138"/>
-      <c r="O83" s="138"/>
-      <c r="P83" s="138"/>
-      <c r="Q83" s="138"/>
-      <c r="R83" s="138"/>
-      <c r="S83" s="138"/>
-      <c r="T83" s="138"/>
-      <c r="U83" s="138"/>
-      <c r="V83" s="138"/>
-      <c r="W83" s="138"/>
-      <c r="X83" s="138"/>
-      <c r="Y83" s="138"/>
-      <c r="Z83" s="138"/>
-    </row>
-    <row r="84" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="133">
-        <v>6</v>
-      </c>
-      <c r="B84" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84" s="134" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="135"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="133"/>
-      <c r="G84" s="133"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="J84" s="138"/>
-      <c r="K84" s="138"/>
-      <c r="L84" s="138"/>
-      <c r="M84" s="138"/>
-      <c r="N84" s="138"/>
-      <c r="O84" s="138"/>
-      <c r="P84" s="138"/>
-      <c r="Q84" s="138"/>
-      <c r="R84" s="138"/>
-      <c r="S84" s="138"/>
-      <c r="T84" s="138"/>
-      <c r="U84" s="138"/>
-      <c r="V84" s="138"/>
-      <c r="W84" s="138"/>
-      <c r="X84" s="138"/>
-      <c r="Y84" s="138"/>
-      <c r="Z84" s="138"/>
-    </row>
-    <row r="85" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="133">
-        <v>7</v>
-      </c>
-      <c r="B85" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="135"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="133"/>
-      <c r="G85" s="133"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="133"/>
-      <c r="J85" s="138"/>
-      <c r="K85" s="138"/>
-      <c r="L85" s="138"/>
-      <c r="M85" s="138"/>
-      <c r="N85" s="138"/>
-      <c r="O85" s="138"/>
-      <c r="P85" s="138"/>
-      <c r="Q85" s="138"/>
-      <c r="R85" s="138"/>
-      <c r="S85" s="138"/>
-      <c r="T85" s="138"/>
-      <c r="U85" s="138"/>
-      <c r="V85" s="138"/>
-      <c r="W85" s="138"/>
-      <c r="X85" s="138"/>
-      <c r="Y85" s="138"/>
-      <c r="Z85" s="138"/>
-    </row>
-    <row r="86" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-    </row>
-    <row r="87" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="151" t="s">
-        <v>118</v>
-      </c>
-      <c r="B87" s="152"/>
-      <c r="C87" s="152"/>
-      <c r="D87" s="152"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-    </row>
-    <row r="88" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-    </row>
-    <row r="89" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="139">
-        <v>1</v>
-      </c>
-      <c r="B89" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="141"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="143"/>
-      <c r="H89" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="143"/>
-      <c r="J89" s="102"/>
-      <c r="K89" s="102"/>
-      <c r="L89" s="102"/>
-      <c r="M89" s="102"/>
-      <c r="N89" s="102"/>
-      <c r="O89" s="102"/>
-      <c r="P89" s="102"/>
-      <c r="Q89" s="102"/>
-      <c r="R89" s="102"/>
-      <c r="S89" s="102"/>
-      <c r="T89" s="102"/>
-      <c r="U89" s="102"/>
-      <c r="V89" s="102"/>
-      <c r="W89" s="102"/>
-      <c r="X89" s="102"/>
-      <c r="Y89" s="102"/>
-      <c r="Z89" s="102"/>
-    </row>
-    <row r="90" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="133">
-        <v>2</v>
-      </c>
-      <c r="B90" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D90" s="135"/>
-      <c r="E90" s="136"/>
-      <c r="F90" s="133"/>
-      <c r="G90" s="133"/>
-      <c r="H90" s="137"/>
-      <c r="I90" s="133"/>
-      <c r="J90" s="102"/>
-      <c r="K90" s="102"/>
-      <c r="L90" s="102"/>
-      <c r="M90" s="102"/>
-      <c r="N90" s="102"/>
-      <c r="O90" s="102"/>
-      <c r="P90" s="102"/>
-      <c r="Q90" s="102"/>
-      <c r="R90" s="102"/>
-      <c r="S90" s="102"/>
-      <c r="T90" s="102"/>
-      <c r="U90" s="102"/>
-      <c r="V90" s="102"/>
-      <c r="W90" s="102"/>
-      <c r="X90" s="102"/>
-      <c r="Y90" s="102"/>
-      <c r="Z90" s="102"/>
-    </row>
-    <row r="91" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="133">
-        <v>3</v>
-      </c>
-      <c r="B91" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D91" s="135"/>
-      <c r="E91" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="F91" s="133"/>
-      <c r="G91" s="133"/>
-      <c r="H91" s="137"/>
-      <c r="I91" s="133"/>
-      <c r="J91" s="102"/>
-      <c r="K91" s="102"/>
-      <c r="L91" s="102"/>
-      <c r="M91" s="102"/>
-      <c r="N91" s="102"/>
-      <c r="O91" s="102"/>
-      <c r="P91" s="102"/>
-      <c r="Q91" s="102"/>
-      <c r="R91" s="102"/>
-      <c r="S91" s="102"/>
-      <c r="T91" s="102"/>
-      <c r="U91" s="102"/>
-      <c r="V91" s="102"/>
-      <c r="W91" s="102"/>
-      <c r="X91" s="102"/>
-      <c r="Y91" s="102"/>
-      <c r="Z91" s="102"/>
-    </row>
-    <row r="92" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="133">
-        <v>4</v>
-      </c>
-      <c r="B92" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" s="135"/>
-      <c r="E92" s="136"/>
-      <c r="F92" s="133"/>
-      <c r="G92" s="133"/>
-      <c r="H92" s="137"/>
-      <c r="I92" s="133"/>
-      <c r="J92" s="102"/>
-      <c r="K92" s="102"/>
-      <c r="L92" s="102"/>
-      <c r="M92" s="102"/>
-      <c r="N92" s="102"/>
-      <c r="O92" s="102"/>
-      <c r="P92" s="102"/>
-      <c r="Q92" s="102"/>
-      <c r="R92" s="102"/>
-      <c r="S92" s="102"/>
-      <c r="T92" s="102"/>
-      <c r="U92" s="102"/>
-      <c r="V92" s="102"/>
-      <c r="W92" s="102"/>
-      <c r="X92" s="102"/>
-      <c r="Y92" s="102"/>
-      <c r="Z92" s="102"/>
-    </row>
-    <row r="93" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="133">
-        <v>5</v>
-      </c>
-      <c r="B93" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D93" s="135"/>
-      <c r="E93" s="136"/>
-      <c r="F93" s="133"/>
-      <c r="G93" s="133"/>
-      <c r="H93" s="137"/>
-      <c r="I93" s="133"/>
-      <c r="J93" s="102"/>
-      <c r="K93" s="102"/>
-      <c r="L93" s="102"/>
-      <c r="M93" s="102"/>
-      <c r="N93" s="102"/>
-      <c r="O93" s="102"/>
-      <c r="P93" s="102"/>
-      <c r="Q93" s="102"/>
-      <c r="R93" s="102"/>
-      <c r="S93" s="102"/>
-      <c r="T93" s="102"/>
-      <c r="U93" s="102"/>
-      <c r="V93" s="102"/>
-      <c r="W93" s="102"/>
-      <c r="X93" s="102"/>
-      <c r="Y93" s="102"/>
-      <c r="Z93" s="102"/>
-    </row>
-    <row r="94" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="133">
-        <v>6</v>
-      </c>
-      <c r="B94" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="134" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94" s="135"/>
-      <c r="E94" s="136"/>
-      <c r="F94" s="133"/>
-      <c r="G94" s="133"/>
-      <c r="H94" s="137"/>
-      <c r="I94" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="J94" s="102"/>
-      <c r="K94" s="102"/>
-      <c r="L94" s="102"/>
-      <c r="M94" s="102"/>
-      <c r="N94" s="102"/>
-      <c r="O94" s="102"/>
-      <c r="P94" s="102"/>
-      <c r="Q94" s="102"/>
-      <c r="R94" s="102"/>
-      <c r="S94" s="102"/>
-      <c r="T94" s="102"/>
-      <c r="U94" s="102"/>
-      <c r="V94" s="102"/>
-      <c r="W94" s="102"/>
-      <c r="X94" s="102"/>
-      <c r="Y94" s="102"/>
-      <c r="Z94" s="102"/>
-    </row>
-    <row r="95" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="133">
-        <v>7</v>
-      </c>
-      <c r="B95" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" s="135"/>
-      <c r="E95" s="136"/>
-      <c r="F95" s="133"/>
-      <c r="G95" s="133"/>
-      <c r="H95" s="137"/>
-      <c r="I95" s="133"/>
-      <c r="J95" s="138"/>
-      <c r="K95" s="138"/>
-      <c r="L95" s="138"/>
-      <c r="M95" s="138"/>
-      <c r="N95" s="138"/>
-      <c r="O95" s="138"/>
-      <c r="P95" s="138"/>
-      <c r="Q95" s="138"/>
-      <c r="R95" s="138"/>
-      <c r="S95" s="138"/>
-      <c r="T95" s="138"/>
-      <c r="U95" s="138"/>
-      <c r="V95" s="138"/>
-      <c r="W95" s="138"/>
-      <c r="X95" s="138"/>
-      <c r="Y95" s="138"/>
-      <c r="Z95" s="138"/>
-    </row>
-    <row r="96" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="133">
-        <v>8</v>
-      </c>
-      <c r="B96" s="133" t="s">
+      <c r="B107" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" s="135"/>
-      <c r="E96" s="136"/>
-      <c r="F96" s="133"/>
-      <c r="G96" s="133" t="s">
+      <c r="C107" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="134"/>
+      <c r="E107" s="135"/>
+      <c r="F107" s="132"/>
+      <c r="G107" s="132" t="s">
+        <v>168</v>
+      </c>
+      <c r="H107" s="136"/>
+      <c r="I107" s="132"/>
+      <c r="J107" s="137"/>
+      <c r="K107" s="137"/>
+      <c r="L107" s="137"/>
+      <c r="M107" s="137"/>
+      <c r="N107" s="137"/>
+      <c r="O107" s="137"/>
+      <c r="P107" s="137"/>
+      <c r="Q107" s="137"/>
+      <c r="R107" s="137"/>
+      <c r="S107" s="137"/>
+      <c r="T107" s="137"/>
+      <c r="U107" s="137"/>
+      <c r="V107" s="137"/>
+      <c r="W107" s="137"/>
+      <c r="X107" s="137"/>
+      <c r="Y107" s="137"/>
+      <c r="Z107" s="137"/>
+    </row>
+    <row r="108" spans="1:26" s="102" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="132"/>
+      <c r="B108" s="132" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="134"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="132"/>
+      <c r="G108" s="132"/>
+      <c r="H108" s="136"/>
+      <c r="I108" s="132"/>
+      <c r="J108" s="137"/>
+      <c r="K108" s="137"/>
+      <c r="L108" s="137"/>
+      <c r="M108" s="137"/>
+      <c r="N108" s="137"/>
+      <c r="O108" s="137"/>
+      <c r="P108" s="137"/>
+      <c r="Q108" s="137"/>
+      <c r="R108" s="137"/>
+      <c r="S108" s="137"/>
+      <c r="T108" s="137"/>
+      <c r="U108" s="137"/>
+      <c r="V108" s="137"/>
+      <c r="W108" s="137"/>
+      <c r="X108" s="137"/>
+      <c r="Y108" s="137"/>
+      <c r="Z108" s="137"/>
+    </row>
+    <row r="109" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="132"/>
+      <c r="B109" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="H96" s="137"/>
-      <c r="I96" s="133"/>
-      <c r="J96" s="138"/>
-      <c r="K96" s="138"/>
-      <c r="L96" s="138"/>
-      <c r="M96" s="138"/>
-      <c r="N96" s="138"/>
-      <c r="O96" s="138"/>
-      <c r="P96" s="138"/>
-      <c r="Q96" s="138"/>
-      <c r="R96" s="138"/>
-      <c r="S96" s="138"/>
-      <c r="T96" s="138"/>
-      <c r="U96" s="138"/>
-      <c r="V96" s="138"/>
-      <c r="W96" s="138"/>
-      <c r="X96" s="138"/>
-      <c r="Y96" s="138"/>
-      <c r="Z96" s="138"/>
-    </row>
-    <row r="97" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="133"/>
-      <c r="B97" s="133" t="s">
+      <c r="C109" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="134"/>
+      <c r="E109" s="135"/>
+      <c r="F109" s="132"/>
+      <c r="G109" s="132"/>
+      <c r="H109" s="136"/>
+      <c r="I109" s="132"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+    </row>
+    <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="132"/>
+      <c r="B110" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="C97" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="135"/>
-      <c r="E97" s="136"/>
-      <c r="F97" s="133"/>
-      <c r="G97" s="133"/>
-      <c r="H97" s="137"/>
-      <c r="I97" s="133"/>
-      <c r="J97" s="138"/>
-      <c r="K97" s="138"/>
-      <c r="L97" s="138"/>
-      <c r="M97" s="138"/>
-      <c r="N97" s="138"/>
-      <c r="O97" s="138"/>
-      <c r="P97" s="138"/>
-      <c r="Q97" s="138"/>
-      <c r="R97" s="138"/>
-      <c r="S97" s="138"/>
-      <c r="T97" s="138"/>
-      <c r="U97" s="138"/>
-      <c r="V97" s="138"/>
-      <c r="W97" s="138"/>
-      <c r="X97" s="138"/>
-      <c r="Y97" s="138"/>
-      <c r="Z97" s="138"/>
-    </row>
-    <row r="98" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="133"/>
-      <c r="B98" s="133" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="135"/>
-      <c r="E98" s="136"/>
-      <c r="F98" s="133"/>
-      <c r="G98" s="133"/>
-      <c r="H98" s="137"/>
-      <c r="I98" s="133"/>
-      <c r="J98" s="138"/>
-      <c r="K98" s="138"/>
-      <c r="L98" s="138"/>
-      <c r="M98" s="138"/>
-      <c r="N98" s="138"/>
-      <c r="O98" s="138"/>
-      <c r="P98" s="138"/>
-      <c r="Q98" s="138"/>
-      <c r="R98" s="138"/>
-      <c r="S98" s="138"/>
-      <c r="T98" s="138"/>
-      <c r="U98" s="138"/>
-      <c r="V98" s="138"/>
-      <c r="W98" s="138"/>
-      <c r="X98" s="138"/>
-      <c r="Y98" s="138"/>
-      <c r="Z98" s="138"/>
-    </row>
-    <row r="99" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="133"/>
-      <c r="B99" s="133" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="135"/>
-      <c r="E99" s="136"/>
-      <c r="F99" s="133"/>
-      <c r="G99" s="133"/>
-      <c r="H99" s="137"/>
-      <c r="I99" s="133"/>
-      <c r="J99" s="138"/>
-      <c r="K99" s="138"/>
-      <c r="L99" s="138"/>
-      <c r="M99" s="138"/>
-      <c r="N99" s="138"/>
-      <c r="O99" s="138"/>
-      <c r="P99" s="138"/>
-      <c r="Q99" s="138"/>
-      <c r="R99" s="138"/>
-      <c r="S99" s="138"/>
-      <c r="T99" s="138"/>
-      <c r="U99" s="138"/>
-      <c r="V99" s="138"/>
-      <c r="W99" s="138"/>
-      <c r="X99" s="138"/>
-      <c r="Y99" s="138"/>
-      <c r="Z99" s="138"/>
-    </row>
-    <row r="100" spans="1:26" s="103" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="133"/>
-      <c r="B100" s="133" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="D100" s="135"/>
-      <c r="E100" s="136"/>
-      <c r="F100" s="133"/>
-      <c r="G100" s="133"/>
-      <c r="H100" s="137"/>
-      <c r="I100" s="133"/>
-      <c r="J100" s="138"/>
-      <c r="K100" s="138"/>
-      <c r="L100" s="138"/>
-      <c r="M100" s="138"/>
-      <c r="N100" s="138"/>
-      <c r="O100" s="138"/>
-      <c r="P100" s="138"/>
-      <c r="Q100" s="138"/>
-      <c r="R100" s="138"/>
-      <c r="S100" s="138"/>
-      <c r="T100" s="138"/>
-      <c r="U100" s="138"/>
-      <c r="V100" s="138"/>
-      <c r="W100" s="138"/>
-      <c r="X100" s="138"/>
-      <c r="Y100" s="138"/>
-      <c r="Z100" s="138"/>
-    </row>
-    <row r="101" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
-    </row>
-    <row r="102" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="B102" s="152"/>
-      <c r="C102" s="152"/>
-      <c r="D102" s="152"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-    </row>
-    <row r="103" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H103" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I103" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
-      <c r="Y103" s="1"/>
-      <c r="Z103" s="1"/>
-    </row>
-    <row r="104" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="139">
-        <v>1</v>
-      </c>
-      <c r="B104" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="141"/>
-      <c r="E104" s="142"/>
-      <c r="F104" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="143"/>
-      <c r="H104" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" s="143"/>
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="102"/>
-      <c r="O104" s="102"/>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="102"/>
-      <c r="R104" s="102"/>
-      <c r="S104" s="102"/>
-      <c r="T104" s="102"/>
-      <c r="U104" s="102"/>
-      <c r="V104" s="102"/>
-      <c r="W104" s="102"/>
-      <c r="X104" s="102"/>
-      <c r="Y104" s="102"/>
-      <c r="Z104" s="102"/>
-    </row>
-    <row r="105" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="133">
-        <v>2</v>
-      </c>
-      <c r="B105" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" s="135"/>
-      <c r="E105" s="136"/>
-      <c r="F105" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="133"/>
-      <c r="H105" s="137"/>
-      <c r="I105" s="133"/>
-      <c r="J105" s="102"/>
-      <c r="K105" s="102"/>
-      <c r="L105" s="102"/>
-      <c r="M105" s="102"/>
-      <c r="N105" s="102"/>
-      <c r="O105" s="102"/>
-      <c r="P105" s="102"/>
-      <c r="Q105" s="102"/>
-      <c r="R105" s="102"/>
-      <c r="S105" s="102"/>
-      <c r="T105" s="102"/>
-      <c r="U105" s="102"/>
-      <c r="V105" s="102"/>
-      <c r="W105" s="102"/>
-      <c r="X105" s="102"/>
-      <c r="Y105" s="102"/>
-      <c r="Z105" s="102"/>
-    </row>
-    <row r="106" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="133">
-        <v>3</v>
-      </c>
-      <c r="B106" s="133" t="s">
-        <v>138</v>
-      </c>
-      <c r="C106" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" s="135"/>
-      <c r="E106" s="136"/>
-      <c r="F106" s="133"/>
-      <c r="G106" s="133"/>
-      <c r="H106" s="137"/>
-      <c r="I106" s="133"/>
-      <c r="J106" s="102"/>
-      <c r="K106" s="102"/>
-      <c r="L106" s="102"/>
-      <c r="M106" s="102"/>
-      <c r="N106" s="102"/>
-      <c r="O106" s="102"/>
-      <c r="P106" s="102"/>
-      <c r="Q106" s="102"/>
-      <c r="R106" s="102"/>
-      <c r="S106" s="102"/>
-      <c r="T106" s="102"/>
-      <c r="U106" s="102"/>
-      <c r="V106" s="102"/>
-      <c r="W106" s="102"/>
-      <c r="X106" s="102"/>
-      <c r="Y106" s="102"/>
-      <c r="Z106" s="102"/>
-    </row>
-    <row r="107" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="133">
-        <v>4</v>
-      </c>
-      <c r="B107" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="D107" s="135"/>
-      <c r="E107" s="136"/>
-      <c r="F107" s="133"/>
-      <c r="G107" s="133"/>
-      <c r="H107" s="137"/>
-      <c r="I107" s="133"/>
-      <c r="J107" s="102"/>
-      <c r="K107" s="102"/>
-      <c r="L107" s="102"/>
-      <c r="M107" s="102"/>
-      <c r="N107" s="102"/>
-      <c r="O107" s="102"/>
-      <c r="P107" s="102"/>
-      <c r="Q107" s="102"/>
-      <c r="R107" s="102"/>
-      <c r="S107" s="102"/>
-      <c r="T107" s="102"/>
-      <c r="U107" s="102"/>
-      <c r="V107" s="102"/>
-      <c r="W107" s="102"/>
-      <c r="X107" s="102"/>
-      <c r="Y107" s="102"/>
-      <c r="Z107" s="102"/>
-    </row>
-    <row r="108" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="133">
-        <v>5</v>
-      </c>
-      <c r="B108" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" s="135"/>
-      <c r="E108" s="136"/>
-      <c r="F108" s="133"/>
-      <c r="G108" s="133"/>
-      <c r="H108" s="137"/>
-      <c r="I108" s="133"/>
-      <c r="J108" s="102"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="102"/>
-      <c r="M108" s="102"/>
-      <c r="N108" s="102"/>
-      <c r="O108" s="102"/>
-      <c r="P108" s="102"/>
-      <c r="Q108" s="102"/>
-      <c r="R108" s="102"/>
-      <c r="S108" s="102"/>
-      <c r="T108" s="102"/>
-      <c r="U108" s="102"/>
-      <c r="V108" s="102"/>
-      <c r="W108" s="102"/>
-      <c r="X108" s="102"/>
-      <c r="Y108" s="102"/>
-      <c r="Z108" s="102"/>
-    </row>
-    <row r="109" spans="1:26" s="103" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="133">
-        <v>6</v>
-      </c>
-      <c r="B109" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" s="134" t="s">
-        <v>143</v>
-      </c>
-      <c r="D109" s="135"/>
-      <c r="E109" s="136"/>
-      <c r="F109" s="133"/>
-      <c r="G109" s="133"/>
-      <c r="H109" s="137"/>
-      <c r="I109" s="133"/>
-      <c r="J109" s="102"/>
-      <c r="K109" s="102"/>
-      <c r="L109" s="102"/>
-      <c r="M109" s="102"/>
-      <c r="N109" s="102"/>
-      <c r="O109" s="102"/>
-      <c r="P109" s="102"/>
-      <c r="Q109" s="102"/>
-      <c r="R109" s="102"/>
-      <c r="S109" s="102"/>
-      <c r="T109" s="102"/>
-      <c r="U109" s="102"/>
-      <c r="V109" s="102"/>
-      <c r="W109" s="102"/>
-      <c r="X109" s="102"/>
-      <c r="Y109" s="102"/>
-      <c r="Z109" s="102"/>
-    </row>
-    <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="91"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="94"/>
-      <c r="F110" s="91"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="95"/>
-      <c r="I110" s="91"/>
+      <c r="C110" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="134"/>
+      <c r="E110" s="135"/>
+      <c r="F110" s="132"/>
+      <c r="G110" s="132"/>
+      <c r="H110" s="136"/>
+      <c r="I110" s="132"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5517,15 +5576,19 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="A111" s="132"/>
+      <c r="B111" s="132" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="134"/>
+      <c r="E111" s="135"/>
+      <c r="F111" s="132"/>
+      <c r="G111" s="132"/>
+      <c r="H111" s="136"/>
+      <c r="I111" s="132"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -5544,7 +5607,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5554,174 +5617,224 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
-    </row>
-    <row r="113" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="1"/>
-    </row>
-    <row r="114" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
-      <c r="Z114" s="1"/>
-    </row>
-    <row r="115" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
-      <c r="Y115" s="1"/>
-      <c r="Z115" s="1"/>
-    </row>
-    <row r="116" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
-      <c r="Y116" s="1"/>
-      <c r="Z116" s="1"/>
-    </row>
-    <row r="117" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
-      <c r="Y117" s="1"/>
-      <c r="Z117" s="1"/>
+      <c r="J112" s="101"/>
+      <c r="K112" s="101"/>
+      <c r="L112" s="101"/>
+      <c r="M112" s="101"/>
+      <c r="N112" s="101"/>
+      <c r="O112" s="101"/>
+      <c r="P112" s="101"/>
+      <c r="Q112" s="101"/>
+      <c r="R112" s="101"/>
+      <c r="S112" s="101"/>
+      <c r="T112" s="101"/>
+      <c r="U112" s="101"/>
+      <c r="V112" s="101"/>
+      <c r="W112" s="101"/>
+      <c r="X112" s="101"/>
+      <c r="Y112" s="101"/>
+      <c r="Z112" s="101"/>
+    </row>
+    <row r="113" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="151"/>
+      <c r="C113" s="151"/>
+      <c r="D113" s="151"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="82"/>
+      <c r="H113" s="81"/>
+      <c r="I113" s="82"/>
+      <c r="J113" s="101"/>
+      <c r="K113" s="101"/>
+      <c r="L113" s="101"/>
+      <c r="M113" s="101"/>
+      <c r="N113" s="101"/>
+      <c r="O113" s="101"/>
+      <c r="P113" s="101"/>
+      <c r="Q113" s="101"/>
+      <c r="R113" s="101"/>
+      <c r="S113" s="101"/>
+      <c r="T113" s="101"/>
+      <c r="U113" s="101"/>
+      <c r="V113" s="101"/>
+      <c r="W113" s="101"/>
+      <c r="X113" s="101"/>
+      <c r="Y113" s="101"/>
+      <c r="Z113" s="101"/>
+    </row>
+    <row r="114" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="101"/>
+      <c r="K114" s="101"/>
+      <c r="L114" s="101"/>
+      <c r="M114" s="101"/>
+      <c r="N114" s="101"/>
+      <c r="O114" s="101"/>
+      <c r="P114" s="101"/>
+      <c r="Q114" s="101"/>
+      <c r="R114" s="101"/>
+      <c r="S114" s="101"/>
+      <c r="T114" s="101"/>
+      <c r="U114" s="101"/>
+      <c r="V114" s="101"/>
+      <c r="W114" s="101"/>
+      <c r="X114" s="101"/>
+      <c r="Y114" s="101"/>
+      <c r="Z114" s="101"/>
+    </row>
+    <row r="115" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="138">
+        <v>1</v>
+      </c>
+      <c r="B115" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="140"/>
+      <c r="E115" s="141"/>
+      <c r="F115" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="142"/>
+      <c r="H115" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="142"/>
+      <c r="J115" s="101"/>
+      <c r="K115" s="101"/>
+      <c r="L115" s="101"/>
+      <c r="M115" s="101"/>
+      <c r="N115" s="101"/>
+      <c r="O115" s="101"/>
+      <c r="P115" s="101"/>
+      <c r="Q115" s="101"/>
+      <c r="R115" s="101"/>
+      <c r="S115" s="101"/>
+      <c r="T115" s="101"/>
+      <c r="U115" s="101"/>
+      <c r="V115" s="101"/>
+      <c r="W115" s="101"/>
+      <c r="X115" s="101"/>
+      <c r="Y115" s="101"/>
+      <c r="Z115" s="101"/>
+    </row>
+    <row r="116" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="132">
+        <v>2</v>
+      </c>
+      <c r="B116" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="134"/>
+      <c r="E116" s="135"/>
+      <c r="F116" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="132"/>
+      <c r="H116" s="136"/>
+      <c r="I116" s="132"/>
+      <c r="J116" s="101"/>
+      <c r="K116" s="101"/>
+      <c r="L116" s="101"/>
+      <c r="M116" s="101"/>
+      <c r="N116" s="101"/>
+      <c r="O116" s="101"/>
+      <c r="P116" s="101"/>
+      <c r="Q116" s="101"/>
+      <c r="R116" s="101"/>
+      <c r="S116" s="101"/>
+      <c r="T116" s="101"/>
+      <c r="U116" s="101"/>
+      <c r="V116" s="101"/>
+      <c r="W116" s="101"/>
+      <c r="X116" s="101"/>
+      <c r="Y116" s="101"/>
+      <c r="Z116" s="101"/>
+    </row>
+    <row r="117" spans="1:26" s="102" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="132">
+        <v>3</v>
+      </c>
+      <c r="B117" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D117" s="134"/>
+      <c r="E117" s="135"/>
+      <c r="F117" s="132"/>
+      <c r="G117" s="132"/>
+      <c r="H117" s="136"/>
+      <c r="I117" s="132"/>
+      <c r="J117" s="101"/>
+      <c r="K117" s="101"/>
+      <c r="L117" s="101"/>
+      <c r="M117" s="101"/>
+      <c r="N117" s="101"/>
+      <c r="O117" s="101"/>
+      <c r="P117" s="101"/>
+      <c r="Q117" s="101"/>
+      <c r="R117" s="101"/>
+      <c r="S117" s="101"/>
+      <c r="T117" s="101"/>
+      <c r="U117" s="101"/>
+      <c r="V117" s="101"/>
+      <c r="W117" s="101"/>
+      <c r="X117" s="101"/>
+      <c r="Y117" s="101"/>
+      <c r="Z117" s="101"/>
     </row>
     <row r="118" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="A118" s="132">
+        <v>4</v>
+      </c>
+      <c r="B118" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" s="134"/>
+      <c r="E118" s="135"/>
+      <c r="F118" s="132"/>
+      <c r="G118" s="132"/>
+      <c r="H118" s="136"/>
+      <c r="I118" s="132"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -5741,15 +5854,21 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="A119" s="132">
+        <v>5</v>
+      </c>
+      <c r="B119" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="134"/>
+      <c r="E119" s="135"/>
+      <c r="F119" s="132"/>
+      <c r="G119" s="132"/>
+      <c r="H119" s="136"/>
+      <c r="I119" s="132"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -5769,15 +5888,21 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="A120" s="132">
+        <v>6</v>
+      </c>
+      <c r="B120" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="134"/>
+      <c r="E120" s="135"/>
+      <c r="F120" s="132"/>
+      <c r="G120" s="132"/>
+      <c r="H120" s="136"/>
+      <c r="I120" s="132"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -5797,15 +5922,15 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
+      <c r="A121" s="91"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="93"/>
+      <c r="E121" s="94"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="95"/>
+      <c r="I121" s="91"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -27608,16 +27733,273 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
+    <row r="900" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A900" s="1"/>
+      <c r="B900" s="1"/>
+      <c r="C900" s="1"/>
+      <c r="D900" s="1"/>
+      <c r="E900" s="1"/>
+      <c r="F900" s="1"/>
+      <c r="G900" s="1"/>
+      <c r="H900" s="1"/>
+      <c r="I900" s="1"/>
+      <c r="J900" s="1"/>
+      <c r="K900" s="1"/>
+      <c r="L900" s="1"/>
+      <c r="M900" s="1"/>
+      <c r="N900" s="1"/>
+      <c r="O900" s="1"/>
+      <c r="P900" s="1"/>
+      <c r="Q900" s="1"/>
+      <c r="R900" s="1"/>
+      <c r="S900" s="1"/>
+      <c r="T900" s="1"/>
+      <c r="U900" s="1"/>
+      <c r="V900" s="1"/>
+      <c r="W900" s="1"/>
+      <c r="X900" s="1"/>
+      <c r="Y900" s="1"/>
+      <c r="Z900" s="1"/>
+    </row>
+    <row r="901" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A901" s="1"/>
+      <c r="B901" s="1"/>
+      <c r="C901" s="1"/>
+      <c r="D901" s="1"/>
+      <c r="E901" s="1"/>
+      <c r="F901" s="1"/>
+      <c r="G901" s="1"/>
+      <c r="H901" s="1"/>
+      <c r="I901" s="1"/>
+      <c r="J901" s="1"/>
+      <c r="K901" s="1"/>
+      <c r="L901" s="1"/>
+      <c r="M901" s="1"/>
+      <c r="N901" s="1"/>
+      <c r="O901" s="1"/>
+      <c r="P901" s="1"/>
+      <c r="Q901" s="1"/>
+      <c r="R901" s="1"/>
+      <c r="S901" s="1"/>
+      <c r="T901" s="1"/>
+      <c r="U901" s="1"/>
+      <c r="V901" s="1"/>
+      <c r="W901" s="1"/>
+      <c r="X901" s="1"/>
+      <c r="Y901" s="1"/>
+      <c r="Z901" s="1"/>
+    </row>
+    <row r="902" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A902" s="1"/>
+      <c r="B902" s="1"/>
+      <c r="C902" s="1"/>
+      <c r="D902" s="1"/>
+      <c r="E902" s="1"/>
+      <c r="F902" s="1"/>
+      <c r="G902" s="1"/>
+      <c r="H902" s="1"/>
+      <c r="I902" s="1"/>
+      <c r="J902" s="1"/>
+      <c r="K902" s="1"/>
+      <c r="L902" s="1"/>
+      <c r="M902" s="1"/>
+      <c r="N902" s="1"/>
+      <c r="O902" s="1"/>
+      <c r="P902" s="1"/>
+      <c r="Q902" s="1"/>
+      <c r="R902" s="1"/>
+      <c r="S902" s="1"/>
+      <c r="T902" s="1"/>
+      <c r="U902" s="1"/>
+      <c r="V902" s="1"/>
+      <c r="W902" s="1"/>
+      <c r="X902" s="1"/>
+      <c r="Y902" s="1"/>
+      <c r="Z902" s="1"/>
+    </row>
+    <row r="903" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A903" s="1"/>
+      <c r="B903" s="1"/>
+      <c r="C903" s="1"/>
+      <c r="D903" s="1"/>
+      <c r="E903" s="1"/>
+      <c r="F903" s="1"/>
+      <c r="G903" s="1"/>
+      <c r="H903" s="1"/>
+      <c r="I903" s="1"/>
+      <c r="J903" s="1"/>
+      <c r="K903" s="1"/>
+      <c r="L903" s="1"/>
+      <c r="M903" s="1"/>
+      <c r="N903" s="1"/>
+      <c r="O903" s="1"/>
+      <c r="P903" s="1"/>
+      <c r="Q903" s="1"/>
+      <c r="R903" s="1"/>
+      <c r="S903" s="1"/>
+      <c r="T903" s="1"/>
+      <c r="U903" s="1"/>
+      <c r="V903" s="1"/>
+      <c r="W903" s="1"/>
+      <c r="X903" s="1"/>
+      <c r="Y903" s="1"/>
+      <c r="Z903" s="1"/>
+    </row>
+    <row r="904" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A904" s="1"/>
+      <c r="B904" s="1"/>
+      <c r="C904" s="1"/>
+      <c r="D904" s="1"/>
+      <c r="E904" s="1"/>
+      <c r="F904" s="1"/>
+      <c r="G904" s="1"/>
+      <c r="H904" s="1"/>
+      <c r="I904" s="1"/>
+      <c r="J904" s="1"/>
+      <c r="K904" s="1"/>
+      <c r="L904" s="1"/>
+      <c r="M904" s="1"/>
+      <c r="N904" s="1"/>
+      <c r="O904" s="1"/>
+      <c r="P904" s="1"/>
+      <c r="Q904" s="1"/>
+      <c r="R904" s="1"/>
+      <c r="S904" s="1"/>
+      <c r="T904" s="1"/>
+      <c r="U904" s="1"/>
+      <c r="V904" s="1"/>
+      <c r="W904" s="1"/>
+      <c r="X904" s="1"/>
+      <c r="Y904" s="1"/>
+      <c r="Z904" s="1"/>
+    </row>
+    <row r="905" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A905" s="1"/>
+      <c r="B905" s="1"/>
+      <c r="C905" s="1"/>
+      <c r="D905" s="1"/>
+      <c r="E905" s="1"/>
+      <c r="F905" s="1"/>
+      <c r="G905" s="1"/>
+      <c r="H905" s="1"/>
+      <c r="I905" s="1"/>
+      <c r="J905" s="1"/>
+      <c r="K905" s="1"/>
+      <c r="L905" s="1"/>
+      <c r="M905" s="1"/>
+      <c r="N905" s="1"/>
+      <c r="O905" s="1"/>
+      <c r="P905" s="1"/>
+      <c r="Q905" s="1"/>
+      <c r="R905" s="1"/>
+      <c r="S905" s="1"/>
+      <c r="T905" s="1"/>
+      <c r="U905" s="1"/>
+      <c r="V905" s="1"/>
+      <c r="W905" s="1"/>
+      <c r="X905" s="1"/>
+      <c r="Y905" s="1"/>
+      <c r="Z905" s="1"/>
+    </row>
+    <row r="906" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A906" s="1"/>
+      <c r="B906" s="1"/>
+      <c r="C906" s="1"/>
+      <c r="D906" s="1"/>
+      <c r="E906" s="1"/>
+      <c r="F906" s="1"/>
+      <c r="G906" s="1"/>
+      <c r="H906" s="1"/>
+      <c r="I906" s="1"/>
+      <c r="J906" s="1"/>
+      <c r="K906" s="1"/>
+      <c r="L906" s="1"/>
+      <c r="M906" s="1"/>
+      <c r="N906" s="1"/>
+      <c r="O906" s="1"/>
+      <c r="P906" s="1"/>
+      <c r="Q906" s="1"/>
+      <c r="R906" s="1"/>
+      <c r="S906" s="1"/>
+      <c r="T906" s="1"/>
+      <c r="U906" s="1"/>
+      <c r="V906" s="1"/>
+      <c r="W906" s="1"/>
+      <c r="X906" s="1"/>
+      <c r="Y906" s="1"/>
+      <c r="Z906" s="1"/>
+    </row>
+    <row r="907" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A907" s="1"/>
+      <c r="B907" s="1"/>
+      <c r="C907" s="1"/>
+      <c r="D907" s="1"/>
+      <c r="E907" s="1"/>
+      <c r="F907" s="1"/>
+      <c r="G907" s="1"/>
+      <c r="H907" s="1"/>
+      <c r="I907" s="1"/>
+      <c r="J907" s="1"/>
+      <c r="K907" s="1"/>
+      <c r="L907" s="1"/>
+      <c r="M907" s="1"/>
+      <c r="N907" s="1"/>
+      <c r="O907" s="1"/>
+      <c r="P907" s="1"/>
+      <c r="Q907" s="1"/>
+      <c r="R907" s="1"/>
+      <c r="S907" s="1"/>
+      <c r="T907" s="1"/>
+      <c r="U907" s="1"/>
+      <c r="V907" s="1"/>
+      <c r="W907" s="1"/>
+      <c r="X907" s="1"/>
+      <c r="Y907" s="1"/>
+      <c r="Z907" s="1"/>
+    </row>
+    <row r="908" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A908" s="1"/>
+      <c r="B908" s="1"/>
+      <c r="C908" s="1"/>
+      <c r="D908" s="1"/>
+      <c r="E908" s="1"/>
+      <c r="F908" s="1"/>
+      <c r="G908" s="1"/>
+      <c r="H908" s="1"/>
+      <c r="I908" s="1"/>
+    </row>
+    <row r="909" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A909" s="1"/>
+      <c r="B909" s="1"/>
+      <c r="C909" s="1"/>
+      <c r="D909" s="1"/>
+      <c r="E909" s="1"/>
+      <c r="F909" s="1"/>
+      <c r="G909" s="1"/>
+      <c r="H909" s="1"/>
+      <c r="I909" s="1"/>
+    </row>
+    <row r="910" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A910" s="1"/>
+      <c r="B910" s="1"/>
+      <c r="C910" s="1"/>
+      <c r="D910" s="1"/>
+      <c r="E910" s="1"/>
+      <c r="F910" s="1"/>
+      <c r="G910" s="1"/>
+      <c r="H910" s="1"/>
+      <c r="I910" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A80:E80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BBC288FD-445C-7341-9151-7E25FDADAAE2}"/>
@@ -27634,7 +28016,7 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -27652,11 +28034,11 @@
         <v>51</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -27846,7 +28228,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -27913,10 +28295,10 @@
         <v>54</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
@@ -27942,11 +28324,11 @@
       <c r="Z9" s="65"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="150" t="s">
-        <v>176</v>
+      <c r="A10" s="149" t="s">
+        <v>174</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -27981,10 +28363,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
@@ -28017,10 +28399,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
@@ -28053,10 +28435,10 @@
         <v>57</v>
       </c>
       <c r="C13" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>103</v>
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
@@ -28089,10 +28471,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>102</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>103</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
@@ -28125,10 +28507,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>102</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
@@ -28161,10 +28543,10 @@
         <v>60</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
@@ -28197,10 +28579,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
@@ -28226,11 +28608,11 @@
       <c r="Z17" s="65"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="100" t="s">
-        <v>168</v>
+      <c r="A18" s="99" t="s">
+        <v>166</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -28265,10 +28647,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
@@ -28301,10 +28683,10 @@
         <v>63</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
@@ -28337,10 +28719,10 @@
         <v>64</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
@@ -28373,10 +28755,10 @@
         <v>65</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
@@ -28409,10 +28791,10 @@
         <v>66</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
@@ -28445,10 +28827,10 @@
         <v>67</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="65"/>
       <c r="F24" s="65"/>
@@ -28481,13 +28863,13 @@
         <v>91</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
@@ -28519,10 +28901,10 @@
         <v>68</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
@@ -28555,10 +28937,10 @@
         <v>69</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -28591,10 +28973,10 @@
         <v>70</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="65"/>
       <c r="F28" s="65"/>
@@ -28627,10 +29009,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -28663,10 +29045,10 @@
         <v>72</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="65"/>
       <c r="F30" s="65"/>
@@ -28827,10 +29209,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
@@ -28897,7 +29279,7 @@
       <c r="C37" s="65"/>
       <c r="D37" s="65"/>
       <c r="E37" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F37" s="65"/>
       <c r="G37" s="65"/>
@@ -28963,7 +29345,7 @@
       <c r="C39" s="65"/>
       <c r="D39" s="65"/>
       <c r="E39" s="65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F39" s="65"/>
       <c r="G39" s="65"/>
@@ -28997,7 +29379,7 @@
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
       <c r="E40" s="65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F40" s="65"/>
       <c r="G40" s="65"/>
@@ -29058,7 +29440,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="65"/>
@@ -56193,13 +56575,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="151" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
+      <c r="A3" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="81"/>
@@ -56242,7 +56624,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="88"/>
@@ -56263,7 +56645,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="93"/>
       <c r="E6" s="94"/>
@@ -56279,10 +56661,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>147</v>
       </c>
       <c r="D7" s="93"/>
       <c r="E7" s="94"/>
@@ -56291,7 +56673,7 @@
       <c r="H7" s="95"/>
       <c r="I7" s="91"/>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -56299,10 +56681,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="94"/>
@@ -56316,10 +56698,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="93"/>
       <c r="E9" s="94"/>
@@ -56327,12 +56709,12 @@
       <c r="G9" s="91"/>
       <c r="H9" s="95"/>
       <c r="I9" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="99"/>
+        <v>147</v>
+      </c>
+      <c r="L9" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="98"/>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="91"/>
@@ -56344,12 +56726,12 @@
       <c r="G10" s="91"/>
       <c r="H10" s="95"/>
       <c r="I10" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="M10" s="99"/>
+        <v>165</v>
+      </c>
+      <c r="L10" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="98"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="91"/>
@@ -56361,167 +56743,167 @@
       <c r="G11" s="91"/>
       <c r="H11" s="95"/>
       <c r="I11" s="91"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="98"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L13" s="98"/>
-      <c r="M13" s="99"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="98"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L14" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>165</v>
+      <c r="L14" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="98" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" t="s">
         <v>155</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>157</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>158</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>159</v>
       </c>
-      <c r="I15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J15" t="s">
-        <v>161</v>
-      </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M15">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D16" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="J16" s="98" t="s">
-        <v>150</v>
+      <c r="D16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="97" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="98" t="s">
-        <v>151</v>
+      <c r="D18" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="97" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="98" t="s">
-        <v>152</v>
+      <c r="D20" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="97" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A42024-7FCA-8D4E-BB63-9ED2D8EE403B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383E5E4E-0661-D140-BA26-A9523BA5E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +814,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -956,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,32 +1231,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1395,6 +1375,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1715,8 +1727,8 @@
   </sheetPr>
   <dimension ref="A2:Z910"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1954,315 +1966,315 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" s="182" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="180">
+    <row r="8" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170">
         <v>4</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180" t="s">
+      <c r="D8" s="170"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="168" t="s">
+      <c r="J8" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="168"/>
-    </row>
-    <row r="9" spans="1:26" s="182" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="183">
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="158"/>
+      <c r="T8" s="158"/>
+      <c r="U8" s="158"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="158"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="158"/>
+    </row>
+    <row r="9" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="173">
         <v>5</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="168"/>
-    </row>
-    <row r="10" spans="1:26" s="182" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="183">
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="158"/>
+    </row>
+    <row r="10" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="173">
         <v>6</v>
       </c>
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-    </row>
-    <row r="11" spans="1:26" s="182" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="183">
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+    </row>
+    <row r="11" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="173">
         <v>7</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="184" t="s">
+      <c r="C11" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="168"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-    </row>
-    <row r="12" spans="1:26" s="182" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="183">
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="158"/>
+    </row>
+    <row r="12" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="173">
         <v>8</v>
       </c>
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="184" t="s">
+      <c r="C12" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-    </row>
-    <row r="13" spans="1:26" s="182" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="183">
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="158"/>
+      <c r="T12" s="158"/>
+      <c r="U12" s="158"/>
+      <c r="V12" s="158"/>
+      <c r="W12" s="158"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="158"/>
+    </row>
+    <row r="13" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="173">
         <v>9</v>
       </c>
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="183"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="168"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-    </row>
-    <row r="14" spans="1:26" s="182" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="183">
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="158"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="158"/>
+    </row>
+    <row r="14" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="173">
         <v>10</v>
       </c>
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="173" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="184" t="s">
+      <c r="C14" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
-    </row>
-    <row r="15" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="183">
+      <c r="D14" s="173"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="158"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="158"/>
+      <c r="V14" s="158"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="158"/>
+    </row>
+    <row r="15" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="173">
         <v>11</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="183"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="161"/>
-    </row>
-    <row r="16" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="183">
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
+    </row>
+    <row r="16" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="173">
         <v>12</v>
       </c>
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -2293,17 +2305,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2585,17 +2597,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2920,107 +2932,107 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="186">
+    <row r="35" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="176">
         <v>8</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="187" t="s">
+      <c r="C35" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="188"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="161"/>
-      <c r="S35" s="161"/>
-      <c r="T35" s="161"/>
-      <c r="U35" s="161"/>
-      <c r="V35" s="161"/>
-      <c r="W35" s="161"/>
-      <c r="X35" s="161"/>
-      <c r="Y35" s="161"/>
-      <c r="Z35" s="161"/>
-    </row>
-    <row r="36" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="191">
+      <c r="D35" s="178"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="151"/>
+      <c r="S35" s="151"/>
+      <c r="T35" s="151"/>
+      <c r="U35" s="151"/>
+      <c r="V35" s="151"/>
+      <c r="W35" s="151"/>
+      <c r="X35" s="151"/>
+      <c r="Y35" s="151"/>
+      <c r="Z35" s="151"/>
+    </row>
+    <row r="36" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="181">
         <v>9</v>
       </c>
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="181" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="182" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="193"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="161"/>
-      <c r="S36" s="161"/>
-      <c r="T36" s="161"/>
-      <c r="U36" s="161"/>
-      <c r="V36" s="161"/>
-      <c r="W36" s="161"/>
-      <c r="X36" s="161"/>
-      <c r="Y36" s="161"/>
-      <c r="Z36" s="161"/>
-    </row>
-    <row r="37" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="191">
+      <c r="D36" s="183"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="151"/>
+      <c r="U36" s="151"/>
+      <c r="V36" s="151"/>
+      <c r="W36" s="151"/>
+      <c r="X36" s="151"/>
+      <c r="Y36" s="151"/>
+      <c r="Z36" s="151"/>
+    </row>
+    <row r="37" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="181">
         <v>10</v>
       </c>
-      <c r="B37" s="191" t="s">
+      <c r="B37" s="181" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="193"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="195"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="161"/>
-      <c r="S37" s="161"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="161"/>
-      <c r="V37" s="161"/>
-      <c r="W37" s="161"/>
-      <c r="X37" s="161"/>
-      <c r="Y37" s="161"/>
-      <c r="Z37" s="161"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
     </row>
     <row r="38" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -3051,17 +3063,17 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="191"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3386,107 +3398,107 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="186">
+    <row r="48" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="176">
         <v>8</v>
       </c>
-      <c r="B48" s="186" t="s">
+      <c r="B48" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="187" t="s">
+      <c r="C48" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="188"/>
-      <c r="E48" s="189"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="161"/>
-      <c r="L48" s="161"/>
-      <c r="M48" s="161"/>
-      <c r="N48" s="161"/>
-      <c r="O48" s="161"/>
-      <c r="P48" s="161"/>
-      <c r="Q48" s="161"/>
-      <c r="R48" s="161"/>
-      <c r="S48" s="161"/>
-      <c r="T48" s="161"/>
-      <c r="U48" s="161"/>
-      <c r="V48" s="161"/>
-      <c r="W48" s="161"/>
-      <c r="X48" s="161"/>
-      <c r="Y48" s="161"/>
-      <c r="Z48" s="161"/>
-    </row>
-    <row r="49" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="191">
+      <c r="D48" s="178"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="180"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
+      <c r="S48" s="151"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="151"/>
+      <c r="W48" s="151"/>
+      <c r="X48" s="151"/>
+      <c r="Y48" s="151"/>
+      <c r="Z48" s="151"/>
+    </row>
+    <row r="49" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="181">
         <v>9</v>
       </c>
-      <c r="B49" s="191" t="s">
+      <c r="B49" s="181" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="192" t="s">
+      <c r="C49" s="182" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="193"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="191"/>
-      <c r="H49" s="195"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="161"/>
-      <c r="M49" s="161"/>
-      <c r="N49" s="161"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="161"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="161"/>
-      <c r="U49" s="161"/>
-      <c r="V49" s="161"/>
-      <c r="W49" s="161"/>
-      <c r="X49" s="161"/>
-      <c r="Y49" s="161"/>
-      <c r="Z49" s="161"/>
-    </row>
-    <row r="50" spans="1:26" s="185" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="191">
+      <c r="D49" s="183"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="185"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="151"/>
+      <c r="U49" s="151"/>
+      <c r="V49" s="151"/>
+      <c r="W49" s="151"/>
+      <c r="X49" s="151"/>
+      <c r="Y49" s="151"/>
+      <c r="Z49" s="151"/>
+    </row>
+    <row r="50" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="181">
         <v>10</v>
       </c>
-      <c r="B50" s="191" t="s">
+      <c r="B50" s="181" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="192" t="s">
+      <c r="C50" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="195"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="161"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="161"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="161"/>
-      <c r="Q50" s="161"/>
-      <c r="R50" s="161"/>
-      <c r="S50" s="161"/>
-      <c r="T50" s="161"/>
-      <c r="U50" s="161"/>
-      <c r="V50" s="161"/>
-      <c r="W50" s="161"/>
-      <c r="X50" s="161"/>
-      <c r="Y50" s="161"/>
-      <c r="Z50" s="161"/>
+      <c r="D50" s="183"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151"/>
+      <c r="S50" s="151"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="151"/>
+      <c r="Y50" s="151"/>
+      <c r="Z50" s="151"/>
     </row>
     <row r="51" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="104"/>
@@ -3517,17 +3529,17 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
+      <c r="B52" s="192"/>
+      <c r="C52" s="192"/>
+      <c r="D52" s="192"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="192"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3891,110 +3903,110 @@
       <c r="Z61" s="90"/>
     </row>
     <row r="62" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="126">
+      <c r="A62" s="116">
         <v>9</v>
       </c>
-      <c r="B62" s="126" t="s">
+      <c r="B62" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="127" t="s">
+      <c r="C62" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="128"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="126" t="s">
+      <c r="D62" s="118"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="130"/>
-      <c r="O62" s="130"/>
-      <c r="P62" s="130"/>
-      <c r="Q62" s="130"/>
-      <c r="R62" s="130"/>
-      <c r="S62" s="130"/>
-      <c r="T62" s="130"/>
-      <c r="U62" s="130"/>
-      <c r="V62" s="130"/>
-      <c r="W62" s="130"/>
-      <c r="X62" s="130"/>
-      <c r="Y62" s="130"/>
-      <c r="Z62" s="130"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
+      <c r="S62" s="120"/>
+      <c r="T62" s="120"/>
+      <c r="U62" s="120"/>
+      <c r="V62" s="120"/>
+      <c r="W62" s="120"/>
+      <c r="X62" s="120"/>
+      <c r="Y62" s="120"/>
+      <c r="Z62" s="120"/>
     </row>
     <row r="63" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="126">
+      <c r="A63" s="116">
         <v>10</v>
       </c>
-      <c r="B63" s="126" t="s">
+      <c r="B63" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="131" t="s">
+      <c r="C63" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="128"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="130"/>
-      <c r="P63" s="130"/>
-      <c r="Q63" s="130"/>
-      <c r="R63" s="130"/>
-      <c r="S63" s="130"/>
-      <c r="T63" s="130"/>
-      <c r="U63" s="130"/>
-      <c r="V63" s="130"/>
-      <c r="W63" s="130"/>
-      <c r="X63" s="130"/>
-      <c r="Y63" s="130"/>
-      <c r="Z63" s="130"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="120"/>
+      <c r="L63" s="120"/>
+      <c r="M63" s="120"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="120"/>
+      <c r="P63" s="120"/>
+      <c r="Q63" s="120"/>
+      <c r="R63" s="120"/>
+      <c r="S63" s="120"/>
+      <c r="T63" s="120"/>
+      <c r="U63" s="120"/>
+      <c r="V63" s="120"/>
+      <c r="W63" s="120"/>
+      <c r="X63" s="120"/>
+      <c r="Y63" s="120"/>
+      <c r="Z63" s="120"/>
     </row>
     <row r="64" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="126">
+      <c r="A64" s="116">
         <v>11</v>
       </c>
-      <c r="B64" s="126" t="s">
+      <c r="B64" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="127" t="s">
+      <c r="C64" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="128"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="126" t="s">
+      <c r="D64" s="118"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="130"/>
-      <c r="O64" s="130"/>
-      <c r="P64" s="130"/>
-      <c r="Q64" s="130"/>
-      <c r="R64" s="130"/>
-      <c r="S64" s="130"/>
-      <c r="T64" s="130"/>
-      <c r="U64" s="130"/>
-      <c r="V64" s="130"/>
-      <c r="W64" s="130"/>
-      <c r="X64" s="130"/>
-      <c r="Y64" s="130"/>
-      <c r="Z64" s="130"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="120"/>
+      <c r="M64" s="120"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="120"/>
+      <c r="P64" s="120"/>
+      <c r="Q64" s="120"/>
+      <c r="R64" s="120"/>
+      <c r="S64" s="120"/>
+      <c r="T64" s="120"/>
+      <c r="U64" s="120"/>
+      <c r="V64" s="120"/>
+      <c r="W64" s="120"/>
+      <c r="X64" s="120"/>
+      <c r="Y64" s="120"/>
+      <c r="Z64" s="120"/>
     </row>
     <row r="65" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -4025,13 +4037,13 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="123" t="s">
+      <c r="A66" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
+      <c r="B66" s="194"/>
+      <c r="C66" s="194"/>
+      <c r="D66" s="194"/>
+      <c r="E66" s="194"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
@@ -4101,454 +4113,454 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="132">
+      <c r="A68" s="122">
         <v>1</v>
       </c>
-      <c r="B68" s="132" t="s">
+      <c r="B68" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="133" t="s">
+      <c r="C68" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="134"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="132" t="s">
+      <c r="D68" s="124"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132" t="s">
+      <c r="G68" s="122"/>
+      <c r="H68" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="132"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="130"/>
-      <c r="M68" s="130"/>
-      <c r="N68" s="130"/>
-      <c r="O68" s="130"/>
-      <c r="P68" s="130"/>
-      <c r="Q68" s="130"/>
-      <c r="R68" s="130"/>
-      <c r="S68" s="130"/>
-      <c r="T68" s="130"/>
-      <c r="U68" s="130"/>
-      <c r="V68" s="130"/>
-      <c r="W68" s="130"/>
-      <c r="X68" s="130"/>
-      <c r="Y68" s="130"/>
-      <c r="Z68" s="130"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="120"/>
+      <c r="P68" s="120"/>
+      <c r="Q68" s="120"/>
+      <c r="R68" s="120"/>
+      <c r="S68" s="120"/>
+      <c r="T68" s="120"/>
+      <c r="U68" s="120"/>
+      <c r="V68" s="120"/>
+      <c r="W68" s="120"/>
+      <c r="X68" s="120"/>
+      <c r="Y68" s="120"/>
+      <c r="Z68" s="120"/>
     </row>
     <row r="69" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="136">
+      <c r="A69" s="126">
         <v>2</v>
       </c>
-      <c r="B69" s="136" t="s">
+      <c r="B69" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="137" t="s">
+      <c r="C69" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="138"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="136" t="s">
+      <c r="D69" s="128"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="136" t="s">
+      <c r="H69" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="I69" s="136"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="130"/>
-      <c r="L69" s="130"/>
-      <c r="M69" s="130"/>
-      <c r="N69" s="130"/>
-      <c r="O69" s="130"/>
-      <c r="P69" s="130"/>
-      <c r="Q69" s="130"/>
-      <c r="R69" s="130"/>
-      <c r="S69" s="130"/>
-      <c r="T69" s="130"/>
-      <c r="U69" s="130"/>
-      <c r="V69" s="130"/>
-      <c r="W69" s="130"/>
-      <c r="X69" s="130"/>
-      <c r="Y69" s="130"/>
-      <c r="Z69" s="130"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="120"/>
+      <c r="Q69" s="120"/>
+      <c r="R69" s="120"/>
+      <c r="S69" s="120"/>
+      <c r="T69" s="120"/>
+      <c r="U69" s="120"/>
+      <c r="V69" s="120"/>
+      <c r="W69" s="120"/>
+      <c r="X69" s="120"/>
+      <c r="Y69" s="120"/>
+      <c r="Z69" s="120"/>
     </row>
     <row r="70" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="136">
+      <c r="A70" s="126">
         <v>3</v>
       </c>
-      <c r="B70" s="136" t="s">
+      <c r="B70" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="137" t="s">
+      <c r="C70" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="141"/>
-      <c r="E70" s="142" t="s">
+      <c r="D70" s="131"/>
+      <c r="E70" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="136"/>
-      <c r="G70" s="136"/>
-      <c r="H70" s="136" t="s">
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="136"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="130"/>
-      <c r="L70" s="130"/>
-      <c r="M70" s="130"/>
-      <c r="N70" s="130"/>
-      <c r="O70" s="130"/>
-      <c r="P70" s="130"/>
-      <c r="Q70" s="130"/>
-      <c r="R70" s="130"/>
-      <c r="S70" s="130"/>
-      <c r="T70" s="130"/>
-      <c r="U70" s="130"/>
-      <c r="V70" s="130"/>
-      <c r="W70" s="130"/>
-      <c r="X70" s="130"/>
-      <c r="Y70" s="130"/>
-      <c r="Z70" s="130"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="120"/>
+      <c r="M70" s="120"/>
+      <c r="N70" s="120"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="120"/>
+      <c r="Q70" s="120"/>
+      <c r="R70" s="120"/>
+      <c r="S70" s="120"/>
+      <c r="T70" s="120"/>
+      <c r="U70" s="120"/>
+      <c r="V70" s="120"/>
+      <c r="W70" s="120"/>
+      <c r="X70" s="120"/>
+      <c r="Y70" s="120"/>
+      <c r="Z70" s="120"/>
     </row>
     <row r="71" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="136">
+      <c r="A71" s="126">
         <v>4</v>
       </c>
-      <c r="B71" s="136" t="s">
+      <c r="B71" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="137" t="s">
+      <c r="C71" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="141">
+      <c r="D71" s="131">
         <v>50</v>
       </c>
-      <c r="E71" s="142"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="136" t="s">
+      <c r="E71" s="132"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="H71" s="136" t="s">
+      <c r="H71" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="I71" s="136"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="130"/>
-      <c r="L71" s="130"/>
-      <c r="M71" s="130"/>
-      <c r="N71" s="130"/>
-      <c r="O71" s="130"/>
-      <c r="P71" s="130"/>
-      <c r="Q71" s="130"/>
-      <c r="R71" s="130"/>
-      <c r="S71" s="130"/>
-      <c r="T71" s="130"/>
-      <c r="U71" s="130"/>
-      <c r="V71" s="130"/>
-      <c r="W71" s="130"/>
-      <c r="X71" s="130"/>
-      <c r="Y71" s="130"/>
-      <c r="Z71" s="130"/>
-    </row>
-    <row r="72" spans="1:26" s="143" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="136">
+      <c r="I71" s="126"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="120"/>
+      <c r="M71" s="120"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="120"/>
+      <c r="P71" s="120"/>
+      <c r="Q71" s="120"/>
+      <c r="R71" s="120"/>
+      <c r="S71" s="120"/>
+      <c r="T71" s="120"/>
+      <c r="U71" s="120"/>
+      <c r="V71" s="120"/>
+      <c r="W71" s="120"/>
+      <c r="X71" s="120"/>
+      <c r="Y71" s="120"/>
+      <c r="Z71" s="120"/>
+    </row>
+    <row r="72" spans="1:26" s="133" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="126">
         <v>5</v>
       </c>
-      <c r="B72" s="136" t="s">
+      <c r="B72" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="137" t="s">
+      <c r="C72" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="141" t="s">
+      <c r="D72" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="142" t="s">
+      <c r="E72" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="140"/>
-      <c r="G72" s="136"/>
-      <c r="H72" s="136"/>
-      <c r="I72" s="136"/>
-      <c r="J72" s="130"/>
-      <c r="K72" s="130"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="130"/>
-      <c r="O72" s="130"/>
-      <c r="P72" s="130"/>
-      <c r="Q72" s="130"/>
-      <c r="R72" s="130"/>
-      <c r="S72" s="130"/>
-      <c r="T72" s="130"/>
-      <c r="U72" s="130"/>
-      <c r="V72" s="130"/>
-      <c r="W72" s="130"/>
-      <c r="X72" s="130"/>
-      <c r="Y72" s="130"/>
-      <c r="Z72" s="130"/>
-    </row>
-    <row r="73" spans="1:26" s="143" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="136">
+      <c r="F72" s="130"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="120"/>
+      <c r="L72" s="120"/>
+      <c r="M72" s="120"/>
+      <c r="N72" s="120"/>
+      <c r="O72" s="120"/>
+      <c r="P72" s="120"/>
+      <c r="Q72" s="120"/>
+      <c r="R72" s="120"/>
+      <c r="S72" s="120"/>
+      <c r="T72" s="120"/>
+      <c r="U72" s="120"/>
+      <c r="V72" s="120"/>
+      <c r="W72" s="120"/>
+      <c r="X72" s="120"/>
+      <c r="Y72" s="120"/>
+      <c r="Z72" s="120"/>
+    </row>
+    <row r="73" spans="1:26" s="133" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="126">
         <v>6</v>
       </c>
-      <c r="B73" s="136" t="s">
+      <c r="B73" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="137" t="s">
+      <c r="C73" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="141">
+      <c r="D73" s="131">
         <v>500</v>
       </c>
-      <c r="E73" s="142"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="136"/>
-      <c r="H73" s="136"/>
-      <c r="I73" s="136"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="130"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="130"/>
-      <c r="N73" s="130"/>
-      <c r="O73" s="130"/>
-      <c r="P73" s="130"/>
-      <c r="Q73" s="130"/>
-      <c r="R73" s="130"/>
-      <c r="S73" s="130"/>
-      <c r="T73" s="130"/>
-      <c r="U73" s="130"/>
-      <c r="V73" s="130"/>
-      <c r="W73" s="130"/>
-      <c r="X73" s="130"/>
-      <c r="Y73" s="130"/>
-      <c r="Z73" s="130"/>
-    </row>
-    <row r="74" spans="1:26" s="145" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="136">
+      <c r="E73" s="132"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="120"/>
+      <c r="L73" s="120"/>
+      <c r="M73" s="120"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="120"/>
+      <c r="P73" s="120"/>
+      <c r="Q73" s="120"/>
+      <c r="R73" s="120"/>
+      <c r="S73" s="120"/>
+      <c r="T73" s="120"/>
+      <c r="U73" s="120"/>
+      <c r="V73" s="120"/>
+      <c r="W73" s="120"/>
+      <c r="X73" s="120"/>
+      <c r="Y73" s="120"/>
+      <c r="Z73" s="120"/>
+    </row>
+    <row r="74" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="126">
         <v>7</v>
       </c>
-      <c r="B74" s="136" t="s">
+      <c r="B74" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="137" t="s">
+      <c r="C74" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="141">
+      <c r="D74" s="131">
         <v>20</v>
       </c>
-      <c r="E74" s="142"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="136" t="s">
+      <c r="E74" s="132"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H74" s="136" t="s">
+      <c r="H74" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="I74" s="136"/>
-      <c r="J74" s="144"/>
-      <c r="K74" s="144"/>
-      <c r="L74" s="144"/>
-      <c r="M74" s="144"/>
-      <c r="N74" s="144"/>
-      <c r="O74" s="144"/>
-      <c r="P74" s="144"/>
-      <c r="Q74" s="144"/>
-      <c r="R74" s="144"/>
-      <c r="S74" s="144"/>
-      <c r="T74" s="144"/>
-      <c r="U74" s="144"/>
-      <c r="V74" s="144"/>
-      <c r="W74" s="144"/>
-      <c r="X74" s="144"/>
-      <c r="Y74" s="144"/>
-      <c r="Z74" s="144"/>
-    </row>
-    <row r="75" spans="1:26" s="145" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="136">
+      <c r="I74" s="126"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="134"/>
+      <c r="L74" s="134"/>
+      <c r="M74" s="134"/>
+      <c r="N74" s="134"/>
+      <c r="O74" s="134"/>
+      <c r="P74" s="134"/>
+      <c r="Q74" s="134"/>
+      <c r="R74" s="134"/>
+      <c r="S74" s="134"/>
+      <c r="T74" s="134"/>
+      <c r="U74" s="134"/>
+      <c r="V74" s="134"/>
+      <c r="W74" s="134"/>
+      <c r="X74" s="134"/>
+      <c r="Y74" s="134"/>
+      <c r="Z74" s="134"/>
+    </row>
+    <row r="75" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="126">
         <v>8</v>
       </c>
-      <c r="B75" s="136" t="s">
+      <c r="B75" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="137" t="s">
+      <c r="C75" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="141">
+      <c r="D75" s="131">
         <v>50</v>
       </c>
-      <c r="E75" s="142"/>
-      <c r="F75" s="140" t="s">
+      <c r="E75" s="132"/>
+      <c r="F75" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="136"/>
-      <c r="H75" s="136" t="s">
+      <c r="G75" s="126"/>
+      <c r="H75" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="I75" s="136"/>
-      <c r="J75" s="144"/>
-      <c r="K75" s="144"/>
-      <c r="L75" s="144"/>
-      <c r="M75" s="144"/>
-      <c r="N75" s="144"/>
-      <c r="O75" s="144"/>
-      <c r="P75" s="144"/>
-      <c r="Q75" s="144"/>
-      <c r="R75" s="144"/>
-      <c r="S75" s="144"/>
-      <c r="T75" s="144"/>
-      <c r="U75" s="144"/>
-      <c r="V75" s="144"/>
-      <c r="W75" s="144"/>
-      <c r="X75" s="144"/>
-      <c r="Y75" s="144"/>
-      <c r="Z75" s="144"/>
-    </row>
-    <row r="76" spans="1:26" s="145" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="136">
+      <c r="I75" s="126"/>
+      <c r="J75" s="134"/>
+      <c r="K75" s="134"/>
+      <c r="L75" s="134"/>
+      <c r="M75" s="134"/>
+      <c r="N75" s="134"/>
+      <c r="O75" s="134"/>
+      <c r="P75" s="134"/>
+      <c r="Q75" s="134"/>
+      <c r="R75" s="134"/>
+      <c r="S75" s="134"/>
+      <c r="T75" s="134"/>
+      <c r="U75" s="134"/>
+      <c r="V75" s="134"/>
+      <c r="W75" s="134"/>
+      <c r="X75" s="134"/>
+      <c r="Y75" s="134"/>
+      <c r="Z75" s="134"/>
+    </row>
+    <row r="76" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="126">
         <v>9</v>
       </c>
-      <c r="B76" s="136" t="s">
+      <c r="B76" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="137" t="s">
+      <c r="C76" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="141">
+      <c r="D76" s="131">
         <v>50</v>
       </c>
-      <c r="E76" s="142"/>
-      <c r="F76" s="140" t="s">
+      <c r="E76" s="132"/>
+      <c r="F76" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="136"/>
-      <c r="H76" s="136" t="s">
+      <c r="G76" s="126"/>
+      <c r="H76" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="I76" s="136"/>
-      <c r="J76" s="144"/>
-      <c r="K76" s="144"/>
-      <c r="L76" s="144"/>
-      <c r="M76" s="144"/>
-      <c r="N76" s="144"/>
-      <c r="O76" s="144"/>
-      <c r="P76" s="144"/>
-      <c r="Q76" s="144"/>
-      <c r="R76" s="144"/>
-      <c r="S76" s="144"/>
-      <c r="T76" s="144"/>
-      <c r="U76" s="144"/>
-      <c r="V76" s="144"/>
-      <c r="W76" s="144"/>
-      <c r="X76" s="144"/>
-      <c r="Y76" s="144"/>
-      <c r="Z76" s="144"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="134"/>
+      <c r="K76" s="134"/>
+      <c r="L76" s="134"/>
+      <c r="M76" s="134"/>
+      <c r="N76" s="134"/>
+      <c r="O76" s="134"/>
+      <c r="P76" s="134"/>
+      <c r="Q76" s="134"/>
+      <c r="R76" s="134"/>
+      <c r="S76" s="134"/>
+      <c r="T76" s="134"/>
+      <c r="U76" s="134"/>
+      <c r="V76" s="134"/>
+      <c r="W76" s="134"/>
+      <c r="X76" s="134"/>
+      <c r="Y76" s="134"/>
+      <c r="Z76" s="134"/>
     </row>
     <row r="77" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="146">
+      <c r="A77" s="136">
         <v>10</v>
       </c>
-      <c r="B77" s="146" t="s">
+      <c r="B77" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="147" t="s">
+      <c r="C77" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="148"/>
-      <c r="E77" s="149"/>
-      <c r="F77" s="150"/>
-      <c r="G77" s="146"/>
-      <c r="H77" s="146"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="130"/>
-      <c r="L77" s="130"/>
-      <c r="M77" s="130"/>
-      <c r="N77" s="130"/>
-      <c r="O77" s="130"/>
-      <c r="P77" s="130"/>
-      <c r="Q77" s="130"/>
-      <c r="R77" s="130"/>
-      <c r="S77" s="130"/>
-      <c r="T77" s="130"/>
-      <c r="U77" s="130"/>
-      <c r="V77" s="130"/>
-      <c r="W77" s="130"/>
-      <c r="X77" s="130"/>
-      <c r="Y77" s="130"/>
-      <c r="Z77" s="130"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="139"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="136"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="120"/>
+      <c r="Q77" s="120"/>
+      <c r="R77" s="120"/>
+      <c r="S77" s="120"/>
+      <c r="T77" s="120"/>
+      <c r="U77" s="120"/>
+      <c r="V77" s="120"/>
+      <c r="W77" s="120"/>
+      <c r="X77" s="120"/>
+      <c r="Y77" s="120"/>
+      <c r="Z77" s="120"/>
     </row>
     <row r="78" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="146">
+      <c r="A78" s="136">
         <v>12</v>
       </c>
-      <c r="B78" s="146" t="s">
+      <c r="B78" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="147" t="s">
+      <c r="C78" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="148"/>
-      <c r="E78" s="149"/>
-      <c r="F78" s="150"/>
-      <c r="G78" s="146"/>
-      <c r="H78" s="146"/>
-      <c r="I78" s="146"/>
-      <c r="J78" s="130"/>
-      <c r="K78" s="130"/>
-      <c r="L78" s="130"/>
-      <c r="M78" s="130"/>
-      <c r="N78" s="130"/>
-      <c r="O78" s="130"/>
-      <c r="P78" s="130"/>
-      <c r="Q78" s="130"/>
-      <c r="R78" s="130"/>
-      <c r="S78" s="130"/>
-      <c r="T78" s="130"/>
-      <c r="U78" s="130"/>
-      <c r="V78" s="130"/>
-      <c r="W78" s="130"/>
-      <c r="X78" s="130"/>
-      <c r="Y78" s="130"/>
-      <c r="Z78" s="130"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="139"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="136"/>
+      <c r="H78" s="136"/>
+      <c r="I78" s="136"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="120"/>
+      <c r="R78" s="120"/>
+      <c r="S78" s="120"/>
+      <c r="T78" s="120"/>
+      <c r="U78" s="120"/>
+      <c r="V78" s="120"/>
+      <c r="W78" s="120"/>
+      <c r="X78" s="120"/>
+      <c r="Y78" s="120"/>
+      <c r="Z78" s="120"/>
     </row>
     <row r="79" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="146">
+      <c r="A79" s="136">
         <v>13</v>
       </c>
-      <c r="B79" s="146" t="s">
+      <c r="B79" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="147" t="s">
+      <c r="C79" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="D79" s="148"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="150"/>
-      <c r="G79" s="146"/>
-      <c r="H79" s="146"/>
-      <c r="I79" s="146"/>
-      <c r="J79" s="130"/>
-      <c r="K79" s="130"/>
-      <c r="L79" s="130"/>
-      <c r="M79" s="130"/>
-      <c r="N79" s="130"/>
-      <c r="O79" s="130"/>
-      <c r="P79" s="130"/>
-      <c r="Q79" s="130"/>
-      <c r="R79" s="130"/>
-      <c r="S79" s="130"/>
-      <c r="T79" s="130"/>
-      <c r="U79" s="130"/>
-      <c r="V79" s="130"/>
-      <c r="W79" s="130"/>
-      <c r="X79" s="130"/>
-      <c r="Y79" s="130"/>
-      <c r="Z79" s="130"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="139"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="120"/>
+      <c r="K79" s="120"/>
+      <c r="L79" s="120"/>
+      <c r="M79" s="120"/>
+      <c r="N79" s="120"/>
+      <c r="O79" s="120"/>
+      <c r="P79" s="120"/>
+      <c r="Q79" s="120"/>
+      <c r="R79" s="120"/>
+      <c r="S79" s="120"/>
+      <c r="T79" s="120"/>
+      <c r="U79" s="120"/>
+      <c r="V79" s="120"/>
+      <c r="W79" s="120"/>
+      <c r="X79" s="120"/>
+      <c r="Y79" s="120"/>
+      <c r="Z79" s="120"/>
     </row>
     <row r="80" spans="1:26" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
@@ -4579,13 +4591,13 @@
       <c r="Z80" s="90"/>
     </row>
     <row r="81" spans="1:26" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="125" t="s">
+      <c r="A81" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
+      <c r="B81" s="194"/>
+      <c r="C81" s="194"/>
+      <c r="D81" s="194"/>
+      <c r="E81" s="194"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
       <c r="H81" s="50"/>
@@ -4654,183 +4666,183 @@
       <c r="Y82" s="90"/>
       <c r="Z82" s="90"/>
     </row>
-    <row r="83" spans="1:26" s="145" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="151">
+    <row r="83" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="141">
         <v>1</v>
       </c>
-      <c r="B83" s="151" t="s">
+      <c r="B83" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="152" t="s">
+      <c r="C83" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="153"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="155" t="s">
+      <c r="D83" s="143"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="155"/>
-      <c r="H83" s="156" t="s">
+      <c r="G83" s="145"/>
+      <c r="H83" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="155"/>
-      <c r="J83" s="144"/>
-      <c r="K83" s="144"/>
-      <c r="L83" s="144"/>
-      <c r="M83" s="144"/>
-      <c r="N83" s="144"/>
-      <c r="O83" s="144"/>
-      <c r="P83" s="144"/>
-      <c r="Q83" s="144"/>
-      <c r="R83" s="144"/>
-      <c r="S83" s="144"/>
-      <c r="T83" s="144"/>
-      <c r="U83" s="144"/>
-      <c r="V83" s="144"/>
-      <c r="W83" s="144"/>
-      <c r="X83" s="144"/>
-      <c r="Y83" s="144"/>
-      <c r="Z83" s="144"/>
-    </row>
-    <row r="84" spans="1:26" s="145" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="157">
+      <c r="I83" s="145"/>
+      <c r="J83" s="134"/>
+      <c r="K83" s="134"/>
+      <c r="L83" s="134"/>
+      <c r="M83" s="134"/>
+      <c r="N83" s="134"/>
+      <c r="O83" s="134"/>
+      <c r="P83" s="134"/>
+      <c r="Q83" s="134"/>
+      <c r="R83" s="134"/>
+      <c r="S83" s="134"/>
+      <c r="T83" s="134"/>
+      <c r="U83" s="134"/>
+      <c r="V83" s="134"/>
+      <c r="W83" s="134"/>
+      <c r="X83" s="134"/>
+      <c r="Y83" s="134"/>
+      <c r="Z83" s="134"/>
+    </row>
+    <row r="84" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="147">
         <v>3</v>
       </c>
-      <c r="B84" s="157" t="s">
+      <c r="B84" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="158" t="s">
+      <c r="C84" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="159"/>
-      <c r="E84" s="160"/>
-      <c r="F84" s="157" t="s">
+      <c r="D84" s="149"/>
+      <c r="E84" s="150"/>
+      <c r="F84" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="G84" s="157"/>
-      <c r="H84" s="146" t="s">
+      <c r="G84" s="147"/>
+      <c r="H84" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="I84" s="157"/>
-      <c r="J84" s="144"/>
-      <c r="K84" s="144"/>
-      <c r="L84" s="144"/>
-      <c r="M84" s="144"/>
-      <c r="N84" s="144"/>
-      <c r="O84" s="144"/>
-      <c r="P84" s="144"/>
-      <c r="Q84" s="144"/>
-      <c r="R84" s="144"/>
-      <c r="S84" s="144"/>
-      <c r="T84" s="144"/>
-      <c r="U84" s="144"/>
-      <c r="V84" s="144"/>
-      <c r="W84" s="144"/>
-      <c r="X84" s="144"/>
-      <c r="Y84" s="144"/>
-      <c r="Z84" s="144"/>
+      <c r="I84" s="147"/>
+      <c r="J84" s="134"/>
+      <c r="K84" s="134"/>
+      <c r="L84" s="134"/>
+      <c r="M84" s="134"/>
+      <c r="N84" s="134"/>
+      <c r="O84" s="134"/>
+      <c r="P84" s="134"/>
+      <c r="Q84" s="134"/>
+      <c r="R84" s="134"/>
+      <c r="S84" s="134"/>
+      <c r="T84" s="134"/>
+      <c r="U84" s="134"/>
+      <c r="V84" s="134"/>
+      <c r="W84" s="134"/>
+      <c r="X84" s="134"/>
+      <c r="Y84" s="134"/>
+      <c r="Z84" s="134"/>
     </row>
     <row r="85" spans="1:26" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="157">
+      <c r="A85" s="147">
         <v>4</v>
       </c>
-      <c r="B85" s="157" t="s">
+      <c r="B85" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="158" t="s">
+      <c r="C85" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="159"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="157"/>
-      <c r="G85" s="157"/>
-      <c r="H85" s="146"/>
-      <c r="I85" s="157"/>
-      <c r="J85" s="161"/>
-      <c r="K85" s="161"/>
-      <c r="L85" s="161"/>
-      <c r="M85" s="161"/>
-      <c r="N85" s="161"/>
-      <c r="O85" s="161"/>
-      <c r="P85" s="161"/>
-      <c r="Q85" s="161"/>
-      <c r="R85" s="161"/>
-      <c r="S85" s="161"/>
-      <c r="T85" s="161"/>
-      <c r="U85" s="161"/>
-      <c r="V85" s="161"/>
-      <c r="W85" s="161"/>
-      <c r="X85" s="161"/>
-      <c r="Y85" s="161"/>
-      <c r="Z85" s="161"/>
+      <c r="D85" s="149"/>
+      <c r="E85" s="150"/>
+      <c r="F85" s="147"/>
+      <c r="G85" s="147"/>
+      <c r="H85" s="136"/>
+      <c r="I85" s="147"/>
+      <c r="J85" s="151"/>
+      <c r="K85" s="151"/>
+      <c r="L85" s="151"/>
+      <c r="M85" s="151"/>
+      <c r="N85" s="151"/>
+      <c r="O85" s="151"/>
+      <c r="P85" s="151"/>
+      <c r="Q85" s="151"/>
+      <c r="R85" s="151"/>
+      <c r="S85" s="151"/>
+      <c r="T85" s="151"/>
+      <c r="U85" s="151"/>
+      <c r="V85" s="151"/>
+      <c r="W85" s="151"/>
+      <c r="X85" s="151"/>
+      <c r="Y85" s="151"/>
+      <c r="Z85" s="151"/>
     </row>
     <row r="86" spans="1:26" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="157">
+      <c r="A86" s="147">
         <v>5</v>
       </c>
-      <c r="B86" s="157" t="s">
+      <c r="B86" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="158" t="s">
+      <c r="C86" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="159"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="157"/>
-      <c r="G86" s="157"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="157"/>
-      <c r="J86" s="161"/>
-      <c r="K86" s="161"/>
-      <c r="L86" s="161"/>
-      <c r="M86" s="161"/>
-      <c r="N86" s="161"/>
-      <c r="O86" s="161"/>
-      <c r="P86" s="161"/>
-      <c r="Q86" s="161"/>
-      <c r="R86" s="161"/>
-      <c r="S86" s="161"/>
-      <c r="T86" s="161"/>
-      <c r="U86" s="161"/>
-      <c r="V86" s="161"/>
-      <c r="W86" s="161"/>
-      <c r="X86" s="161"/>
-      <c r="Y86" s="161"/>
-      <c r="Z86" s="161"/>
+      <c r="D86" s="149"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="147"/>
+      <c r="G86" s="147"/>
+      <c r="H86" s="136"/>
+      <c r="I86" s="147"/>
+      <c r="J86" s="151"/>
+      <c r="K86" s="151"/>
+      <c r="L86" s="151"/>
+      <c r="M86" s="151"/>
+      <c r="N86" s="151"/>
+      <c r="O86" s="151"/>
+      <c r="P86" s="151"/>
+      <c r="Q86" s="151"/>
+      <c r="R86" s="151"/>
+      <c r="S86" s="151"/>
+      <c r="T86" s="151"/>
+      <c r="U86" s="151"/>
+      <c r="V86" s="151"/>
+      <c r="W86" s="151"/>
+      <c r="X86" s="151"/>
+      <c r="Y86" s="151"/>
+      <c r="Z86" s="151"/>
     </row>
     <row r="87" spans="1:26" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="157">
+      <c r="A87" s="147">
         <v>6</v>
       </c>
-      <c r="B87" s="157" t="s">
+      <c r="B87" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="158" t="s">
+      <c r="C87" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="159"/>
-      <c r="E87" s="160"/>
-      <c r="F87" s="157"/>
-      <c r="G87" s="157"/>
-      <c r="H87" s="146"/>
-      <c r="I87" s="157"/>
-      <c r="J87" s="161"/>
-      <c r="K87" s="161"/>
-      <c r="L87" s="161"/>
-      <c r="M87" s="161"/>
-      <c r="N87" s="161"/>
-      <c r="O87" s="161"/>
-      <c r="P87" s="161"/>
-      <c r="Q87" s="161"/>
-      <c r="R87" s="161"/>
-      <c r="S87" s="161"/>
-      <c r="T87" s="161"/>
-      <c r="U87" s="161"/>
-      <c r="V87" s="161"/>
-      <c r="W87" s="161"/>
-      <c r="X87" s="161"/>
-      <c r="Y87" s="161"/>
-      <c r="Z87" s="161"/>
+      <c r="D87" s="149"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="147"/>
+      <c r="G87" s="147"/>
+      <c r="H87" s="136"/>
+      <c r="I87" s="147"/>
+      <c r="J87" s="151"/>
+      <c r="K87" s="151"/>
+      <c r="L87" s="151"/>
+      <c r="M87" s="151"/>
+      <c r="N87" s="151"/>
+      <c r="O87" s="151"/>
+      <c r="P87" s="151"/>
+      <c r="Q87" s="151"/>
+      <c r="R87" s="151"/>
+      <c r="S87" s="151"/>
+      <c r="T87" s="151"/>
+      <c r="U87" s="151"/>
+      <c r="V87" s="151"/>
+      <c r="W87" s="151"/>
+      <c r="X87" s="151"/>
+      <c r="Y87" s="151"/>
+      <c r="Z87" s="151"/>
     </row>
     <row r="88" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="54"/>
@@ -4861,13 +4873,13 @@
       <c r="Z88" s="54"/>
     </row>
     <row r="89" spans="1:26" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="116" t="s">
+      <c r="A89" s="187" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="117"/>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
+      <c r="B89" s="188"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="188"/>
+      <c r="E89" s="188"/>
       <c r="F89" s="71"/>
       <c r="G89" s="71"/>
       <c r="H89" s="70"/>
@@ -4936,251 +4948,251 @@
       <c r="Y90" s="101"/>
       <c r="Z90" s="101"/>
     </row>
-    <row r="91" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="162">
+    <row r="91" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="152">
         <v>1</v>
       </c>
-      <c r="B91" s="162" t="s">
+      <c r="B91" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="163" t="s">
+      <c r="C91" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="164"/>
-      <c r="E91" s="165"/>
-      <c r="F91" s="166" t="s">
+      <c r="D91" s="154"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="166"/>
-      <c r="H91" s="167" t="s">
+      <c r="G91" s="156"/>
+      <c r="H91" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="166"/>
-      <c r="J91" s="168"/>
-      <c r="K91" s="168"/>
-      <c r="L91" s="168"/>
-      <c r="M91" s="168"/>
-      <c r="N91" s="168"/>
-      <c r="O91" s="168"/>
-      <c r="P91" s="168"/>
-      <c r="Q91" s="168"/>
-      <c r="R91" s="168"/>
-      <c r="S91" s="168"/>
-      <c r="T91" s="168"/>
-      <c r="U91" s="168"/>
-      <c r="V91" s="168"/>
-      <c r="W91" s="168"/>
-      <c r="X91" s="168"/>
-      <c r="Y91" s="168"/>
-      <c r="Z91" s="168"/>
-    </row>
-    <row r="92" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="169">
+      <c r="I91" s="156"/>
+      <c r="J91" s="158"/>
+      <c r="K91" s="158"/>
+      <c r="L91" s="158"/>
+      <c r="M91" s="158"/>
+      <c r="N91" s="158"/>
+      <c r="O91" s="158"/>
+      <c r="P91" s="158"/>
+      <c r="Q91" s="158"/>
+      <c r="R91" s="158"/>
+      <c r="S91" s="158"/>
+      <c r="T91" s="158"/>
+      <c r="U91" s="158"/>
+      <c r="V91" s="158"/>
+      <c r="W91" s="158"/>
+      <c r="X91" s="158"/>
+      <c r="Y91" s="158"/>
+      <c r="Z91" s="158"/>
+    </row>
+    <row r="92" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="159">
         <v>2</v>
       </c>
-      <c r="B92" s="169" t="s">
+      <c r="B92" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="170" t="s">
+      <c r="C92" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="171"/>
-      <c r="E92" s="172"/>
-      <c r="F92" s="169"/>
-      <c r="G92" s="169"/>
-      <c r="H92" s="173"/>
-      <c r="I92" s="169"/>
-      <c r="J92" s="168"/>
-      <c r="K92" s="168"/>
-      <c r="L92" s="168"/>
-      <c r="M92" s="168"/>
-      <c r="N92" s="168"/>
-      <c r="O92" s="168"/>
-      <c r="P92" s="168"/>
-      <c r="Q92" s="168"/>
-      <c r="R92" s="168"/>
-      <c r="S92" s="168"/>
-      <c r="T92" s="168"/>
-      <c r="U92" s="168"/>
-      <c r="V92" s="168"/>
-      <c r="W92" s="168"/>
-      <c r="X92" s="168"/>
-      <c r="Y92" s="168"/>
-      <c r="Z92" s="168"/>
-    </row>
-    <row r="93" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="169">
+      <c r="D92" s="161"/>
+      <c r="E92" s="162"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="163"/>
+      <c r="I92" s="159"/>
+      <c r="J92" s="158"/>
+      <c r="K92" s="158"/>
+      <c r="L92" s="158"/>
+      <c r="M92" s="158"/>
+      <c r="N92" s="158"/>
+      <c r="O92" s="158"/>
+      <c r="P92" s="158"/>
+      <c r="Q92" s="158"/>
+      <c r="R92" s="158"/>
+      <c r="S92" s="158"/>
+      <c r="T92" s="158"/>
+      <c r="U92" s="158"/>
+      <c r="V92" s="158"/>
+      <c r="W92" s="158"/>
+      <c r="X92" s="158"/>
+      <c r="Y92" s="158"/>
+      <c r="Z92" s="158"/>
+    </row>
+    <row r="93" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="159">
         <v>3</v>
       </c>
-      <c r="B93" s="169" t="s">
+      <c r="B93" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="170" t="s">
+      <c r="C93" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="171"/>
-      <c r="E93" s="172" t="s">
+      <c r="D93" s="161"/>
+      <c r="E93" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="F93" s="169"/>
-      <c r="G93" s="169"/>
-      <c r="H93" s="173"/>
-      <c r="I93" s="169"/>
-      <c r="J93" s="168"/>
-      <c r="K93" s="168"/>
-      <c r="L93" s="168"/>
-      <c r="M93" s="168"/>
-      <c r="N93" s="168"/>
-      <c r="O93" s="168"/>
-      <c r="P93" s="168"/>
-      <c r="Q93" s="168"/>
-      <c r="R93" s="168"/>
-      <c r="S93" s="168"/>
-      <c r="T93" s="168"/>
-      <c r="U93" s="168"/>
-      <c r="V93" s="168"/>
-      <c r="W93" s="168"/>
-      <c r="X93" s="168"/>
-      <c r="Y93" s="168"/>
-      <c r="Z93" s="168"/>
-    </row>
-    <row r="94" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="169">
+      <c r="F93" s="159"/>
+      <c r="G93" s="159"/>
+      <c r="H93" s="163"/>
+      <c r="I93" s="159"/>
+      <c r="J93" s="158"/>
+      <c r="K93" s="158"/>
+      <c r="L93" s="158"/>
+      <c r="M93" s="158"/>
+      <c r="N93" s="158"/>
+      <c r="O93" s="158"/>
+      <c r="P93" s="158"/>
+      <c r="Q93" s="158"/>
+      <c r="R93" s="158"/>
+      <c r="S93" s="158"/>
+      <c r="T93" s="158"/>
+      <c r="U93" s="158"/>
+      <c r="V93" s="158"/>
+      <c r="W93" s="158"/>
+      <c r="X93" s="158"/>
+      <c r="Y93" s="158"/>
+      <c r="Z93" s="158"/>
+    </row>
+    <row r="94" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="159">
         <v>4</v>
       </c>
-      <c r="B94" s="169" t="s">
+      <c r="B94" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="170" t="s">
+      <c r="C94" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D94" s="171"/>
-      <c r="E94" s="172"/>
-      <c r="F94" s="169"/>
-      <c r="G94" s="169"/>
-      <c r="H94" s="173"/>
-      <c r="I94" s="169"/>
-      <c r="J94" s="168"/>
-      <c r="K94" s="168"/>
-      <c r="L94" s="168"/>
-      <c r="M94" s="168"/>
-      <c r="N94" s="168"/>
-      <c r="O94" s="168"/>
-      <c r="P94" s="168"/>
-      <c r="Q94" s="168"/>
-      <c r="R94" s="168"/>
-      <c r="S94" s="168"/>
-      <c r="T94" s="168"/>
-      <c r="U94" s="168"/>
-      <c r="V94" s="168"/>
-      <c r="W94" s="168"/>
-      <c r="X94" s="168"/>
-      <c r="Y94" s="168"/>
-      <c r="Z94" s="168"/>
+      <c r="D94" s="161"/>
+      <c r="E94" s="162"/>
+      <c r="F94" s="159"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="163"/>
+      <c r="I94" s="159"/>
+      <c r="J94" s="158"/>
+      <c r="K94" s="158"/>
+      <c r="L94" s="158"/>
+      <c r="M94" s="158"/>
+      <c r="N94" s="158"/>
+      <c r="O94" s="158"/>
+      <c r="P94" s="158"/>
+      <c r="Q94" s="158"/>
+      <c r="R94" s="158"/>
+      <c r="S94" s="158"/>
+      <c r="T94" s="158"/>
+      <c r="U94" s="158"/>
+      <c r="V94" s="158"/>
+      <c r="W94" s="158"/>
+      <c r="X94" s="158"/>
+      <c r="Y94" s="158"/>
+      <c r="Z94" s="158"/>
     </row>
     <row r="95" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="169">
+      <c r="A95" s="159">
         <v>5</v>
       </c>
-      <c r="B95" s="169" t="s">
+      <c r="B95" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="170" t="s">
+      <c r="C95" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D95" s="171"/>
-      <c r="E95" s="172"/>
-      <c r="F95" s="169"/>
-      <c r="G95" s="169"/>
-      <c r="H95" s="173"/>
-      <c r="I95" s="169"/>
-      <c r="J95" s="130"/>
-      <c r="K95" s="130"/>
-      <c r="L95" s="130"/>
-      <c r="M95" s="130"/>
-      <c r="N95" s="130"/>
-      <c r="O95" s="130"/>
-      <c r="P95" s="130"/>
-      <c r="Q95" s="130"/>
-      <c r="R95" s="130"/>
-      <c r="S95" s="130"/>
-      <c r="T95" s="130"/>
-      <c r="U95" s="130"/>
-      <c r="V95" s="130"/>
-      <c r="W95" s="130"/>
-      <c r="X95" s="130"/>
-      <c r="Y95" s="130"/>
-      <c r="Z95" s="130"/>
+      <c r="D95" s="161"/>
+      <c r="E95" s="162"/>
+      <c r="F95" s="159"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="163"/>
+      <c r="I95" s="159"/>
+      <c r="J95" s="120"/>
+      <c r="K95" s="120"/>
+      <c r="L95" s="120"/>
+      <c r="M95" s="120"/>
+      <c r="N95" s="120"/>
+      <c r="O95" s="120"/>
+      <c r="P95" s="120"/>
+      <c r="Q95" s="120"/>
+      <c r="R95" s="120"/>
+      <c r="S95" s="120"/>
+      <c r="T95" s="120"/>
+      <c r="U95" s="120"/>
+      <c r="V95" s="120"/>
+      <c r="W95" s="120"/>
+      <c r="X95" s="120"/>
+      <c r="Y95" s="120"/>
+      <c r="Z95" s="120"/>
     </row>
     <row r="96" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="169">
+      <c r="A96" s="159">
         <v>6</v>
       </c>
-      <c r="B96" s="169" t="s">
+      <c r="B96" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="170" t="s">
+      <c r="C96" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="171"/>
-      <c r="E96" s="172"/>
-      <c r="F96" s="169"/>
-      <c r="G96" s="169"/>
-      <c r="H96" s="173"/>
-      <c r="I96" s="169" t="s">
+      <c r="D96" s="161"/>
+      <c r="E96" s="162"/>
+      <c r="F96" s="159"/>
+      <c r="G96" s="159"/>
+      <c r="H96" s="163"/>
+      <c r="I96" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="J96" s="130"/>
-      <c r="K96" s="130"/>
-      <c r="L96" s="130"/>
-      <c r="M96" s="130"/>
-      <c r="N96" s="130"/>
-      <c r="O96" s="130"/>
-      <c r="P96" s="130"/>
-      <c r="Q96" s="130"/>
-      <c r="R96" s="130"/>
-      <c r="S96" s="130"/>
-      <c r="T96" s="130"/>
-      <c r="U96" s="130"/>
-      <c r="V96" s="130"/>
-      <c r="W96" s="130"/>
-      <c r="X96" s="130"/>
-      <c r="Y96" s="130"/>
-      <c r="Z96" s="130"/>
+      <c r="J96" s="120"/>
+      <c r="K96" s="120"/>
+      <c r="L96" s="120"/>
+      <c r="M96" s="120"/>
+      <c r="N96" s="120"/>
+      <c r="O96" s="120"/>
+      <c r="P96" s="120"/>
+      <c r="Q96" s="120"/>
+      <c r="R96" s="120"/>
+      <c r="S96" s="120"/>
+      <c r="T96" s="120"/>
+      <c r="U96" s="120"/>
+      <c r="V96" s="120"/>
+      <c r="W96" s="120"/>
+      <c r="X96" s="120"/>
+      <c r="Y96" s="120"/>
+      <c r="Z96" s="120"/>
     </row>
     <row r="97" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="169">
+      <c r="A97" s="159">
         <v>7</v>
       </c>
-      <c r="B97" s="169" t="s">
+      <c r="B97" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="170" t="s">
+      <c r="C97" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="171"/>
-      <c r="E97" s="172"/>
-      <c r="F97" s="169"/>
-      <c r="G97" s="169"/>
-      <c r="H97" s="173"/>
-      <c r="I97" s="169"/>
-      <c r="J97" s="130"/>
-      <c r="K97" s="130"/>
-      <c r="L97" s="130"/>
-      <c r="M97" s="130"/>
-      <c r="N97" s="130"/>
-      <c r="O97" s="130"/>
-      <c r="P97" s="130"/>
-      <c r="Q97" s="130"/>
-      <c r="R97" s="130"/>
-      <c r="S97" s="130"/>
-      <c r="T97" s="130"/>
-      <c r="U97" s="130"/>
-      <c r="V97" s="130"/>
-      <c r="W97" s="130"/>
-      <c r="X97" s="130"/>
-      <c r="Y97" s="130"/>
-      <c r="Z97" s="130"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="162"/>
+      <c r="F97" s="159"/>
+      <c r="G97" s="159"/>
+      <c r="H97" s="163"/>
+      <c r="I97" s="159"/>
+      <c r="J97" s="120"/>
+      <c r="K97" s="120"/>
+      <c r="L97" s="120"/>
+      <c r="M97" s="120"/>
+      <c r="N97" s="120"/>
+      <c r="O97" s="120"/>
+      <c r="P97" s="120"/>
+      <c r="Q97" s="120"/>
+      <c r="R97" s="120"/>
+      <c r="S97" s="120"/>
+      <c r="T97" s="120"/>
+      <c r="U97" s="120"/>
+      <c r="V97" s="120"/>
+      <c r="W97" s="120"/>
+      <c r="X97" s="120"/>
+      <c r="Y97" s="120"/>
+      <c r="Z97" s="120"/>
     </row>
     <row r="98" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -5211,13 +5223,13 @@
       <c r="Z98" s="90"/>
     </row>
     <row r="99" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="116" t="s">
+      <c r="A99" s="187" t="s">
         <v>117</v>
       </c>
-      <c r="B99" s="117"/>
-      <c r="C99" s="117"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="117"/>
+      <c r="B99" s="188"/>
+      <c r="C99" s="188"/>
+      <c r="D99" s="188"/>
+      <c r="E99" s="188"/>
       <c r="F99" s="71"/>
       <c r="G99" s="71"/>
       <c r="H99" s="70"/>
@@ -5286,415 +5298,415 @@
       <c r="Y100" s="90"/>
       <c r="Z100" s="90"/>
     </row>
-    <row r="101" spans="1:26" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="174">
+    <row r="101" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="164">
         <v>1</v>
       </c>
-      <c r="B101" s="174" t="s">
+      <c r="B101" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="175" t="s">
+      <c r="C101" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="176"/>
-      <c r="E101" s="177"/>
-      <c r="F101" s="178" t="s">
+      <c r="D101" s="166"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="178"/>
-      <c r="H101" s="179" t="s">
+      <c r="G101" s="168"/>
+      <c r="H101" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="178"/>
-      <c r="J101" s="144"/>
-      <c r="K101" s="144"/>
-      <c r="L101" s="144"/>
-      <c r="M101" s="144"/>
-      <c r="N101" s="144"/>
-      <c r="O101" s="144"/>
-      <c r="P101" s="144"/>
-      <c r="Q101" s="144"/>
-      <c r="R101" s="144"/>
-      <c r="S101" s="144"/>
-      <c r="T101" s="144"/>
-      <c r="U101" s="144"/>
-      <c r="V101" s="144"/>
-      <c r="W101" s="144"/>
-      <c r="X101" s="144"/>
-      <c r="Y101" s="144"/>
-      <c r="Z101" s="144"/>
-    </row>
-    <row r="102" spans="1:26" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="169">
+      <c r="I101" s="168"/>
+      <c r="J101" s="134"/>
+      <c r="K101" s="134"/>
+      <c r="L101" s="134"/>
+      <c r="M101" s="134"/>
+      <c r="N101" s="134"/>
+      <c r="O101" s="134"/>
+      <c r="P101" s="134"/>
+      <c r="Q101" s="134"/>
+      <c r="R101" s="134"/>
+      <c r="S101" s="134"/>
+      <c r="T101" s="134"/>
+      <c r="U101" s="134"/>
+      <c r="V101" s="134"/>
+      <c r="W101" s="134"/>
+      <c r="X101" s="134"/>
+      <c r="Y101" s="134"/>
+      <c r="Z101" s="134"/>
+    </row>
+    <row r="102" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="159">
         <v>2</v>
       </c>
-      <c r="B102" s="169" t="s">
+      <c r="B102" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="170" t="s">
+      <c r="C102" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="171"/>
-      <c r="E102" s="172"/>
-      <c r="F102" s="169"/>
-      <c r="G102" s="169"/>
-      <c r="H102" s="173"/>
-      <c r="I102" s="169"/>
-      <c r="J102" s="144"/>
-      <c r="K102" s="144"/>
-      <c r="L102" s="144"/>
-      <c r="M102" s="144"/>
-      <c r="N102" s="144"/>
-      <c r="O102" s="144"/>
-      <c r="P102" s="144"/>
-      <c r="Q102" s="144"/>
-      <c r="R102" s="144"/>
-      <c r="S102" s="144"/>
-      <c r="T102" s="144"/>
-      <c r="U102" s="144"/>
-      <c r="V102" s="144"/>
-      <c r="W102" s="144"/>
-      <c r="X102" s="144"/>
-      <c r="Y102" s="144"/>
-      <c r="Z102" s="144"/>
-    </row>
-    <row r="103" spans="1:26" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="169">
+      <c r="D102" s="161"/>
+      <c r="E102" s="162"/>
+      <c r="F102" s="159"/>
+      <c r="G102" s="159"/>
+      <c r="H102" s="163"/>
+      <c r="I102" s="159"/>
+      <c r="J102" s="134"/>
+      <c r="K102" s="134"/>
+      <c r="L102" s="134"/>
+      <c r="M102" s="134"/>
+      <c r="N102" s="134"/>
+      <c r="O102" s="134"/>
+      <c r="P102" s="134"/>
+      <c r="Q102" s="134"/>
+      <c r="R102" s="134"/>
+      <c r="S102" s="134"/>
+      <c r="T102" s="134"/>
+      <c r="U102" s="134"/>
+      <c r="V102" s="134"/>
+      <c r="W102" s="134"/>
+      <c r="X102" s="134"/>
+      <c r="Y102" s="134"/>
+      <c r="Z102" s="134"/>
+    </row>
+    <row r="103" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="159">
         <v>3</v>
       </c>
-      <c r="B103" s="169" t="s">
+      <c r="B103" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="170" t="s">
+      <c r="C103" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D103" s="171"/>
-      <c r="E103" s="172" t="s">
+      <c r="D103" s="161"/>
+      <c r="E103" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="F103" s="169"/>
-      <c r="G103" s="169"/>
-      <c r="H103" s="173"/>
-      <c r="I103" s="169"/>
-      <c r="J103" s="144"/>
-      <c r="K103" s="144"/>
-      <c r="L103" s="144"/>
-      <c r="M103" s="144"/>
-      <c r="N103" s="144"/>
-      <c r="O103" s="144"/>
-      <c r="P103" s="144"/>
-      <c r="Q103" s="144"/>
-      <c r="R103" s="144"/>
-      <c r="S103" s="144"/>
-      <c r="T103" s="144"/>
-      <c r="U103" s="144"/>
-      <c r="V103" s="144"/>
-      <c r="W103" s="144"/>
-      <c r="X103" s="144"/>
-      <c r="Y103" s="144"/>
-      <c r="Z103" s="144"/>
-    </row>
-    <row r="104" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="169">
+      <c r="F103" s="159"/>
+      <c r="G103" s="159"/>
+      <c r="H103" s="163"/>
+      <c r="I103" s="159"/>
+      <c r="J103" s="134"/>
+      <c r="K103" s="134"/>
+      <c r="L103" s="134"/>
+      <c r="M103" s="134"/>
+      <c r="N103" s="134"/>
+      <c r="O103" s="134"/>
+      <c r="P103" s="134"/>
+      <c r="Q103" s="134"/>
+      <c r="R103" s="134"/>
+      <c r="S103" s="134"/>
+      <c r="T103" s="134"/>
+      <c r="U103" s="134"/>
+      <c r="V103" s="134"/>
+      <c r="W103" s="134"/>
+      <c r="X103" s="134"/>
+      <c r="Y103" s="134"/>
+      <c r="Z103" s="134"/>
+    </row>
+    <row r="104" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="159">
         <v>4</v>
       </c>
-      <c r="B104" s="169" t="s">
+      <c r="B104" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="170" t="s">
+      <c r="C104" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D104" s="171"/>
-      <c r="E104" s="172"/>
-      <c r="F104" s="169"/>
-      <c r="G104" s="169"/>
-      <c r="H104" s="173"/>
-      <c r="I104" s="169"/>
-      <c r="J104" s="168"/>
-      <c r="K104" s="168"/>
-      <c r="L104" s="168"/>
-      <c r="M104" s="168"/>
-      <c r="N104" s="168"/>
-      <c r="O104" s="168"/>
-      <c r="P104" s="168"/>
-      <c r="Q104" s="168"/>
-      <c r="R104" s="168"/>
-      <c r="S104" s="168"/>
-      <c r="T104" s="168"/>
-      <c r="U104" s="168"/>
-      <c r="V104" s="168"/>
-      <c r="W104" s="168"/>
-      <c r="X104" s="168"/>
-      <c r="Y104" s="168"/>
-      <c r="Z104" s="168"/>
-    </row>
-    <row r="105" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="169">
+      <c r="D104" s="161"/>
+      <c r="E104" s="162"/>
+      <c r="F104" s="159"/>
+      <c r="G104" s="159"/>
+      <c r="H104" s="163"/>
+      <c r="I104" s="159"/>
+      <c r="J104" s="158"/>
+      <c r="K104" s="158"/>
+      <c r="L104" s="158"/>
+      <c r="M104" s="158"/>
+      <c r="N104" s="158"/>
+      <c r="O104" s="158"/>
+      <c r="P104" s="158"/>
+      <c r="Q104" s="158"/>
+      <c r="R104" s="158"/>
+      <c r="S104" s="158"/>
+      <c r="T104" s="158"/>
+      <c r="U104" s="158"/>
+      <c r="V104" s="158"/>
+      <c r="W104" s="158"/>
+      <c r="X104" s="158"/>
+      <c r="Y104" s="158"/>
+      <c r="Z104" s="158"/>
+    </row>
+    <row r="105" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="159">
         <v>5</v>
       </c>
-      <c r="B105" s="169" t="s">
+      <c r="B105" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="170" t="s">
+      <c r="C105" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D105" s="171"/>
-      <c r="E105" s="172"/>
-      <c r="F105" s="169"/>
-      <c r="G105" s="169"/>
-      <c r="H105" s="173"/>
-      <c r="I105" s="169"/>
-      <c r="J105" s="168"/>
-      <c r="K105" s="168"/>
-      <c r="L105" s="168"/>
-      <c r="M105" s="168"/>
-      <c r="N105" s="168"/>
-      <c r="O105" s="168"/>
-      <c r="P105" s="168"/>
-      <c r="Q105" s="168"/>
-      <c r="R105" s="168"/>
-      <c r="S105" s="168"/>
-      <c r="T105" s="168"/>
-      <c r="U105" s="168"/>
-      <c r="V105" s="168"/>
-      <c r="W105" s="168"/>
-      <c r="X105" s="168"/>
-      <c r="Y105" s="168"/>
-      <c r="Z105" s="168"/>
-    </row>
-    <row r="106" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="169">
+      <c r="D105" s="161"/>
+      <c r="E105" s="162"/>
+      <c r="F105" s="159"/>
+      <c r="G105" s="159"/>
+      <c r="H105" s="163"/>
+      <c r="I105" s="159"/>
+      <c r="J105" s="158"/>
+      <c r="K105" s="158"/>
+      <c r="L105" s="158"/>
+      <c r="M105" s="158"/>
+      <c r="N105" s="158"/>
+      <c r="O105" s="158"/>
+      <c r="P105" s="158"/>
+      <c r="Q105" s="158"/>
+      <c r="R105" s="158"/>
+      <c r="S105" s="158"/>
+      <c r="T105" s="158"/>
+      <c r="U105" s="158"/>
+      <c r="V105" s="158"/>
+      <c r="W105" s="158"/>
+      <c r="X105" s="158"/>
+      <c r="Y105" s="158"/>
+      <c r="Z105" s="158"/>
+    </row>
+    <row r="106" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="159">
         <v>6</v>
       </c>
-      <c r="B106" s="169" t="s">
+      <c r="B106" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="170" t="s">
+      <c r="C106" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="171"/>
-      <c r="E106" s="172"/>
-      <c r="F106" s="169"/>
-      <c r="G106" s="169"/>
-      <c r="H106" s="173"/>
-      <c r="I106" s="169" t="s">
+      <c r="D106" s="161"/>
+      <c r="E106" s="162"/>
+      <c r="F106" s="159"/>
+      <c r="G106" s="159"/>
+      <c r="H106" s="163"/>
+      <c r="I106" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="J106" s="168"/>
-      <c r="K106" s="168"/>
-      <c r="L106" s="168"/>
-      <c r="M106" s="168"/>
-      <c r="N106" s="168"/>
-      <c r="O106" s="168"/>
-      <c r="P106" s="168"/>
-      <c r="Q106" s="168"/>
-      <c r="R106" s="168"/>
-      <c r="S106" s="168"/>
-      <c r="T106" s="168"/>
-      <c r="U106" s="168"/>
-      <c r="V106" s="168"/>
-      <c r="W106" s="168"/>
-      <c r="X106" s="168"/>
-      <c r="Y106" s="168"/>
-      <c r="Z106" s="168"/>
-    </row>
-    <row r="107" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="169">
+      <c r="J106" s="158"/>
+      <c r="K106" s="158"/>
+      <c r="L106" s="158"/>
+      <c r="M106" s="158"/>
+      <c r="N106" s="158"/>
+      <c r="O106" s="158"/>
+      <c r="P106" s="158"/>
+      <c r="Q106" s="158"/>
+      <c r="R106" s="158"/>
+      <c r="S106" s="158"/>
+      <c r="T106" s="158"/>
+      <c r="U106" s="158"/>
+      <c r="V106" s="158"/>
+      <c r="W106" s="158"/>
+      <c r="X106" s="158"/>
+      <c r="Y106" s="158"/>
+      <c r="Z106" s="158"/>
+    </row>
+    <row r="107" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="159">
         <v>7</v>
       </c>
-      <c r="B107" s="169" t="s">
+      <c r="B107" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="170" t="s">
+      <c r="C107" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="171"/>
-      <c r="E107" s="172"/>
-      <c r="F107" s="169"/>
-      <c r="G107" s="169"/>
-      <c r="H107" s="173"/>
-      <c r="I107" s="169"/>
-      <c r="J107" s="168"/>
-      <c r="K107" s="168"/>
-      <c r="L107" s="168"/>
-      <c r="M107" s="168"/>
-      <c r="N107" s="168"/>
-      <c r="O107" s="168"/>
-      <c r="P107" s="168"/>
-      <c r="Q107" s="168"/>
-      <c r="R107" s="168"/>
-      <c r="S107" s="168"/>
-      <c r="T107" s="168"/>
-      <c r="U107" s="168"/>
-      <c r="V107" s="168"/>
-      <c r="W107" s="168"/>
-      <c r="X107" s="168"/>
-      <c r="Y107" s="168"/>
-      <c r="Z107" s="168"/>
-    </row>
-    <row r="108" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="169">
+      <c r="D107" s="161"/>
+      <c r="E107" s="162"/>
+      <c r="F107" s="159"/>
+      <c r="G107" s="159"/>
+      <c r="H107" s="163"/>
+      <c r="I107" s="159"/>
+      <c r="J107" s="158"/>
+      <c r="K107" s="158"/>
+      <c r="L107" s="158"/>
+      <c r="M107" s="158"/>
+      <c r="N107" s="158"/>
+      <c r="O107" s="158"/>
+      <c r="P107" s="158"/>
+      <c r="Q107" s="158"/>
+      <c r="R107" s="158"/>
+      <c r="S107" s="158"/>
+      <c r="T107" s="158"/>
+      <c r="U107" s="158"/>
+      <c r="V107" s="158"/>
+      <c r="W107" s="158"/>
+      <c r="X107" s="158"/>
+      <c r="Y107" s="158"/>
+      <c r="Z107" s="158"/>
+    </row>
+    <row r="108" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="159">
         <v>8</v>
       </c>
-      <c r="B108" s="169" t="s">
+      <c r="B108" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="170" t="s">
+      <c r="C108" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="171"/>
-      <c r="E108" s="172"/>
-      <c r="F108" s="169"/>
-      <c r="G108" s="169" t="s">
+      <c r="D108" s="161"/>
+      <c r="E108" s="162"/>
+      <c r="F108" s="159"/>
+      <c r="G108" s="159" t="s">
         <v>168</v>
       </c>
-      <c r="H108" s="173"/>
-      <c r="I108" s="169"/>
-      <c r="J108" s="168"/>
-      <c r="K108" s="168"/>
-      <c r="L108" s="168"/>
-      <c r="M108" s="168"/>
-      <c r="N108" s="168"/>
-      <c r="O108" s="168"/>
-      <c r="P108" s="168"/>
-      <c r="Q108" s="168"/>
-      <c r="R108" s="168"/>
-      <c r="S108" s="168"/>
-      <c r="T108" s="168"/>
-      <c r="U108" s="168"/>
-      <c r="V108" s="168"/>
-      <c r="W108" s="168"/>
-      <c r="X108" s="168"/>
-      <c r="Y108" s="168"/>
-      <c r="Z108" s="168"/>
-    </row>
-    <row r="109" spans="1:26" s="145" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="169"/>
-      <c r="B109" s="169" t="s">
+      <c r="H108" s="163"/>
+      <c r="I108" s="159"/>
+      <c r="J108" s="158"/>
+      <c r="K108" s="158"/>
+      <c r="L108" s="158"/>
+      <c r="M108" s="158"/>
+      <c r="N108" s="158"/>
+      <c r="O108" s="158"/>
+      <c r="P108" s="158"/>
+      <c r="Q108" s="158"/>
+      <c r="R108" s="158"/>
+      <c r="S108" s="158"/>
+      <c r="T108" s="158"/>
+      <c r="U108" s="158"/>
+      <c r="V108" s="158"/>
+      <c r="W108" s="158"/>
+      <c r="X108" s="158"/>
+      <c r="Y108" s="158"/>
+      <c r="Z108" s="158"/>
+    </row>
+    <row r="109" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="159"/>
+      <c r="B109" s="159" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="170" t="s">
+      <c r="C109" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="D109" s="171"/>
-      <c r="E109" s="172"/>
-      <c r="F109" s="169"/>
-      <c r="G109" s="169"/>
-      <c r="H109" s="173"/>
-      <c r="I109" s="169"/>
-      <c r="J109" s="168"/>
-      <c r="K109" s="168"/>
-      <c r="L109" s="168"/>
-      <c r="M109" s="168"/>
-      <c r="N109" s="168"/>
-      <c r="O109" s="168"/>
-      <c r="P109" s="168"/>
-      <c r="Q109" s="168"/>
-      <c r="R109" s="168"/>
-      <c r="S109" s="168"/>
-      <c r="T109" s="168"/>
-      <c r="U109" s="168"/>
-      <c r="V109" s="168"/>
-      <c r="W109" s="168"/>
-      <c r="X109" s="168"/>
-      <c r="Y109" s="168"/>
-      <c r="Z109" s="168"/>
+      <c r="D109" s="161"/>
+      <c r="E109" s="162"/>
+      <c r="F109" s="159"/>
+      <c r="G109" s="159"/>
+      <c r="H109" s="163"/>
+      <c r="I109" s="159"/>
+      <c r="J109" s="158"/>
+      <c r="K109" s="158"/>
+      <c r="L109" s="158"/>
+      <c r="M109" s="158"/>
+      <c r="N109" s="158"/>
+      <c r="O109" s="158"/>
+      <c r="P109" s="158"/>
+      <c r="Q109" s="158"/>
+      <c r="R109" s="158"/>
+      <c r="S109" s="158"/>
+      <c r="T109" s="158"/>
+      <c r="U109" s="158"/>
+      <c r="V109" s="158"/>
+      <c r="W109" s="158"/>
+      <c r="X109" s="158"/>
+      <c r="Y109" s="158"/>
+      <c r="Z109" s="158"/>
     </row>
     <row r="110" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="169"/>
-      <c r="B110" s="169" t="s">
+      <c r="A110" s="159"/>
+      <c r="B110" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="170" t="s">
+      <c r="C110" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="D110" s="171"/>
-      <c r="E110" s="172"/>
-      <c r="F110" s="169"/>
-      <c r="G110" s="169"/>
-      <c r="H110" s="173"/>
-      <c r="I110" s="169"/>
-      <c r="J110" s="130"/>
-      <c r="K110" s="130"/>
-      <c r="L110" s="130"/>
-      <c r="M110" s="130"/>
-      <c r="N110" s="130"/>
-      <c r="O110" s="130"/>
-      <c r="P110" s="130"/>
-      <c r="Q110" s="130"/>
-      <c r="R110" s="130"/>
-      <c r="S110" s="130"/>
-      <c r="T110" s="130"/>
-      <c r="U110" s="130"/>
-      <c r="V110" s="130"/>
-      <c r="W110" s="130"/>
-      <c r="X110" s="130"/>
-      <c r="Y110" s="130"/>
-      <c r="Z110" s="130"/>
+      <c r="D110" s="161"/>
+      <c r="E110" s="162"/>
+      <c r="F110" s="159"/>
+      <c r="G110" s="159"/>
+      <c r="H110" s="163"/>
+      <c r="I110" s="159"/>
+      <c r="J110" s="120"/>
+      <c r="K110" s="120"/>
+      <c r="L110" s="120"/>
+      <c r="M110" s="120"/>
+      <c r="N110" s="120"/>
+      <c r="O110" s="120"/>
+      <c r="P110" s="120"/>
+      <c r="Q110" s="120"/>
+      <c r="R110" s="120"/>
+      <c r="S110" s="120"/>
+      <c r="T110" s="120"/>
+      <c r="U110" s="120"/>
+      <c r="V110" s="120"/>
+      <c r="W110" s="120"/>
+      <c r="X110" s="120"/>
+      <c r="Y110" s="120"/>
+      <c r="Z110" s="120"/>
     </row>
     <row r="111" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="169"/>
-      <c r="B111" s="169" t="s">
+      <c r="A111" s="159"/>
+      <c r="B111" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="170" t="s">
+      <c r="C111" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="D111" s="171"/>
-      <c r="E111" s="172"/>
-      <c r="F111" s="169"/>
-      <c r="G111" s="169"/>
-      <c r="H111" s="173"/>
-      <c r="I111" s="169"/>
-      <c r="J111" s="130"/>
-      <c r="K111" s="130"/>
-      <c r="L111" s="130"/>
-      <c r="M111" s="130"/>
-      <c r="N111" s="130"/>
-      <c r="O111" s="130"/>
-      <c r="P111" s="130"/>
-      <c r="Q111" s="130"/>
-      <c r="R111" s="130"/>
-      <c r="S111" s="130"/>
-      <c r="T111" s="130"/>
-      <c r="U111" s="130"/>
-      <c r="V111" s="130"/>
-      <c r="W111" s="130"/>
-      <c r="X111" s="130"/>
-      <c r="Y111" s="130"/>
-      <c r="Z111" s="130"/>
+      <c r="D111" s="161"/>
+      <c r="E111" s="162"/>
+      <c r="F111" s="159"/>
+      <c r="G111" s="159"/>
+      <c r="H111" s="163"/>
+      <c r="I111" s="159"/>
+      <c r="J111" s="120"/>
+      <c r="K111" s="120"/>
+      <c r="L111" s="120"/>
+      <c r="M111" s="120"/>
+      <c r="N111" s="120"/>
+      <c r="O111" s="120"/>
+      <c r="P111" s="120"/>
+      <c r="Q111" s="120"/>
+      <c r="R111" s="120"/>
+      <c r="S111" s="120"/>
+      <c r="T111" s="120"/>
+      <c r="U111" s="120"/>
+      <c r="V111" s="120"/>
+      <c r="W111" s="120"/>
+      <c r="X111" s="120"/>
+      <c r="Y111" s="120"/>
+      <c r="Z111" s="120"/>
     </row>
     <row r="112" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="169"/>
-      <c r="B112" s="169" t="s">
+      <c r="A112" s="159"/>
+      <c r="B112" s="159" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="170" t="s">
+      <c r="C112" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="171"/>
-      <c r="E112" s="172"/>
-      <c r="F112" s="169"/>
-      <c r="G112" s="169"/>
-      <c r="H112" s="173"/>
-      <c r="I112" s="169"/>
-      <c r="J112" s="130"/>
-      <c r="K112" s="130"/>
-      <c r="L112" s="130"/>
-      <c r="M112" s="130"/>
-      <c r="N112" s="130"/>
-      <c r="O112" s="130"/>
-      <c r="P112" s="130"/>
-      <c r="Q112" s="130"/>
-      <c r="R112" s="130"/>
-      <c r="S112" s="130"/>
-      <c r="T112" s="130"/>
-      <c r="U112" s="130"/>
-      <c r="V112" s="130"/>
-      <c r="W112" s="130"/>
-      <c r="X112" s="130"/>
-      <c r="Y112" s="130"/>
-      <c r="Z112" s="130"/>
+      <c r="D112" s="161"/>
+      <c r="E112" s="162"/>
+      <c r="F112" s="159"/>
+      <c r="G112" s="159"/>
+      <c r="H112" s="163"/>
+      <c r="I112" s="159"/>
+      <c r="J112" s="120"/>
+      <c r="K112" s="120"/>
+      <c r="L112" s="120"/>
+      <c r="M112" s="120"/>
+      <c r="N112" s="120"/>
+      <c r="O112" s="120"/>
+      <c r="P112" s="120"/>
+      <c r="Q112" s="120"/>
+      <c r="R112" s="120"/>
+      <c r="S112" s="120"/>
+      <c r="T112" s="120"/>
+      <c r="U112" s="120"/>
+      <c r="V112" s="120"/>
+      <c r="W112" s="120"/>
+      <c r="X112" s="120"/>
+      <c r="Y112" s="120"/>
+      <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
@@ -5725,13 +5737,13 @@
       <c r="Z113" s="90"/>
     </row>
     <row r="114" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="116" t="s">
+      <c r="A114" s="187" t="s">
         <v>136</v>
       </c>
-      <c r="B114" s="117"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="117"/>
-      <c r="E114" s="117"/>
+      <c r="B114" s="188"/>
+      <c r="C114" s="188"/>
+      <c r="D114" s="188"/>
+      <c r="E114" s="188"/>
       <c r="F114" s="71"/>
       <c r="G114" s="71"/>
       <c r="H114" s="70"/>
@@ -5800,215 +5812,215 @@
       <c r="Y115" s="90"/>
       <c r="Z115" s="90"/>
     </row>
-    <row r="116" spans="1:26" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="174">
+    <row r="116" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="164">
         <v>1</v>
       </c>
-      <c r="B116" s="174" t="s">
+      <c r="B116" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="175" t="s">
+      <c r="C116" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="D116" s="176"/>
-      <c r="E116" s="177"/>
-      <c r="F116" s="178" t="s">
+      <c r="D116" s="166"/>
+      <c r="E116" s="167"/>
+      <c r="F116" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="178"/>
-      <c r="H116" s="179" t="s">
+      <c r="G116" s="168"/>
+      <c r="H116" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="I116" s="178"/>
-      <c r="J116" s="144"/>
-      <c r="K116" s="144"/>
-      <c r="L116" s="144"/>
-      <c r="M116" s="144"/>
-      <c r="N116" s="144"/>
-      <c r="O116" s="144"/>
-      <c r="P116" s="144"/>
-      <c r="Q116" s="144"/>
-      <c r="R116" s="144"/>
-      <c r="S116" s="144"/>
-      <c r="T116" s="144"/>
-      <c r="U116" s="144"/>
-      <c r="V116" s="144"/>
-      <c r="W116" s="144"/>
-      <c r="X116" s="144"/>
-      <c r="Y116" s="144"/>
-      <c r="Z116" s="144"/>
-    </row>
-    <row r="117" spans="1:26" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="169">
+      <c r="I116" s="168"/>
+      <c r="J116" s="134"/>
+      <c r="K116" s="134"/>
+      <c r="L116" s="134"/>
+      <c r="M116" s="134"/>
+      <c r="N116" s="134"/>
+      <c r="O116" s="134"/>
+      <c r="P116" s="134"/>
+      <c r="Q116" s="134"/>
+      <c r="R116" s="134"/>
+      <c r="S116" s="134"/>
+      <c r="T116" s="134"/>
+      <c r="U116" s="134"/>
+      <c r="V116" s="134"/>
+      <c r="W116" s="134"/>
+      <c r="X116" s="134"/>
+      <c r="Y116" s="134"/>
+      <c r="Z116" s="134"/>
+    </row>
+    <row r="117" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="159">
         <v>2</v>
       </c>
-      <c r="B117" s="169" t="s">
+      <c r="B117" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="170" t="s">
+      <c r="C117" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="171"/>
-      <c r="E117" s="172"/>
-      <c r="F117" s="169" t="s">
+      <c r="D117" s="161"/>
+      <c r="E117" s="162"/>
+      <c r="F117" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="G117" s="169"/>
-      <c r="H117" s="173"/>
-      <c r="I117" s="169"/>
-      <c r="J117" s="144"/>
-      <c r="K117" s="144"/>
-      <c r="L117" s="144"/>
-      <c r="M117" s="144"/>
-      <c r="N117" s="144"/>
-      <c r="O117" s="144"/>
-      <c r="P117" s="144"/>
-      <c r="Q117" s="144"/>
-      <c r="R117" s="144"/>
-      <c r="S117" s="144"/>
-      <c r="T117" s="144"/>
-      <c r="U117" s="144"/>
-      <c r="V117" s="144"/>
-      <c r="W117" s="144"/>
-      <c r="X117" s="144"/>
-      <c r="Y117" s="144"/>
-      <c r="Z117" s="144"/>
-    </row>
-    <row r="118" spans="1:26" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="169">
+      <c r="G117" s="159"/>
+      <c r="H117" s="163"/>
+      <c r="I117" s="159"/>
+      <c r="J117" s="134"/>
+      <c r="K117" s="134"/>
+      <c r="L117" s="134"/>
+      <c r="M117" s="134"/>
+      <c r="N117" s="134"/>
+      <c r="O117" s="134"/>
+      <c r="P117" s="134"/>
+      <c r="Q117" s="134"/>
+      <c r="R117" s="134"/>
+      <c r="S117" s="134"/>
+      <c r="T117" s="134"/>
+      <c r="U117" s="134"/>
+      <c r="V117" s="134"/>
+      <c r="W117" s="134"/>
+      <c r="X117" s="134"/>
+      <c r="Y117" s="134"/>
+      <c r="Z117" s="134"/>
+    </row>
+    <row r="118" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="159">
         <v>3</v>
       </c>
-      <c r="B118" s="169" t="s">
+      <c r="B118" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="C118" s="170" t="s">
+      <c r="C118" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="171"/>
-      <c r="E118" s="172"/>
-      <c r="F118" s="169"/>
-      <c r="G118" s="169"/>
-      <c r="H118" s="173"/>
-      <c r="I118" s="169"/>
-      <c r="J118" s="144"/>
-      <c r="K118" s="144"/>
-      <c r="L118" s="144"/>
-      <c r="M118" s="144"/>
-      <c r="N118" s="144"/>
-      <c r="O118" s="144"/>
-      <c r="P118" s="144"/>
-      <c r="Q118" s="144"/>
-      <c r="R118" s="144"/>
-      <c r="S118" s="144"/>
-      <c r="T118" s="144"/>
-      <c r="U118" s="144"/>
-      <c r="V118" s="144"/>
-      <c r="W118" s="144"/>
-      <c r="X118" s="144"/>
-      <c r="Y118" s="144"/>
-      <c r="Z118" s="144"/>
+      <c r="D118" s="161"/>
+      <c r="E118" s="162"/>
+      <c r="F118" s="159"/>
+      <c r="G118" s="159"/>
+      <c r="H118" s="163"/>
+      <c r="I118" s="159"/>
+      <c r="J118" s="134"/>
+      <c r="K118" s="134"/>
+      <c r="L118" s="134"/>
+      <c r="M118" s="134"/>
+      <c r="N118" s="134"/>
+      <c r="O118" s="134"/>
+      <c r="P118" s="134"/>
+      <c r="Q118" s="134"/>
+      <c r="R118" s="134"/>
+      <c r="S118" s="134"/>
+      <c r="T118" s="134"/>
+      <c r="U118" s="134"/>
+      <c r="V118" s="134"/>
+      <c r="W118" s="134"/>
+      <c r="X118" s="134"/>
+      <c r="Y118" s="134"/>
+      <c r="Z118" s="134"/>
     </row>
     <row r="119" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="169">
+      <c r="A119" s="159">
         <v>4</v>
       </c>
-      <c r="B119" s="169" t="s">
+      <c r="B119" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="C119" s="170" t="s">
+      <c r="C119" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="D119" s="171"/>
-      <c r="E119" s="172"/>
-      <c r="F119" s="169"/>
-      <c r="G119" s="169"/>
-      <c r="H119" s="173"/>
-      <c r="I119" s="169"/>
-      <c r="J119" s="130"/>
-      <c r="K119" s="130"/>
-      <c r="L119" s="130"/>
-      <c r="M119" s="130"/>
-      <c r="N119" s="130"/>
-      <c r="O119" s="130"/>
-      <c r="P119" s="130"/>
-      <c r="Q119" s="130"/>
-      <c r="R119" s="130"/>
-      <c r="S119" s="130"/>
-      <c r="T119" s="130"/>
-      <c r="U119" s="130"/>
-      <c r="V119" s="130"/>
-      <c r="W119" s="130"/>
-      <c r="X119" s="130"/>
-      <c r="Y119" s="130"/>
-      <c r="Z119" s="130"/>
+      <c r="D119" s="161"/>
+      <c r="E119" s="162"/>
+      <c r="F119" s="159"/>
+      <c r="G119" s="159"/>
+      <c r="H119" s="163"/>
+      <c r="I119" s="159"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+      <c r="L119" s="120"/>
+      <c r="M119" s="120"/>
+      <c r="N119" s="120"/>
+      <c r="O119" s="120"/>
+      <c r="P119" s="120"/>
+      <c r="Q119" s="120"/>
+      <c r="R119" s="120"/>
+      <c r="S119" s="120"/>
+      <c r="T119" s="120"/>
+      <c r="U119" s="120"/>
+      <c r="V119" s="120"/>
+      <c r="W119" s="120"/>
+      <c r="X119" s="120"/>
+      <c r="Y119" s="120"/>
+      <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="169">
+      <c r="A120" s="159">
         <v>5</v>
       </c>
-      <c r="B120" s="169" t="s">
+      <c r="B120" s="159" t="s">
         <v>181</v>
       </c>
-      <c r="C120" s="170" t="s">
+      <c r="C120" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="171"/>
-      <c r="E120" s="172"/>
-      <c r="F120" s="169"/>
-      <c r="G120" s="169"/>
-      <c r="H120" s="173"/>
-      <c r="I120" s="169"/>
-      <c r="J120" s="130"/>
-      <c r="K120" s="130"/>
-      <c r="L120" s="130"/>
-      <c r="M120" s="130"/>
-      <c r="N120" s="130"/>
-      <c r="O120" s="130"/>
-      <c r="P120" s="130"/>
-      <c r="Q120" s="130"/>
-      <c r="R120" s="130"/>
-      <c r="S120" s="130"/>
-      <c r="T120" s="130"/>
-      <c r="U120" s="130"/>
-      <c r="V120" s="130"/>
-      <c r="W120" s="130"/>
-      <c r="X120" s="130"/>
-      <c r="Y120" s="130"/>
-      <c r="Z120" s="130"/>
+      <c r="D120" s="161"/>
+      <c r="E120" s="162"/>
+      <c r="F120" s="159"/>
+      <c r="G120" s="159"/>
+      <c r="H120" s="163"/>
+      <c r="I120" s="159"/>
+      <c r="J120" s="120"/>
+      <c r="K120" s="120"/>
+      <c r="L120" s="120"/>
+      <c r="M120" s="120"/>
+      <c r="N120" s="120"/>
+      <c r="O120" s="120"/>
+      <c r="P120" s="120"/>
+      <c r="Q120" s="120"/>
+      <c r="R120" s="120"/>
+      <c r="S120" s="120"/>
+      <c r="T120" s="120"/>
+      <c r="U120" s="120"/>
+      <c r="V120" s="120"/>
+      <c r="W120" s="120"/>
+      <c r="X120" s="120"/>
+      <c r="Y120" s="120"/>
+      <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="169">
+      <c r="A121" s="159">
         <v>6</v>
       </c>
-      <c r="B121" s="169" t="s">
+      <c r="B121" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="170" t="s">
+      <c r="C121" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="171"/>
-      <c r="E121" s="172"/>
-      <c r="F121" s="169"/>
-      <c r="G121" s="169"/>
-      <c r="H121" s="173"/>
-      <c r="I121" s="169"/>
-      <c r="J121" s="130"/>
-      <c r="K121" s="130"/>
-      <c r="L121" s="130"/>
-      <c r="M121" s="130"/>
-      <c r="N121" s="130"/>
-      <c r="O121" s="130"/>
-      <c r="P121" s="130"/>
-      <c r="Q121" s="130"/>
-      <c r="R121" s="130"/>
-      <c r="S121" s="130"/>
-      <c r="T121" s="130"/>
-      <c r="U121" s="130"/>
-      <c r="V121" s="130"/>
-      <c r="W121" s="130"/>
-      <c r="X121" s="130"/>
-      <c r="Y121" s="130"/>
-      <c r="Z121" s="130"/>
+      <c r="D121" s="161"/>
+      <c r="E121" s="162"/>
+      <c r="F121" s="159"/>
+      <c r="G121" s="159"/>
+      <c r="H121" s="163"/>
+      <c r="I121" s="159"/>
+      <c r="J121" s="120"/>
+      <c r="K121" s="120"/>
+      <c r="L121" s="120"/>
+      <c r="M121" s="120"/>
+      <c r="N121" s="120"/>
+      <c r="O121" s="120"/>
+      <c r="P121" s="120"/>
+      <c r="Q121" s="120"/>
+      <c r="R121" s="120"/>
+      <c r="S121" s="120"/>
+      <c r="T121" s="120"/>
+      <c r="U121" s="120"/>
+      <c r="V121" s="120"/>
+      <c r="W121" s="120"/>
+      <c r="X121" s="120"/>
+      <c r="Y121" s="120"/>
+      <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
@@ -28078,8 +28090,8 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28285,37 +28297,37 @@
       <c r="Y6" s="54"/>
       <c r="Z6" s="54"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
+    <row r="7" spans="1:26" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="196">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
@@ -56637,13 +56649,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
       <c r="H3" s="70"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383E5E4E-0661-D140-BA26-A9523BA5E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804F51D-3C5F-1E4F-B790-FCFB6928CDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,34 +1243,6 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1284,28 +1256,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,6 +1325,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1401,12 +1357,60 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1727,8 +1731,8 @@
   </sheetPr>
   <dimension ref="A2:Z910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:H61"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1966,315 +1970,315 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="170">
+    <row r="8" spans="1:26" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="148">
         <v>4</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="158" t="s">
+      <c r="J8" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-    </row>
-    <row r="9" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+    </row>
+    <row r="9" spans="1:26" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="151">
         <v>5</v>
       </c>
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="158"/>
-    </row>
-    <row r="10" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173">
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="136"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="136"/>
+    </row>
+    <row r="10" spans="1:26" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="151">
         <v>6</v>
       </c>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-    </row>
-    <row r="11" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="173">
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="136"/>
+    </row>
+    <row r="11" spans="1:26" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="151">
         <v>7</v>
       </c>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-    </row>
-    <row r="12" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="173">
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+    </row>
+    <row r="12" spans="1:26" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="151">
         <v>8</v>
       </c>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="158"/>
-      <c r="T12" s="158"/>
-      <c r="U12" s="158"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-    </row>
-    <row r="13" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="173">
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="136"/>
+    </row>
+    <row r="13" spans="1:26" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="151">
         <v>9</v>
       </c>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="152" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-    </row>
-    <row r="14" spans="1:26" s="172" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="173">
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+    </row>
+    <row r="14" spans="1:26" s="150" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="151">
         <v>10</v>
       </c>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="158"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="158"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="158"/>
-    </row>
-    <row r="15" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173">
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="136"/>
+    </row>
+    <row r="15" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="151">
         <v>11</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="174" t="s">
+      <c r="C15" s="152" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-    </row>
-    <row r="16" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="173">
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+    </row>
+    <row r="16" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="151">
         <v>12</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -2305,17 +2309,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="166" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2597,17 +2601,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2932,107 +2936,107 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="176">
+    <row r="35" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="154">
         <v>8</v>
       </c>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="154" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="177" t="s">
+      <c r="C35" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="178"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
-      <c r="U35" s="151"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="151"/>
-      <c r="X35" s="151"/>
-      <c r="Y35" s="151"/>
-      <c r="Z35" s="151"/>
-    </row>
-    <row r="36" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="181">
+      <c r="D35" s="156"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
+    </row>
+    <row r="36" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="159">
         <v>9</v>
       </c>
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="183"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="151"/>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="151"/>
-      <c r="Z36" s="151"/>
-    </row>
-    <row r="37" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="181">
+      <c r="D36" s="161"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
+      <c r="V36" s="129"/>
+      <c r="W36" s="129"/>
+      <c r="X36" s="129"/>
+      <c r="Y36" s="129"/>
+      <c r="Z36" s="129"/>
+    </row>
+    <row r="37" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="159">
         <v>10</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="159" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="182" t="s">
+      <c r="C37" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="183"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="151"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="129"/>
+      <c r="U37" s="129"/>
+      <c r="V37" s="129"/>
+      <c r="W37" s="129"/>
+      <c r="X37" s="129"/>
+      <c r="Y37" s="129"/>
+      <c r="Z37" s="129"/>
     </row>
     <row r="38" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -3063,17 +3067,17 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="189" t="s">
+      <c r="A39" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="190"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="191"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="171"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3398,107 +3402,107 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="176">
+    <row r="48" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="154">
         <v>8</v>
       </c>
-      <c r="B48" s="176" t="s">
+      <c r="B48" s="154" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="177" t="s">
+      <c r="C48" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="178"/>
-      <c r="E48" s="179"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="151"/>
-      <c r="P48" s="151"/>
-      <c r="Q48" s="151"/>
-      <c r="R48" s="151"/>
-      <c r="S48" s="151"/>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="151"/>
-      <c r="Z48" s="151"/>
-    </row>
-    <row r="49" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="181">
+      <c r="D48" s="156"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+    </row>
+    <row r="49" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="159">
         <v>9</v>
       </c>
-      <c r="B49" s="181" t="s">
+      <c r="B49" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="151"/>
-      <c r="R49" s="151"/>
-      <c r="S49" s="151"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-      <c r="V49" s="151"/>
-      <c r="W49" s="151"/>
-      <c r="X49" s="151"/>
-      <c r="Y49" s="151"/>
-      <c r="Z49" s="151"/>
-    </row>
-    <row r="50" spans="1:26" s="175" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="181">
+      <c r="D49" s="161"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="129"/>
+      <c r="T49" s="129"/>
+      <c r="U49" s="129"/>
+      <c r="V49" s="129"/>
+      <c r="W49" s="129"/>
+      <c r="X49" s="129"/>
+      <c r="Y49" s="129"/>
+      <c r="Z49" s="129"/>
+    </row>
+    <row r="50" spans="1:26" s="153" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="159">
         <v>10</v>
       </c>
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="159" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="182" t="s">
+      <c r="C50" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="185"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="151"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151"/>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="151"/>
-      <c r="W50" s="151"/>
-      <c r="X50" s="151"/>
-      <c r="Y50" s="151"/>
-      <c r="Z50" s="151"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="129"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="129"/>
+      <c r="T50" s="129"/>
+      <c r="U50" s="129"/>
+      <c r="V50" s="129"/>
+      <c r="W50" s="129"/>
+      <c r="X50" s="129"/>
+      <c r="Y50" s="129"/>
+      <c r="Z50" s="129"/>
     </row>
     <row r="51" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="104"/>
@@ -3529,17 +3533,17 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="192" t="s">
+      <c r="A52" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="192"/>
-      <c r="C52" s="192"/>
-      <c r="D52" s="192"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="192"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="172"/>
+      <c r="H52" s="172"/>
+      <c r="I52" s="172"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -4037,13 +4041,13 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="193" t="s">
+      <c r="A66" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="194"/>
-      <c r="C66" s="194"/>
-      <c r="D66" s="194"/>
-      <c r="E66" s="194"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="174"/>
+      <c r="E66" s="174"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
@@ -4112,370 +4116,370 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="122">
+    <row r="68" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="176">
         <v>1</v>
       </c>
-      <c r="B68" s="122" t="s">
+      <c r="B68" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="123" t="s">
+      <c r="C68" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="124"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="122" t="s">
+      <c r="D68" s="178"/>
+      <c r="E68" s="179"/>
+      <c r="F68" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="122"/>
-      <c r="H68" s="122" t="s">
+      <c r="G68" s="176"/>
+      <c r="H68" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="122"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="120"/>
-      <c r="M68" s="120"/>
-      <c r="N68" s="120"/>
-      <c r="O68" s="120"/>
-      <c r="P68" s="120"/>
-      <c r="Q68" s="120"/>
-      <c r="R68" s="120"/>
-      <c r="S68" s="120"/>
-      <c r="T68" s="120"/>
-      <c r="U68" s="120"/>
-      <c r="V68" s="120"/>
-      <c r="W68" s="120"/>
-      <c r="X68" s="120"/>
-      <c r="Y68" s="120"/>
-      <c r="Z68" s="120"/>
-    </row>
-    <row r="69" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="126">
+      <c r="I68" s="176"/>
+      <c r="J68" s="180"/>
+      <c r="K68" s="180"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="180"/>
+      <c r="N68" s="180"/>
+      <c r="O68" s="180"/>
+      <c r="P68" s="180"/>
+      <c r="Q68" s="180"/>
+      <c r="R68" s="180"/>
+      <c r="S68" s="180"/>
+      <c r="T68" s="180"/>
+      <c r="U68" s="180"/>
+      <c r="V68" s="180"/>
+      <c r="W68" s="180"/>
+      <c r="X68" s="180"/>
+      <c r="Y68" s="180"/>
+      <c r="Z68" s="180"/>
+    </row>
+    <row r="69" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="182">
         <v>2</v>
       </c>
-      <c r="B69" s="126" t="s">
+      <c r="B69" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="127" t="s">
+      <c r="C69" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="128"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="130"/>
-      <c r="G69" s="126" t="s">
+      <c r="D69" s="184"/>
+      <c r="E69" s="185"/>
+      <c r="F69" s="186"/>
+      <c r="G69" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="126" t="s">
+      <c r="H69" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="I69" s="126"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="120"/>
-      <c r="P69" s="120"/>
-      <c r="Q69" s="120"/>
-      <c r="R69" s="120"/>
-      <c r="S69" s="120"/>
-      <c r="T69" s="120"/>
-      <c r="U69" s="120"/>
-      <c r="V69" s="120"/>
-      <c r="W69" s="120"/>
-      <c r="X69" s="120"/>
-      <c r="Y69" s="120"/>
-      <c r="Z69" s="120"/>
-    </row>
-    <row r="70" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="126">
+      <c r="I69" s="182"/>
+      <c r="J69" s="180"/>
+      <c r="K69" s="180"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="180"/>
+      <c r="N69" s="180"/>
+      <c r="O69" s="180"/>
+      <c r="P69" s="180"/>
+      <c r="Q69" s="180"/>
+      <c r="R69" s="180"/>
+      <c r="S69" s="180"/>
+      <c r="T69" s="180"/>
+      <c r="U69" s="180"/>
+      <c r="V69" s="180"/>
+      <c r="W69" s="180"/>
+      <c r="X69" s="180"/>
+      <c r="Y69" s="180"/>
+      <c r="Z69" s="180"/>
+    </row>
+    <row r="70" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="182">
         <v>3</v>
       </c>
-      <c r="B70" s="126" t="s">
+      <c r="B70" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="127" t="s">
+      <c r="C70" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="131"/>
-      <c r="E70" s="132" t="s">
+      <c r="D70" s="187"/>
+      <c r="E70" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126" t="s">
+      <c r="F70" s="182"/>
+      <c r="G70" s="182"/>
+      <c r="H70" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="126"/>
-      <c r="J70" s="120"/>
-      <c r="K70" s="120"/>
-      <c r="L70" s="120"/>
-      <c r="M70" s="120"/>
-      <c r="N70" s="120"/>
-      <c r="O70" s="120"/>
-      <c r="P70" s="120"/>
-      <c r="Q70" s="120"/>
-      <c r="R70" s="120"/>
-      <c r="S70" s="120"/>
-      <c r="T70" s="120"/>
-      <c r="U70" s="120"/>
-      <c r="V70" s="120"/>
-      <c r="W70" s="120"/>
-      <c r="X70" s="120"/>
-      <c r="Y70" s="120"/>
-      <c r="Z70" s="120"/>
-    </row>
-    <row r="71" spans="1:26" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="126">
+      <c r="I70" s="182"/>
+      <c r="J70" s="180"/>
+      <c r="K70" s="180"/>
+      <c r="L70" s="180"/>
+      <c r="M70" s="180"/>
+      <c r="N70" s="180"/>
+      <c r="O70" s="180"/>
+      <c r="P70" s="180"/>
+      <c r="Q70" s="180"/>
+      <c r="R70" s="180"/>
+      <c r="S70" s="180"/>
+      <c r="T70" s="180"/>
+      <c r="U70" s="180"/>
+      <c r="V70" s="180"/>
+      <c r="W70" s="180"/>
+      <c r="X70" s="180"/>
+      <c r="Y70" s="180"/>
+      <c r="Z70" s="180"/>
+    </row>
+    <row r="71" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="182">
         <v>4</v>
       </c>
-      <c r="B71" s="126" t="s">
+      <c r="B71" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="127" t="s">
+      <c r="C71" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="131">
+      <c r="D71" s="187">
         <v>50</v>
       </c>
-      <c r="E71" s="132"/>
-      <c r="F71" s="130"/>
-      <c r="G71" s="126" t="s">
+      <c r="E71" s="188"/>
+      <c r="F71" s="186"/>
+      <c r="G71" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="H71" s="126" t="s">
+      <c r="H71" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="I71" s="126"/>
-      <c r="J71" s="120"/>
-      <c r="K71" s="120"/>
-      <c r="L71" s="120"/>
-      <c r="M71" s="120"/>
-      <c r="N71" s="120"/>
-      <c r="O71" s="120"/>
-      <c r="P71" s="120"/>
-      <c r="Q71" s="120"/>
-      <c r="R71" s="120"/>
-      <c r="S71" s="120"/>
-      <c r="T71" s="120"/>
-      <c r="U71" s="120"/>
-      <c r="V71" s="120"/>
-      <c r="W71" s="120"/>
-      <c r="X71" s="120"/>
-      <c r="Y71" s="120"/>
-      <c r="Z71" s="120"/>
-    </row>
-    <row r="72" spans="1:26" s="133" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="126">
+      <c r="I71" s="182"/>
+      <c r="J71" s="180"/>
+      <c r="K71" s="180"/>
+      <c r="L71" s="180"/>
+      <c r="M71" s="180"/>
+      <c r="N71" s="180"/>
+      <c r="O71" s="180"/>
+      <c r="P71" s="180"/>
+      <c r="Q71" s="180"/>
+      <c r="R71" s="180"/>
+      <c r="S71" s="180"/>
+      <c r="T71" s="180"/>
+      <c r="U71" s="180"/>
+      <c r="V71" s="180"/>
+      <c r="W71" s="180"/>
+      <c r="X71" s="180"/>
+      <c r="Y71" s="180"/>
+      <c r="Z71" s="180"/>
+    </row>
+    <row r="72" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="182">
         <v>5</v>
       </c>
-      <c r="B72" s="126" t="s">
+      <c r="B72" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="127" t="s">
+      <c r="C72" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="131" t="s">
+      <c r="D72" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="132" t="s">
+      <c r="E72" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="130"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="120"/>
-      <c r="K72" s="120"/>
-      <c r="L72" s="120"/>
-      <c r="M72" s="120"/>
-      <c r="N72" s="120"/>
-      <c r="O72" s="120"/>
-      <c r="P72" s="120"/>
-      <c r="Q72" s="120"/>
-      <c r="R72" s="120"/>
-      <c r="S72" s="120"/>
-      <c r="T72" s="120"/>
-      <c r="U72" s="120"/>
-      <c r="V72" s="120"/>
-      <c r="W72" s="120"/>
-      <c r="X72" s="120"/>
-      <c r="Y72" s="120"/>
-      <c r="Z72" s="120"/>
-    </row>
-    <row r="73" spans="1:26" s="133" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="126">
+      <c r="F72" s="186"/>
+      <c r="G72" s="182"/>
+      <c r="H72" s="182"/>
+      <c r="I72" s="182"/>
+      <c r="J72" s="180"/>
+      <c r="K72" s="180"/>
+      <c r="L72" s="180"/>
+      <c r="M72" s="180"/>
+      <c r="N72" s="180"/>
+      <c r="O72" s="180"/>
+      <c r="P72" s="180"/>
+      <c r="Q72" s="180"/>
+      <c r="R72" s="180"/>
+      <c r="S72" s="180"/>
+      <c r="T72" s="180"/>
+      <c r="U72" s="180"/>
+      <c r="V72" s="180"/>
+      <c r="W72" s="180"/>
+      <c r="X72" s="180"/>
+      <c r="Y72" s="180"/>
+      <c r="Z72" s="180"/>
+    </row>
+    <row r="73" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="182">
         <v>6</v>
       </c>
-      <c r="B73" s="126" t="s">
+      <c r="B73" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="127" t="s">
+      <c r="C73" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="131">
+      <c r="D73" s="187">
         <v>500</v>
       </c>
-      <c r="E73" s="132"/>
-      <c r="F73" s="130"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="120"/>
-      <c r="K73" s="120"/>
-      <c r="L73" s="120"/>
-      <c r="M73" s="120"/>
-      <c r="N73" s="120"/>
-      <c r="O73" s="120"/>
-      <c r="P73" s="120"/>
-      <c r="Q73" s="120"/>
-      <c r="R73" s="120"/>
-      <c r="S73" s="120"/>
-      <c r="T73" s="120"/>
-      <c r="U73" s="120"/>
-      <c r="V73" s="120"/>
-      <c r="W73" s="120"/>
-      <c r="X73" s="120"/>
-      <c r="Y73" s="120"/>
-      <c r="Z73" s="120"/>
-    </row>
-    <row r="74" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="126">
+      <c r="E73" s="188"/>
+      <c r="F73" s="186"/>
+      <c r="G73" s="182"/>
+      <c r="H73" s="182"/>
+      <c r="I73" s="182"/>
+      <c r="J73" s="180"/>
+      <c r="K73" s="180"/>
+      <c r="L73" s="180"/>
+      <c r="M73" s="180"/>
+      <c r="N73" s="180"/>
+      <c r="O73" s="180"/>
+      <c r="P73" s="180"/>
+      <c r="Q73" s="180"/>
+      <c r="R73" s="180"/>
+      <c r="S73" s="180"/>
+      <c r="T73" s="180"/>
+      <c r="U73" s="180"/>
+      <c r="V73" s="180"/>
+      <c r="W73" s="180"/>
+      <c r="X73" s="180"/>
+      <c r="Y73" s="180"/>
+      <c r="Z73" s="180"/>
+    </row>
+    <row r="74" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="182">
         <v>7</v>
       </c>
-      <c r="B74" s="126" t="s">
+      <c r="B74" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="127" t="s">
+      <c r="C74" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="131">
+      <c r="D74" s="187">
         <v>20</v>
       </c>
-      <c r="E74" s="132"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="126" t="s">
+      <c r="E74" s="188"/>
+      <c r="F74" s="186"/>
+      <c r="G74" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="H74" s="126" t="s">
+      <c r="H74" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="I74" s="126"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
-      <c r="L74" s="134"/>
-      <c r="M74" s="134"/>
-      <c r="N74" s="134"/>
-      <c r="O74" s="134"/>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="134"/>
-      <c r="R74" s="134"/>
-      <c r="S74" s="134"/>
-      <c r="T74" s="134"/>
-      <c r="U74" s="134"/>
-      <c r="V74" s="134"/>
-      <c r="W74" s="134"/>
-      <c r="X74" s="134"/>
-      <c r="Y74" s="134"/>
-      <c r="Z74" s="134"/>
-    </row>
-    <row r="75" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="126">
+      <c r="I74" s="182"/>
+      <c r="J74" s="190"/>
+      <c r="K74" s="190"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="190"/>
+      <c r="O74" s="190"/>
+      <c r="P74" s="190"/>
+      <c r="Q74" s="190"/>
+      <c r="R74" s="190"/>
+      <c r="S74" s="190"/>
+      <c r="T74" s="190"/>
+      <c r="U74" s="190"/>
+      <c r="V74" s="190"/>
+      <c r="W74" s="190"/>
+      <c r="X74" s="190"/>
+      <c r="Y74" s="190"/>
+      <c r="Z74" s="190"/>
+    </row>
+    <row r="75" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="182">
         <v>8</v>
       </c>
-      <c r="B75" s="126" t="s">
+      <c r="B75" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="127" t="s">
+      <c r="C75" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="131">
+      <c r="D75" s="187">
         <v>50</v>
       </c>
-      <c r="E75" s="132"/>
-      <c r="F75" s="130" t="s">
+      <c r="E75" s="188"/>
+      <c r="F75" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126" t="s">
+      <c r="G75" s="182"/>
+      <c r="H75" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="I75" s="126"/>
-      <c r="J75" s="134"/>
-      <c r="K75" s="134"/>
-      <c r="L75" s="134"/>
-      <c r="M75" s="134"/>
-      <c r="N75" s="134"/>
-      <c r="O75" s="134"/>
-      <c r="P75" s="134"/>
-      <c r="Q75" s="134"/>
-      <c r="R75" s="134"/>
-      <c r="S75" s="134"/>
-      <c r="T75" s="134"/>
-      <c r="U75" s="134"/>
-      <c r="V75" s="134"/>
-      <c r="W75" s="134"/>
-      <c r="X75" s="134"/>
-      <c r="Y75" s="134"/>
-      <c r="Z75" s="134"/>
-    </row>
-    <row r="76" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="126">
+      <c r="I75" s="182"/>
+      <c r="J75" s="190"/>
+      <c r="K75" s="190"/>
+      <c r="L75" s="190"/>
+      <c r="M75" s="190"/>
+      <c r="N75" s="190"/>
+      <c r="O75" s="190"/>
+      <c r="P75" s="190"/>
+      <c r="Q75" s="190"/>
+      <c r="R75" s="190"/>
+      <c r="S75" s="190"/>
+      <c r="T75" s="190"/>
+      <c r="U75" s="190"/>
+      <c r="V75" s="190"/>
+      <c r="W75" s="190"/>
+      <c r="X75" s="190"/>
+      <c r="Y75" s="190"/>
+      <c r="Z75" s="190"/>
+    </row>
+    <row r="76" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="182">
         <v>9</v>
       </c>
-      <c r="B76" s="126" t="s">
+      <c r="B76" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="127" t="s">
+      <c r="C76" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="131">
+      <c r="D76" s="187">
         <v>50</v>
       </c>
-      <c r="E76" s="132"/>
-      <c r="F76" s="130" t="s">
+      <c r="E76" s="188"/>
+      <c r="F76" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126" t="s">
+      <c r="G76" s="182"/>
+      <c r="H76" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="I76" s="126"/>
-      <c r="J76" s="134"/>
-      <c r="K76" s="134"/>
-      <c r="L76" s="134"/>
-      <c r="M76" s="134"/>
-      <c r="N76" s="134"/>
-      <c r="O76" s="134"/>
-      <c r="P76" s="134"/>
-      <c r="Q76" s="134"/>
-      <c r="R76" s="134"/>
-      <c r="S76" s="134"/>
-      <c r="T76" s="134"/>
-      <c r="U76" s="134"/>
-      <c r="V76" s="134"/>
-      <c r="W76" s="134"/>
-      <c r="X76" s="134"/>
-      <c r="Y76" s="134"/>
-      <c r="Z76" s="134"/>
+      <c r="I76" s="182"/>
+      <c r="J76" s="190"/>
+      <c r="K76" s="190"/>
+      <c r="L76" s="190"/>
+      <c r="M76" s="190"/>
+      <c r="N76" s="190"/>
+      <c r="O76" s="190"/>
+      <c r="P76" s="190"/>
+      <c r="Q76" s="190"/>
+      <c r="R76" s="190"/>
+      <c r="S76" s="190"/>
+      <c r="T76" s="190"/>
+      <c r="U76" s="190"/>
+      <c r="V76" s="190"/>
+      <c r="W76" s="190"/>
+      <c r="X76" s="190"/>
+      <c r="Y76" s="190"/>
+      <c r="Z76" s="190"/>
     </row>
     <row r="77" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="136">
+      <c r="A77" s="124">
         <v>10</v>
       </c>
-      <c r="B77" s="136" t="s">
+      <c r="B77" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="137" t="s">
+      <c r="C77" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="138"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="136"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="136"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="128"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="124"/>
       <c r="J77" s="120"/>
       <c r="K77" s="120"/>
       <c r="L77" s="120"/>
@@ -4495,21 +4499,21 @@
       <c r="Z77" s="120"/>
     </row>
     <row r="78" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="136">
-        <v>12</v>
-      </c>
-      <c r="B78" s="136" t="s">
+      <c r="A78" s="124">
+        <v>11</v>
+      </c>
+      <c r="B78" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="137" t="s">
+      <c r="C78" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="138"/>
-      <c r="E78" s="139"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="127"/>
+      <c r="F78" s="128"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
       <c r="J78" s="120"/>
       <c r="K78" s="120"/>
       <c r="L78" s="120"/>
@@ -4529,21 +4533,21 @@
       <c r="Z78" s="120"/>
     </row>
     <row r="79" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="136">
-        <v>13</v>
-      </c>
-      <c r="B79" s="136" t="s">
+      <c r="A79" s="124">
+        <v>12</v>
+      </c>
+      <c r="B79" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="137" t="s">
+      <c r="C79" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="D79" s="138"/>
-      <c r="E79" s="139"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="136"/>
-      <c r="H79" s="136"/>
-      <c r="I79" s="136"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="127"/>
+      <c r="F79" s="128"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="124"/>
       <c r="J79" s="120"/>
       <c r="K79" s="120"/>
       <c r="L79" s="120"/>
@@ -4591,13 +4595,13 @@
       <c r="Z80" s="90"/>
     </row>
     <row r="81" spans="1:26" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="195" t="s">
+      <c r="A81" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="194"/>
-      <c r="C81" s="194"/>
-      <c r="D81" s="194"/>
-      <c r="E81" s="194"/>
+      <c r="B81" s="174"/>
+      <c r="C81" s="174"/>
+      <c r="D81" s="174"/>
+      <c r="E81" s="174"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
       <c r="H81" s="50"/>
@@ -4666,183 +4670,183 @@
       <c r="Y82" s="90"/>
       <c r="Z82" s="90"/>
     </row>
-    <row r="83" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="141">
+    <row r="83" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="192">
         <v>1</v>
       </c>
-      <c r="B83" s="141" t="s">
+      <c r="B83" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="142" t="s">
+      <c r="C83" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="143"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="145" t="s">
+      <c r="D83" s="194"/>
+      <c r="E83" s="195"/>
+      <c r="F83" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="145"/>
-      <c r="H83" s="146" t="s">
+      <c r="G83" s="196"/>
+      <c r="H83" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="145"/>
-      <c r="J83" s="134"/>
-      <c r="K83" s="134"/>
-      <c r="L83" s="134"/>
-      <c r="M83" s="134"/>
-      <c r="N83" s="134"/>
-      <c r="O83" s="134"/>
-      <c r="P83" s="134"/>
-      <c r="Q83" s="134"/>
-      <c r="R83" s="134"/>
-      <c r="S83" s="134"/>
-      <c r="T83" s="134"/>
-      <c r="U83" s="134"/>
-      <c r="V83" s="134"/>
-      <c r="W83" s="134"/>
-      <c r="X83" s="134"/>
-      <c r="Y83" s="134"/>
-      <c r="Z83" s="134"/>
-    </row>
-    <row r="84" spans="1:26" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="147">
+      <c r="I83" s="196"/>
+      <c r="J83" s="190"/>
+      <c r="K83" s="190"/>
+      <c r="L83" s="190"/>
+      <c r="M83" s="190"/>
+      <c r="N83" s="190"/>
+      <c r="O83" s="190"/>
+      <c r="P83" s="190"/>
+      <c r="Q83" s="190"/>
+      <c r="R83" s="190"/>
+      <c r="S83" s="190"/>
+      <c r="T83" s="190"/>
+      <c r="U83" s="190"/>
+      <c r="V83" s="190"/>
+      <c r="W83" s="190"/>
+      <c r="X83" s="190"/>
+      <c r="Y83" s="190"/>
+      <c r="Z83" s="190"/>
+    </row>
+    <row r="84" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="197">
         <v>3</v>
       </c>
-      <c r="B84" s="147" t="s">
+      <c r="B84" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="148" t="s">
+      <c r="C84" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="149"/>
-      <c r="E84" s="150"/>
-      <c r="F84" s="147" t="s">
+      <c r="D84" s="199"/>
+      <c r="E84" s="200"/>
+      <c r="F84" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="G84" s="147"/>
-      <c r="H84" s="136" t="s">
+      <c r="G84" s="197"/>
+      <c r="H84" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="I84" s="147"/>
-      <c r="J84" s="134"/>
-      <c r="K84" s="134"/>
-      <c r="L84" s="134"/>
-      <c r="M84" s="134"/>
-      <c r="N84" s="134"/>
-      <c r="O84" s="134"/>
-      <c r="P84" s="134"/>
-      <c r="Q84" s="134"/>
-      <c r="R84" s="134"/>
-      <c r="S84" s="134"/>
-      <c r="T84" s="134"/>
-      <c r="U84" s="134"/>
-      <c r="V84" s="134"/>
-      <c r="W84" s="134"/>
-      <c r="X84" s="134"/>
-      <c r="Y84" s="134"/>
-      <c r="Z84" s="134"/>
-    </row>
-    <row r="85" spans="1:26" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="147">
+      <c r="I84" s="197"/>
+      <c r="J84" s="190"/>
+      <c r="K84" s="190"/>
+      <c r="L84" s="190"/>
+      <c r="M84" s="190"/>
+      <c r="N84" s="190"/>
+      <c r="O84" s="190"/>
+      <c r="P84" s="190"/>
+      <c r="Q84" s="190"/>
+      <c r="R84" s="190"/>
+      <c r="S84" s="190"/>
+      <c r="T84" s="190"/>
+      <c r="U84" s="190"/>
+      <c r="V84" s="190"/>
+      <c r="W84" s="190"/>
+      <c r="X84" s="190"/>
+      <c r="Y84" s="190"/>
+      <c r="Z84" s="190"/>
+    </row>
+    <row r="85" spans="1:26" s="181" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="197">
         <v>4</v>
       </c>
-      <c r="B85" s="147" t="s">
+      <c r="B85" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="148" t="s">
+      <c r="C85" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="149"/>
-      <c r="E85" s="150"/>
-      <c r="F85" s="147"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="136"/>
-      <c r="I85" s="147"/>
-      <c r="J85" s="151"/>
-      <c r="K85" s="151"/>
-      <c r="L85" s="151"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="151"/>
-      <c r="O85" s="151"/>
-      <c r="P85" s="151"/>
-      <c r="Q85" s="151"/>
-      <c r="R85" s="151"/>
-      <c r="S85" s="151"/>
-      <c r="T85" s="151"/>
-      <c r="U85" s="151"/>
-      <c r="V85" s="151"/>
-      <c r="W85" s="151"/>
-      <c r="X85" s="151"/>
-      <c r="Y85" s="151"/>
-      <c r="Z85" s="151"/>
-    </row>
-    <row r="86" spans="1:26" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="147">
+      <c r="D85" s="199"/>
+      <c r="E85" s="200"/>
+      <c r="F85" s="197"/>
+      <c r="G85" s="197"/>
+      <c r="H85" s="197"/>
+      <c r="I85" s="197"/>
+      <c r="J85" s="201"/>
+      <c r="K85" s="201"/>
+      <c r="L85" s="201"/>
+      <c r="M85" s="201"/>
+      <c r="N85" s="201"/>
+      <c r="O85" s="201"/>
+      <c r="P85" s="201"/>
+      <c r="Q85" s="201"/>
+      <c r="R85" s="201"/>
+      <c r="S85" s="201"/>
+      <c r="T85" s="201"/>
+      <c r="U85" s="201"/>
+      <c r="V85" s="201"/>
+      <c r="W85" s="201"/>
+      <c r="X85" s="201"/>
+      <c r="Y85" s="201"/>
+      <c r="Z85" s="201"/>
+    </row>
+    <row r="86" spans="1:26" s="181" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="197">
         <v>5</v>
       </c>
-      <c r="B86" s="147" t="s">
+      <c r="B86" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="148" t="s">
+      <c r="C86" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="149"/>
-      <c r="E86" s="150"/>
-      <c r="F86" s="147"/>
-      <c r="G86" s="147"/>
-      <c r="H86" s="136"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="151"/>
-      <c r="K86" s="151"/>
-      <c r="L86" s="151"/>
-      <c r="M86" s="151"/>
-      <c r="N86" s="151"/>
-      <c r="O86" s="151"/>
-      <c r="P86" s="151"/>
-      <c r="Q86" s="151"/>
-      <c r="R86" s="151"/>
-      <c r="S86" s="151"/>
-      <c r="T86" s="151"/>
-      <c r="U86" s="151"/>
-      <c r="V86" s="151"/>
-      <c r="W86" s="151"/>
-      <c r="X86" s="151"/>
-      <c r="Y86" s="151"/>
-      <c r="Z86" s="151"/>
-    </row>
-    <row r="87" spans="1:26" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="147">
+      <c r="D86" s="199"/>
+      <c r="E86" s="200"/>
+      <c r="F86" s="197"/>
+      <c r="G86" s="197"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="197"/>
+      <c r="J86" s="201"/>
+      <c r="K86" s="201"/>
+      <c r="L86" s="201"/>
+      <c r="M86" s="201"/>
+      <c r="N86" s="201"/>
+      <c r="O86" s="201"/>
+      <c r="P86" s="201"/>
+      <c r="Q86" s="201"/>
+      <c r="R86" s="201"/>
+      <c r="S86" s="201"/>
+      <c r="T86" s="201"/>
+      <c r="U86" s="201"/>
+      <c r="V86" s="201"/>
+      <c r="W86" s="201"/>
+      <c r="X86" s="201"/>
+      <c r="Y86" s="201"/>
+      <c r="Z86" s="201"/>
+    </row>
+    <row r="87" spans="1:26" s="181" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="197">
         <v>6</v>
       </c>
-      <c r="B87" s="147" t="s">
+      <c r="B87" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="148" t="s">
+      <c r="C87" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="149"/>
-      <c r="E87" s="150"/>
-      <c r="F87" s="147"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="136"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="151"/>
-      <c r="K87" s="151"/>
-      <c r="L87" s="151"/>
-      <c r="M87" s="151"/>
-      <c r="N87" s="151"/>
-      <c r="O87" s="151"/>
-      <c r="P87" s="151"/>
-      <c r="Q87" s="151"/>
-      <c r="R87" s="151"/>
-      <c r="S87" s="151"/>
-      <c r="T87" s="151"/>
-      <c r="U87" s="151"/>
-      <c r="V87" s="151"/>
-      <c r="W87" s="151"/>
-      <c r="X87" s="151"/>
-      <c r="Y87" s="151"/>
-      <c r="Z87" s="151"/>
+      <c r="D87" s="199"/>
+      <c r="E87" s="200"/>
+      <c r="F87" s="197"/>
+      <c r="G87" s="197"/>
+      <c r="H87" s="197"/>
+      <c r="I87" s="197"/>
+      <c r="J87" s="201"/>
+      <c r="K87" s="201"/>
+      <c r="L87" s="201"/>
+      <c r="M87" s="201"/>
+      <c r="N87" s="201"/>
+      <c r="O87" s="201"/>
+      <c r="P87" s="201"/>
+      <c r="Q87" s="201"/>
+      <c r="R87" s="201"/>
+      <c r="S87" s="201"/>
+      <c r="T87" s="201"/>
+      <c r="U87" s="201"/>
+      <c r="V87" s="201"/>
+      <c r="W87" s="201"/>
+      <c r="X87" s="201"/>
+      <c r="Y87" s="201"/>
+      <c r="Z87" s="201"/>
     </row>
     <row r="88" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="54"/>
@@ -4873,13 +4877,13 @@
       <c r="Z88" s="54"/>
     </row>
     <row r="89" spans="1:26" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="187" t="s">
+      <c r="A89" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="188"/>
-      <c r="C89" s="188"/>
-      <c r="D89" s="188"/>
-      <c r="E89" s="188"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="168"/>
+      <c r="E89" s="168"/>
       <c r="F89" s="71"/>
       <c r="G89" s="71"/>
       <c r="H89" s="70"/>
@@ -4948,164 +4952,164 @@
       <c r="Y90" s="101"/>
       <c r="Z90" s="101"/>
     </row>
-    <row r="91" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="152">
+    <row r="91" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="130">
         <v>1</v>
       </c>
-      <c r="B91" s="152" t="s">
+      <c r="B91" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="153" t="s">
+      <c r="C91" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="154"/>
-      <c r="E91" s="155"/>
-      <c r="F91" s="156" t="s">
+      <c r="D91" s="132"/>
+      <c r="E91" s="133"/>
+      <c r="F91" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="156"/>
-      <c r="H91" s="157" t="s">
+      <c r="G91" s="134"/>
+      <c r="H91" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="156"/>
-      <c r="J91" s="158"/>
-      <c r="K91" s="158"/>
-      <c r="L91" s="158"/>
-      <c r="M91" s="158"/>
-      <c r="N91" s="158"/>
-      <c r="O91" s="158"/>
-      <c r="P91" s="158"/>
-      <c r="Q91" s="158"/>
-      <c r="R91" s="158"/>
-      <c r="S91" s="158"/>
-      <c r="T91" s="158"/>
-      <c r="U91" s="158"/>
-      <c r="V91" s="158"/>
-      <c r="W91" s="158"/>
-      <c r="X91" s="158"/>
-      <c r="Y91" s="158"/>
-      <c r="Z91" s="158"/>
-    </row>
-    <row r="92" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="159">
+      <c r="I91" s="134"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="136"/>
+      <c r="L91" s="136"/>
+      <c r="M91" s="136"/>
+      <c r="N91" s="136"/>
+      <c r="O91" s="136"/>
+      <c r="P91" s="136"/>
+      <c r="Q91" s="136"/>
+      <c r="R91" s="136"/>
+      <c r="S91" s="136"/>
+      <c r="T91" s="136"/>
+      <c r="U91" s="136"/>
+      <c r="V91" s="136"/>
+      <c r="W91" s="136"/>
+      <c r="X91" s="136"/>
+      <c r="Y91" s="136"/>
+      <c r="Z91" s="136"/>
+    </row>
+    <row r="92" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="137">
         <v>2</v>
       </c>
-      <c r="B92" s="159" t="s">
+      <c r="B92" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="160" t="s">
+      <c r="C92" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="161"/>
-      <c r="E92" s="162"/>
-      <c r="F92" s="159"/>
-      <c r="G92" s="159"/>
-      <c r="H92" s="163"/>
-      <c r="I92" s="159"/>
-      <c r="J92" s="158"/>
-      <c r="K92" s="158"/>
-      <c r="L92" s="158"/>
-      <c r="M92" s="158"/>
-      <c r="N92" s="158"/>
-      <c r="O92" s="158"/>
-      <c r="P92" s="158"/>
-      <c r="Q92" s="158"/>
-      <c r="R92" s="158"/>
-      <c r="S92" s="158"/>
-      <c r="T92" s="158"/>
-      <c r="U92" s="158"/>
-      <c r="V92" s="158"/>
-      <c r="W92" s="158"/>
-      <c r="X92" s="158"/>
-      <c r="Y92" s="158"/>
-      <c r="Z92" s="158"/>
-    </row>
-    <row r="93" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="159">
+      <c r="D92" s="139"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="141"/>
+      <c r="I92" s="137"/>
+      <c r="J92" s="136"/>
+      <c r="K92" s="136"/>
+      <c r="L92" s="136"/>
+      <c r="M92" s="136"/>
+      <c r="N92" s="136"/>
+      <c r="O92" s="136"/>
+      <c r="P92" s="136"/>
+      <c r="Q92" s="136"/>
+      <c r="R92" s="136"/>
+      <c r="S92" s="136"/>
+      <c r="T92" s="136"/>
+      <c r="U92" s="136"/>
+      <c r="V92" s="136"/>
+      <c r="W92" s="136"/>
+      <c r="X92" s="136"/>
+      <c r="Y92" s="136"/>
+      <c r="Z92" s="136"/>
+    </row>
+    <row r="93" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="137">
         <v>3</v>
       </c>
-      <c r="B93" s="159" t="s">
+      <c r="B93" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="160" t="s">
+      <c r="C93" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="161"/>
-      <c r="E93" s="162" t="s">
+      <c r="D93" s="139"/>
+      <c r="E93" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="F93" s="159"/>
-      <c r="G93" s="159"/>
-      <c r="H93" s="163"/>
-      <c r="I93" s="159"/>
-      <c r="J93" s="158"/>
-      <c r="K93" s="158"/>
-      <c r="L93" s="158"/>
-      <c r="M93" s="158"/>
-      <c r="N93" s="158"/>
-      <c r="O93" s="158"/>
-      <c r="P93" s="158"/>
-      <c r="Q93" s="158"/>
-      <c r="R93" s="158"/>
-      <c r="S93" s="158"/>
-      <c r="T93" s="158"/>
-      <c r="U93" s="158"/>
-      <c r="V93" s="158"/>
-      <c r="W93" s="158"/>
-      <c r="X93" s="158"/>
-      <c r="Y93" s="158"/>
-      <c r="Z93" s="158"/>
-    </row>
-    <row r="94" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="159">
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="141"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="136"/>
+      <c r="K93" s="136"/>
+      <c r="L93" s="136"/>
+      <c r="M93" s="136"/>
+      <c r="N93" s="136"/>
+      <c r="O93" s="136"/>
+      <c r="P93" s="136"/>
+      <c r="Q93" s="136"/>
+      <c r="R93" s="136"/>
+      <c r="S93" s="136"/>
+      <c r="T93" s="136"/>
+      <c r="U93" s="136"/>
+      <c r="V93" s="136"/>
+      <c r="W93" s="136"/>
+      <c r="X93" s="136"/>
+      <c r="Y93" s="136"/>
+      <c r="Z93" s="136"/>
+    </row>
+    <row r="94" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="137">
         <v>4</v>
       </c>
-      <c r="B94" s="159" t="s">
+      <c r="B94" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="160" t="s">
+      <c r="C94" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D94" s="161"/>
-      <c r="E94" s="162"/>
-      <c r="F94" s="159"/>
-      <c r="G94" s="159"/>
-      <c r="H94" s="163"/>
-      <c r="I94" s="159"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="158"/>
-      <c r="L94" s="158"/>
-      <c r="M94" s="158"/>
-      <c r="N94" s="158"/>
-      <c r="O94" s="158"/>
-      <c r="P94" s="158"/>
-      <c r="Q94" s="158"/>
-      <c r="R94" s="158"/>
-      <c r="S94" s="158"/>
-      <c r="T94" s="158"/>
-      <c r="U94" s="158"/>
-      <c r="V94" s="158"/>
-      <c r="W94" s="158"/>
-      <c r="X94" s="158"/>
-      <c r="Y94" s="158"/>
-      <c r="Z94" s="158"/>
+      <c r="D94" s="139"/>
+      <c r="E94" s="140"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="141"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="136"/>
+      <c r="K94" s="136"/>
+      <c r="L94" s="136"/>
+      <c r="M94" s="136"/>
+      <c r="N94" s="136"/>
+      <c r="O94" s="136"/>
+      <c r="P94" s="136"/>
+      <c r="Q94" s="136"/>
+      <c r="R94" s="136"/>
+      <c r="S94" s="136"/>
+      <c r="T94" s="136"/>
+      <c r="U94" s="136"/>
+      <c r="V94" s="136"/>
+      <c r="W94" s="136"/>
+      <c r="X94" s="136"/>
+      <c r="Y94" s="136"/>
+      <c r="Z94" s="136"/>
     </row>
     <row r="95" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="159">
+      <c r="A95" s="137">
         <v>5</v>
       </c>
-      <c r="B95" s="159" t="s">
+      <c r="B95" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="160" t="s">
+      <c r="C95" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D95" s="161"/>
-      <c r="E95" s="162"/>
-      <c r="F95" s="159"/>
-      <c r="G95" s="159"/>
-      <c r="H95" s="163"/>
-      <c r="I95" s="159"/>
+      <c r="D95" s="139"/>
+      <c r="E95" s="140"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="141"/>
+      <c r="I95" s="137"/>
       <c r="J95" s="120"/>
       <c r="K95" s="120"/>
       <c r="L95" s="120"/>
@@ -5125,21 +5129,21 @@
       <c r="Z95" s="120"/>
     </row>
     <row r="96" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="159">
+      <c r="A96" s="137">
         <v>6</v>
       </c>
-      <c r="B96" s="159" t="s">
+      <c r="B96" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="160" t="s">
+      <c r="C96" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="161"/>
-      <c r="E96" s="162"/>
-      <c r="F96" s="159"/>
-      <c r="G96" s="159"/>
-      <c r="H96" s="163"/>
-      <c r="I96" s="159" t="s">
+      <c r="D96" s="139"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="141"/>
+      <c r="I96" s="137" t="s">
         <v>121</v>
       </c>
       <c r="J96" s="120"/>
@@ -5161,21 +5165,21 @@
       <c r="Z96" s="120"/>
     </row>
     <row r="97" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="159">
+      <c r="A97" s="137">
         <v>7</v>
       </c>
-      <c r="B97" s="159" t="s">
+      <c r="B97" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="160" t="s">
+      <c r="C97" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="161"/>
-      <c r="E97" s="162"/>
-      <c r="F97" s="159"/>
-      <c r="G97" s="159"/>
-      <c r="H97" s="163"/>
-      <c r="I97" s="159"/>
+      <c r="D97" s="139"/>
+      <c r="E97" s="140"/>
+      <c r="F97" s="137"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="141"/>
+      <c r="I97" s="137"/>
       <c r="J97" s="120"/>
       <c r="K97" s="120"/>
       <c r="L97" s="120"/>
@@ -5223,13 +5227,13 @@
       <c r="Z98" s="90"/>
     </row>
     <row r="99" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="187" t="s">
+      <c r="A99" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="B99" s="188"/>
-      <c r="C99" s="188"/>
-      <c r="D99" s="188"/>
-      <c r="E99" s="188"/>
+      <c r="B99" s="168"/>
+      <c r="C99" s="168"/>
+      <c r="D99" s="168"/>
+      <c r="E99" s="168"/>
       <c r="F99" s="71"/>
       <c r="G99" s="71"/>
       <c r="H99" s="70"/>
@@ -5298,334 +5302,334 @@
       <c r="Y100" s="90"/>
       <c r="Z100" s="90"/>
     </row>
-    <row r="101" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="164">
+    <row r="101" spans="1:26" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="142">
         <v>1</v>
       </c>
-      <c r="B101" s="164" t="s">
+      <c r="B101" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="165" t="s">
+      <c r="C101" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="166"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="168" t="s">
+      <c r="D101" s="144"/>
+      <c r="E101" s="145"/>
+      <c r="F101" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="168"/>
-      <c r="H101" s="169" t="s">
+      <c r="G101" s="146"/>
+      <c r="H101" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="168"/>
-      <c r="J101" s="134"/>
-      <c r="K101" s="134"/>
-      <c r="L101" s="134"/>
-      <c r="M101" s="134"/>
-      <c r="N101" s="134"/>
-      <c r="O101" s="134"/>
-      <c r="P101" s="134"/>
-      <c r="Q101" s="134"/>
-      <c r="R101" s="134"/>
-      <c r="S101" s="134"/>
-      <c r="T101" s="134"/>
-      <c r="U101" s="134"/>
-      <c r="V101" s="134"/>
-      <c r="W101" s="134"/>
-      <c r="X101" s="134"/>
-      <c r="Y101" s="134"/>
-      <c r="Z101" s="134"/>
-    </row>
-    <row r="102" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="159">
+      <c r="I101" s="146"/>
+      <c r="J101" s="122"/>
+      <c r="K101" s="122"/>
+      <c r="L101" s="122"/>
+      <c r="M101" s="122"/>
+      <c r="N101" s="122"/>
+      <c r="O101" s="122"/>
+      <c r="P101" s="122"/>
+      <c r="Q101" s="122"/>
+      <c r="R101" s="122"/>
+      <c r="S101" s="122"/>
+      <c r="T101" s="122"/>
+      <c r="U101" s="122"/>
+      <c r="V101" s="122"/>
+      <c r="W101" s="122"/>
+      <c r="X101" s="122"/>
+      <c r="Y101" s="122"/>
+      <c r="Z101" s="122"/>
+    </row>
+    <row r="102" spans="1:26" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="137">
         <v>2</v>
       </c>
-      <c r="B102" s="159" t="s">
+      <c r="B102" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="160" t="s">
+      <c r="C102" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="161"/>
-      <c r="E102" s="162"/>
-      <c r="F102" s="159"/>
-      <c r="G102" s="159"/>
-      <c r="H102" s="163"/>
-      <c r="I102" s="159"/>
-      <c r="J102" s="134"/>
-      <c r="K102" s="134"/>
-      <c r="L102" s="134"/>
-      <c r="M102" s="134"/>
-      <c r="N102" s="134"/>
-      <c r="O102" s="134"/>
-      <c r="P102" s="134"/>
-      <c r="Q102" s="134"/>
-      <c r="R102" s="134"/>
-      <c r="S102" s="134"/>
-      <c r="T102" s="134"/>
-      <c r="U102" s="134"/>
-      <c r="V102" s="134"/>
-      <c r="W102" s="134"/>
-      <c r="X102" s="134"/>
-      <c r="Y102" s="134"/>
-      <c r="Z102" s="134"/>
-    </row>
-    <row r="103" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="159">
+      <c r="D102" s="139"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="137"/>
+      <c r="H102" s="141"/>
+      <c r="I102" s="137"/>
+      <c r="J102" s="122"/>
+      <c r="K102" s="122"/>
+      <c r="L102" s="122"/>
+      <c r="M102" s="122"/>
+      <c r="N102" s="122"/>
+      <c r="O102" s="122"/>
+      <c r="P102" s="122"/>
+      <c r="Q102" s="122"/>
+      <c r="R102" s="122"/>
+      <c r="S102" s="122"/>
+      <c r="T102" s="122"/>
+      <c r="U102" s="122"/>
+      <c r="V102" s="122"/>
+      <c r="W102" s="122"/>
+      <c r="X102" s="122"/>
+      <c r="Y102" s="122"/>
+      <c r="Z102" s="122"/>
+    </row>
+    <row r="103" spans="1:26" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="137">
         <v>3</v>
       </c>
-      <c r="B103" s="159" t="s">
+      <c r="B103" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="160" t="s">
+      <c r="C103" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D103" s="161"/>
-      <c r="E103" s="162" t="s">
+      <c r="D103" s="139"/>
+      <c r="E103" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="F103" s="159"/>
-      <c r="G103" s="159"/>
-      <c r="H103" s="163"/>
-      <c r="I103" s="159"/>
-      <c r="J103" s="134"/>
-      <c r="K103" s="134"/>
-      <c r="L103" s="134"/>
-      <c r="M103" s="134"/>
-      <c r="N103" s="134"/>
-      <c r="O103" s="134"/>
-      <c r="P103" s="134"/>
-      <c r="Q103" s="134"/>
-      <c r="R103" s="134"/>
-      <c r="S103" s="134"/>
-      <c r="T103" s="134"/>
-      <c r="U103" s="134"/>
-      <c r="V103" s="134"/>
-      <c r="W103" s="134"/>
-      <c r="X103" s="134"/>
-      <c r="Y103" s="134"/>
-      <c r="Z103" s="134"/>
-    </row>
-    <row r="104" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="159">
+      <c r="F103" s="137"/>
+      <c r="G103" s="137"/>
+      <c r="H103" s="141"/>
+      <c r="I103" s="137"/>
+      <c r="J103" s="122"/>
+      <c r="K103" s="122"/>
+      <c r="L103" s="122"/>
+      <c r="M103" s="122"/>
+      <c r="N103" s="122"/>
+      <c r="O103" s="122"/>
+      <c r="P103" s="122"/>
+      <c r="Q103" s="122"/>
+      <c r="R103" s="122"/>
+      <c r="S103" s="122"/>
+      <c r="T103" s="122"/>
+      <c r="U103" s="122"/>
+      <c r="V103" s="122"/>
+      <c r="W103" s="122"/>
+      <c r="X103" s="122"/>
+      <c r="Y103" s="122"/>
+      <c r="Z103" s="122"/>
+    </row>
+    <row r="104" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="137">
         <v>4</v>
       </c>
-      <c r="B104" s="159" t="s">
+      <c r="B104" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="160" t="s">
+      <c r="C104" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D104" s="161"/>
-      <c r="E104" s="162"/>
-      <c r="F104" s="159"/>
-      <c r="G104" s="159"/>
-      <c r="H104" s="163"/>
-      <c r="I104" s="159"/>
-      <c r="J104" s="158"/>
-      <c r="K104" s="158"/>
-      <c r="L104" s="158"/>
-      <c r="M104" s="158"/>
-      <c r="N104" s="158"/>
-      <c r="O104" s="158"/>
-      <c r="P104" s="158"/>
-      <c r="Q104" s="158"/>
-      <c r="R104" s="158"/>
-      <c r="S104" s="158"/>
-      <c r="T104" s="158"/>
-      <c r="U104" s="158"/>
-      <c r="V104" s="158"/>
-      <c r="W104" s="158"/>
-      <c r="X104" s="158"/>
-      <c r="Y104" s="158"/>
-      <c r="Z104" s="158"/>
-    </row>
-    <row r="105" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="159">
+      <c r="D104" s="139"/>
+      <c r="E104" s="140"/>
+      <c r="F104" s="137"/>
+      <c r="G104" s="137"/>
+      <c r="H104" s="141"/>
+      <c r="I104" s="137"/>
+      <c r="J104" s="136"/>
+      <c r="K104" s="136"/>
+      <c r="L104" s="136"/>
+      <c r="M104" s="136"/>
+      <c r="N104" s="136"/>
+      <c r="O104" s="136"/>
+      <c r="P104" s="136"/>
+      <c r="Q104" s="136"/>
+      <c r="R104" s="136"/>
+      <c r="S104" s="136"/>
+      <c r="T104" s="136"/>
+      <c r="U104" s="136"/>
+      <c r="V104" s="136"/>
+      <c r="W104" s="136"/>
+      <c r="X104" s="136"/>
+      <c r="Y104" s="136"/>
+      <c r="Z104" s="136"/>
+    </row>
+    <row r="105" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="137">
         <v>5</v>
       </c>
-      <c r="B105" s="159" t="s">
+      <c r="B105" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="160" t="s">
+      <c r="C105" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D105" s="161"/>
-      <c r="E105" s="162"/>
-      <c r="F105" s="159"/>
-      <c r="G105" s="159"/>
-      <c r="H105" s="163"/>
-      <c r="I105" s="159"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="158"/>
-      <c r="P105" s="158"/>
-      <c r="Q105" s="158"/>
-      <c r="R105" s="158"/>
-      <c r="S105" s="158"/>
-      <c r="T105" s="158"/>
-      <c r="U105" s="158"/>
-      <c r="V105" s="158"/>
-      <c r="W105" s="158"/>
-      <c r="X105" s="158"/>
-      <c r="Y105" s="158"/>
-      <c r="Z105" s="158"/>
-    </row>
-    <row r="106" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="159">
+      <c r="D105" s="139"/>
+      <c r="E105" s="140"/>
+      <c r="F105" s="137"/>
+      <c r="G105" s="137"/>
+      <c r="H105" s="141"/>
+      <c r="I105" s="137"/>
+      <c r="J105" s="136"/>
+      <c r="K105" s="136"/>
+      <c r="L105" s="136"/>
+      <c r="M105" s="136"/>
+      <c r="N105" s="136"/>
+      <c r="O105" s="136"/>
+      <c r="P105" s="136"/>
+      <c r="Q105" s="136"/>
+      <c r="R105" s="136"/>
+      <c r="S105" s="136"/>
+      <c r="T105" s="136"/>
+      <c r="U105" s="136"/>
+      <c r="V105" s="136"/>
+      <c r="W105" s="136"/>
+      <c r="X105" s="136"/>
+      <c r="Y105" s="136"/>
+      <c r="Z105" s="136"/>
+    </row>
+    <row r="106" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="137">
         <v>6</v>
       </c>
-      <c r="B106" s="159" t="s">
+      <c r="B106" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="160" t="s">
+      <c r="C106" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="161"/>
-      <c r="E106" s="162"/>
-      <c r="F106" s="159"/>
-      <c r="G106" s="159"/>
-      <c r="H106" s="163"/>
-      <c r="I106" s="159" t="s">
+      <c r="D106" s="139"/>
+      <c r="E106" s="140"/>
+      <c r="F106" s="137"/>
+      <c r="G106" s="137"/>
+      <c r="H106" s="141"/>
+      <c r="I106" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="J106" s="158"/>
-      <c r="K106" s="158"/>
-      <c r="L106" s="158"/>
-      <c r="M106" s="158"/>
-      <c r="N106" s="158"/>
-      <c r="O106" s="158"/>
-      <c r="P106" s="158"/>
-      <c r="Q106" s="158"/>
-      <c r="R106" s="158"/>
-      <c r="S106" s="158"/>
-      <c r="T106" s="158"/>
-      <c r="U106" s="158"/>
-      <c r="V106" s="158"/>
-      <c r="W106" s="158"/>
-      <c r="X106" s="158"/>
-      <c r="Y106" s="158"/>
-      <c r="Z106" s="158"/>
-    </row>
-    <row r="107" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="159">
+      <c r="J106" s="136"/>
+      <c r="K106" s="136"/>
+      <c r="L106" s="136"/>
+      <c r="M106" s="136"/>
+      <c r="N106" s="136"/>
+      <c r="O106" s="136"/>
+      <c r="P106" s="136"/>
+      <c r="Q106" s="136"/>
+      <c r="R106" s="136"/>
+      <c r="S106" s="136"/>
+      <c r="T106" s="136"/>
+      <c r="U106" s="136"/>
+      <c r="V106" s="136"/>
+      <c r="W106" s="136"/>
+      <c r="X106" s="136"/>
+      <c r="Y106" s="136"/>
+      <c r="Z106" s="136"/>
+    </row>
+    <row r="107" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="137">
         <v>7</v>
       </c>
-      <c r="B107" s="159" t="s">
+      <c r="B107" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="160" t="s">
+      <c r="C107" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="161"/>
-      <c r="E107" s="162"/>
-      <c r="F107" s="159"/>
-      <c r="G107" s="159"/>
-      <c r="H107" s="163"/>
-      <c r="I107" s="159"/>
-      <c r="J107" s="158"/>
-      <c r="K107" s="158"/>
-      <c r="L107" s="158"/>
-      <c r="M107" s="158"/>
-      <c r="N107" s="158"/>
-      <c r="O107" s="158"/>
-      <c r="P107" s="158"/>
-      <c r="Q107" s="158"/>
-      <c r="R107" s="158"/>
-      <c r="S107" s="158"/>
-      <c r="T107" s="158"/>
-      <c r="U107" s="158"/>
-      <c r="V107" s="158"/>
-      <c r="W107" s="158"/>
-      <c r="X107" s="158"/>
-      <c r="Y107" s="158"/>
-      <c r="Z107" s="158"/>
-    </row>
-    <row r="108" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="159">
+      <c r="D107" s="139"/>
+      <c r="E107" s="140"/>
+      <c r="F107" s="137"/>
+      <c r="G107" s="137"/>
+      <c r="H107" s="141"/>
+      <c r="I107" s="137"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="136"/>
+      <c r="L107" s="136"/>
+      <c r="M107" s="136"/>
+      <c r="N107" s="136"/>
+      <c r="O107" s="136"/>
+      <c r="P107" s="136"/>
+      <c r="Q107" s="136"/>
+      <c r="R107" s="136"/>
+      <c r="S107" s="136"/>
+      <c r="T107" s="136"/>
+      <c r="U107" s="136"/>
+      <c r="V107" s="136"/>
+      <c r="W107" s="136"/>
+      <c r="X107" s="136"/>
+      <c r="Y107" s="136"/>
+      <c r="Z107" s="136"/>
+    </row>
+    <row r="108" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="137">
         <v>8</v>
       </c>
-      <c r="B108" s="159" t="s">
+      <c r="B108" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="160" t="s">
+      <c r="C108" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="161"/>
-      <c r="E108" s="162"/>
-      <c r="F108" s="159"/>
-      <c r="G108" s="159" t="s">
+      <c r="D108" s="139"/>
+      <c r="E108" s="140"/>
+      <c r="F108" s="137"/>
+      <c r="G108" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="H108" s="163"/>
-      <c r="I108" s="159"/>
-      <c r="J108" s="158"/>
-      <c r="K108" s="158"/>
-      <c r="L108" s="158"/>
-      <c r="M108" s="158"/>
-      <c r="N108" s="158"/>
-      <c r="O108" s="158"/>
-      <c r="P108" s="158"/>
-      <c r="Q108" s="158"/>
-      <c r="R108" s="158"/>
-      <c r="S108" s="158"/>
-      <c r="T108" s="158"/>
-      <c r="U108" s="158"/>
-      <c r="V108" s="158"/>
-      <c r="W108" s="158"/>
-      <c r="X108" s="158"/>
-      <c r="Y108" s="158"/>
-      <c r="Z108" s="158"/>
-    </row>
-    <row r="109" spans="1:26" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="159"/>
-      <c r="B109" s="159" t="s">
+      <c r="H108" s="141"/>
+      <c r="I108" s="137"/>
+      <c r="J108" s="136"/>
+      <c r="K108" s="136"/>
+      <c r="L108" s="136"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="136"/>
+      <c r="O108" s="136"/>
+      <c r="P108" s="136"/>
+      <c r="Q108" s="136"/>
+      <c r="R108" s="136"/>
+      <c r="S108" s="136"/>
+      <c r="T108" s="136"/>
+      <c r="U108" s="136"/>
+      <c r="V108" s="136"/>
+      <c r="W108" s="136"/>
+      <c r="X108" s="136"/>
+      <c r="Y108" s="136"/>
+      <c r="Z108" s="136"/>
+    </row>
+    <row r="109" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="137"/>
+      <c r="B109" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="160" t="s">
+      <c r="C109" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="D109" s="161"/>
-      <c r="E109" s="162"/>
-      <c r="F109" s="159"/>
-      <c r="G109" s="159"/>
-      <c r="H109" s="163"/>
-      <c r="I109" s="159"/>
-      <c r="J109" s="158"/>
-      <c r="K109" s="158"/>
-      <c r="L109" s="158"/>
-      <c r="M109" s="158"/>
-      <c r="N109" s="158"/>
-      <c r="O109" s="158"/>
-      <c r="P109" s="158"/>
-      <c r="Q109" s="158"/>
-      <c r="R109" s="158"/>
-      <c r="S109" s="158"/>
-      <c r="T109" s="158"/>
-      <c r="U109" s="158"/>
-      <c r="V109" s="158"/>
-      <c r="W109" s="158"/>
-      <c r="X109" s="158"/>
-      <c r="Y109" s="158"/>
-      <c r="Z109" s="158"/>
+      <c r="D109" s="139"/>
+      <c r="E109" s="140"/>
+      <c r="F109" s="137"/>
+      <c r="G109" s="137"/>
+      <c r="H109" s="141"/>
+      <c r="I109" s="137"/>
+      <c r="J109" s="136"/>
+      <c r="K109" s="136"/>
+      <c r="L109" s="136"/>
+      <c r="M109" s="136"/>
+      <c r="N109" s="136"/>
+      <c r="O109" s="136"/>
+      <c r="P109" s="136"/>
+      <c r="Q109" s="136"/>
+      <c r="R109" s="136"/>
+      <c r="S109" s="136"/>
+      <c r="T109" s="136"/>
+      <c r="U109" s="136"/>
+      <c r="V109" s="136"/>
+      <c r="W109" s="136"/>
+      <c r="X109" s="136"/>
+      <c r="Y109" s="136"/>
+      <c r="Z109" s="136"/>
     </row>
     <row r="110" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="159"/>
-      <c r="B110" s="159" t="s">
+      <c r="A110" s="137"/>
+      <c r="B110" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="160" t="s">
+      <c r="C110" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="D110" s="161"/>
-      <c r="E110" s="162"/>
-      <c r="F110" s="159"/>
-      <c r="G110" s="159"/>
-      <c r="H110" s="163"/>
-      <c r="I110" s="159"/>
+      <c r="D110" s="139"/>
+      <c r="E110" s="140"/>
+      <c r="F110" s="137"/>
+      <c r="G110" s="137"/>
+      <c r="H110" s="141"/>
+      <c r="I110" s="137"/>
       <c r="J110" s="120"/>
       <c r="K110" s="120"/>
       <c r="L110" s="120"/>
@@ -5645,19 +5649,19 @@
       <c r="Z110" s="120"/>
     </row>
     <row r="111" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="159"/>
-      <c r="B111" s="159" t="s">
+      <c r="A111" s="137"/>
+      <c r="B111" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="160" t="s">
+      <c r="C111" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="D111" s="161"/>
-      <c r="E111" s="162"/>
-      <c r="F111" s="159"/>
-      <c r="G111" s="159"/>
-      <c r="H111" s="163"/>
-      <c r="I111" s="159"/>
+      <c r="D111" s="139"/>
+      <c r="E111" s="140"/>
+      <c r="F111" s="137"/>
+      <c r="G111" s="137"/>
+      <c r="H111" s="141"/>
+      <c r="I111" s="137"/>
       <c r="J111" s="120"/>
       <c r="K111" s="120"/>
       <c r="L111" s="120"/>
@@ -5677,19 +5681,19 @@
       <c r="Z111" s="120"/>
     </row>
     <row r="112" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="159"/>
-      <c r="B112" s="159" t="s">
+      <c r="A112" s="137"/>
+      <c r="B112" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="160" t="s">
+      <c r="C112" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="161"/>
-      <c r="E112" s="162"/>
-      <c r="F112" s="159"/>
-      <c r="G112" s="159"/>
-      <c r="H112" s="163"/>
-      <c r="I112" s="159"/>
+      <c r="D112" s="139"/>
+      <c r="E112" s="140"/>
+      <c r="F112" s="137"/>
+      <c r="G112" s="137"/>
+      <c r="H112" s="141"/>
+      <c r="I112" s="137"/>
       <c r="J112" s="120"/>
       <c r="K112" s="120"/>
       <c r="L112" s="120"/>
@@ -5737,13 +5741,13 @@
       <c r="Z113" s="90"/>
     </row>
     <row r="114" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="187" t="s">
+      <c r="A114" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="B114" s="188"/>
-      <c r="C114" s="188"/>
-      <c r="D114" s="188"/>
-      <c r="E114" s="188"/>
+      <c r="B114" s="168"/>
+      <c r="C114" s="168"/>
+      <c r="D114" s="168"/>
+      <c r="E114" s="168"/>
       <c r="F114" s="71"/>
       <c r="G114" s="71"/>
       <c r="H114" s="70"/>
@@ -5812,130 +5816,130 @@
       <c r="Y115" s="90"/>
       <c r="Z115" s="90"/>
     </row>
-    <row r="116" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="164">
+    <row r="116" spans="1:26" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="142">
         <v>1</v>
       </c>
-      <c r="B116" s="164" t="s">
+      <c r="B116" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="165" t="s">
+      <c r="C116" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="D116" s="166"/>
-      <c r="E116" s="167"/>
-      <c r="F116" s="168" t="s">
+      <c r="D116" s="144"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="168"/>
-      <c r="H116" s="169" t="s">
+      <c r="G116" s="146"/>
+      <c r="H116" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="I116" s="168"/>
-      <c r="J116" s="134"/>
-      <c r="K116" s="134"/>
-      <c r="L116" s="134"/>
-      <c r="M116" s="134"/>
-      <c r="N116" s="134"/>
-      <c r="O116" s="134"/>
-      <c r="P116" s="134"/>
-      <c r="Q116" s="134"/>
-      <c r="R116" s="134"/>
-      <c r="S116" s="134"/>
-      <c r="T116" s="134"/>
-      <c r="U116" s="134"/>
-      <c r="V116" s="134"/>
-      <c r="W116" s="134"/>
-      <c r="X116" s="134"/>
-      <c r="Y116" s="134"/>
-      <c r="Z116" s="134"/>
-    </row>
-    <row r="117" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="159">
+      <c r="I116" s="146"/>
+      <c r="J116" s="122"/>
+      <c r="K116" s="122"/>
+      <c r="L116" s="122"/>
+      <c r="M116" s="122"/>
+      <c r="N116" s="122"/>
+      <c r="O116" s="122"/>
+      <c r="P116" s="122"/>
+      <c r="Q116" s="122"/>
+      <c r="R116" s="122"/>
+      <c r="S116" s="122"/>
+      <c r="T116" s="122"/>
+      <c r="U116" s="122"/>
+      <c r="V116" s="122"/>
+      <c r="W116" s="122"/>
+      <c r="X116" s="122"/>
+      <c r="Y116" s="122"/>
+      <c r="Z116" s="122"/>
+    </row>
+    <row r="117" spans="1:26" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="137">
         <v>2</v>
       </c>
-      <c r="B117" s="159" t="s">
+      <c r="B117" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="160" t="s">
+      <c r="C117" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="161"/>
-      <c r="E117" s="162"/>
-      <c r="F117" s="159" t="s">
+      <c r="D117" s="139"/>
+      <c r="E117" s="140"/>
+      <c r="F117" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="G117" s="159"/>
-      <c r="H117" s="163"/>
-      <c r="I117" s="159"/>
-      <c r="J117" s="134"/>
-      <c r="K117" s="134"/>
-      <c r="L117" s="134"/>
-      <c r="M117" s="134"/>
-      <c r="N117" s="134"/>
-      <c r="O117" s="134"/>
-      <c r="P117" s="134"/>
-      <c r="Q117" s="134"/>
-      <c r="R117" s="134"/>
-      <c r="S117" s="134"/>
-      <c r="T117" s="134"/>
-      <c r="U117" s="134"/>
-      <c r="V117" s="134"/>
-      <c r="W117" s="134"/>
-      <c r="X117" s="134"/>
-      <c r="Y117" s="134"/>
-      <c r="Z117" s="134"/>
-    </row>
-    <row r="118" spans="1:26" s="135" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="159">
+      <c r="G117" s="137"/>
+      <c r="H117" s="141"/>
+      <c r="I117" s="137"/>
+      <c r="J117" s="122"/>
+      <c r="K117" s="122"/>
+      <c r="L117" s="122"/>
+      <c r="M117" s="122"/>
+      <c r="N117" s="122"/>
+      <c r="O117" s="122"/>
+      <c r="P117" s="122"/>
+      <c r="Q117" s="122"/>
+      <c r="R117" s="122"/>
+      <c r="S117" s="122"/>
+      <c r="T117" s="122"/>
+      <c r="U117" s="122"/>
+      <c r="V117" s="122"/>
+      <c r="W117" s="122"/>
+      <c r="X117" s="122"/>
+      <c r="Y117" s="122"/>
+      <c r="Z117" s="122"/>
+    </row>
+    <row r="118" spans="1:26" s="123" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="137">
         <v>3</v>
       </c>
-      <c r="B118" s="159" t="s">
+      <c r="B118" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="C118" s="160" t="s">
+      <c r="C118" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="161"/>
-      <c r="E118" s="162"/>
-      <c r="F118" s="159"/>
-      <c r="G118" s="159"/>
-      <c r="H118" s="163"/>
-      <c r="I118" s="159"/>
-      <c r="J118" s="134"/>
-      <c r="K118" s="134"/>
-      <c r="L118" s="134"/>
-      <c r="M118" s="134"/>
-      <c r="N118" s="134"/>
-      <c r="O118" s="134"/>
-      <c r="P118" s="134"/>
-      <c r="Q118" s="134"/>
-      <c r="R118" s="134"/>
-      <c r="S118" s="134"/>
-      <c r="T118" s="134"/>
-      <c r="U118" s="134"/>
-      <c r="V118" s="134"/>
-      <c r="W118" s="134"/>
-      <c r="X118" s="134"/>
-      <c r="Y118" s="134"/>
-      <c r="Z118" s="134"/>
+      <c r="D118" s="139"/>
+      <c r="E118" s="140"/>
+      <c r="F118" s="137"/>
+      <c r="G118" s="137"/>
+      <c r="H118" s="141"/>
+      <c r="I118" s="137"/>
+      <c r="J118" s="122"/>
+      <c r="K118" s="122"/>
+      <c r="L118" s="122"/>
+      <c r="M118" s="122"/>
+      <c r="N118" s="122"/>
+      <c r="O118" s="122"/>
+      <c r="P118" s="122"/>
+      <c r="Q118" s="122"/>
+      <c r="R118" s="122"/>
+      <c r="S118" s="122"/>
+      <c r="T118" s="122"/>
+      <c r="U118" s="122"/>
+      <c r="V118" s="122"/>
+      <c r="W118" s="122"/>
+      <c r="X118" s="122"/>
+      <c r="Y118" s="122"/>
+      <c r="Z118" s="122"/>
     </row>
     <row r="119" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="159">
+      <c r="A119" s="137">
         <v>4</v>
       </c>
-      <c r="B119" s="159" t="s">
+      <c r="B119" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="C119" s="160" t="s">
+      <c r="C119" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="D119" s="161"/>
-      <c r="E119" s="162"/>
-      <c r="F119" s="159"/>
-      <c r="G119" s="159"/>
-      <c r="H119" s="163"/>
-      <c r="I119" s="159"/>
+      <c r="D119" s="139"/>
+      <c r="E119" s="140"/>
+      <c r="F119" s="137"/>
+      <c r="G119" s="137"/>
+      <c r="H119" s="141"/>
+      <c r="I119" s="137"/>
       <c r="J119" s="120"/>
       <c r="K119" s="120"/>
       <c r="L119" s="120"/>
@@ -5955,21 +5959,21 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="159">
+      <c r="A120" s="137">
         <v>5</v>
       </c>
-      <c r="B120" s="159" t="s">
+      <c r="B120" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="C120" s="160" t="s">
+      <c r="C120" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="161"/>
-      <c r="E120" s="162"/>
-      <c r="F120" s="159"/>
-      <c r="G120" s="159"/>
-      <c r="H120" s="163"/>
-      <c r="I120" s="159"/>
+      <c r="D120" s="139"/>
+      <c r="E120" s="140"/>
+      <c r="F120" s="137"/>
+      <c r="G120" s="137"/>
+      <c r="H120" s="141"/>
+      <c r="I120" s="137"/>
       <c r="J120" s="120"/>
       <c r="K120" s="120"/>
       <c r="L120" s="120"/>
@@ -5989,21 +5993,21 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="159">
+      <c r="A121" s="137">
         <v>6</v>
       </c>
-      <c r="B121" s="159" t="s">
+      <c r="B121" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="160" t="s">
+      <c r="C121" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="161"/>
-      <c r="E121" s="162"/>
-      <c r="F121" s="159"/>
-      <c r="G121" s="159"/>
-      <c r="H121" s="163"/>
-      <c r="I121" s="159"/>
+      <c r="D121" s="139"/>
+      <c r="E121" s="140"/>
+      <c r="F121" s="137"/>
+      <c r="G121" s="137"/>
+      <c r="H121" s="141"/>
+      <c r="I121" s="137"/>
       <c r="J121" s="120"/>
       <c r="K121" s="120"/>
       <c r="L121" s="120"/>
@@ -28298,36 +28302,36 @@
       <c r="Z6" s="54"/>
     </row>
     <row r="7" spans="1:26" s="86" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="196">
+      <c r="A7" s="164">
         <v>6</v>
       </c>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
@@ -56649,13 +56653,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
       <c r="H3" s="70"/>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804F51D-3C5F-1E4F-B790-FCFB6928CDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CC05D-9F4D-FA40-AEFC-6EFB37728C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>GETDATE()</t>
   </si>
   <si>
     <t>Check ShippedDate &gt;= CreatedDate</t>
@@ -583,6 +580,9 @@
   <si>
     <t>COLLECTION: Suppliers</t>
   </si>
+  <si>
+    <t>NOW</t>
+  </si>
 </sst>
 </file>
 
@@ -713,7 +713,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,12 +814,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -962,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,12 +1319,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1731,8 +1719,8 @@
   </sheetPr>
   <dimension ref="A2:Z910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A72" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1741,7 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1782,7 +1770,7 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -1864,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1902,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7">
         <v>50</v>
@@ -1940,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7">
         <v>500</v>
@@ -1975,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="149" t="s">
         <v>124</v>
-      </c>
-      <c r="C8" s="149" t="s">
-        <v>125</v>
       </c>
       <c r="D8" s="148"/>
       <c r="E8" s="149"/>
@@ -1986,10 +1974,10 @@
       <c r="G8" s="148"/>
       <c r="H8" s="148"/>
       <c r="I8" s="148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J8" s="136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K8" s="136"/>
       <c r="L8" s="136"/>
@@ -2013,10 +2001,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="152" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="151"/>
       <c r="E9" s="152"/>
@@ -2047,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="152" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="152" t="s">
-        <v>120</v>
       </c>
       <c r="D10" s="151"/>
       <c r="E10" s="152"/>
@@ -2081,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="151" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="152" t="s">
         <v>122</v>
-      </c>
-      <c r="C11" s="152" t="s">
-        <v>123</v>
       </c>
       <c r="D11" s="151"/>
       <c r="E11" s="152"/>
@@ -2115,10 +2103,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="151"/>
       <c r="E12" s="152"/>
@@ -2152,7 +2140,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="151"/>
       <c r="E13" s="152"/>
@@ -2183,10 +2171,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="152" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="151"/>
       <c r="E14" s="152"/>
@@ -2217,10 +2205,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="151"/>
       <c r="E15" s="152"/>
@@ -2251,10 +2239,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="152" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="152"/>
@@ -2309,17 +2297,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="166" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
+      <c r="A18" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2392,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -2430,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="17">
         <v>100</v>
@@ -2466,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="17">
         <v>50</v>
@@ -2504,7 +2492,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="17">
         <v>50</v>
@@ -2544,7 +2532,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="17">
         <v>500</v>
@@ -2601,17 +2589,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
+      <c r="A26" s="164" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="164"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2684,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="24">
         <v>50</v>
@@ -2722,7 +2710,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="28">
         <v>50</v>
@@ -2758,7 +2746,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="28">
         <v>50</v>
@@ -2794,7 +2782,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="28">
         <v>50</v>
@@ -2832,7 +2820,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="28">
         <v>500</v>
@@ -2870,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="110">
         <v>50</v>
@@ -2941,10 +2929,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="154" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="156"/>
       <c r="E35" s="157"/>
@@ -2975,10 +2963,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="159" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="160" t="s">
         <v>138</v>
-      </c>
-      <c r="C36" s="160" t="s">
-        <v>139</v>
       </c>
       <c r="D36" s="161"/>
       <c r="E36" s="162"/>
@@ -3009,10 +2997,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C37" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="161"/>
       <c r="E37" s="162"/>
@@ -3067,17 +3055,17 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="171"/>
+      <c r="A39" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="169"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3150,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="32">
         <v>50</v>
@@ -3188,7 +3176,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="36">
         <v>50</v>
@@ -3224,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="36">
         <v>50</v>
@@ -3260,7 +3248,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="36">
         <v>50</v>
@@ -3298,7 +3286,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="36">
         <v>500</v>
@@ -3336,7 +3324,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="114">
         <v>50</v>
@@ -3407,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="154" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="156"/>
       <c r="E48" s="157"/>
@@ -3441,10 +3429,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="159" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="160" t="s">
         <v>138</v>
-      </c>
-      <c r="C49" s="160" t="s">
-        <v>139</v>
       </c>
       <c r="D49" s="161"/>
       <c r="E49" s="162"/>
@@ -3475,10 +3463,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="161"/>
       <c r="E50" s="162"/>
@@ -3533,17 +3521,17 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="172" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="172"/>
-      <c r="C52" s="172"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="172"/>
-      <c r="F52" s="172"/>
-      <c r="G52" s="172"/>
-      <c r="H52" s="172"/>
-      <c r="I52" s="172"/>
+      <c r="A52" s="170" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3616,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="42"/>
@@ -3654,7 +3642,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="45">
         <v>50</v>
@@ -3737,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I57" s="43"/>
       <c r="J57" s="90"/>
@@ -3802,7 +3790,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="94"/>
       <c r="E59" s="95"/>
@@ -3840,7 +3828,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="94"/>
       <c r="E60" s="95"/>
@@ -3878,7 +3866,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="99" t="s">
         <v>33</v>
@@ -3911,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="117" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="117" t="s">
-        <v>125</v>
       </c>
       <c r="D62" s="118"/>
       <c r="E62" s="117"/>
@@ -3922,7 +3910,7 @@
       <c r="G62" s="116"/>
       <c r="H62" s="119"/>
       <c r="I62" s="116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J62" s="120"/>
       <c r="K62" s="120"/>
@@ -3947,10 +3935,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="118"/>
       <c r="E63" s="117"/>
@@ -3981,10 +3969,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="117" t="s">
         <v>132</v>
-      </c>
-      <c r="C64" s="117" t="s">
-        <v>133</v>
       </c>
       <c r="D64" s="118"/>
       <c r="E64" s="117"/>
@@ -3992,7 +3980,7 @@
       <c r="G64" s="116"/>
       <c r="H64" s="119"/>
       <c r="I64" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J64" s="120"/>
       <c r="K64" s="120"/>
@@ -4041,13 +4029,13 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="174"/>
-      <c r="C66" s="174"/>
-      <c r="D66" s="174"/>
-      <c r="E66" s="174"/>
+      <c r="A66" s="171" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="172"/>
+      <c r="C66" s="172"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="172"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
@@ -4116,363 +4104,363 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="176">
+    <row r="68" spans="1:26" s="179" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="174">
         <v>1</v>
       </c>
-      <c r="B68" s="176" t="s">
+      <c r="B68" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="177" t="s">
+      <c r="C68" s="175" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="176"/>
+      <c r="E68" s="177"/>
+      <c r="F68" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="174"/>
+      <c r="H68" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="174"/>
+      <c r="J68" s="178"/>
+      <c r="K68" s="178"/>
+      <c r="L68" s="178"/>
+      <c r="M68" s="178"/>
+      <c r="N68" s="178"/>
+      <c r="O68" s="178"/>
+      <c r="P68" s="178"/>
+      <c r="Q68" s="178"/>
+      <c r="R68" s="178"/>
+      <c r="S68" s="178"/>
+      <c r="T68" s="178"/>
+      <c r="U68" s="178"/>
+      <c r="V68" s="178"/>
+      <c r="W68" s="178"/>
+      <c r="X68" s="178"/>
+      <c r="Y68" s="178"/>
+      <c r="Z68" s="178"/>
+    </row>
+    <row r="69" spans="1:26" s="179" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="180">
+        <v>2</v>
+      </c>
+      <c r="B69" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="182"/>
+      <c r="E69" s="183"/>
+      <c r="F69" s="184"/>
+      <c r="G69" s="180" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="180" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="180"/>
+      <c r="J69" s="178"/>
+      <c r="K69" s="178"/>
+      <c r="L69" s="178"/>
+      <c r="M69" s="178"/>
+      <c r="N69" s="178"/>
+      <c r="O69" s="178"/>
+      <c r="P69" s="178"/>
+      <c r="Q69" s="178"/>
+      <c r="R69" s="178"/>
+      <c r="S69" s="178"/>
+      <c r="T69" s="178"/>
+      <c r="U69" s="178"/>
+      <c r="V69" s="178"/>
+      <c r="W69" s="178"/>
+      <c r="X69" s="178"/>
+      <c r="Y69" s="178"/>
+      <c r="Z69" s="178"/>
+    </row>
+    <row r="70" spans="1:26" s="179" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="180">
+        <v>3</v>
+      </c>
+      <c r="B70" s="180" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="185"/>
+      <c r="E70" s="186" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="180"/>
+      <c r="G70" s="180"/>
+      <c r="H70" s="180" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="180"/>
+      <c r="J70" s="178"/>
+      <c r="K70" s="178"/>
+      <c r="L70" s="178"/>
+      <c r="M70" s="178"/>
+      <c r="N70" s="178"/>
+      <c r="O70" s="178"/>
+      <c r="P70" s="178"/>
+      <c r="Q70" s="178"/>
+      <c r="R70" s="178"/>
+      <c r="S70" s="178"/>
+      <c r="T70" s="178"/>
+      <c r="U70" s="178"/>
+      <c r="V70" s="178"/>
+      <c r="W70" s="178"/>
+      <c r="X70" s="178"/>
+      <c r="Y70" s="178"/>
+      <c r="Z70" s="178"/>
+    </row>
+    <row r="71" spans="1:26" s="179" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="180">
+        <v>4</v>
+      </c>
+      <c r="B71" s="180" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="178"/>
-      <c r="E68" s="179"/>
-      <c r="F68" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="176"/>
-      <c r="H68" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="176"/>
-      <c r="J68" s="180"/>
-      <c r="K68" s="180"/>
-      <c r="L68" s="180"/>
-      <c r="M68" s="180"/>
-      <c r="N68" s="180"/>
-      <c r="O68" s="180"/>
-      <c r="P68" s="180"/>
-      <c r="Q68" s="180"/>
-      <c r="R68" s="180"/>
-      <c r="S68" s="180"/>
-      <c r="T68" s="180"/>
-      <c r="U68" s="180"/>
-      <c r="V68" s="180"/>
-      <c r="W68" s="180"/>
-      <c r="X68" s="180"/>
-      <c r="Y68" s="180"/>
-      <c r="Z68" s="180"/>
-    </row>
-    <row r="69" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="182">
-        <v>2</v>
-      </c>
-      <c r="B69" s="182" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="183" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="184"/>
-      <c r="E69" s="185"/>
-      <c r="F69" s="186"/>
-      <c r="G69" s="182" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="182" t="s">
-        <v>36</v>
-      </c>
-      <c r="I69" s="182"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="180"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="180"/>
-      <c r="O69" s="180"/>
-      <c r="P69" s="180"/>
-      <c r="Q69" s="180"/>
-      <c r="R69" s="180"/>
-      <c r="S69" s="180"/>
-      <c r="T69" s="180"/>
-      <c r="U69" s="180"/>
-      <c r="V69" s="180"/>
-      <c r="W69" s="180"/>
-      <c r="X69" s="180"/>
-      <c r="Y69" s="180"/>
-      <c r="Z69" s="180"/>
-    </row>
-    <row r="70" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="182">
-        <v>3</v>
-      </c>
-      <c r="B70" s="182" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="183" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="187"/>
-      <c r="E70" s="188" t="s">
+      <c r="D71" s="185">
+        <v>50</v>
+      </c>
+      <c r="E71" s="186"/>
+      <c r="F71" s="184"/>
+      <c r="G71" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="180" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="180"/>
+      <c r="J71" s="178"/>
+      <c r="K71" s="178"/>
+      <c r="L71" s="178"/>
+      <c r="M71" s="178"/>
+      <c r="N71" s="178"/>
+      <c r="O71" s="178"/>
+      <c r="P71" s="178"/>
+      <c r="Q71" s="178"/>
+      <c r="R71" s="178"/>
+      <c r="S71" s="178"/>
+      <c r="T71" s="178"/>
+      <c r="U71" s="178"/>
+      <c r="V71" s="178"/>
+      <c r="W71" s="178"/>
+      <c r="X71" s="178"/>
+      <c r="Y71" s="178"/>
+      <c r="Z71" s="178"/>
+    </row>
+    <row r="72" spans="1:26" s="187" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="180">
+        <v>5</v>
+      </c>
+      <c r="B72" s="180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="185" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="182"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="182" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="182"/>
-      <c r="J70" s="180"/>
-      <c r="K70" s="180"/>
-      <c r="L70" s="180"/>
-      <c r="M70" s="180"/>
-      <c r="N70" s="180"/>
-      <c r="O70" s="180"/>
-      <c r="P70" s="180"/>
-      <c r="Q70" s="180"/>
-      <c r="R70" s="180"/>
-      <c r="S70" s="180"/>
-      <c r="T70" s="180"/>
-      <c r="U70" s="180"/>
-      <c r="V70" s="180"/>
-      <c r="W70" s="180"/>
-      <c r="X70" s="180"/>
-      <c r="Y70" s="180"/>
-      <c r="Z70" s="180"/>
-    </row>
-    <row r="71" spans="1:26" s="181" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="182">
-        <v>4</v>
-      </c>
-      <c r="B71" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="183" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="187">
+      <c r="F72" s="184"/>
+      <c r="G72" s="180"/>
+      <c r="H72" s="180"/>
+      <c r="I72" s="180"/>
+      <c r="J72" s="178"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="178"/>
+      <c r="M72" s="178"/>
+      <c r="N72" s="178"/>
+      <c r="O72" s="178"/>
+      <c r="P72" s="178"/>
+      <c r="Q72" s="178"/>
+      <c r="R72" s="178"/>
+      <c r="S72" s="178"/>
+      <c r="T72" s="178"/>
+      <c r="U72" s="178"/>
+      <c r="V72" s="178"/>
+      <c r="W72" s="178"/>
+      <c r="X72" s="178"/>
+      <c r="Y72" s="178"/>
+      <c r="Z72" s="178"/>
+    </row>
+    <row r="73" spans="1:26" s="187" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="180">
+        <v>6</v>
+      </c>
+      <c r="B73" s="180" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="185">
+        <v>500</v>
+      </c>
+      <c r="E73" s="186"/>
+      <c r="F73" s="184"/>
+      <c r="G73" s="180"/>
+      <c r="H73" s="180"/>
+      <c r="I73" s="180"/>
+      <c r="J73" s="178"/>
+      <c r="K73" s="178"/>
+      <c r="L73" s="178"/>
+      <c r="M73" s="178"/>
+      <c r="N73" s="178"/>
+      <c r="O73" s="178"/>
+      <c r="P73" s="178"/>
+      <c r="Q73" s="178"/>
+      <c r="R73" s="178"/>
+      <c r="S73" s="178"/>
+      <c r="T73" s="178"/>
+      <c r="U73" s="178"/>
+      <c r="V73" s="178"/>
+      <c r="W73" s="178"/>
+      <c r="X73" s="178"/>
+      <c r="Y73" s="178"/>
+      <c r="Z73" s="178"/>
+    </row>
+    <row r="74" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="180">
+        <v>7</v>
+      </c>
+      <c r="B74" s="180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="185">
+        <v>20</v>
+      </c>
+      <c r="E74" s="186"/>
+      <c r="F74" s="184"/>
+      <c r="G74" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="180" t="s">
+        <v>108</v>
+      </c>
+      <c r="I74" s="180"/>
+      <c r="J74" s="188"/>
+      <c r="K74" s="188"/>
+      <c r="L74" s="188"/>
+      <c r="M74" s="188"/>
+      <c r="N74" s="188"/>
+      <c r="O74" s="188"/>
+      <c r="P74" s="188"/>
+      <c r="Q74" s="188"/>
+      <c r="R74" s="188"/>
+      <c r="S74" s="188"/>
+      <c r="T74" s="188"/>
+      <c r="U74" s="188"/>
+      <c r="V74" s="188"/>
+      <c r="W74" s="188"/>
+      <c r="X74" s="188"/>
+      <c r="Y74" s="188"/>
+      <c r="Z74" s="188"/>
+    </row>
+    <row r="75" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="180">
+        <v>8</v>
+      </c>
+      <c r="B75" s="180" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="181" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="185">
         <v>50</v>
       </c>
-      <c r="E71" s="188"/>
-      <c r="F71" s="186"/>
-      <c r="G71" s="182" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="182" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" s="182"/>
-      <c r="J71" s="180"/>
-      <c r="K71" s="180"/>
-      <c r="L71" s="180"/>
-      <c r="M71" s="180"/>
-      <c r="N71" s="180"/>
-      <c r="O71" s="180"/>
-      <c r="P71" s="180"/>
-      <c r="Q71" s="180"/>
-      <c r="R71" s="180"/>
-      <c r="S71" s="180"/>
-      <c r="T71" s="180"/>
-      <c r="U71" s="180"/>
-      <c r="V71" s="180"/>
-      <c r="W71" s="180"/>
-      <c r="X71" s="180"/>
-      <c r="Y71" s="180"/>
-      <c r="Z71" s="180"/>
-    </row>
-    <row r="72" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="182">
-        <v>5</v>
-      </c>
-      <c r="B72" s="182" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="183" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="187" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="188" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="186"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="182"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="180"/>
-      <c r="K72" s="180"/>
-      <c r="L72" s="180"/>
-      <c r="M72" s="180"/>
-      <c r="N72" s="180"/>
-      <c r="O72" s="180"/>
-      <c r="P72" s="180"/>
-      <c r="Q72" s="180"/>
-      <c r="R72" s="180"/>
-      <c r="S72" s="180"/>
-      <c r="T72" s="180"/>
-      <c r="U72" s="180"/>
-      <c r="V72" s="180"/>
-      <c r="W72" s="180"/>
-      <c r="X72" s="180"/>
-      <c r="Y72" s="180"/>
-      <c r="Z72" s="180"/>
-    </row>
-    <row r="73" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="182">
-        <v>6</v>
-      </c>
-      <c r="B73" s="182" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="183" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="187">
-        <v>500</v>
-      </c>
-      <c r="E73" s="188"/>
-      <c r="F73" s="186"/>
-      <c r="G73" s="182"/>
-      <c r="H73" s="182"/>
-      <c r="I73" s="182"/>
-      <c r="J73" s="180"/>
-      <c r="K73" s="180"/>
-      <c r="L73" s="180"/>
-      <c r="M73" s="180"/>
-      <c r="N73" s="180"/>
-      <c r="O73" s="180"/>
-      <c r="P73" s="180"/>
-      <c r="Q73" s="180"/>
-      <c r="R73" s="180"/>
-      <c r="S73" s="180"/>
-      <c r="T73" s="180"/>
-      <c r="U73" s="180"/>
-      <c r="V73" s="180"/>
-      <c r="W73" s="180"/>
-      <c r="X73" s="180"/>
-      <c r="Y73" s="180"/>
-      <c r="Z73" s="180"/>
-    </row>
-    <row r="74" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="182">
-        <v>7</v>
-      </c>
-      <c r="B74" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="183" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="187">
-        <v>20</v>
-      </c>
-      <c r="E74" s="188"/>
-      <c r="F74" s="186"/>
-      <c r="G74" s="182" t="s">
-        <v>43</v>
-      </c>
-      <c r="H74" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="182"/>
-      <c r="J74" s="190"/>
-      <c r="K74" s="190"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="190"/>
-      <c r="O74" s="190"/>
-      <c r="P74" s="190"/>
-      <c r="Q74" s="190"/>
-      <c r="R74" s="190"/>
-      <c r="S74" s="190"/>
-      <c r="T74" s="190"/>
-      <c r="U74" s="190"/>
-      <c r="V74" s="190"/>
-      <c r="W74" s="190"/>
-      <c r="X74" s="190"/>
-      <c r="Y74" s="190"/>
-      <c r="Z74" s="190"/>
-    </row>
-    <row r="75" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="182">
-        <v>8</v>
-      </c>
-      <c r="B75" s="182" t="s">
+      <c r="E75" s="186"/>
+      <c r="F75" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="180"/>
+      <c r="H75" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="187">
+      <c r="I75" s="180"/>
+      <c r="J75" s="188"/>
+      <c r="K75" s="188"/>
+      <c r="L75" s="188"/>
+      <c r="M75" s="188"/>
+      <c r="N75" s="188"/>
+      <c r="O75" s="188"/>
+      <c r="P75" s="188"/>
+      <c r="Q75" s="188"/>
+      <c r="R75" s="188"/>
+      <c r="S75" s="188"/>
+      <c r="T75" s="188"/>
+      <c r="U75" s="188"/>
+      <c r="V75" s="188"/>
+      <c r="W75" s="188"/>
+      <c r="X75" s="188"/>
+      <c r="Y75" s="188"/>
+      <c r="Z75" s="188"/>
+    </row>
+    <row r="76" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="180">
+        <v>9</v>
+      </c>
+      <c r="B76" s="180" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="181" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="185">
         <v>50</v>
       </c>
-      <c r="E75" s="188"/>
-      <c r="F75" s="186" t="s">
+      <c r="E76" s="186"/>
+      <c r="F76" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="182"/>
-      <c r="H75" s="182" t="s">
-        <v>45</v>
-      </c>
-      <c r="I75" s="182"/>
-      <c r="J75" s="190"/>
-      <c r="K75" s="190"/>
-      <c r="L75" s="190"/>
-      <c r="M75" s="190"/>
-      <c r="N75" s="190"/>
-      <c r="O75" s="190"/>
-      <c r="P75" s="190"/>
-      <c r="Q75" s="190"/>
-      <c r="R75" s="190"/>
-      <c r="S75" s="190"/>
-      <c r="T75" s="190"/>
-      <c r="U75" s="190"/>
-      <c r="V75" s="190"/>
-      <c r="W75" s="190"/>
-      <c r="X75" s="190"/>
-      <c r="Y75" s="190"/>
-      <c r="Z75" s="190"/>
-    </row>
-    <row r="76" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="182">
-        <v>9</v>
-      </c>
-      <c r="B76" s="182" t="s">
+      <c r="G76" s="180"/>
+      <c r="H76" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="187">
-        <v>50</v>
-      </c>
-      <c r="E76" s="188"/>
-      <c r="F76" s="186" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="182"/>
-      <c r="H76" s="182" t="s">
-        <v>47</v>
-      </c>
-      <c r="I76" s="182"/>
-      <c r="J76" s="190"/>
-      <c r="K76" s="190"/>
-      <c r="L76" s="190"/>
-      <c r="M76" s="190"/>
-      <c r="N76" s="190"/>
-      <c r="O76" s="190"/>
-      <c r="P76" s="190"/>
-      <c r="Q76" s="190"/>
-      <c r="R76" s="190"/>
-      <c r="S76" s="190"/>
-      <c r="T76" s="190"/>
-      <c r="U76" s="190"/>
-      <c r="V76" s="190"/>
-      <c r="W76" s="190"/>
-      <c r="X76" s="190"/>
-      <c r="Y76" s="190"/>
-      <c r="Z76" s="190"/>
+      <c r="I76" s="180"/>
+      <c r="J76" s="188"/>
+      <c r="K76" s="188"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="188"/>
+      <c r="N76" s="188"/>
+      <c r="O76" s="188"/>
+      <c r="P76" s="188"/>
+      <c r="Q76" s="188"/>
+      <c r="R76" s="188"/>
+      <c r="S76" s="188"/>
+      <c r="T76" s="188"/>
+      <c r="U76" s="188"/>
+      <c r="V76" s="188"/>
+      <c r="W76" s="188"/>
+      <c r="X76" s="188"/>
+      <c r="Y76" s="188"/>
+      <c r="Z76" s="188"/>
     </row>
     <row r="77" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="124">
         <v>10</v>
       </c>
       <c r="B77" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="125" t="s">
         <v>127</v>
-      </c>
-      <c r="C77" s="125" t="s">
-        <v>128</v>
       </c>
       <c r="D77" s="126"/>
       <c r="E77" s="127"/>
@@ -4503,10 +4491,10 @@
         <v>11</v>
       </c>
       <c r="B78" s="124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="126"/>
       <c r="E78" s="127"/>
@@ -4537,10 +4525,10 @@
         <v>12</v>
       </c>
       <c r="B79" s="124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="126"/>
       <c r="E79" s="127"/>
@@ -4595,13 +4583,13 @@
       <c r="Z80" s="90"/>
     </row>
     <row r="81" spans="1:26" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="175" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="174"/>
-      <c r="C81" s="174"/>
-      <c r="D81" s="174"/>
-      <c r="E81" s="174"/>
+      <c r="A81" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="172"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="172"/>
+      <c r="E81" s="172"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
       <c r="H81" s="50"/>
@@ -4670,183 +4658,183 @@
       <c r="Y82" s="90"/>
       <c r="Z82" s="90"/>
     </row>
-    <row r="83" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="192">
+    <row r="83" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="190">
         <v>1</v>
       </c>
-      <c r="B83" s="192" t="s">
+      <c r="B83" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="193" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="194"/>
-      <c r="E83" s="195"/>
-      <c r="F83" s="196" t="s">
+      <c r="C83" s="191" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="192"/>
+      <c r="E83" s="193"/>
+      <c r="F83" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="196"/>
-      <c r="H83" s="192" t="s">
+      <c r="G83" s="194"/>
+      <c r="H83" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="196"/>
-      <c r="J83" s="190"/>
-      <c r="K83" s="190"/>
-      <c r="L83" s="190"/>
-      <c r="M83" s="190"/>
-      <c r="N83" s="190"/>
-      <c r="O83" s="190"/>
-      <c r="P83" s="190"/>
-      <c r="Q83" s="190"/>
-      <c r="R83" s="190"/>
-      <c r="S83" s="190"/>
-      <c r="T83" s="190"/>
-      <c r="U83" s="190"/>
-      <c r="V83" s="190"/>
-      <c r="W83" s="190"/>
-      <c r="X83" s="190"/>
-      <c r="Y83" s="190"/>
-      <c r="Z83" s="190"/>
-    </row>
-    <row r="84" spans="1:26" s="191" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="197">
+      <c r="I83" s="194"/>
+      <c r="J83" s="188"/>
+      <c r="K83" s="188"/>
+      <c r="L83" s="188"/>
+      <c r="M83" s="188"/>
+      <c r="N83" s="188"/>
+      <c r="O83" s="188"/>
+      <c r="P83" s="188"/>
+      <c r="Q83" s="188"/>
+      <c r="R83" s="188"/>
+      <c r="S83" s="188"/>
+      <c r="T83" s="188"/>
+      <c r="U83" s="188"/>
+      <c r="V83" s="188"/>
+      <c r="W83" s="188"/>
+      <c r="X83" s="188"/>
+      <c r="Y83" s="188"/>
+      <c r="Z83" s="188"/>
+    </row>
+    <row r="84" spans="1:26" s="189" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="195">
         <v>3</v>
       </c>
-      <c r="B84" s="197" t="s">
+      <c r="B84" s="195" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="196" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="197"/>
+      <c r="E84" s="198"/>
+      <c r="F84" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="195"/>
+      <c r="H84" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="198" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="199"/>
-      <c r="E84" s="200"/>
-      <c r="F84" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" s="197"/>
-      <c r="H84" s="197" t="s">
+      <c r="I84" s="195"/>
+      <c r="J84" s="188"/>
+      <c r="K84" s="188"/>
+      <c r="L84" s="188"/>
+      <c r="M84" s="188"/>
+      <c r="N84" s="188"/>
+      <c r="O84" s="188"/>
+      <c r="P84" s="188"/>
+      <c r="Q84" s="188"/>
+      <c r="R84" s="188"/>
+      <c r="S84" s="188"/>
+      <c r="T84" s="188"/>
+      <c r="U84" s="188"/>
+      <c r="V84" s="188"/>
+      <c r="W84" s="188"/>
+      <c r="X84" s="188"/>
+      <c r="Y84" s="188"/>
+      <c r="Z84" s="188"/>
+    </row>
+    <row r="85" spans="1:26" s="179" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="195">
+        <v>4</v>
+      </c>
+      <c r="B85" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="I84" s="197"/>
-      <c r="J84" s="190"/>
-      <c r="K84" s="190"/>
-      <c r="L84" s="190"/>
-      <c r="M84" s="190"/>
-      <c r="N84" s="190"/>
-      <c r="O84" s="190"/>
-      <c r="P84" s="190"/>
-      <c r="Q84" s="190"/>
-      <c r="R84" s="190"/>
-      <c r="S84" s="190"/>
-      <c r="T84" s="190"/>
-      <c r="U84" s="190"/>
-      <c r="V84" s="190"/>
-      <c r="W84" s="190"/>
-      <c r="X84" s="190"/>
-      <c r="Y84" s="190"/>
-      <c r="Z84" s="190"/>
-    </row>
-    <row r="85" spans="1:26" s="181" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="197">
-        <v>4</v>
-      </c>
-      <c r="B85" s="197" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="198" t="s">
+      <c r="C85" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="199"/>
-      <c r="E85" s="200"/>
-      <c r="F85" s="197"/>
-      <c r="G85" s="197"/>
-      <c r="H85" s="197"/>
-      <c r="I85" s="197"/>
-      <c r="J85" s="201"/>
-      <c r="K85" s="201"/>
-      <c r="L85" s="201"/>
-      <c r="M85" s="201"/>
-      <c r="N85" s="201"/>
-      <c r="O85" s="201"/>
-      <c r="P85" s="201"/>
-      <c r="Q85" s="201"/>
-      <c r="R85" s="201"/>
-      <c r="S85" s="201"/>
-      <c r="T85" s="201"/>
-      <c r="U85" s="201"/>
-      <c r="V85" s="201"/>
-      <c r="W85" s="201"/>
-      <c r="X85" s="201"/>
-      <c r="Y85" s="201"/>
-      <c r="Z85" s="201"/>
-    </row>
-    <row r="86" spans="1:26" s="181" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="197">
+      <c r="D85" s="197"/>
+      <c r="E85" s="198"/>
+      <c r="F85" s="195"/>
+      <c r="G85" s="195"/>
+      <c r="H85" s="195"/>
+      <c r="I85" s="195"/>
+      <c r="J85" s="199"/>
+      <c r="K85" s="199"/>
+      <c r="L85" s="199"/>
+      <c r="M85" s="199"/>
+      <c r="N85" s="199"/>
+      <c r="O85" s="199"/>
+      <c r="P85" s="199"/>
+      <c r="Q85" s="199"/>
+      <c r="R85" s="199"/>
+      <c r="S85" s="199"/>
+      <c r="T85" s="199"/>
+      <c r="U85" s="199"/>
+      <c r="V85" s="199"/>
+      <c r="W85" s="199"/>
+      <c r="X85" s="199"/>
+      <c r="Y85" s="199"/>
+      <c r="Z85" s="199"/>
+    </row>
+    <row r="86" spans="1:26" s="179" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="195">
         <v>5</v>
       </c>
-      <c r="B86" s="197" t="s">
+      <c r="B86" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="198" t="s">
+      <c r="C86" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="199"/>
-      <c r="E86" s="200"/>
-      <c r="F86" s="197"/>
-      <c r="G86" s="197"/>
-      <c r="H86" s="197"/>
-      <c r="I86" s="197"/>
-      <c r="J86" s="201"/>
-      <c r="K86" s="201"/>
-      <c r="L86" s="201"/>
-      <c r="M86" s="201"/>
-      <c r="N86" s="201"/>
-      <c r="O86" s="201"/>
-      <c r="P86" s="201"/>
-      <c r="Q86" s="201"/>
-      <c r="R86" s="201"/>
-      <c r="S86" s="201"/>
-      <c r="T86" s="201"/>
-      <c r="U86" s="201"/>
-      <c r="V86" s="201"/>
-      <c r="W86" s="201"/>
-      <c r="X86" s="201"/>
-      <c r="Y86" s="201"/>
-      <c r="Z86" s="201"/>
-    </row>
-    <row r="87" spans="1:26" s="181" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="197">
+      <c r="D86" s="197"/>
+      <c r="E86" s="198"/>
+      <c r="F86" s="195"/>
+      <c r="G86" s="195"/>
+      <c r="H86" s="195"/>
+      <c r="I86" s="195"/>
+      <c r="J86" s="199"/>
+      <c r="K86" s="199"/>
+      <c r="L86" s="199"/>
+      <c r="M86" s="199"/>
+      <c r="N86" s="199"/>
+      <c r="O86" s="199"/>
+      <c r="P86" s="199"/>
+      <c r="Q86" s="199"/>
+      <c r="R86" s="199"/>
+      <c r="S86" s="199"/>
+      <c r="T86" s="199"/>
+      <c r="U86" s="199"/>
+      <c r="V86" s="199"/>
+      <c r="W86" s="199"/>
+      <c r="X86" s="199"/>
+      <c r="Y86" s="199"/>
+      <c r="Z86" s="199"/>
+    </row>
+    <row r="87" spans="1:26" s="179" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="195">
         <v>6</v>
       </c>
-      <c r="B87" s="197" t="s">
+      <c r="B87" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="198" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="199"/>
-      <c r="E87" s="200"/>
-      <c r="F87" s="197"/>
-      <c r="G87" s="197"/>
-      <c r="H87" s="197"/>
-      <c r="I87" s="197"/>
-      <c r="J87" s="201"/>
-      <c r="K87" s="201"/>
-      <c r="L87" s="201"/>
-      <c r="M87" s="201"/>
-      <c r="N87" s="201"/>
-      <c r="O87" s="201"/>
-      <c r="P87" s="201"/>
-      <c r="Q87" s="201"/>
-      <c r="R87" s="201"/>
-      <c r="S87" s="201"/>
-      <c r="T87" s="201"/>
-      <c r="U87" s="201"/>
-      <c r="V87" s="201"/>
-      <c r="W87" s="201"/>
-      <c r="X87" s="201"/>
-      <c r="Y87" s="201"/>
-      <c r="Z87" s="201"/>
+      <c r="C87" s="196" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="197"/>
+      <c r="E87" s="198"/>
+      <c r="F87" s="195"/>
+      <c r="G87" s="195"/>
+      <c r="H87" s="195"/>
+      <c r="I87" s="195"/>
+      <c r="J87" s="199"/>
+      <c r="K87" s="199"/>
+      <c r="L87" s="199"/>
+      <c r="M87" s="199"/>
+      <c r="N87" s="199"/>
+      <c r="O87" s="199"/>
+      <c r="P87" s="199"/>
+      <c r="Q87" s="199"/>
+      <c r="R87" s="199"/>
+      <c r="S87" s="199"/>
+      <c r="T87" s="199"/>
+      <c r="U87" s="199"/>
+      <c r="V87" s="199"/>
+      <c r="W87" s="199"/>
+      <c r="X87" s="199"/>
+      <c r="Y87" s="199"/>
+      <c r="Z87" s="199"/>
     </row>
     <row r="88" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="54"/>
@@ -4877,13 +4865,13 @@
       <c r="Z88" s="54"/>
     </row>
     <row r="89" spans="1:26" s="91" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="167" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="168"/>
-      <c r="C89" s="168"/>
-      <c r="D89" s="168"/>
-      <c r="E89" s="168"/>
+      <c r="A89" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="166"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
       <c r="F89" s="71"/>
       <c r="G89" s="71"/>
       <c r="H89" s="70"/>
@@ -4960,7 +4948,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91" s="132"/>
       <c r="E91" s="133"/>
@@ -4995,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="139"/>
       <c r="E92" s="140"/>
@@ -5029,14 +5017,14 @@
         <v>3</v>
       </c>
       <c r="B93" s="137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93" s="139"/>
       <c r="E93" s="140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F93" s="137"/>
       <c r="G93" s="137"/>
@@ -5065,10 +5053,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D94" s="139"/>
       <c r="E94" s="140"/>
@@ -5099,10 +5087,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C95" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
@@ -5133,10 +5121,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="138" t="s">
         <v>119</v>
-      </c>
-      <c r="C96" s="138" t="s">
-        <v>120</v>
       </c>
       <c r="D96" s="139"/>
       <c r="E96" s="140"/>
@@ -5144,7 +5132,7 @@
       <c r="G96" s="137"/>
       <c r="H96" s="141"/>
       <c r="I96" s="137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J96" s="120"/>
       <c r="K96" s="120"/>
@@ -5169,10 +5157,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="138" t="s">
         <v>122</v>
-      </c>
-      <c r="C97" s="138" t="s">
-        <v>123</v>
       </c>
       <c r="D97" s="139"/>
       <c r="E97" s="140"/>
@@ -5227,13 +5215,13 @@
       <c r="Z98" s="90"/>
     </row>
     <row r="99" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="B99" s="168"/>
-      <c r="C99" s="168"/>
-      <c r="D99" s="168"/>
-      <c r="E99" s="168"/>
+      <c r="A99" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="166"/>
+      <c r="C99" s="166"/>
+      <c r="D99" s="166"/>
+      <c r="E99" s="166"/>
       <c r="F99" s="71"/>
       <c r="G99" s="71"/>
       <c r="H99" s="70"/>
@@ -5310,7 +5298,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="144"/>
       <c r="E101" s="145"/>
@@ -5345,10 +5333,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C102" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" s="139"/>
       <c r="E102" s="140"/>
@@ -5379,14 +5367,14 @@
         <v>3</v>
       </c>
       <c r="B103" s="137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D103" s="139"/>
       <c r="E103" s="140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F103" s="137"/>
       <c r="G103" s="137"/>
@@ -5415,10 +5403,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" s="139"/>
       <c r="E104" s="140"/>
@@ -5449,10 +5437,10 @@
         <v>5</v>
       </c>
       <c r="B105" s="137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="139"/>
       <c r="E105" s="140"/>
@@ -5483,10 +5471,10 @@
         <v>6</v>
       </c>
       <c r="B106" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="138" t="s">
         <v>119</v>
-      </c>
-      <c r="C106" s="138" t="s">
-        <v>120</v>
       </c>
       <c r="D106" s="139"/>
       <c r="E106" s="140"/>
@@ -5494,7 +5482,7 @@
       <c r="G106" s="137"/>
       <c r="H106" s="141"/>
       <c r="I106" s="137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J106" s="136"/>
       <c r="K106" s="136"/>
@@ -5519,10 +5507,10 @@
         <v>7</v>
       </c>
       <c r="B107" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="138" t="s">
         <v>122</v>
-      </c>
-      <c r="C107" s="138" t="s">
-        <v>123</v>
       </c>
       <c r="D107" s="139"/>
       <c r="E107" s="140"/>
@@ -5556,13 +5544,13 @@
         <v>34</v>
       </c>
       <c r="C108" s="138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D108" s="139"/>
       <c r="E108" s="140"/>
       <c r="F108" s="137"/>
       <c r="G108" s="137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H108" s="141"/>
       <c r="I108" s="137"/>
@@ -5587,10 +5575,10 @@
     <row r="109" spans="1:26" s="123" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="137"/>
       <c r="B109" s="137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D109" s="139"/>
       <c r="E109" s="140"/>
@@ -5619,10 +5607,10 @@
     <row r="110" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="137"/>
       <c r="B110" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" s="138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" s="139"/>
       <c r="E110" s="140"/>
@@ -5651,10 +5639,10 @@
     <row r="111" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="137"/>
       <c r="B111" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D111" s="139"/>
       <c r="E111" s="140"/>
@@ -5683,10 +5671,10 @@
     <row r="112" spans="1:26" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="137"/>
       <c r="B112" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D112" s="139"/>
       <c r="E112" s="140"/>
@@ -5741,13 +5729,13 @@
       <c r="Z113" s="90"/>
     </row>
     <row r="114" spans="1:26" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="B114" s="168"/>
-      <c r="C114" s="168"/>
-      <c r="D114" s="168"/>
-      <c r="E114" s="168"/>
+      <c r="A114" s="165" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="166"/>
+      <c r="C114" s="166"/>
+      <c r="D114" s="166"/>
+      <c r="E114" s="166"/>
       <c r="F114" s="71"/>
       <c r="G114" s="71"/>
       <c r="H114" s="70"/>
@@ -5824,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D116" s="144"/>
       <c r="E116" s="145"/>
@@ -5862,7 +5850,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D117" s="139"/>
       <c r="E117" s="140"/>
@@ -5895,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D118" s="139"/>
       <c r="E118" s="140"/>
@@ -5929,10 +5917,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="138" t="s">
         <v>138</v>
-      </c>
-      <c r="C119" s="138" t="s">
-        <v>139</v>
       </c>
       <c r="D119" s="139"/>
       <c r="E119" s="140"/>
@@ -5963,10 +5951,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="137" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C120" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D120" s="139"/>
       <c r="E120" s="140"/>
@@ -5997,10 +5985,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="138" t="s">
         <v>140</v>
-      </c>
-      <c r="C121" s="138" t="s">
-        <v>141</v>
       </c>
       <c r="D121" s="139"/>
       <c r="E121" s="140"/>
@@ -28094,8 +28082,8 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28109,14 +28097,14 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -28146,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
@@ -28178,7 +28166,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -28210,7 +28198,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -28242,7 +28230,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -28274,7 +28262,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -28301,44 +28289,44 @@
       <c r="Y6" s="54"/>
       <c r="Z6" s="54"/>
     </row>
-    <row r="7" spans="1:26" s="86" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="164">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="58">
         <v>6</v>
       </c>
-      <c r="B7" s="165" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
+      <c r="B7" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="56" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>53</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
@@ -28370,13 +28358,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
@@ -28403,10 +28391,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="68" t="s">
         <v>174</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>175</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -28438,13 +28426,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
@@ -28474,13 +28462,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
@@ -28510,13 +28498,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>102</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
@@ -28546,13 +28534,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>102</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
@@ -28582,13 +28570,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>102</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -28618,13 +28606,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -28654,13 +28642,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
@@ -28687,10 +28675,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="63" t="s">
         <v>166</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>167</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
@@ -28722,13 +28710,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
@@ -28758,13 +28746,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
@@ -28794,13 +28782,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
@@ -28830,13 +28818,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
@@ -28866,13 +28854,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
@@ -28902,13 +28890,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
@@ -28938,16 +28926,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -28976,13 +28964,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
@@ -29012,13 +29000,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
@@ -29048,13 +29036,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
@@ -29084,13 +29072,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -29120,13 +29108,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
@@ -29156,7 +29144,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
@@ -29188,7 +29176,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
@@ -29220,7 +29208,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
@@ -29252,7 +29240,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
@@ -29284,13 +29272,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
@@ -29320,7 +29308,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
@@ -29352,12 +29340,12 @@
         <v>27</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
@@ -29386,7 +29374,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -29418,12 +29406,12 @@
         <v>29</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
       <c r="E39" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -29452,12 +29440,12 @@
         <v>30</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
       <c r="E40" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -29486,7 +29474,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -29518,7 +29506,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
@@ -29550,7 +29538,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
@@ -29582,7 +29570,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
@@ -56653,13 +56641,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
+      <c r="A3" s="165" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
       <c r="H3" s="70"/>
@@ -56702,7 +56690,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="76"/>
       <c r="E5" s="77"/>
@@ -56723,7 +56711,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="82"/>
       <c r="E6" s="83"/>
@@ -56739,10 +56727,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="83"/>
@@ -56751,7 +56739,7 @@
       <c r="H7" s="84"/>
       <c r="I7" s="80"/>
       <c r="L7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -56759,10 +56747,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="81" t="s">
         <v>144</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>145</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="83"/>
@@ -56776,10 +56764,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="83"/>
@@ -56787,10 +56775,10 @@
       <c r="G9" s="80"/>
       <c r="H9" s="84"/>
       <c r="I9" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L9" s="86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M9" s="87"/>
     </row>
@@ -56804,10 +56792,10 @@
       <c r="G10" s="80"/>
       <c r="H10" s="84"/>
       <c r="I10" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L10" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M10" s="87"/>
     </row>
@@ -56834,36 +56822,36 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="87" t="s">
         <v>162</v>
-      </c>
-      <c r="M14" s="87" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" t="s">
         <v>153</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>154</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>155</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>156</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>157</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>158</v>
       </c>
-      <c r="J15" t="s">
-        <v>159</v>
-      </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M15">
         <v>15</v>
@@ -56871,117 +56859,117 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J18" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I20" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Homeworks/Database Design & Questions.xlsx
+++ b/Homeworks/Database Design & Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/Aptech/nodejs-tutorials/Homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B27E59-EA19-8849-8A30-133B67920AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707F845-4477-454B-99DF-5FB37BECE4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,6 +1350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1376,13 +1383,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2281,17 +2282,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2573,17 +2574,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3039,17 +3040,17 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="180"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="183"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3505,17 +3506,17 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="181"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="184"/>
+      <c r="I52" s="184"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -4013,13 +4014,13 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="182" t="s">
+      <c r="A66" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="183"/>
-      <c r="C66" s="183"/>
-      <c r="D66" s="183"/>
-      <c r="E66" s="183"/>
+      <c r="B66" s="186"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="186"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
@@ -4567,13 +4568,13 @@
       <c r="Z80" s="65"/>
     </row>
     <row r="81" spans="1:26" s="66" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="184" t="s">
+      <c r="A81" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="183"/>
-      <c r="C81" s="183"/>
-      <c r="D81" s="183"/>
-      <c r="E81" s="183"/>
+      <c r="B81" s="186"/>
+      <c r="C81" s="186"/>
+      <c r="D81" s="186"/>
+      <c r="E81" s="186"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
       <c r="H81" s="50"/>
@@ -4849,13 +4850,13 @@
       <c r="Z88" s="54"/>
     </row>
     <row r="89" spans="1:26" s="66" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="176" t="s">
+      <c r="A89" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="177"/>
-      <c r="C89" s="177"/>
-      <c r="D89" s="177"/>
-      <c r="E89" s="177"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="180"/>
+      <c r="D89" s="180"/>
+      <c r="E89" s="180"/>
       <c r="F89" s="58"/>
       <c r="G89" s="58"/>
       <c r="H89" s="57"/>
@@ -5199,13 +5200,13 @@
       <c r="Z98" s="65"/>
     </row>
     <row r="99" spans="1:26" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="176" t="s">
+      <c r="A99" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="177"/>
-      <c r="C99" s="177"/>
-      <c r="D99" s="177"/>
-      <c r="E99" s="177"/>
+      <c r="B99" s="180"/>
+      <c r="C99" s="180"/>
+      <c r="D99" s="180"/>
+      <c r="E99" s="180"/>
       <c r="F99" s="58"/>
       <c r="G99" s="58"/>
       <c r="H99" s="57"/>
@@ -5713,13 +5714,13 @@
       <c r="Z113" s="65"/>
     </row>
     <row r="114" spans="1:26" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="176" t="s">
+      <c r="A114" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="177"/>
-      <c r="C114" s="177"/>
-      <c r="D114" s="177"/>
-      <c r="E114" s="177"/>
+      <c r="B114" s="180"/>
+      <c r="C114" s="180"/>
+      <c r="D114" s="180"/>
+      <c r="E114" s="180"/>
       <c r="F114" s="58"/>
       <c r="G114" s="58"/>
       <c r="H114" s="57"/>
@@ -28066,8 +28067,8 @@
   </sheetPr>
   <dimension ref="A1:Z1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28462,16 +28463,16 @@
       <c r="Z11" s="54"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="176" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="177" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="168"/>
@@ -28606,16 +28607,16 @@
       <c r="Z15" s="54"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="175" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="177" t="s">
         <v>101</v>
       </c>
       <c r="E16" s="168"/>
@@ -28750,16 +28751,16 @@
       <c r="Z19" s="54"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="171" t="s">
+      <c r="A20" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="168" t="s">
+      <c r="C20" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="168" t="s">
+      <c r="D20" s="177" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="168"/>
@@ -28894,16 +28895,16 @@
       <c r="Z23" s="54"/>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="171" t="s">
+      <c r="A24" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="176" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="177" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="168"/>
@@ -29038,16 +29039,16 @@
       <c r="Z27" s="54"/>
     </row>
     <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="164" t="s">
+      <c r="B28" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="168" t="s">
+      <c r="C28" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="168" t="s">
+      <c r="D28" s="177" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="168"/>
@@ -29472,19 +29473,19 @@
       <c r="Z39" s="54"/>
     </row>
     <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="185">
+      <c r="A40" s="175">
         <v>20</v>
       </c>
-      <c r="B40" s="186" t="s">
+      <c r="B40" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="187" t="s">
+      <c r="C40" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="187" t="s">
+      <c r="D40" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="187"/>
+      <c r="E40" s="177"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
